--- a/Covid19_Osaka_AreaNumData.xlsx
+++ b/Covid19_Osaka_AreaNumData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="11">
   <si>
     <t>日付</t>
   </si>
@@ -28,22 +28,22 @@
     <t>累計</t>
   </si>
   <si>
+    <t>北大阪</t>
+  </si>
+  <si>
     <t>大阪市</t>
+  </si>
+  <si>
+    <t>泉州</t>
   </si>
   <si>
     <t>東部大阪</t>
   </si>
   <si>
-    <t>南河内</t>
-  </si>
-  <si>
     <t>その他</t>
   </si>
   <si>
-    <t>泉州</t>
-  </si>
-  <si>
-    <t>北大阪</t>
+    <t>南河内</t>
   </si>
   <si>
     <t>全域</t>
@@ -408,7 +408,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E589"/>
+  <dimension ref="A1:E596"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -439,10 +439,10 @@
         <v>4</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -459,7 +459,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -476,7 +476,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -493,7 +493,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -510,7 +510,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -527,7 +527,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -544,7 +544,7 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -561,7 +561,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -578,7 +578,7 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -612,7 +612,7 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -629,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -646,7 +646,7 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -697,7 +697,7 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -714,7 +714,7 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -731,7 +731,7 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -748,7 +748,7 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -765,7 +765,7 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -782,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -799,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -816,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -850,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -884,7 +884,7 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -901,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -932,10 +932,10 @@
         <v>4</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -949,10 +949,10 @@
         <v>4</v>
       </c>
       <c r="D32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E32">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -969,7 +969,7 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -986,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1000,10 +1000,10 @@
         <v>4</v>
       </c>
       <c r="D35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E35">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1017,10 +1017,10 @@
         <v>4</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1037,7 +1037,7 @@
         <v>2</v>
       </c>
       <c r="E37">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1068,10 +1068,10 @@
         <v>4</v>
       </c>
       <c r="D39">
+        <v>5</v>
+      </c>
+      <c r="E39">
         <v>7</v>
-      </c>
-      <c r="E39">
-        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1085,10 +1085,10 @@
         <v>4</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E40">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1102,10 +1102,10 @@
         <v>4</v>
       </c>
       <c r="D41">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E41">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1136,10 +1136,10 @@
         <v>4</v>
       </c>
       <c r="D43">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E43">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1153,10 +1153,10 @@
         <v>4</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E44">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1170,10 +1170,10 @@
         <v>4</v>
       </c>
       <c r="D45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E45">
-        <v>39</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1187,10 +1187,10 @@
         <v>4</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E46">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1207,7 +1207,7 @@
         <v>3</v>
       </c>
       <c r="E47">
-        <v>42</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1221,10 +1221,10 @@
         <v>4</v>
       </c>
       <c r="D48">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E48">
-        <v>45</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1241,7 +1241,7 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <v>45</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1255,10 +1255,10 @@
         <v>4</v>
       </c>
       <c r="D50">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E50">
-        <v>48</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1272,10 +1272,10 @@
         <v>4</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E51">
-        <v>48</v>
+        <v>31</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1292,7 +1292,7 @@
         <v>1</v>
       </c>
       <c r="E52">
-        <v>49</v>
+        <v>32</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1309,7 +1309,7 @@
         <v>2</v>
       </c>
       <c r="E53">
-        <v>51</v>
+        <v>34</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>51</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1340,10 +1340,10 @@
         <v>4</v>
       </c>
       <c r="D55">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E55">
-        <v>53</v>
+        <v>34</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1357,10 +1357,10 @@
         <v>4</v>
       </c>
       <c r="D56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E56">
-        <v>54</v>
+        <v>34</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1377,7 +1377,7 @@
         <v>3</v>
       </c>
       <c r="E57">
-        <v>57</v>
+        <v>37</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1394,7 +1394,7 @@
         <v>1</v>
       </c>
       <c r="E58">
-        <v>58</v>
+        <v>38</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1411,7 +1411,7 @@
         <v>3</v>
       </c>
       <c r="E59">
-        <v>61</v>
+        <v>41</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1425,10 +1425,10 @@
         <v>4</v>
       </c>
       <c r="D60">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E60">
-        <v>73</v>
+        <v>44</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1442,10 +1442,10 @@
         <v>4</v>
       </c>
       <c r="D61">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E61">
-        <v>81</v>
+        <v>46</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1459,10 +1459,10 @@
         <v>4</v>
       </c>
       <c r="D62">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E62">
-        <v>86</v>
+        <v>49</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1476,10 +1476,10 @@
         <v>4</v>
       </c>
       <c r="D63">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E63">
-        <v>90</v>
+        <v>50</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1493,10 +1493,10 @@
         <v>4</v>
       </c>
       <c r="D64">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E64">
-        <v>103</v>
+        <v>54</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1510,10 +1510,10 @@
         <v>4</v>
       </c>
       <c r="D65">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E65">
-        <v>128</v>
+        <v>57</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1527,10 +1527,10 @@
         <v>4</v>
       </c>
       <c r="D66">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E66">
-        <v>142</v>
+        <v>63</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1544,10 +1544,10 @@
         <v>4</v>
       </c>
       <c r="D67">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="E67">
-        <v>161</v>
+        <v>68</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1561,10 +1561,10 @@
         <v>4</v>
       </c>
       <c r="D68">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E68">
-        <v>182</v>
+        <v>73</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1578,10 +1578,10 @@
         <v>4</v>
       </c>
       <c r="D69">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E69">
-        <v>194</v>
+        <v>74</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1595,10 +1595,10 @@
         <v>4</v>
       </c>
       <c r="D70">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E70">
-        <v>199</v>
+        <v>77</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1612,10 +1612,10 @@
         <v>4</v>
       </c>
       <c r="D71">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E71">
-        <v>223</v>
+        <v>87</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1629,10 +1629,10 @@
         <v>4</v>
       </c>
       <c r="D72">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E72">
-        <v>248</v>
+        <v>97</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1646,10 +1646,10 @@
         <v>4</v>
       </c>
       <c r="D73">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="E73">
-        <v>283</v>
+        <v>109</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1663,10 +1663,10 @@
         <v>4</v>
       </c>
       <c r="D74">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="E74">
-        <v>319</v>
+        <v>118</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1680,10 +1680,10 @@
         <v>4</v>
       </c>
       <c r="D75">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="E75">
-        <v>352</v>
+        <v>127</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1697,10 +1697,10 @@
         <v>4</v>
       </c>
       <c r="D76">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E76">
-        <v>377</v>
+        <v>139</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1714,10 +1714,10 @@
         <v>4</v>
       </c>
       <c r="D77">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E77">
-        <v>386</v>
+        <v>144</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1731,10 +1731,10 @@
         <v>4</v>
       </c>
       <c r="D78">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="E78">
-        <v>422</v>
+        <v>146</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1748,10 +1748,10 @@
         <v>4</v>
       </c>
       <c r="D79">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E79">
-        <v>442</v>
+        <v>173</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1765,10 +1765,10 @@
         <v>4</v>
       </c>
       <c r="D80">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E80">
-        <v>463</v>
+        <v>182</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1782,10 +1782,10 @@
         <v>4</v>
       </c>
       <c r="D81">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E81">
-        <v>490</v>
+        <v>192</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -1799,10 +1799,10 @@
         <v>4</v>
       </c>
       <c r="D82">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="E82">
-        <v>514</v>
+        <v>194</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -1816,10 +1816,10 @@
         <v>4</v>
       </c>
       <c r="D83">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="E83">
-        <v>536</v>
+        <v>196</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1833,10 +1833,10 @@
         <v>4</v>
       </c>
       <c r="D84">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E84">
-        <v>540</v>
+        <v>201</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -1850,10 +1850,10 @@
         <v>4</v>
       </c>
       <c r="D85">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E85">
-        <v>551</v>
+        <v>206</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -1861,16 +1861,16 @@
         <v>84</v>
       </c>
       <c r="B86" s="2">
-        <v>43859</v>
+        <v>43943</v>
       </c>
       <c r="C86" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>213</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -1878,16 +1878,16 @@
         <v>85</v>
       </c>
       <c r="B87" s="2">
-        <v>43860</v>
+        <v>43859</v>
       </c>
       <c r="C87" t="s">
         <v>5</v>
       </c>
       <c r="D87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -1895,7 +1895,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="2">
-        <v>43861</v>
+        <v>43860</v>
       </c>
       <c r="C88" t="s">
         <v>5</v>
@@ -1904,7 +1904,7 @@
         <v>0</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -1912,7 +1912,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="2">
-        <v>43862</v>
+        <v>43861</v>
       </c>
       <c r="C89" t="s">
         <v>5</v>
@@ -1921,7 +1921,7 @@
         <v>0</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -1929,7 +1929,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="2">
-        <v>43863</v>
+        <v>43862</v>
       </c>
       <c r="C90" t="s">
         <v>5</v>
@@ -1938,7 +1938,7 @@
         <v>0</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -1946,7 +1946,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="2">
-        <v>43864</v>
+        <v>43863</v>
       </c>
       <c r="C91" t="s">
         <v>5</v>
@@ -1955,7 +1955,7 @@
         <v>0</v>
       </c>
       <c r="E91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -1963,7 +1963,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="2">
-        <v>43865</v>
+        <v>43864</v>
       </c>
       <c r="C92" t="s">
         <v>5</v>
@@ -1972,7 +1972,7 @@
         <v>0</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -1980,7 +1980,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="2">
-        <v>43866</v>
+        <v>43865</v>
       </c>
       <c r="C93" t="s">
         <v>5</v>
@@ -1989,7 +1989,7 @@
         <v>0</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -1997,7 +1997,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="2">
-        <v>43867</v>
+        <v>43866</v>
       </c>
       <c r="C94" t="s">
         <v>5</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2014,7 +2014,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="2">
-        <v>43868</v>
+        <v>43867</v>
       </c>
       <c r="C95" t="s">
         <v>5</v>
@@ -2023,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2031,7 +2031,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="2">
-        <v>43869</v>
+        <v>43868</v>
       </c>
       <c r="C96" t="s">
         <v>5</v>
@@ -2040,7 +2040,7 @@
         <v>0</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2048,7 +2048,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="2">
-        <v>43870</v>
+        <v>43869</v>
       </c>
       <c r="C97" t="s">
         <v>5</v>
@@ -2057,7 +2057,7 @@
         <v>0</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2065,7 +2065,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="2">
-        <v>43871</v>
+        <v>43870</v>
       </c>
       <c r="C98" t="s">
         <v>5</v>
@@ -2074,7 +2074,7 @@
         <v>0</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2082,7 +2082,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="2">
-        <v>43872</v>
+        <v>43871</v>
       </c>
       <c r="C99" t="s">
         <v>5</v>
@@ -2091,7 +2091,7 @@
         <v>0</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2099,7 +2099,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="2">
-        <v>43873</v>
+        <v>43872</v>
       </c>
       <c r="C100" t="s">
         <v>5</v>
@@ -2108,7 +2108,7 @@
         <v>0</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2116,7 +2116,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="2">
-        <v>43874</v>
+        <v>43873</v>
       </c>
       <c r="C101" t="s">
         <v>5</v>
@@ -2125,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2133,7 +2133,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="2">
-        <v>43875</v>
+        <v>43874</v>
       </c>
       <c r="C102" t="s">
         <v>5</v>
@@ -2142,7 +2142,7 @@
         <v>0</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2150,7 +2150,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="2">
-        <v>43876</v>
+        <v>43875</v>
       </c>
       <c r="C103" t="s">
         <v>5</v>
@@ -2159,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2167,7 +2167,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="2">
-        <v>43877</v>
+        <v>43876</v>
       </c>
       <c r="C104" t="s">
         <v>5</v>
@@ -2176,7 +2176,7 @@
         <v>0</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2184,7 +2184,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="2">
-        <v>43878</v>
+        <v>43877</v>
       </c>
       <c r="C105" t="s">
         <v>5</v>
@@ -2193,7 +2193,7 @@
         <v>0</v>
       </c>
       <c r="E105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2201,7 +2201,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="2">
-        <v>43879</v>
+        <v>43878</v>
       </c>
       <c r="C106" t="s">
         <v>5</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="E106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2218,7 +2218,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="2">
-        <v>43880</v>
+        <v>43879</v>
       </c>
       <c r="C107" t="s">
         <v>5</v>
@@ -2227,7 +2227,7 @@
         <v>0</v>
       </c>
       <c r="E107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2235,7 +2235,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="2">
-        <v>43881</v>
+        <v>43880</v>
       </c>
       <c r="C108" t="s">
         <v>5</v>
@@ -2244,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="E108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2252,7 +2252,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="2">
-        <v>43882</v>
+        <v>43881</v>
       </c>
       <c r="C109" t="s">
         <v>5</v>
@@ -2261,7 +2261,7 @@
         <v>0</v>
       </c>
       <c r="E109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2269,7 +2269,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="2">
-        <v>43883</v>
+        <v>43882</v>
       </c>
       <c r="C110" t="s">
         <v>5</v>
@@ -2278,7 +2278,7 @@
         <v>0</v>
       </c>
       <c r="E110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2286,7 +2286,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="2">
-        <v>43884</v>
+        <v>43883</v>
       </c>
       <c r="C111" t="s">
         <v>5</v>
@@ -2295,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="E111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2303,7 +2303,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="2">
-        <v>43885</v>
+        <v>43884</v>
       </c>
       <c r="C112" t="s">
         <v>5</v>
@@ -2312,7 +2312,7 @@
         <v>0</v>
       </c>
       <c r="E112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2320,7 +2320,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="2">
-        <v>43886</v>
+        <v>43885</v>
       </c>
       <c r="C113" t="s">
         <v>5</v>
@@ -2329,7 +2329,7 @@
         <v>0</v>
       </c>
       <c r="E113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2337,7 +2337,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="2">
-        <v>43887</v>
+        <v>43886</v>
       </c>
       <c r="C114" t="s">
         <v>5</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="E114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2354,7 +2354,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="2">
-        <v>43888</v>
+        <v>43887</v>
       </c>
       <c r="C115" t="s">
         <v>5</v>
@@ -2363,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="E115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2371,16 +2371,16 @@
         <v>114</v>
       </c>
       <c r="B116" s="2">
-        <v>43889</v>
+        <v>43888</v>
       </c>
       <c r="C116" t="s">
         <v>5</v>
       </c>
       <c r="D116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2388,16 +2388,16 @@
         <v>115</v>
       </c>
       <c r="B117" s="2">
-        <v>43890</v>
+        <v>43889</v>
       </c>
       <c r="C117" t="s">
         <v>5</v>
       </c>
       <c r="D117">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E117">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2405,7 +2405,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="2">
-        <v>43891</v>
+        <v>43890</v>
       </c>
       <c r="C118" t="s">
         <v>5</v>
@@ -2414,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="E118">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -2422,7 +2422,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="2">
-        <v>43892</v>
+        <v>43891</v>
       </c>
       <c r="C119" t="s">
         <v>5</v>
@@ -2431,7 +2431,7 @@
         <v>0</v>
       </c>
       <c r="E119">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -2439,16 +2439,16 @@
         <v>118</v>
       </c>
       <c r="B120" s="2">
-        <v>43893</v>
+        <v>43892</v>
       </c>
       <c r="C120" t="s">
         <v>5</v>
       </c>
       <c r="D120">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E120">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -2456,16 +2456,16 @@
         <v>119</v>
       </c>
       <c r="B121" s="2">
-        <v>43894</v>
+        <v>43893</v>
       </c>
       <c r="C121" t="s">
         <v>5</v>
       </c>
       <c r="D121">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E121">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -2473,16 +2473,16 @@
         <v>120</v>
       </c>
       <c r="B122" s="2">
-        <v>43895</v>
+        <v>43894</v>
       </c>
       <c r="C122" t="s">
         <v>5</v>
       </c>
       <c r="D122">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E122">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -2490,7 +2490,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="2">
-        <v>43896</v>
+        <v>43895</v>
       </c>
       <c r="C123" t="s">
         <v>5</v>
@@ -2499,7 +2499,7 @@
         <v>0</v>
       </c>
       <c r="E123">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -2507,16 +2507,16 @@
         <v>122</v>
       </c>
       <c r="B124" s="2">
-        <v>43897</v>
+        <v>43896</v>
       </c>
       <c r="C124" t="s">
         <v>5</v>
       </c>
       <c r="D124">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E124">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2524,16 +2524,16 @@
         <v>123</v>
       </c>
       <c r="B125" s="2">
-        <v>43898</v>
+        <v>43897</v>
       </c>
       <c r="C125" t="s">
         <v>5</v>
       </c>
       <c r="D125">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E125">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -2541,16 +2541,16 @@
         <v>124</v>
       </c>
       <c r="B126" s="2">
-        <v>43899</v>
+        <v>43898</v>
       </c>
       <c r="C126" t="s">
         <v>5</v>
       </c>
       <c r="D126">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E126">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -2558,16 +2558,16 @@
         <v>125</v>
       </c>
       <c r="B127" s="2">
-        <v>43900</v>
+        <v>43899</v>
       </c>
       <c r="C127" t="s">
         <v>5</v>
       </c>
       <c r="D127">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E127">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -2575,16 +2575,16 @@
         <v>126</v>
       </c>
       <c r="B128" s="2">
-        <v>43901</v>
+        <v>43900</v>
       </c>
       <c r="C128" t="s">
         <v>5</v>
       </c>
       <c r="D128">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E128">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -2592,16 +2592,16 @@
         <v>127</v>
       </c>
       <c r="B129" s="2">
-        <v>43902</v>
+        <v>43901</v>
       </c>
       <c r="C129" t="s">
         <v>5</v>
       </c>
       <c r="D129">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E129">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -2609,16 +2609,16 @@
         <v>128</v>
       </c>
       <c r="B130" s="2">
-        <v>43903</v>
+        <v>43902</v>
       </c>
       <c r="C130" t="s">
         <v>5</v>
       </c>
       <c r="D130">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E130">
-        <v>18</v>
+        <v>39</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -2626,16 +2626,16 @@
         <v>129</v>
       </c>
       <c r="B131" s="2">
-        <v>43904</v>
+        <v>43903</v>
       </c>
       <c r="C131" t="s">
         <v>5</v>
       </c>
       <c r="D131">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E131">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -2643,16 +2643,16 @@
         <v>130</v>
       </c>
       <c r="B132" s="2">
-        <v>43905</v>
+        <v>43904</v>
       </c>
       <c r="C132" t="s">
         <v>5</v>
       </c>
       <c r="D132">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E132">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -2660,16 +2660,16 @@
         <v>131</v>
       </c>
       <c r="B133" s="2">
-        <v>43906</v>
+        <v>43905</v>
       </c>
       <c r="C133" t="s">
         <v>5</v>
       </c>
       <c r="D133">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E133">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -2677,7 +2677,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="2">
-        <v>43907</v>
+        <v>43906</v>
       </c>
       <c r="C134" t="s">
         <v>5</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="E134">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -2694,16 +2694,16 @@
         <v>133</v>
       </c>
       <c r="B135" s="2">
-        <v>43908</v>
+        <v>43907</v>
       </c>
       <c r="C135" t="s">
         <v>5</v>
       </c>
       <c r="D135">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E135">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -2711,7 +2711,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="2">
-        <v>43909</v>
+        <v>43908</v>
       </c>
       <c r="C136" t="s">
         <v>5</v>
@@ -2720,7 +2720,7 @@
         <v>0</v>
       </c>
       <c r="E136">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -2728,16 +2728,16 @@
         <v>135</v>
       </c>
       <c r="B137" s="2">
-        <v>43910</v>
+        <v>43909</v>
       </c>
       <c r="C137" t="s">
         <v>5</v>
       </c>
       <c r="D137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E137">
-        <v>23</v>
+        <v>49</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -2745,16 +2745,16 @@
         <v>136</v>
       </c>
       <c r="B138" s="2">
-        <v>43911</v>
+        <v>43910</v>
       </c>
       <c r="C138" t="s">
         <v>5</v>
       </c>
       <c r="D138">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E138">
-        <v>23</v>
+        <v>51</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -2762,16 +2762,16 @@
         <v>137</v>
       </c>
       <c r="B139" s="2">
-        <v>43912</v>
+        <v>43911</v>
       </c>
       <c r="C139" t="s">
         <v>5</v>
       </c>
       <c r="D139">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E139">
-        <v>27</v>
+        <v>51</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -2779,16 +2779,16 @@
         <v>138</v>
       </c>
       <c r="B140" s="2">
-        <v>43913</v>
+        <v>43912</v>
       </c>
       <c r="C140" t="s">
         <v>5</v>
       </c>
       <c r="D140">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E140">
-        <v>27</v>
+        <v>53</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -2796,7 +2796,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="2">
-        <v>43914</v>
+        <v>43913</v>
       </c>
       <c r="C141" t="s">
         <v>5</v>
@@ -2805,7 +2805,7 @@
         <v>1</v>
       </c>
       <c r="E141">
-        <v>28</v>
+        <v>54</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -2813,16 +2813,16 @@
         <v>140</v>
       </c>
       <c r="B142" s="2">
-        <v>43915</v>
+        <v>43914</v>
       </c>
       <c r="C142" t="s">
         <v>5</v>
       </c>
       <c r="D142">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E142">
-        <v>29</v>
+        <v>57</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -2830,7 +2830,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="2">
-        <v>43916</v>
+        <v>43915</v>
       </c>
       <c r="C143" t="s">
         <v>5</v>
@@ -2839,7 +2839,7 @@
         <v>1</v>
       </c>
       <c r="E143">
-        <v>30</v>
+        <v>58</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -2847,16 +2847,16 @@
         <v>142</v>
       </c>
       <c r="B144" s="2">
-        <v>43917</v>
+        <v>43916</v>
       </c>
       <c r="C144" t="s">
         <v>5</v>
       </c>
       <c r="D144">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E144">
-        <v>31</v>
+        <v>61</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -2864,16 +2864,16 @@
         <v>143</v>
       </c>
       <c r="B145" s="2">
-        <v>43918</v>
+        <v>43917</v>
       </c>
       <c r="C145" t="s">
         <v>5</v>
       </c>
       <c r="D145">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E145">
-        <v>33</v>
+        <v>73</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -2881,16 +2881,16 @@
         <v>144</v>
       </c>
       <c r="B146" s="2">
-        <v>43919</v>
+        <v>43918</v>
       </c>
       <c r="C146" t="s">
         <v>5</v>
       </c>
       <c r="D146">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E146">
-        <v>36</v>
+        <v>81</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -2898,16 +2898,16 @@
         <v>145</v>
       </c>
       <c r="B147" s="2">
-        <v>43920</v>
+        <v>43919</v>
       </c>
       <c r="C147" t="s">
         <v>5</v>
       </c>
       <c r="D147">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E147">
-        <v>38</v>
+        <v>86</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -2915,16 +2915,16 @@
         <v>146</v>
       </c>
       <c r="B148" s="2">
-        <v>43921</v>
+        <v>43920</v>
       </c>
       <c r="C148" t="s">
         <v>5</v>
       </c>
       <c r="D148">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E148">
-        <v>47</v>
+        <v>90</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -2932,16 +2932,16 @@
         <v>147</v>
       </c>
       <c r="B149" s="2">
-        <v>43922</v>
+        <v>43921</v>
       </c>
       <c r="C149" t="s">
         <v>5</v>
       </c>
       <c r="D149">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E149">
-        <v>48</v>
+        <v>103</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -2949,16 +2949,16 @@
         <v>148</v>
       </c>
       <c r="B150" s="2">
-        <v>43923</v>
+        <v>43922</v>
       </c>
       <c r="C150" t="s">
         <v>5</v>
       </c>
       <c r="D150">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E150">
-        <v>54</v>
+        <v>128</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -2966,16 +2966,16 @@
         <v>149</v>
       </c>
       <c r="B151" s="2">
-        <v>43924</v>
+        <v>43923</v>
       </c>
       <c r="C151" t="s">
         <v>5</v>
       </c>
       <c r="D151">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E151">
-        <v>59</v>
+        <v>142</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -2983,16 +2983,16 @@
         <v>150</v>
       </c>
       <c r="B152" s="2">
-        <v>43925</v>
+        <v>43924</v>
       </c>
       <c r="C152" t="s">
         <v>5</v>
       </c>
       <c r="D152">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E152">
-        <v>68</v>
+        <v>161</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -3000,16 +3000,16 @@
         <v>151</v>
       </c>
       <c r="B153" s="2">
-        <v>43926</v>
+        <v>43925</v>
       </c>
       <c r="C153" t="s">
         <v>5</v>
       </c>
       <c r="D153">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="E153">
-        <v>69</v>
+        <v>182</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -3017,16 +3017,16 @@
         <v>152</v>
       </c>
       <c r="B154" s="2">
-        <v>43927</v>
+        <v>43926</v>
       </c>
       <c r="C154" t="s">
         <v>5</v>
       </c>
       <c r="D154">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E154">
-        <v>76</v>
+        <v>194</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3034,16 +3034,16 @@
         <v>153</v>
       </c>
       <c r="B155" s="2">
-        <v>43928</v>
+        <v>43927</v>
       </c>
       <c r="C155" t="s">
         <v>5</v>
       </c>
       <c r="D155">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E155">
-        <v>91</v>
+        <v>199</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3051,16 +3051,16 @@
         <v>154</v>
       </c>
       <c r="B156" s="2">
-        <v>43929</v>
+        <v>43928</v>
       </c>
       <c r="C156" t="s">
         <v>5</v>
       </c>
       <c r="D156">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="E156">
-        <v>95</v>
+        <v>223</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3068,16 +3068,16 @@
         <v>155</v>
       </c>
       <c r="B157" s="2">
-        <v>43930</v>
+        <v>43929</v>
       </c>
       <c r="C157" t="s">
         <v>5</v>
       </c>
       <c r="D157">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E157">
-        <v>112</v>
+        <v>248</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3085,16 +3085,16 @@
         <v>156</v>
       </c>
       <c r="B158" s="2">
-        <v>43931</v>
+        <v>43930</v>
       </c>
       <c r="C158" t="s">
         <v>5</v>
       </c>
       <c r="D158">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E158">
-        <v>127</v>
+        <v>283</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3102,16 +3102,16 @@
         <v>157</v>
       </c>
       <c r="B159" s="2">
-        <v>43932</v>
+        <v>43931</v>
       </c>
       <c r="C159" t="s">
         <v>5</v>
       </c>
       <c r="D159">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="E159">
-        <v>137</v>
+        <v>319</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3119,16 +3119,16 @@
         <v>158</v>
       </c>
       <c r="B160" s="2">
-        <v>43933</v>
+        <v>43932</v>
       </c>
       <c r="C160" t="s">
         <v>5</v>
       </c>
       <c r="D160">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="E160">
-        <v>139</v>
+        <v>352</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3136,16 +3136,16 @@
         <v>159</v>
       </c>
       <c r="B161" s="2">
-        <v>43934</v>
+        <v>43933</v>
       </c>
       <c r="C161" t="s">
         <v>5</v>
       </c>
       <c r="D161">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="E161">
-        <v>144</v>
+        <v>377</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3153,16 +3153,16 @@
         <v>160</v>
       </c>
       <c r="B162" s="2">
-        <v>43935</v>
+        <v>43934</v>
       </c>
       <c r="C162" t="s">
         <v>5</v>
       </c>
       <c r="D162">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E162">
-        <v>155</v>
+        <v>386</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -3170,16 +3170,16 @@
         <v>161</v>
       </c>
       <c r="B163" s="2">
-        <v>43936</v>
+        <v>43935</v>
       </c>
       <c r="C163" t="s">
         <v>5</v>
       </c>
       <c r="D163">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E163">
-        <v>168</v>
+        <v>422</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3187,16 +3187,16 @@
         <v>162</v>
       </c>
       <c r="B164" s="2">
-        <v>43937</v>
+        <v>43936</v>
       </c>
       <c r="C164" t="s">
         <v>5</v>
       </c>
       <c r="D164">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E164">
-        <v>179</v>
+        <v>442</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -3204,16 +3204,16 @@
         <v>163</v>
       </c>
       <c r="B165" s="2">
-        <v>43938</v>
+        <v>43937</v>
       </c>
       <c r="C165" t="s">
         <v>5</v>
       </c>
       <c r="D165">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E165">
-        <v>184</v>
+        <v>463</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -3221,16 +3221,16 @@
         <v>164</v>
       </c>
       <c r="B166" s="2">
-        <v>43939</v>
+        <v>43938</v>
       </c>
       <c r="C166" t="s">
         <v>5</v>
       </c>
       <c r="D166">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E166">
-        <v>195</v>
+        <v>490</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -3238,16 +3238,16 @@
         <v>165</v>
       </c>
       <c r="B167" s="2">
-        <v>43940</v>
+        <v>43939</v>
       </c>
       <c r="C167" t="s">
         <v>5</v>
       </c>
       <c r="D167">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="E167">
-        <v>200</v>
+        <v>514</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -3255,16 +3255,16 @@
         <v>166</v>
       </c>
       <c r="B168" s="2">
-        <v>43941</v>
+        <v>43940</v>
       </c>
       <c r="C168" t="s">
         <v>5</v>
       </c>
       <c r="D168">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="E168">
-        <v>202</v>
+        <v>536</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -3272,16 +3272,16 @@
         <v>167</v>
       </c>
       <c r="B169" s="2">
-        <v>43942</v>
+        <v>43941</v>
       </c>
       <c r="C169" t="s">
         <v>5</v>
       </c>
       <c r="D169">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E169">
-        <v>213</v>
+        <v>540</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -3289,16 +3289,16 @@
         <v>168</v>
       </c>
       <c r="B170" s="2">
-        <v>43859</v>
+        <v>43942</v>
       </c>
       <c r="C170" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D170">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E170">
-        <v>0</v>
+        <v>551</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -3306,16 +3306,16 @@
         <v>169</v>
       </c>
       <c r="B171" s="2">
-        <v>43860</v>
+        <v>43943</v>
       </c>
       <c r="C171" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D171">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E171">
-        <v>0</v>
+        <v>569</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -3323,7 +3323,7 @@
         <v>170</v>
       </c>
       <c r="B172" s="2">
-        <v>43861</v>
+        <v>43859</v>
       </c>
       <c r="C172" t="s">
         <v>6</v>
@@ -3340,7 +3340,7 @@
         <v>171</v>
       </c>
       <c r="B173" s="2">
-        <v>43862</v>
+        <v>43860</v>
       </c>
       <c r="C173" t="s">
         <v>6</v>
@@ -3357,7 +3357,7 @@
         <v>172</v>
       </c>
       <c r="B174" s="2">
-        <v>43863</v>
+        <v>43861</v>
       </c>
       <c r="C174" t="s">
         <v>6</v>
@@ -3374,7 +3374,7 @@
         <v>173</v>
       </c>
       <c r="B175" s="2">
-        <v>43864</v>
+        <v>43862</v>
       </c>
       <c r="C175" t="s">
         <v>6</v>
@@ -3391,7 +3391,7 @@
         <v>174</v>
       </c>
       <c r="B176" s="2">
-        <v>43865</v>
+        <v>43863</v>
       </c>
       <c r="C176" t="s">
         <v>6</v>
@@ -3408,7 +3408,7 @@
         <v>175</v>
       </c>
       <c r="B177" s="2">
-        <v>43866</v>
+        <v>43864</v>
       </c>
       <c r="C177" t="s">
         <v>6</v>
@@ -3425,7 +3425,7 @@
         <v>176</v>
       </c>
       <c r="B178" s="2">
-        <v>43867</v>
+        <v>43865</v>
       </c>
       <c r="C178" t="s">
         <v>6</v>
@@ -3442,7 +3442,7 @@
         <v>177</v>
       </c>
       <c r="B179" s="2">
-        <v>43868</v>
+        <v>43866</v>
       </c>
       <c r="C179" t="s">
         <v>6</v>
@@ -3459,7 +3459,7 @@
         <v>178</v>
       </c>
       <c r="B180" s="2">
-        <v>43869</v>
+        <v>43867</v>
       </c>
       <c r="C180" t="s">
         <v>6</v>
@@ -3476,7 +3476,7 @@
         <v>179</v>
       </c>
       <c r="B181" s="2">
-        <v>43870</v>
+        <v>43868</v>
       </c>
       <c r="C181" t="s">
         <v>6</v>
@@ -3493,7 +3493,7 @@
         <v>180</v>
       </c>
       <c r="B182" s="2">
-        <v>43871</v>
+        <v>43869</v>
       </c>
       <c r="C182" t="s">
         <v>6</v>
@@ -3510,7 +3510,7 @@
         <v>181</v>
       </c>
       <c r="B183" s="2">
-        <v>43872</v>
+        <v>43870</v>
       </c>
       <c r="C183" t="s">
         <v>6</v>
@@ -3527,7 +3527,7 @@
         <v>182</v>
       </c>
       <c r="B184" s="2">
-        <v>43873</v>
+        <v>43871</v>
       </c>
       <c r="C184" t="s">
         <v>6</v>
@@ -3544,7 +3544,7 @@
         <v>183</v>
       </c>
       <c r="B185" s="2">
-        <v>43874</v>
+        <v>43872</v>
       </c>
       <c r="C185" t="s">
         <v>6</v>
@@ -3561,7 +3561,7 @@
         <v>184</v>
       </c>
       <c r="B186" s="2">
-        <v>43875</v>
+        <v>43873</v>
       </c>
       <c r="C186" t="s">
         <v>6</v>
@@ -3578,7 +3578,7 @@
         <v>185</v>
       </c>
       <c r="B187" s="2">
-        <v>43876</v>
+        <v>43874</v>
       </c>
       <c r="C187" t="s">
         <v>6</v>
@@ -3595,7 +3595,7 @@
         <v>186</v>
       </c>
       <c r="B188" s="2">
-        <v>43877</v>
+        <v>43875</v>
       </c>
       <c r="C188" t="s">
         <v>6</v>
@@ -3612,7 +3612,7 @@
         <v>187</v>
       </c>
       <c r="B189" s="2">
-        <v>43878</v>
+        <v>43876</v>
       </c>
       <c r="C189" t="s">
         <v>6</v>
@@ -3629,7 +3629,7 @@
         <v>188</v>
       </c>
       <c r="B190" s="2">
-        <v>43879</v>
+        <v>43877</v>
       </c>
       <c r="C190" t="s">
         <v>6</v>
@@ -3646,7 +3646,7 @@
         <v>189</v>
       </c>
       <c r="B191" s="2">
-        <v>43880</v>
+        <v>43878</v>
       </c>
       <c r="C191" t="s">
         <v>6</v>
@@ -3663,7 +3663,7 @@
         <v>190</v>
       </c>
       <c r="B192" s="2">
-        <v>43881</v>
+        <v>43879</v>
       </c>
       <c r="C192" t="s">
         <v>6</v>
@@ -3680,7 +3680,7 @@
         <v>191</v>
       </c>
       <c r="B193" s="2">
-        <v>43882</v>
+        <v>43880</v>
       </c>
       <c r="C193" t="s">
         <v>6</v>
@@ -3697,7 +3697,7 @@
         <v>192</v>
       </c>
       <c r="B194" s="2">
-        <v>43883</v>
+        <v>43881</v>
       </c>
       <c r="C194" t="s">
         <v>6</v>
@@ -3714,7 +3714,7 @@
         <v>193</v>
       </c>
       <c r="B195" s="2">
-        <v>43884</v>
+        <v>43882</v>
       </c>
       <c r="C195" t="s">
         <v>6</v>
@@ -3731,7 +3731,7 @@
         <v>194</v>
       </c>
       <c r="B196" s="2">
-        <v>43885</v>
+        <v>43883</v>
       </c>
       <c r="C196" t="s">
         <v>6</v>
@@ -3748,7 +3748,7 @@
         <v>195</v>
       </c>
       <c r="B197" s="2">
-        <v>43886</v>
+        <v>43884</v>
       </c>
       <c r="C197" t="s">
         <v>6</v>
@@ -3765,7 +3765,7 @@
         <v>196</v>
       </c>
       <c r="B198" s="2">
-        <v>43887</v>
+        <v>43885</v>
       </c>
       <c r="C198" t="s">
         <v>6</v>
@@ -3782,7 +3782,7 @@
         <v>197</v>
       </c>
       <c r="B199" s="2">
-        <v>43888</v>
+        <v>43886</v>
       </c>
       <c r="C199" t="s">
         <v>6</v>
@@ -3799,7 +3799,7 @@
         <v>198</v>
       </c>
       <c r="B200" s="2">
-        <v>43889</v>
+        <v>43887</v>
       </c>
       <c r="C200" t="s">
         <v>6</v>
@@ -3816,7 +3816,7 @@
         <v>199</v>
       </c>
       <c r="B201" s="2">
-        <v>43890</v>
+        <v>43888</v>
       </c>
       <c r="C201" t="s">
         <v>6</v>
@@ -3833,7 +3833,7 @@
         <v>200</v>
       </c>
       <c r="B202" s="2">
-        <v>43891</v>
+        <v>43889</v>
       </c>
       <c r="C202" t="s">
         <v>6</v>
@@ -3850,7 +3850,7 @@
         <v>201</v>
       </c>
       <c r="B203" s="2">
-        <v>43892</v>
+        <v>43890</v>
       </c>
       <c r="C203" t="s">
         <v>6</v>
@@ -3867,7 +3867,7 @@
         <v>202</v>
       </c>
       <c r="B204" s="2">
-        <v>43893</v>
+        <v>43891</v>
       </c>
       <c r="C204" t="s">
         <v>6</v>
@@ -3884,16 +3884,16 @@
         <v>203</v>
       </c>
       <c r="B205" s="2">
-        <v>43894</v>
+        <v>43892</v>
       </c>
       <c r="C205" t="s">
         <v>6</v>
       </c>
       <c r="D205">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E205">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -3901,7 +3901,7 @@
         <v>204</v>
       </c>
       <c r="B206" s="2">
-        <v>43895</v>
+        <v>43893</v>
       </c>
       <c r="C206" t="s">
         <v>6</v>
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="E206">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -3918,7 +3918,7 @@
         <v>205</v>
       </c>
       <c r="B207" s="2">
-        <v>43896</v>
+        <v>43894</v>
       </c>
       <c r="C207" t="s">
         <v>6</v>
@@ -3927,7 +3927,7 @@
         <v>0</v>
       </c>
       <c r="E207">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -3935,7 +3935,7 @@
         <v>206</v>
       </c>
       <c r="B208" s="2">
-        <v>43897</v>
+        <v>43895</v>
       </c>
       <c r="C208" t="s">
         <v>6</v>
@@ -3944,7 +3944,7 @@
         <v>0</v>
       </c>
       <c r="E208">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -3952,13 +3952,13 @@
         <v>207</v>
       </c>
       <c r="B209" s="2">
-        <v>43898</v>
+        <v>43896</v>
       </c>
       <c r="C209" t="s">
         <v>6</v>
       </c>
       <c r="D209">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E209">
         <v>1</v>
@@ -3969,16 +3969,16 @@
         <v>208</v>
       </c>
       <c r="B210" s="2">
-        <v>43899</v>
+        <v>43897</v>
       </c>
       <c r="C210" t="s">
         <v>6</v>
       </c>
       <c r="D210">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E210">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -3986,7 +3986,7 @@
         <v>209</v>
       </c>
       <c r="B211" s="2">
-        <v>43900</v>
+        <v>43898</v>
       </c>
       <c r="C211" t="s">
         <v>6</v>
@@ -3995,7 +3995,7 @@
         <v>0</v>
       </c>
       <c r="E211">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -4003,16 +4003,16 @@
         <v>210</v>
       </c>
       <c r="B212" s="2">
-        <v>43901</v>
+        <v>43899</v>
       </c>
       <c r="C212" t="s">
         <v>6</v>
       </c>
       <c r="D212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E212">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -4020,16 +4020,16 @@
         <v>211</v>
       </c>
       <c r="B213" s="2">
-        <v>43902</v>
+        <v>43900</v>
       </c>
       <c r="C213" t="s">
         <v>6</v>
       </c>
       <c r="D213">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E213">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -4037,7 +4037,7 @@
         <v>212</v>
       </c>
       <c r="B214" s="2">
-        <v>43903</v>
+        <v>43901</v>
       </c>
       <c r="C214" t="s">
         <v>6</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="E214">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -4054,16 +4054,16 @@
         <v>213</v>
       </c>
       <c r="B215" s="2">
-        <v>43904</v>
+        <v>43902</v>
       </c>
       <c r="C215" t="s">
         <v>6</v>
       </c>
       <c r="D215">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E215">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -4071,7 +4071,7 @@
         <v>214</v>
       </c>
       <c r="B216" s="2">
-        <v>43905</v>
+        <v>43903</v>
       </c>
       <c r="C216" t="s">
         <v>6</v>
@@ -4080,7 +4080,7 @@
         <v>0</v>
       </c>
       <c r="E216">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -4088,16 +4088,16 @@
         <v>215</v>
       </c>
       <c r="B217" s="2">
-        <v>43906</v>
+        <v>43904</v>
       </c>
       <c r="C217" t="s">
         <v>6</v>
       </c>
       <c r="D217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E217">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -4105,16 +4105,16 @@
         <v>216</v>
       </c>
       <c r="B218" s="2">
-        <v>43907</v>
+        <v>43905</v>
       </c>
       <c r="C218" t="s">
         <v>6</v>
       </c>
       <c r="D218">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E218">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -4122,7 +4122,7 @@
         <v>217</v>
       </c>
       <c r="B219" s="2">
-        <v>43908</v>
+        <v>43906</v>
       </c>
       <c r="C219" t="s">
         <v>6</v>
@@ -4131,7 +4131,7 @@
         <v>0</v>
       </c>
       <c r="E219">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -4139,16 +4139,16 @@
         <v>218</v>
       </c>
       <c r="B220" s="2">
-        <v>43909</v>
+        <v>43907</v>
       </c>
       <c r="C220" t="s">
         <v>6</v>
       </c>
       <c r="D220">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E220">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -4156,16 +4156,16 @@
         <v>219</v>
       </c>
       <c r="B221" s="2">
-        <v>43910</v>
+        <v>43908</v>
       </c>
       <c r="C221" t="s">
         <v>6</v>
       </c>
       <c r="D221">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E221">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -4173,7 +4173,7 @@
         <v>220</v>
       </c>
       <c r="B222" s="2">
-        <v>43911</v>
+        <v>43909</v>
       </c>
       <c r="C222" t="s">
         <v>6</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="E222">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -4190,7 +4190,7 @@
         <v>221</v>
       </c>
       <c r="B223" s="2">
-        <v>43912</v>
+        <v>43910</v>
       </c>
       <c r="C223" t="s">
         <v>6</v>
@@ -4199,7 +4199,7 @@
         <v>0</v>
       </c>
       <c r="E223">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -4207,16 +4207,16 @@
         <v>222</v>
       </c>
       <c r="B224" s="2">
-        <v>43913</v>
+        <v>43911</v>
       </c>
       <c r="C224" t="s">
         <v>6</v>
       </c>
       <c r="D224">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E224">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -4224,7 +4224,7 @@
         <v>223</v>
       </c>
       <c r="B225" s="2">
-        <v>43914</v>
+        <v>43912</v>
       </c>
       <c r="C225" t="s">
         <v>6</v>
@@ -4233,7 +4233,7 @@
         <v>0</v>
       </c>
       <c r="E225">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -4241,7 +4241,7 @@
         <v>224</v>
       </c>
       <c r="B226" s="2">
-        <v>43915</v>
+        <v>43913</v>
       </c>
       <c r="C226" t="s">
         <v>6</v>
@@ -4250,7 +4250,7 @@
         <v>2</v>
       </c>
       <c r="E226">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -4258,16 +4258,16 @@
         <v>225</v>
       </c>
       <c r="B227" s="2">
-        <v>43916</v>
+        <v>43914</v>
       </c>
       <c r="C227" t="s">
         <v>6</v>
       </c>
       <c r="D227">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E227">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -4275,7 +4275,7 @@
         <v>226</v>
       </c>
       <c r="B228" s="2">
-        <v>43917</v>
+        <v>43915</v>
       </c>
       <c r="C228" t="s">
         <v>6</v>
@@ -4284,7 +4284,7 @@
         <v>1</v>
       </c>
       <c r="E228">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -4292,16 +4292,16 @@
         <v>227</v>
       </c>
       <c r="B229" s="2">
-        <v>43918</v>
+        <v>43916</v>
       </c>
       <c r="C229" t="s">
         <v>6</v>
       </c>
       <c r="D229">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E229">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -4309,16 +4309,16 @@
         <v>228</v>
       </c>
       <c r="B230" s="2">
-        <v>43919</v>
+        <v>43917</v>
       </c>
       <c r="C230" t="s">
         <v>6</v>
       </c>
       <c r="D230">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E230">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -4326,16 +4326,16 @@
         <v>229</v>
       </c>
       <c r="B231" s="2">
-        <v>43920</v>
+        <v>43918</v>
       </c>
       <c r="C231" t="s">
         <v>6</v>
       </c>
       <c r="D231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E231">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -4343,16 +4343,16 @@
         <v>230</v>
       </c>
       <c r="B232" s="2">
-        <v>43921</v>
+        <v>43919</v>
       </c>
       <c r="C232" t="s">
         <v>6</v>
       </c>
       <c r="D232">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E232">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -4360,16 +4360,16 @@
         <v>231</v>
       </c>
       <c r="B233" s="2">
-        <v>43922</v>
+        <v>43920</v>
       </c>
       <c r="C233" t="s">
         <v>6</v>
       </c>
       <c r="D233">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E233">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -4377,16 +4377,16 @@
         <v>232</v>
       </c>
       <c r="B234" s="2">
-        <v>43923</v>
+        <v>43921</v>
       </c>
       <c r="C234" t="s">
         <v>6</v>
       </c>
       <c r="D234">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E234">
-        <v>8</v>
+        <v>28</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -4394,16 +4394,16 @@
         <v>233</v>
       </c>
       <c r="B235" s="2">
-        <v>43924</v>
+        <v>43922</v>
       </c>
       <c r="C235" t="s">
         <v>6</v>
       </c>
       <c r="D235">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E235">
-        <v>8</v>
+        <v>31</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -4411,16 +4411,16 @@
         <v>234</v>
       </c>
       <c r="B236" s="2">
-        <v>43925</v>
+        <v>43923</v>
       </c>
       <c r="C236" t="s">
         <v>6</v>
       </c>
       <c r="D236">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E236">
-        <v>9</v>
+        <v>37</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -4428,16 +4428,16 @@
         <v>235</v>
       </c>
       <c r="B237" s="2">
-        <v>43926</v>
+        <v>43924</v>
       </c>
       <c r="C237" t="s">
         <v>6</v>
       </c>
       <c r="D237">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E237">
-        <v>9</v>
+        <v>42</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -4445,16 +4445,16 @@
         <v>236</v>
       </c>
       <c r="B238" s="2">
-        <v>43927</v>
+        <v>43925</v>
       </c>
       <c r="C238" t="s">
         <v>6</v>
       </c>
       <c r="D238">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E238">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -4462,16 +4462,16 @@
         <v>237</v>
       </c>
       <c r="B239" s="2">
-        <v>43928</v>
+        <v>43926</v>
       </c>
       <c r="C239" t="s">
         <v>6</v>
       </c>
       <c r="D239">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E239">
-        <v>9</v>
+        <v>54</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -4479,16 +4479,16 @@
         <v>238</v>
       </c>
       <c r="B240" s="2">
-        <v>43929</v>
+        <v>43927</v>
       </c>
       <c r="C240" t="s">
         <v>6</v>
       </c>
       <c r="D240">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E240">
-        <v>11</v>
+        <v>59</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -4496,16 +4496,16 @@
         <v>239</v>
       </c>
       <c r="B241" s="2">
-        <v>43930</v>
+        <v>43928</v>
       </c>
       <c r="C241" t="s">
         <v>6</v>
       </c>
       <c r="D241">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E241">
-        <v>14</v>
+        <v>63</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -4513,16 +4513,16 @@
         <v>240</v>
       </c>
       <c r="B242" s="2">
-        <v>43931</v>
+        <v>43929</v>
       </c>
       <c r="C242" t="s">
         <v>6</v>
       </c>
       <c r="D242">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E242">
-        <v>22</v>
+        <v>65</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -4530,16 +4530,16 @@
         <v>241</v>
       </c>
       <c r="B243" s="2">
-        <v>43932</v>
+        <v>43930</v>
       </c>
       <c r="C243" t="s">
         <v>6</v>
       </c>
       <c r="D243">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="E243">
-        <v>24</v>
+        <v>89</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -4547,16 +4547,16 @@
         <v>242</v>
       </c>
       <c r="B244" s="2">
-        <v>43933</v>
+        <v>43931</v>
       </c>
       <c r="C244" t="s">
         <v>6</v>
       </c>
       <c r="D244">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E244">
-        <v>25</v>
+        <v>97</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -4564,16 +4564,16 @@
         <v>243</v>
       </c>
       <c r="B245" s="2">
-        <v>43934</v>
+        <v>43932</v>
       </c>
       <c r="C245" t="s">
         <v>6</v>
       </c>
       <c r="D245">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E245">
-        <v>25</v>
+        <v>112</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -4581,16 +4581,16 @@
         <v>244</v>
       </c>
       <c r="B246" s="2">
-        <v>43935</v>
+        <v>43933</v>
       </c>
       <c r="C246" t="s">
         <v>6</v>
       </c>
       <c r="D246">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E246">
-        <v>27</v>
+        <v>115</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -4598,16 +4598,16 @@
         <v>245</v>
       </c>
       <c r="B247" s="2">
-        <v>43936</v>
+        <v>43934</v>
       </c>
       <c r="C247" t="s">
         <v>6</v>
       </c>
       <c r="D247">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E247">
-        <v>29</v>
+        <v>120</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -4615,16 +4615,16 @@
         <v>246</v>
       </c>
       <c r="B248" s="2">
-        <v>43937</v>
+        <v>43935</v>
       </c>
       <c r="C248" t="s">
         <v>6</v>
       </c>
       <c r="D248">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E248">
-        <v>29</v>
+        <v>127</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -4632,16 +4632,16 @@
         <v>247</v>
       </c>
       <c r="B249" s="2">
-        <v>43938</v>
+        <v>43936</v>
       </c>
       <c r="C249" t="s">
         <v>6</v>
       </c>
       <c r="D249">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E249">
-        <v>33</v>
+        <v>136</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -4649,16 +4649,16 @@
         <v>248</v>
       </c>
       <c r="B250" s="2">
-        <v>43939</v>
+        <v>43937</v>
       </c>
       <c r="C250" t="s">
         <v>6</v>
       </c>
       <c r="D250">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E250">
-        <v>37</v>
+        <v>146</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -4666,16 +4666,16 @@
         <v>249</v>
       </c>
       <c r="B251" s="2">
-        <v>43940</v>
+        <v>43938</v>
       </c>
       <c r="C251" t="s">
         <v>6</v>
       </c>
       <c r="D251">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E251">
-        <v>39</v>
+        <v>153</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -4683,16 +4683,16 @@
         <v>250</v>
       </c>
       <c r="B252" s="2">
-        <v>43941</v>
+        <v>43939</v>
       </c>
       <c r="C252" t="s">
         <v>6</v>
       </c>
       <c r="D252">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="E252">
-        <v>66</v>
+        <v>157</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -4700,16 +4700,16 @@
         <v>251</v>
       </c>
       <c r="B253" s="2">
-        <v>43942</v>
+        <v>43940</v>
       </c>
       <c r="C253" t="s">
         <v>6</v>
       </c>
       <c r="D253">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E253">
-        <v>68</v>
+        <v>165</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -4717,16 +4717,16 @@
         <v>252</v>
       </c>
       <c r="B254" s="2">
-        <v>43859</v>
+        <v>43941</v>
       </c>
       <c r="C254" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D254">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E254">
-        <v>0</v>
+        <v>169</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -4734,16 +4734,16 @@
         <v>253</v>
       </c>
       <c r="B255" s="2">
-        <v>43860</v>
+        <v>43942</v>
       </c>
       <c r="C255" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D255">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E255">
-        <v>0</v>
+        <v>170</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -4751,16 +4751,16 @@
         <v>254</v>
       </c>
       <c r="B256" s="2">
-        <v>43861</v>
+        <v>43943</v>
       </c>
       <c r="C256" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D256">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E256">
-        <v>0</v>
+        <v>173</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -4768,7 +4768,7 @@
         <v>255</v>
       </c>
       <c r="B257" s="2">
-        <v>43862</v>
+        <v>43859</v>
       </c>
       <c r="C257" t="s">
         <v>7</v>
@@ -4785,7 +4785,7 @@
         <v>256</v>
       </c>
       <c r="B258" s="2">
-        <v>43863</v>
+        <v>43860</v>
       </c>
       <c r="C258" t="s">
         <v>7</v>
@@ -4802,7 +4802,7 @@
         <v>257</v>
       </c>
       <c r="B259" s="2">
-        <v>43864</v>
+        <v>43861</v>
       </c>
       <c r="C259" t="s">
         <v>7</v>
@@ -4819,7 +4819,7 @@
         <v>258</v>
       </c>
       <c r="B260" s="2">
-        <v>43865</v>
+        <v>43862</v>
       </c>
       <c r="C260" t="s">
         <v>7</v>
@@ -4836,7 +4836,7 @@
         <v>259</v>
       </c>
       <c r="B261" s="2">
-        <v>43866</v>
+        <v>43863</v>
       </c>
       <c r="C261" t="s">
         <v>7</v>
@@ -4853,7 +4853,7 @@
         <v>260</v>
       </c>
       <c r="B262" s="2">
-        <v>43867</v>
+        <v>43864</v>
       </c>
       <c r="C262" t="s">
         <v>7</v>
@@ -4870,7 +4870,7 @@
         <v>261</v>
       </c>
       <c r="B263" s="2">
-        <v>43868</v>
+        <v>43865</v>
       </c>
       <c r="C263" t="s">
         <v>7</v>
@@ -4887,7 +4887,7 @@
         <v>262</v>
       </c>
       <c r="B264" s="2">
-        <v>43869</v>
+        <v>43866</v>
       </c>
       <c r="C264" t="s">
         <v>7</v>
@@ -4904,7 +4904,7 @@
         <v>263</v>
       </c>
       <c r="B265" s="2">
-        <v>43870</v>
+        <v>43867</v>
       </c>
       <c r="C265" t="s">
         <v>7</v>
@@ -4921,7 +4921,7 @@
         <v>264</v>
       </c>
       <c r="B266" s="2">
-        <v>43871</v>
+        <v>43868</v>
       </c>
       <c r="C266" t="s">
         <v>7</v>
@@ -4938,7 +4938,7 @@
         <v>265</v>
       </c>
       <c r="B267" s="2">
-        <v>43872</v>
+        <v>43869</v>
       </c>
       <c r="C267" t="s">
         <v>7</v>
@@ -4955,7 +4955,7 @@
         <v>266</v>
       </c>
       <c r="B268" s="2">
-        <v>43873</v>
+        <v>43870</v>
       </c>
       <c r="C268" t="s">
         <v>7</v>
@@ -4972,7 +4972,7 @@
         <v>267</v>
       </c>
       <c r="B269" s="2">
-        <v>43874</v>
+        <v>43871</v>
       </c>
       <c r="C269" t="s">
         <v>7</v>
@@ -4989,7 +4989,7 @@
         <v>268</v>
       </c>
       <c r="B270" s="2">
-        <v>43875</v>
+        <v>43872</v>
       </c>
       <c r="C270" t="s">
         <v>7</v>
@@ -5006,7 +5006,7 @@
         <v>269</v>
       </c>
       <c r="B271" s="2">
-        <v>43876</v>
+        <v>43873</v>
       </c>
       <c r="C271" t="s">
         <v>7</v>
@@ -5023,7 +5023,7 @@
         <v>270</v>
       </c>
       <c r="B272" s="2">
-        <v>43877</v>
+        <v>43874</v>
       </c>
       <c r="C272" t="s">
         <v>7</v>
@@ -5040,7 +5040,7 @@
         <v>271</v>
       </c>
       <c r="B273" s="2">
-        <v>43878</v>
+        <v>43875</v>
       </c>
       <c r="C273" t="s">
         <v>7</v>
@@ -5057,7 +5057,7 @@
         <v>272</v>
       </c>
       <c r="B274" s="2">
-        <v>43879</v>
+        <v>43876</v>
       </c>
       <c r="C274" t="s">
         <v>7</v>
@@ -5074,7 +5074,7 @@
         <v>273</v>
       </c>
       <c r="B275" s="2">
-        <v>43880</v>
+        <v>43877</v>
       </c>
       <c r="C275" t="s">
         <v>7</v>
@@ -5091,7 +5091,7 @@
         <v>274</v>
       </c>
       <c r="B276" s="2">
-        <v>43881</v>
+        <v>43878</v>
       </c>
       <c r="C276" t="s">
         <v>7</v>
@@ -5108,7 +5108,7 @@
         <v>275</v>
       </c>
       <c r="B277" s="2">
-        <v>43882</v>
+        <v>43879</v>
       </c>
       <c r="C277" t="s">
         <v>7</v>
@@ -5125,7 +5125,7 @@
         <v>276</v>
       </c>
       <c r="B278" s="2">
-        <v>43883</v>
+        <v>43880</v>
       </c>
       <c r="C278" t="s">
         <v>7</v>
@@ -5142,7 +5142,7 @@
         <v>277</v>
       </c>
       <c r="B279" s="2">
-        <v>43884</v>
+        <v>43881</v>
       </c>
       <c r="C279" t="s">
         <v>7</v>
@@ -5159,7 +5159,7 @@
         <v>278</v>
       </c>
       <c r="B280" s="2">
-        <v>43885</v>
+        <v>43882</v>
       </c>
       <c r="C280" t="s">
         <v>7</v>
@@ -5176,7 +5176,7 @@
         <v>279</v>
       </c>
       <c r="B281" s="2">
-        <v>43886</v>
+        <v>43883</v>
       </c>
       <c r="C281" t="s">
         <v>7</v>
@@ -5193,7 +5193,7 @@
         <v>280</v>
       </c>
       <c r="B282" s="2">
-        <v>43887</v>
+        <v>43884</v>
       </c>
       <c r="C282" t="s">
         <v>7</v>
@@ -5210,7 +5210,7 @@
         <v>281</v>
       </c>
       <c r="B283" s="2">
-        <v>43888</v>
+        <v>43885</v>
       </c>
       <c r="C283" t="s">
         <v>7</v>
@@ -5227,7 +5227,7 @@
         <v>282</v>
       </c>
       <c r="B284" s="2">
-        <v>43889</v>
+        <v>43886</v>
       </c>
       <c r="C284" t="s">
         <v>7</v>
@@ -5244,7 +5244,7 @@
         <v>283</v>
       </c>
       <c r="B285" s="2">
-        <v>43890</v>
+        <v>43887</v>
       </c>
       <c r="C285" t="s">
         <v>7</v>
@@ -5261,7 +5261,7 @@
         <v>284</v>
       </c>
       <c r="B286" s="2">
-        <v>43891</v>
+        <v>43888</v>
       </c>
       <c r="C286" t="s">
         <v>7</v>
@@ -5278,7 +5278,7 @@
         <v>285</v>
       </c>
       <c r="B287" s="2">
-        <v>43892</v>
+        <v>43889</v>
       </c>
       <c r="C287" t="s">
         <v>7</v>
@@ -5295,7 +5295,7 @@
         <v>286</v>
       </c>
       <c r="B288" s="2">
-        <v>43893</v>
+        <v>43890</v>
       </c>
       <c r="C288" t="s">
         <v>7</v>
@@ -5312,7 +5312,7 @@
         <v>287</v>
       </c>
       <c r="B289" s="2">
-        <v>43894</v>
+        <v>43891</v>
       </c>
       <c r="C289" t="s">
         <v>7</v>
@@ -5329,7 +5329,7 @@
         <v>288</v>
       </c>
       <c r="B290" s="2">
-        <v>43895</v>
+        <v>43892</v>
       </c>
       <c r="C290" t="s">
         <v>7</v>
@@ -5346,16 +5346,16 @@
         <v>289</v>
       </c>
       <c r="B291" s="2">
-        <v>43896</v>
+        <v>43893</v>
       </c>
       <c r="C291" t="s">
         <v>7</v>
       </c>
       <c r="D291">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E291">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -5363,16 +5363,16 @@
         <v>290</v>
       </c>
       <c r="B292" s="2">
-        <v>43897</v>
+        <v>43894</v>
       </c>
       <c r="C292" t="s">
         <v>7</v>
       </c>
       <c r="D292">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E292">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -5380,16 +5380,16 @@
         <v>291</v>
       </c>
       <c r="B293" s="2">
-        <v>43898</v>
+        <v>43895</v>
       </c>
       <c r="C293" t="s">
         <v>7</v>
       </c>
       <c r="D293">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E293">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -5397,7 +5397,7 @@
         <v>292</v>
       </c>
       <c r="B294" s="2">
-        <v>43899</v>
+        <v>43896</v>
       </c>
       <c r="C294" t="s">
         <v>7</v>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="E294">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -5414,16 +5414,16 @@
         <v>293</v>
       </c>
       <c r="B295" s="2">
-        <v>43900</v>
+        <v>43897</v>
       </c>
       <c r="C295" t="s">
         <v>7</v>
       </c>
       <c r="D295">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E295">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -5431,16 +5431,16 @@
         <v>294</v>
       </c>
       <c r="B296" s="2">
-        <v>43901</v>
+        <v>43898</v>
       </c>
       <c r="C296" t="s">
         <v>7</v>
       </c>
       <c r="D296">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E296">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -5448,16 +5448,16 @@
         <v>295</v>
       </c>
       <c r="B297" s="2">
-        <v>43902</v>
+        <v>43899</v>
       </c>
       <c r="C297" t="s">
         <v>7</v>
       </c>
       <c r="D297">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E297">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -5465,16 +5465,16 @@
         <v>296</v>
       </c>
       <c r="B298" s="2">
-        <v>43903</v>
+        <v>43900</v>
       </c>
       <c r="C298" t="s">
         <v>7</v>
       </c>
       <c r="D298">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E298">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -5482,7 +5482,7 @@
         <v>297</v>
       </c>
       <c r="B299" s="2">
-        <v>43904</v>
+        <v>43901</v>
       </c>
       <c r="C299" t="s">
         <v>7</v>
@@ -5491,7 +5491,7 @@
         <v>0</v>
       </c>
       <c r="E299">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -5499,16 +5499,16 @@
         <v>298</v>
       </c>
       <c r="B300" s="2">
-        <v>43905</v>
+        <v>43902</v>
       </c>
       <c r="C300" t="s">
         <v>7</v>
       </c>
       <c r="D300">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E300">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -5516,7 +5516,7 @@
         <v>299</v>
       </c>
       <c r="B301" s="2">
-        <v>43906</v>
+        <v>43903</v>
       </c>
       <c r="C301" t="s">
         <v>7</v>
@@ -5525,7 +5525,7 @@
         <v>0</v>
       </c>
       <c r="E301">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -5533,16 +5533,16 @@
         <v>300</v>
       </c>
       <c r="B302" s="2">
-        <v>43907</v>
+        <v>43904</v>
       </c>
       <c r="C302" t="s">
         <v>7</v>
       </c>
       <c r="D302">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E302">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -5550,7 +5550,7 @@
         <v>301</v>
       </c>
       <c r="B303" s="2">
-        <v>43908</v>
+        <v>43905</v>
       </c>
       <c r="C303" t="s">
         <v>7</v>
@@ -5559,7 +5559,7 @@
         <v>0</v>
       </c>
       <c r="E303">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -5567,16 +5567,16 @@
         <v>302</v>
       </c>
       <c r="B304" s="2">
-        <v>43909</v>
+        <v>43906</v>
       </c>
       <c r="C304" t="s">
         <v>7</v>
       </c>
       <c r="D304">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E304">
-        <v>2</v>
+        <v>23</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -5584,7 +5584,7 @@
         <v>303</v>
       </c>
       <c r="B305" s="2">
-        <v>43910</v>
+        <v>43907</v>
       </c>
       <c r="C305" t="s">
         <v>7</v>
@@ -5593,7 +5593,7 @@
         <v>0</v>
       </c>
       <c r="E305">
-        <v>2</v>
+        <v>23</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -5601,7 +5601,7 @@
         <v>304</v>
       </c>
       <c r="B306" s="2">
-        <v>43911</v>
+        <v>43908</v>
       </c>
       <c r="C306" t="s">
         <v>7</v>
@@ -5610,7 +5610,7 @@
         <v>0</v>
       </c>
       <c r="E306">
-        <v>2</v>
+        <v>23</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -5618,7 +5618,7 @@
         <v>305</v>
       </c>
       <c r="B307" s="2">
-        <v>43912</v>
+        <v>43909</v>
       </c>
       <c r="C307" t="s">
         <v>7</v>
@@ -5627,7 +5627,7 @@
         <v>0</v>
       </c>
       <c r="E307">
-        <v>2</v>
+        <v>23</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -5635,7 +5635,7 @@
         <v>306</v>
       </c>
       <c r="B308" s="2">
-        <v>43913</v>
+        <v>43910</v>
       </c>
       <c r="C308" t="s">
         <v>7</v>
@@ -5644,7 +5644,7 @@
         <v>0</v>
       </c>
       <c r="E308">
-        <v>2</v>
+        <v>23</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -5652,7 +5652,7 @@
         <v>307</v>
       </c>
       <c r="B309" s="2">
-        <v>43914</v>
+        <v>43911</v>
       </c>
       <c r="C309" t="s">
         <v>7</v>
@@ -5661,7 +5661,7 @@
         <v>0</v>
       </c>
       <c r="E309">
-        <v>2</v>
+        <v>23</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -5669,16 +5669,16 @@
         <v>308</v>
       </c>
       <c r="B310" s="2">
-        <v>43915</v>
+        <v>43912</v>
       </c>
       <c r="C310" t="s">
         <v>7</v>
       </c>
       <c r="D310">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E310">
-        <v>3</v>
+        <v>27</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -5686,7 +5686,7 @@
         <v>309</v>
       </c>
       <c r="B311" s="2">
-        <v>43916</v>
+        <v>43913</v>
       </c>
       <c r="C311" t="s">
         <v>7</v>
@@ -5695,7 +5695,7 @@
         <v>0</v>
       </c>
       <c r="E311">
-        <v>3</v>
+        <v>27</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -5703,7 +5703,7 @@
         <v>310</v>
       </c>
       <c r="B312" s="2">
-        <v>43917</v>
+        <v>43914</v>
       </c>
       <c r="C312" t="s">
         <v>7</v>
@@ -5712,7 +5712,7 @@
         <v>1</v>
       </c>
       <c r="E312">
-        <v>4</v>
+        <v>28</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -5720,7 +5720,7 @@
         <v>311</v>
       </c>
       <c r="B313" s="2">
-        <v>43918</v>
+        <v>43915</v>
       </c>
       <c r="C313" t="s">
         <v>7</v>
@@ -5729,7 +5729,7 @@
         <v>1</v>
       </c>
       <c r="E313">
-        <v>5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -5737,16 +5737,16 @@
         <v>312</v>
       </c>
       <c r="B314" s="2">
-        <v>43919</v>
+        <v>43916</v>
       </c>
       <c r="C314" t="s">
         <v>7</v>
       </c>
       <c r="D314">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E314">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -5754,16 +5754,16 @@
         <v>313</v>
       </c>
       <c r="B315" s="2">
-        <v>43920</v>
+        <v>43917</v>
       </c>
       <c r="C315" t="s">
         <v>7</v>
       </c>
       <c r="D315">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E315">
-        <v>5</v>
+        <v>31</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -5771,16 +5771,16 @@
         <v>314</v>
       </c>
       <c r="B316" s="2">
-        <v>43921</v>
+        <v>43918</v>
       </c>
       <c r="C316" t="s">
         <v>7</v>
       </c>
       <c r="D316">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E316">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -5788,16 +5788,16 @@
         <v>315</v>
       </c>
       <c r="B317" s="2">
-        <v>43922</v>
+        <v>43919</v>
       </c>
       <c r="C317" t="s">
         <v>7</v>
       </c>
       <c r="D317">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E317">
-        <v>7</v>
+        <v>36</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -5805,16 +5805,16 @@
         <v>316</v>
       </c>
       <c r="B318" s="2">
-        <v>43923</v>
+        <v>43920</v>
       </c>
       <c r="C318" t="s">
         <v>7</v>
       </c>
       <c r="D318">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E318">
-        <v>7</v>
+        <v>38</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -5822,16 +5822,16 @@
         <v>317</v>
       </c>
       <c r="B319" s="2">
-        <v>43924</v>
+        <v>43921</v>
       </c>
       <c r="C319" t="s">
         <v>7</v>
       </c>
       <c r="D319">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E319">
-        <v>8</v>
+        <v>47</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -5839,16 +5839,16 @@
         <v>318</v>
       </c>
       <c r="B320" s="2">
-        <v>43925</v>
+        <v>43922</v>
       </c>
       <c r="C320" t="s">
         <v>7</v>
       </c>
       <c r="D320">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E320">
-        <v>8</v>
+        <v>48</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -5856,16 +5856,16 @@
         <v>319</v>
       </c>
       <c r="B321" s="2">
-        <v>43926</v>
+        <v>43923</v>
       </c>
       <c r="C321" t="s">
         <v>7</v>
       </c>
       <c r="D321">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E321">
-        <v>8</v>
+        <v>54</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -5873,16 +5873,16 @@
         <v>320</v>
       </c>
       <c r="B322" s="2">
-        <v>43927</v>
+        <v>43924</v>
       </c>
       <c r="C322" t="s">
         <v>7</v>
       </c>
       <c r="D322">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E322">
-        <v>8</v>
+        <v>59</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -5890,16 +5890,16 @@
         <v>321</v>
       </c>
       <c r="B323" s="2">
-        <v>43928</v>
+        <v>43925</v>
       </c>
       <c r="C323" t="s">
         <v>7</v>
       </c>
       <c r="D323">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E323">
-        <v>8</v>
+        <v>68</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -5907,16 +5907,16 @@
         <v>322</v>
       </c>
       <c r="B324" s="2">
-        <v>43929</v>
+        <v>43926</v>
       </c>
       <c r="C324" t="s">
         <v>7</v>
       </c>
       <c r="D324">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E324">
-        <v>8</v>
+        <v>69</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -5924,16 +5924,16 @@
         <v>323</v>
       </c>
       <c r="B325" s="2">
-        <v>43930</v>
+        <v>43927</v>
       </c>
       <c r="C325" t="s">
         <v>7</v>
       </c>
       <c r="D325">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E325">
-        <v>9</v>
+        <v>76</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -5941,16 +5941,16 @@
         <v>324</v>
       </c>
       <c r="B326" s="2">
-        <v>43931</v>
+        <v>43928</v>
       </c>
       <c r="C326" t="s">
         <v>7</v>
       </c>
       <c r="D326">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E326">
-        <v>13</v>
+        <v>91</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -5958,16 +5958,16 @@
         <v>325</v>
       </c>
       <c r="B327" s="2">
-        <v>43932</v>
+        <v>43929</v>
       </c>
       <c r="C327" t="s">
         <v>7</v>
       </c>
       <c r="D327">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E327">
-        <v>14</v>
+        <v>95</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -5975,16 +5975,16 @@
         <v>326</v>
       </c>
       <c r="B328" s="2">
-        <v>43933</v>
+        <v>43930</v>
       </c>
       <c r="C328" t="s">
         <v>7</v>
       </c>
       <c r="D328">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E328">
-        <v>16</v>
+        <v>112</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -5992,16 +5992,16 @@
         <v>327</v>
       </c>
       <c r="B329" s="2">
-        <v>43934</v>
+        <v>43931</v>
       </c>
       <c r="C329" t="s">
         <v>7</v>
       </c>
       <c r="D329">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E329">
-        <v>16</v>
+        <v>127</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -6009,16 +6009,16 @@
         <v>328</v>
       </c>
       <c r="B330" s="2">
-        <v>43935</v>
+        <v>43932</v>
       </c>
       <c r="C330" t="s">
         <v>7</v>
       </c>
       <c r="D330">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E330">
-        <v>17</v>
+        <v>137</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -6026,16 +6026,16 @@
         <v>329</v>
       </c>
       <c r="B331" s="2">
-        <v>43936</v>
+        <v>43933</v>
       </c>
       <c r="C331" t="s">
         <v>7</v>
       </c>
       <c r="D331">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E331">
-        <v>20</v>
+        <v>139</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -6043,16 +6043,16 @@
         <v>330</v>
       </c>
       <c r="B332" s="2">
-        <v>43937</v>
+        <v>43934</v>
       </c>
       <c r="C332" t="s">
         <v>7</v>
       </c>
       <c r="D332">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E332">
-        <v>21</v>
+        <v>144</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -6060,16 +6060,16 @@
         <v>331</v>
       </c>
       <c r="B333" s="2">
-        <v>43938</v>
+        <v>43935</v>
       </c>
       <c r="C333" t="s">
         <v>7</v>
       </c>
       <c r="D333">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E333">
-        <v>23</v>
+        <v>155</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -6077,16 +6077,16 @@
         <v>332</v>
       </c>
       <c r="B334" s="2">
-        <v>43939</v>
+        <v>43936</v>
       </c>
       <c r="C334" t="s">
         <v>7</v>
       </c>
       <c r="D334">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="E334">
-        <v>66</v>
+        <v>168</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -6094,16 +6094,16 @@
         <v>333</v>
       </c>
       <c r="B335" s="2">
-        <v>43940</v>
+        <v>43937</v>
       </c>
       <c r="C335" t="s">
         <v>7</v>
       </c>
       <c r="D335">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E335">
-        <v>75</v>
+        <v>179</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -6111,16 +6111,16 @@
         <v>334</v>
       </c>
       <c r="B336" s="2">
-        <v>43941</v>
+        <v>43938</v>
       </c>
       <c r="C336" t="s">
         <v>7</v>
       </c>
       <c r="D336">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="E336">
-        <v>117</v>
+        <v>184</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -6128,16 +6128,16 @@
         <v>335</v>
       </c>
       <c r="B337" s="2">
-        <v>43942</v>
+        <v>43939</v>
       </c>
       <c r="C337" t="s">
         <v>7</v>
       </c>
       <c r="D337">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="E337">
-        <v>141</v>
+        <v>195</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -6145,16 +6145,16 @@
         <v>336</v>
       </c>
       <c r="B338" s="2">
-        <v>43859</v>
+        <v>43940</v>
       </c>
       <c r="C338" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D338">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E338">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -6162,16 +6162,16 @@
         <v>337</v>
       </c>
       <c r="B339" s="2">
-        <v>43860</v>
+        <v>43941</v>
       </c>
       <c r="C339" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D339">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E339">
-        <v>0</v>
+        <v>202</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -6179,16 +6179,16 @@
         <v>338</v>
       </c>
       <c r="B340" s="2">
-        <v>43861</v>
+        <v>43942</v>
       </c>
       <c r="C340" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D340">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E340">
-        <v>0</v>
+        <v>213</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -6196,16 +6196,16 @@
         <v>339</v>
       </c>
       <c r="B341" s="2">
-        <v>43862</v>
+        <v>43943</v>
       </c>
       <c r="C341" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D341">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E341">
-        <v>0</v>
+        <v>217</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -6213,7 +6213,7 @@
         <v>340</v>
       </c>
       <c r="B342" s="2">
-        <v>43863</v>
+        <v>43859</v>
       </c>
       <c r="C342" t="s">
         <v>8</v>
@@ -6230,7 +6230,7 @@
         <v>341</v>
       </c>
       <c r="B343" s="2">
-        <v>43864</v>
+        <v>43860</v>
       </c>
       <c r="C343" t="s">
         <v>8</v>
@@ -6247,7 +6247,7 @@
         <v>342</v>
       </c>
       <c r="B344" s="2">
-        <v>43865</v>
+        <v>43861</v>
       </c>
       <c r="C344" t="s">
         <v>8</v>
@@ -6264,7 +6264,7 @@
         <v>343</v>
       </c>
       <c r="B345" s="2">
-        <v>43866</v>
+        <v>43862</v>
       </c>
       <c r="C345" t="s">
         <v>8</v>
@@ -6281,7 +6281,7 @@
         <v>344</v>
       </c>
       <c r="B346" s="2">
-        <v>43867</v>
+        <v>43863</v>
       </c>
       <c r="C346" t="s">
         <v>8</v>
@@ -6298,7 +6298,7 @@
         <v>345</v>
       </c>
       <c r="B347" s="2">
-        <v>43868</v>
+        <v>43864</v>
       </c>
       <c r="C347" t="s">
         <v>8</v>
@@ -6315,7 +6315,7 @@
         <v>346</v>
       </c>
       <c r="B348" s="2">
-        <v>43869</v>
+        <v>43865</v>
       </c>
       <c r="C348" t="s">
         <v>8</v>
@@ -6332,7 +6332,7 @@
         <v>347</v>
       </c>
       <c r="B349" s="2">
-        <v>43870</v>
+        <v>43866</v>
       </c>
       <c r="C349" t="s">
         <v>8</v>
@@ -6349,7 +6349,7 @@
         <v>348</v>
       </c>
       <c r="B350" s="2">
-        <v>43871</v>
+        <v>43867</v>
       </c>
       <c r="C350" t="s">
         <v>8</v>
@@ -6366,7 +6366,7 @@
         <v>349</v>
       </c>
       <c r="B351" s="2">
-        <v>43872</v>
+        <v>43868</v>
       </c>
       <c r="C351" t="s">
         <v>8</v>
@@ -6383,7 +6383,7 @@
         <v>350</v>
       </c>
       <c r="B352" s="2">
-        <v>43873</v>
+        <v>43869</v>
       </c>
       <c r="C352" t="s">
         <v>8</v>
@@ -6400,7 +6400,7 @@
         <v>351</v>
       </c>
       <c r="B353" s="2">
-        <v>43874</v>
+        <v>43870</v>
       </c>
       <c r="C353" t="s">
         <v>8</v>
@@ -6417,7 +6417,7 @@
         <v>352</v>
       </c>
       <c r="B354" s="2">
-        <v>43875</v>
+        <v>43871</v>
       </c>
       <c r="C354" t="s">
         <v>8</v>
@@ -6434,7 +6434,7 @@
         <v>353</v>
       </c>
       <c r="B355" s="2">
-        <v>43876</v>
+        <v>43872</v>
       </c>
       <c r="C355" t="s">
         <v>8</v>
@@ -6451,7 +6451,7 @@
         <v>354</v>
       </c>
       <c r="B356" s="2">
-        <v>43877</v>
+        <v>43873</v>
       </c>
       <c r="C356" t="s">
         <v>8</v>
@@ -6468,7 +6468,7 @@
         <v>355</v>
       </c>
       <c r="B357" s="2">
-        <v>43878</v>
+        <v>43874</v>
       </c>
       <c r="C357" t="s">
         <v>8</v>
@@ -6485,7 +6485,7 @@
         <v>356</v>
       </c>
       <c r="B358" s="2">
-        <v>43879</v>
+        <v>43875</v>
       </c>
       <c r="C358" t="s">
         <v>8</v>
@@ -6502,7 +6502,7 @@
         <v>357</v>
       </c>
       <c r="B359" s="2">
-        <v>43880</v>
+        <v>43876</v>
       </c>
       <c r="C359" t="s">
         <v>8</v>
@@ -6519,7 +6519,7 @@
         <v>358</v>
       </c>
       <c r="B360" s="2">
-        <v>43881</v>
+        <v>43877</v>
       </c>
       <c r="C360" t="s">
         <v>8</v>
@@ -6536,7 +6536,7 @@
         <v>359</v>
       </c>
       <c r="B361" s="2">
-        <v>43882</v>
+        <v>43878</v>
       </c>
       <c r="C361" t="s">
         <v>8</v>
@@ -6553,7 +6553,7 @@
         <v>360</v>
       </c>
       <c r="B362" s="2">
-        <v>43883</v>
+        <v>43879</v>
       </c>
       <c r="C362" t="s">
         <v>8</v>
@@ -6570,7 +6570,7 @@
         <v>361</v>
       </c>
       <c r="B363" s="2">
-        <v>43884</v>
+        <v>43880</v>
       </c>
       <c r="C363" t="s">
         <v>8</v>
@@ -6587,7 +6587,7 @@
         <v>362</v>
       </c>
       <c r="B364" s="2">
-        <v>43885</v>
+        <v>43881</v>
       </c>
       <c r="C364" t="s">
         <v>8</v>
@@ -6604,7 +6604,7 @@
         <v>363</v>
       </c>
       <c r="B365" s="2">
-        <v>43886</v>
+        <v>43882</v>
       </c>
       <c r="C365" t="s">
         <v>8</v>
@@ -6621,7 +6621,7 @@
         <v>364</v>
       </c>
       <c r="B366" s="2">
-        <v>43887</v>
+        <v>43883</v>
       </c>
       <c r="C366" t="s">
         <v>8</v>
@@ -6638,7 +6638,7 @@
         <v>365</v>
       </c>
       <c r="B367" s="2">
-        <v>43888</v>
+        <v>43884</v>
       </c>
       <c r="C367" t="s">
         <v>8</v>
@@ -6655,7 +6655,7 @@
         <v>366</v>
       </c>
       <c r="B368" s="2">
-        <v>43889</v>
+        <v>43885</v>
       </c>
       <c r="C368" t="s">
         <v>8</v>
@@ -6672,7 +6672,7 @@
         <v>367</v>
       </c>
       <c r="B369" s="2">
-        <v>43890</v>
+        <v>43886</v>
       </c>
       <c r="C369" t="s">
         <v>8</v>
@@ -6689,7 +6689,7 @@
         <v>368</v>
       </c>
       <c r="B370" s="2">
-        <v>43891</v>
+        <v>43887</v>
       </c>
       <c r="C370" t="s">
         <v>8</v>
@@ -6706,7 +6706,7 @@
         <v>369</v>
       </c>
       <c r="B371" s="2">
-        <v>43892</v>
+        <v>43888</v>
       </c>
       <c r="C371" t="s">
         <v>8</v>
@@ -6723,7 +6723,7 @@
         <v>370</v>
       </c>
       <c r="B372" s="2">
-        <v>43893</v>
+        <v>43889</v>
       </c>
       <c r="C372" t="s">
         <v>8</v>
@@ -6740,7 +6740,7 @@
         <v>371</v>
       </c>
       <c r="B373" s="2">
-        <v>43894</v>
+        <v>43890</v>
       </c>
       <c r="C373" t="s">
         <v>8</v>
@@ -6757,7 +6757,7 @@
         <v>372</v>
       </c>
       <c r="B374" s="2">
-        <v>43895</v>
+        <v>43891</v>
       </c>
       <c r="C374" t="s">
         <v>8</v>
@@ -6774,16 +6774,16 @@
         <v>373</v>
       </c>
       <c r="B375" s="2">
-        <v>43896</v>
+        <v>43892</v>
       </c>
       <c r="C375" t="s">
         <v>8</v>
       </c>
       <c r="D375">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E375">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:5">
@@ -6791,16 +6791,16 @@
         <v>374</v>
       </c>
       <c r="B376" s="2">
-        <v>43897</v>
+        <v>43893</v>
       </c>
       <c r="C376" t="s">
         <v>8</v>
       </c>
       <c r="D376">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E376">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:5">
@@ -6808,7 +6808,7 @@
         <v>375</v>
       </c>
       <c r="B377" s="2">
-        <v>43898</v>
+        <v>43894</v>
       </c>
       <c r="C377" t="s">
         <v>8</v>
@@ -6817,7 +6817,7 @@
         <v>0</v>
       </c>
       <c r="E377">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:5">
@@ -6825,7 +6825,7 @@
         <v>376</v>
       </c>
       <c r="B378" s="2">
-        <v>43899</v>
+        <v>43895</v>
       </c>
       <c r="C378" t="s">
         <v>8</v>
@@ -6834,7 +6834,7 @@
         <v>0</v>
       </c>
       <c r="E378">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -6842,16 +6842,16 @@
         <v>377</v>
       </c>
       <c r="B379" s="2">
-        <v>43900</v>
+        <v>43896</v>
       </c>
       <c r="C379" t="s">
         <v>8</v>
       </c>
       <c r="D379">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E379">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:5">
@@ -6859,7 +6859,7 @@
         <v>378</v>
       </c>
       <c r="B380" s="2">
-        <v>43901</v>
+        <v>43897</v>
       </c>
       <c r="C380" t="s">
         <v>8</v>
@@ -6868,7 +6868,7 @@
         <v>0</v>
       </c>
       <c r="E380">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -6876,16 +6876,16 @@
         <v>379</v>
       </c>
       <c r="B381" s="2">
-        <v>43902</v>
+        <v>43898</v>
       </c>
       <c r="C381" t="s">
         <v>8</v>
       </c>
       <c r="D381">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E381">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:5">
@@ -6893,7 +6893,7 @@
         <v>380</v>
       </c>
       <c r="B382" s="2">
-        <v>43903</v>
+        <v>43899</v>
       </c>
       <c r="C382" t="s">
         <v>8</v>
@@ -6902,7 +6902,7 @@
         <v>0</v>
       </c>
       <c r="E382">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:5">
@@ -6910,7 +6910,7 @@
         <v>381</v>
       </c>
       <c r="B383" s="2">
-        <v>43904</v>
+        <v>43900</v>
       </c>
       <c r="C383" t="s">
         <v>8</v>
@@ -6919,7 +6919,7 @@
         <v>1</v>
       </c>
       <c r="E383">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384" spans="1:5">
@@ -6927,16 +6927,16 @@
         <v>382</v>
       </c>
       <c r="B384" s="2">
-        <v>43905</v>
+        <v>43901</v>
       </c>
       <c r="C384" t="s">
         <v>8</v>
       </c>
       <c r="D384">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E384">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385" spans="1:5">
@@ -6944,16 +6944,16 @@
         <v>383</v>
       </c>
       <c r="B385" s="2">
-        <v>43906</v>
+        <v>43902</v>
       </c>
       <c r="C385" t="s">
         <v>8</v>
       </c>
       <c r="D385">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E385">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:5">
@@ -6961,16 +6961,16 @@
         <v>384</v>
       </c>
       <c r="B386" s="2">
-        <v>43907</v>
+        <v>43903</v>
       </c>
       <c r="C386" t="s">
         <v>8</v>
       </c>
       <c r="D386">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E386">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:5">
@@ -6978,16 +6978,16 @@
         <v>385</v>
       </c>
       <c r="B387" s="2">
-        <v>43908</v>
+        <v>43904</v>
       </c>
       <c r="C387" t="s">
         <v>8</v>
       </c>
       <c r="D387">
+        <v>0</v>
+      </c>
+      <c r="E387">
         <v>2</v>
-      </c>
-      <c r="E387">
-        <v>11</v>
       </c>
     </row>
     <row r="388" spans="1:5">
@@ -6995,7 +6995,7 @@
         <v>386</v>
       </c>
       <c r="B388" s="2">
-        <v>43909</v>
+        <v>43905</v>
       </c>
       <c r="C388" t="s">
         <v>8</v>
@@ -7004,7 +7004,7 @@
         <v>0</v>
       </c>
       <c r="E388">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:5">
@@ -7012,7 +7012,7 @@
         <v>387</v>
       </c>
       <c r="B389" s="2">
-        <v>43910</v>
+        <v>43906</v>
       </c>
       <c r="C389" t="s">
         <v>8</v>
@@ -7021,7 +7021,7 @@
         <v>0</v>
       </c>
       <c r="E389">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:5">
@@ -7029,16 +7029,16 @@
         <v>388</v>
       </c>
       <c r="B390" s="2">
-        <v>43911</v>
+        <v>43907</v>
       </c>
       <c r="C390" t="s">
         <v>8</v>
       </c>
       <c r="D390">
+        <v>0</v>
+      </c>
+      <c r="E390">
         <v>2</v>
-      </c>
-      <c r="E390">
-        <v>13</v>
       </c>
     </row>
     <row r="391" spans="1:5">
@@ -7046,7 +7046,7 @@
         <v>389</v>
       </c>
       <c r="B391" s="2">
-        <v>43912</v>
+        <v>43908</v>
       </c>
       <c r="C391" t="s">
         <v>8</v>
@@ -7055,7 +7055,7 @@
         <v>0</v>
       </c>
       <c r="E391">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:5">
@@ -7063,16 +7063,16 @@
         <v>390</v>
       </c>
       <c r="B392" s="2">
-        <v>43913</v>
+        <v>43909</v>
       </c>
       <c r="C392" t="s">
         <v>8</v>
       </c>
       <c r="D392">
+        <v>0</v>
+      </c>
+      <c r="E392">
         <v>2</v>
-      </c>
-      <c r="E392">
-        <v>15</v>
       </c>
     </row>
     <row r="393" spans="1:5">
@@ -7080,16 +7080,16 @@
         <v>391</v>
       </c>
       <c r="B393" s="2">
-        <v>43914</v>
+        <v>43910</v>
       </c>
       <c r="C393" t="s">
         <v>8</v>
       </c>
       <c r="D393">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E393">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:5">
@@ -7097,16 +7097,16 @@
         <v>392</v>
       </c>
       <c r="B394" s="2">
-        <v>43915</v>
+        <v>43911</v>
       </c>
       <c r="C394" t="s">
         <v>8</v>
       </c>
       <c r="D394">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E394">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395" spans="1:5">
@@ -7114,7 +7114,7 @@
         <v>393</v>
       </c>
       <c r="B395" s="2">
-        <v>43916</v>
+        <v>43912</v>
       </c>
       <c r="C395" t="s">
         <v>8</v>
@@ -7123,7 +7123,7 @@
         <v>0</v>
       </c>
       <c r="E395">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:5">
@@ -7131,16 +7131,16 @@
         <v>394</v>
       </c>
       <c r="B396" s="2">
-        <v>43917</v>
+        <v>43913</v>
       </c>
       <c r="C396" t="s">
         <v>8</v>
       </c>
       <c r="D396">
+        <v>0</v>
+      </c>
+      <c r="E396">
         <v>2</v>
-      </c>
-      <c r="E396">
-        <v>19</v>
       </c>
     </row>
     <row r="397" spans="1:5">
@@ -7148,16 +7148,16 @@
         <v>395</v>
       </c>
       <c r="B397" s="2">
-        <v>43918</v>
+        <v>43914</v>
       </c>
       <c r="C397" t="s">
         <v>8</v>
       </c>
       <c r="D397">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E397">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:5">
@@ -7165,16 +7165,16 @@
         <v>396</v>
       </c>
       <c r="B398" s="2">
-        <v>43919</v>
+        <v>43915</v>
       </c>
       <c r="C398" t="s">
         <v>8</v>
       </c>
       <c r="D398">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E398">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="399" spans="1:5">
@@ -7182,16 +7182,16 @@
         <v>397</v>
       </c>
       <c r="B399" s="2">
-        <v>43920</v>
+        <v>43916</v>
       </c>
       <c r="C399" t="s">
         <v>8</v>
       </c>
       <c r="D399">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E399">
-        <v>26</v>
+        <v>3</v>
       </c>
     </row>
     <row r="400" spans="1:5">
@@ -7199,16 +7199,16 @@
         <v>398</v>
       </c>
       <c r="B400" s="2">
-        <v>43921</v>
+        <v>43917</v>
       </c>
       <c r="C400" t="s">
         <v>8</v>
       </c>
       <c r="D400">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E400">
-        <v>28</v>
+        <v>4</v>
       </c>
     </row>
     <row r="401" spans="1:5">
@@ -7216,16 +7216,16 @@
         <v>399</v>
       </c>
       <c r="B401" s="2">
-        <v>43922</v>
+        <v>43918</v>
       </c>
       <c r="C401" t="s">
         <v>8</v>
       </c>
       <c r="D401">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E401">
-        <v>31</v>
+        <v>5</v>
       </c>
     </row>
     <row r="402" spans="1:5">
@@ -7233,16 +7233,16 @@
         <v>400</v>
       </c>
       <c r="B402" s="2">
-        <v>43923</v>
+        <v>43919</v>
       </c>
       <c r="C402" t="s">
         <v>8</v>
       </c>
       <c r="D402">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E402">
-        <v>37</v>
+        <v>5</v>
       </c>
     </row>
     <row r="403" spans="1:5">
@@ -7250,16 +7250,16 @@
         <v>401</v>
       </c>
       <c r="B403" s="2">
-        <v>43924</v>
+        <v>43920</v>
       </c>
       <c r="C403" t="s">
         <v>8</v>
       </c>
       <c r="D403">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E403">
-        <v>42</v>
+        <v>5</v>
       </c>
     </row>
     <row r="404" spans="1:5">
@@ -7267,16 +7267,16 @@
         <v>402</v>
       </c>
       <c r="B404" s="2">
-        <v>43925</v>
+        <v>43921</v>
       </c>
       <c r="C404" t="s">
         <v>8</v>
       </c>
       <c r="D404">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E404">
-        <v>47</v>
+        <v>5</v>
       </c>
     </row>
     <row r="405" spans="1:5">
@@ -7284,16 +7284,16 @@
         <v>403</v>
       </c>
       <c r="B405" s="2">
-        <v>43926</v>
+        <v>43922</v>
       </c>
       <c r="C405" t="s">
         <v>8</v>
       </c>
       <c r="D405">
+        <v>2</v>
+      </c>
+      <c r="E405">
         <v>7</v>
-      </c>
-      <c r="E405">
-        <v>54</v>
       </c>
     </row>
     <row r="406" spans="1:5">
@@ -7301,16 +7301,16 @@
         <v>404</v>
       </c>
       <c r="B406" s="2">
-        <v>43927</v>
+        <v>43923</v>
       </c>
       <c r="C406" t="s">
         <v>8</v>
       </c>
       <c r="D406">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E406">
-        <v>59</v>
+        <v>7</v>
       </c>
     </row>
     <row r="407" spans="1:5">
@@ -7318,16 +7318,16 @@
         <v>405</v>
       </c>
       <c r="B407" s="2">
-        <v>43928</v>
+        <v>43924</v>
       </c>
       <c r="C407" t="s">
         <v>8</v>
       </c>
       <c r="D407">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E407">
-        <v>63</v>
+        <v>8</v>
       </c>
     </row>
     <row r="408" spans="1:5">
@@ -7335,16 +7335,16 @@
         <v>406</v>
       </c>
       <c r="B408" s="2">
-        <v>43929</v>
+        <v>43925</v>
       </c>
       <c r="C408" t="s">
         <v>8</v>
       </c>
       <c r="D408">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E408">
-        <v>65</v>
+        <v>8</v>
       </c>
     </row>
     <row r="409" spans="1:5">
@@ -7352,16 +7352,16 @@
         <v>407</v>
       </c>
       <c r="B409" s="2">
-        <v>43930</v>
+        <v>43926</v>
       </c>
       <c r="C409" t="s">
         <v>8</v>
       </c>
       <c r="D409">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E409">
-        <v>89</v>
+        <v>8</v>
       </c>
     </row>
     <row r="410" spans="1:5">
@@ -7369,16 +7369,16 @@
         <v>408</v>
       </c>
       <c r="B410" s="2">
-        <v>43931</v>
+        <v>43927</v>
       </c>
       <c r="C410" t="s">
         <v>8</v>
       </c>
       <c r="D410">
+        <v>0</v>
+      </c>
+      <c r="E410">
         <v>8</v>
-      </c>
-      <c r="E410">
-        <v>97</v>
       </c>
     </row>
     <row r="411" spans="1:5">
@@ -7386,16 +7386,16 @@
         <v>409</v>
       </c>
       <c r="B411" s="2">
-        <v>43932</v>
+        <v>43928</v>
       </c>
       <c r="C411" t="s">
         <v>8</v>
       </c>
       <c r="D411">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E411">
-        <v>112</v>
+        <v>8</v>
       </c>
     </row>
     <row r="412" spans="1:5">
@@ -7403,16 +7403,16 @@
         <v>410</v>
       </c>
       <c r="B412" s="2">
-        <v>43933</v>
+        <v>43929</v>
       </c>
       <c r="C412" t="s">
         <v>8</v>
       </c>
       <c r="D412">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E412">
-        <v>115</v>
+        <v>8</v>
       </c>
     </row>
     <row r="413" spans="1:5">
@@ -7420,16 +7420,16 @@
         <v>411</v>
       </c>
       <c r="B413" s="2">
-        <v>43934</v>
+        <v>43930</v>
       </c>
       <c r="C413" t="s">
         <v>8</v>
       </c>
       <c r="D413">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E413">
-        <v>120</v>
+        <v>9</v>
       </c>
     </row>
     <row r="414" spans="1:5">
@@ -7437,16 +7437,16 @@
         <v>412</v>
       </c>
       <c r="B414" s="2">
-        <v>43935</v>
+        <v>43931</v>
       </c>
       <c r="C414" t="s">
         <v>8</v>
       </c>
       <c r="D414">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E414">
-        <v>127</v>
+        <v>13</v>
       </c>
     </row>
     <row r="415" spans="1:5">
@@ -7454,16 +7454,16 @@
         <v>413</v>
       </c>
       <c r="B415" s="2">
-        <v>43936</v>
+        <v>43932</v>
       </c>
       <c r="C415" t="s">
         <v>8</v>
       </c>
       <c r="D415">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E415">
-        <v>136</v>
+        <v>14</v>
       </c>
     </row>
     <row r="416" spans="1:5">
@@ -7471,16 +7471,16 @@
         <v>414</v>
       </c>
       <c r="B416" s="2">
-        <v>43937</v>
+        <v>43933</v>
       </c>
       <c r="C416" t="s">
         <v>8</v>
       </c>
       <c r="D416">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E416">
-        <v>146</v>
+        <v>16</v>
       </c>
     </row>
     <row r="417" spans="1:5">
@@ -7488,16 +7488,16 @@
         <v>415</v>
       </c>
       <c r="B417" s="2">
-        <v>43938</v>
+        <v>43934</v>
       </c>
       <c r="C417" t="s">
         <v>8</v>
       </c>
       <c r="D417">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E417">
-        <v>153</v>
+        <v>16</v>
       </c>
     </row>
     <row r="418" spans="1:5">
@@ -7505,16 +7505,16 @@
         <v>416</v>
       </c>
       <c r="B418" s="2">
-        <v>43939</v>
+        <v>43935</v>
       </c>
       <c r="C418" t="s">
         <v>8</v>
       </c>
       <c r="D418">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E418">
-        <v>157</v>
+        <v>17</v>
       </c>
     </row>
     <row r="419" spans="1:5">
@@ -7522,16 +7522,16 @@
         <v>417</v>
       </c>
       <c r="B419" s="2">
-        <v>43940</v>
+        <v>43936</v>
       </c>
       <c r="C419" t="s">
         <v>8</v>
       </c>
       <c r="D419">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E419">
-        <v>165</v>
+        <v>20</v>
       </c>
     </row>
     <row r="420" spans="1:5">
@@ -7539,16 +7539,16 @@
         <v>418</v>
       </c>
       <c r="B420" s="2">
-        <v>43941</v>
+        <v>43937</v>
       </c>
       <c r="C420" t="s">
         <v>8</v>
       </c>
       <c r="D420">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E420">
-        <v>169</v>
+        <v>21</v>
       </c>
     </row>
     <row r="421" spans="1:5">
@@ -7556,16 +7556,16 @@
         <v>419</v>
       </c>
       <c r="B421" s="2">
-        <v>43942</v>
+        <v>43938</v>
       </c>
       <c r="C421" t="s">
         <v>8</v>
       </c>
       <c r="D421">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E421">
-        <v>170</v>
+        <v>23</v>
       </c>
     </row>
     <row r="422" spans="1:5">
@@ -7573,16 +7573,16 @@
         <v>420</v>
       </c>
       <c r="B422" s="2">
-        <v>43859</v>
+        <v>43939</v>
       </c>
       <c r="C422" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D422">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="E422">
-        <v>0</v>
+        <v>66</v>
       </c>
     </row>
     <row r="423" spans="1:5">
@@ -7590,16 +7590,16 @@
         <v>421</v>
       </c>
       <c r="B423" s="2">
-        <v>43860</v>
+        <v>43940</v>
       </c>
       <c r="C423" t="s">
+        <v>8</v>
+      </c>
+      <c r="D423">
         <v>9</v>
       </c>
-      <c r="D423">
-        <v>0</v>
-      </c>
       <c r="E423">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="424" spans="1:5">
@@ -7607,16 +7607,16 @@
         <v>422</v>
       </c>
       <c r="B424" s="2">
-        <v>43861</v>
+        <v>43941</v>
       </c>
       <c r="C424" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D424">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="E424">
-        <v>0</v>
+        <v>117</v>
       </c>
     </row>
     <row r="425" spans="1:5">
@@ -7624,16 +7624,16 @@
         <v>423</v>
       </c>
       <c r="B425" s="2">
-        <v>43862</v>
+        <v>43942</v>
       </c>
       <c r="C425" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D425">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E425">
-        <v>0</v>
+        <v>141</v>
       </c>
     </row>
     <row r="426" spans="1:5">
@@ -7641,16 +7641,16 @@
         <v>424</v>
       </c>
       <c r="B426" s="2">
-        <v>43863</v>
+        <v>43943</v>
       </c>
       <c r="C426" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D426">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E426">
-        <v>0</v>
+        <v>144</v>
       </c>
     </row>
     <row r="427" spans="1:5">
@@ -7658,7 +7658,7 @@
         <v>425</v>
       </c>
       <c r="B427" s="2">
-        <v>43864</v>
+        <v>43859</v>
       </c>
       <c r="C427" t="s">
         <v>9</v>
@@ -7675,7 +7675,7 @@
         <v>426</v>
       </c>
       <c r="B428" s="2">
-        <v>43865</v>
+        <v>43860</v>
       </c>
       <c r="C428" t="s">
         <v>9</v>
@@ -7692,7 +7692,7 @@
         <v>427</v>
       </c>
       <c r="B429" s="2">
-        <v>43866</v>
+        <v>43861</v>
       </c>
       <c r="C429" t="s">
         <v>9</v>
@@ -7709,7 +7709,7 @@
         <v>428</v>
       </c>
       <c r="B430" s="2">
-        <v>43867</v>
+        <v>43862</v>
       </c>
       <c r="C430" t="s">
         <v>9</v>
@@ -7726,7 +7726,7 @@
         <v>429</v>
       </c>
       <c r="B431" s="2">
-        <v>43868</v>
+        <v>43863</v>
       </c>
       <c r="C431" t="s">
         <v>9</v>
@@ -7743,7 +7743,7 @@
         <v>430</v>
       </c>
       <c r="B432" s="2">
-        <v>43869</v>
+        <v>43864</v>
       </c>
       <c r="C432" t="s">
         <v>9</v>
@@ -7760,7 +7760,7 @@
         <v>431</v>
       </c>
       <c r="B433" s="2">
-        <v>43870</v>
+        <v>43865</v>
       </c>
       <c r="C433" t="s">
         <v>9</v>
@@ -7777,7 +7777,7 @@
         <v>432</v>
       </c>
       <c r="B434" s="2">
-        <v>43871</v>
+        <v>43866</v>
       </c>
       <c r="C434" t="s">
         <v>9</v>
@@ -7794,7 +7794,7 @@
         <v>433</v>
       </c>
       <c r="B435" s="2">
-        <v>43872</v>
+        <v>43867</v>
       </c>
       <c r="C435" t="s">
         <v>9</v>
@@ -7811,7 +7811,7 @@
         <v>434</v>
       </c>
       <c r="B436" s="2">
-        <v>43873</v>
+        <v>43868</v>
       </c>
       <c r="C436" t="s">
         <v>9</v>
@@ -7828,7 +7828,7 @@
         <v>435</v>
       </c>
       <c r="B437" s="2">
-        <v>43874</v>
+        <v>43869</v>
       </c>
       <c r="C437" t="s">
         <v>9</v>
@@ -7845,7 +7845,7 @@
         <v>436</v>
       </c>
       <c r="B438" s="2">
-        <v>43875</v>
+        <v>43870</v>
       </c>
       <c r="C438" t="s">
         <v>9</v>
@@ -7862,7 +7862,7 @@
         <v>437</v>
       </c>
       <c r="B439" s="2">
-        <v>43876</v>
+        <v>43871</v>
       </c>
       <c r="C439" t="s">
         <v>9</v>
@@ -7879,7 +7879,7 @@
         <v>438</v>
       </c>
       <c r="B440" s="2">
-        <v>43877</v>
+        <v>43872</v>
       </c>
       <c r="C440" t="s">
         <v>9</v>
@@ -7896,7 +7896,7 @@
         <v>439</v>
       </c>
       <c r="B441" s="2">
-        <v>43878</v>
+        <v>43873</v>
       </c>
       <c r="C441" t="s">
         <v>9</v>
@@ -7913,7 +7913,7 @@
         <v>440</v>
       </c>
       <c r="B442" s="2">
-        <v>43879</v>
+        <v>43874</v>
       </c>
       <c r="C442" t="s">
         <v>9</v>
@@ -7930,7 +7930,7 @@
         <v>441</v>
       </c>
       <c r="B443" s="2">
-        <v>43880</v>
+        <v>43875</v>
       </c>
       <c r="C443" t="s">
         <v>9</v>
@@ -7947,7 +7947,7 @@
         <v>442</v>
       </c>
       <c r="B444" s="2">
-        <v>43881</v>
+        <v>43876</v>
       </c>
       <c r="C444" t="s">
         <v>9</v>
@@ -7964,7 +7964,7 @@
         <v>443</v>
       </c>
       <c r="B445" s="2">
-        <v>43882</v>
+        <v>43877</v>
       </c>
       <c r="C445" t="s">
         <v>9</v>
@@ -7981,7 +7981,7 @@
         <v>444</v>
       </c>
       <c r="B446" s="2">
-        <v>43883</v>
+        <v>43878</v>
       </c>
       <c r="C446" t="s">
         <v>9</v>
@@ -7998,7 +7998,7 @@
         <v>445</v>
       </c>
       <c r="B447" s="2">
-        <v>43884</v>
+        <v>43879</v>
       </c>
       <c r="C447" t="s">
         <v>9</v>
@@ -8015,7 +8015,7 @@
         <v>446</v>
       </c>
       <c r="B448" s="2">
-        <v>43885</v>
+        <v>43880</v>
       </c>
       <c r="C448" t="s">
         <v>9</v>
@@ -8032,7 +8032,7 @@
         <v>447</v>
       </c>
       <c r="B449" s="2">
-        <v>43886</v>
+        <v>43881</v>
       </c>
       <c r="C449" t="s">
         <v>9</v>
@@ -8049,7 +8049,7 @@
         <v>448</v>
       </c>
       <c r="B450" s="2">
-        <v>43887</v>
+        <v>43882</v>
       </c>
       <c r="C450" t="s">
         <v>9</v>
@@ -8066,7 +8066,7 @@
         <v>449</v>
       </c>
       <c r="B451" s="2">
-        <v>43888</v>
+        <v>43883</v>
       </c>
       <c r="C451" t="s">
         <v>9</v>
@@ -8083,7 +8083,7 @@
         <v>450</v>
       </c>
       <c r="B452" s="2">
-        <v>43889</v>
+        <v>43884</v>
       </c>
       <c r="C452" t="s">
         <v>9</v>
@@ -8100,7 +8100,7 @@
         <v>451</v>
       </c>
       <c r="B453" s="2">
-        <v>43890</v>
+        <v>43885</v>
       </c>
       <c r="C453" t="s">
         <v>9</v>
@@ -8117,7 +8117,7 @@
         <v>452</v>
       </c>
       <c r="B454" s="2">
-        <v>43891</v>
+        <v>43886</v>
       </c>
       <c r="C454" t="s">
         <v>9</v>
@@ -8134,7 +8134,7 @@
         <v>453</v>
       </c>
       <c r="B455" s="2">
-        <v>43892</v>
+        <v>43887</v>
       </c>
       <c r="C455" t="s">
         <v>9</v>
@@ -8151,7 +8151,7 @@
         <v>454</v>
       </c>
       <c r="B456" s="2">
-        <v>43893</v>
+        <v>43888</v>
       </c>
       <c r="C456" t="s">
         <v>9</v>
@@ -8168,16 +8168,16 @@
         <v>455</v>
       </c>
       <c r="B457" s="2">
-        <v>43894</v>
+        <v>43889</v>
       </c>
       <c r="C457" t="s">
         <v>9</v>
       </c>
       <c r="D457">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E457">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:5">
@@ -8185,7 +8185,7 @@
         <v>456</v>
       </c>
       <c r="B458" s="2">
-        <v>43895</v>
+        <v>43890</v>
       </c>
       <c r="C458" t="s">
         <v>9</v>
@@ -8194,7 +8194,7 @@
         <v>0</v>
       </c>
       <c r="E458">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:5">
@@ -8202,16 +8202,16 @@
         <v>457</v>
       </c>
       <c r="B459" s="2">
-        <v>43896</v>
+        <v>43891</v>
       </c>
       <c r="C459" t="s">
         <v>9</v>
       </c>
       <c r="D459">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E459">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:5">
@@ -8219,16 +8219,16 @@
         <v>458</v>
       </c>
       <c r="B460" s="2">
-        <v>43897</v>
+        <v>43892</v>
       </c>
       <c r="C460" t="s">
         <v>9</v>
       </c>
       <c r="D460">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E460">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:5">
@@ -8236,16 +8236,16 @@
         <v>459</v>
       </c>
       <c r="B461" s="2">
-        <v>43898</v>
+        <v>43893</v>
       </c>
       <c r="C461" t="s">
         <v>9</v>
       </c>
       <c r="D461">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E461">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:5">
@@ -8253,16 +8253,16 @@
         <v>460</v>
       </c>
       <c r="B462" s="2">
-        <v>43899</v>
+        <v>43894</v>
       </c>
       <c r="C462" t="s">
         <v>9</v>
       </c>
       <c r="D462">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E462">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463" spans="1:5">
@@ -8270,16 +8270,16 @@
         <v>461</v>
       </c>
       <c r="B463" s="2">
-        <v>43900</v>
+        <v>43895</v>
       </c>
       <c r="C463" t="s">
         <v>9</v>
       </c>
       <c r="D463">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E463">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="464" spans="1:5">
@@ -8287,16 +8287,16 @@
         <v>462</v>
       </c>
       <c r="B464" s="2">
-        <v>43901</v>
+        <v>43896</v>
       </c>
       <c r="C464" t="s">
         <v>9</v>
       </c>
       <c r="D464">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E464">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="465" spans="1:5">
@@ -8304,16 +8304,16 @@
         <v>463</v>
       </c>
       <c r="B465" s="2">
-        <v>43902</v>
+        <v>43897</v>
       </c>
       <c r="C465" t="s">
         <v>9</v>
       </c>
       <c r="D465">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E465">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="466" spans="1:5">
@@ -8321,16 +8321,16 @@
         <v>464</v>
       </c>
       <c r="B466" s="2">
-        <v>43903</v>
+        <v>43898</v>
       </c>
       <c r="C466" t="s">
         <v>9</v>
       </c>
       <c r="D466">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E466">
-        <v>25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="467" spans="1:5">
@@ -8338,16 +8338,16 @@
         <v>465</v>
       </c>
       <c r="B467" s="2">
-        <v>43904</v>
+        <v>43899</v>
       </c>
       <c r="C467" t="s">
         <v>9</v>
       </c>
       <c r="D467">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E467">
-        <v>28</v>
+        <v>1</v>
       </c>
     </row>
     <row r="468" spans="1:5">
@@ -8355,7 +8355,7 @@
         <v>466</v>
       </c>
       <c r="B468" s="2">
-        <v>43905</v>
+        <v>43900</v>
       </c>
       <c r="C468" t="s">
         <v>9</v>
@@ -8364,7 +8364,7 @@
         <v>0</v>
       </c>
       <c r="E468">
-        <v>28</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469" spans="1:5">
@@ -8372,16 +8372,16 @@
         <v>467</v>
       </c>
       <c r="B469" s="2">
-        <v>43906</v>
+        <v>43901</v>
       </c>
       <c r="C469" t="s">
         <v>9</v>
       </c>
       <c r="D469">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E469">
-        <v>28</v>
+        <v>2</v>
       </c>
     </row>
     <row r="470" spans="1:5">
@@ -8389,7 +8389,7 @@
         <v>468</v>
       </c>
       <c r="B470" s="2">
-        <v>43907</v>
+        <v>43902</v>
       </c>
       <c r="C470" t="s">
         <v>9</v>
@@ -8398,7 +8398,7 @@
         <v>0</v>
       </c>
       <c r="E470">
-        <v>28</v>
+        <v>2</v>
       </c>
     </row>
     <row r="471" spans="1:5">
@@ -8406,16 +8406,16 @@
         <v>469</v>
       </c>
       <c r="B471" s="2">
-        <v>43908</v>
+        <v>43903</v>
       </c>
       <c r="C471" t="s">
         <v>9</v>
       </c>
       <c r="D471">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E471">
-        <v>31</v>
+        <v>2</v>
       </c>
     </row>
     <row r="472" spans="1:5">
@@ -8423,16 +8423,16 @@
         <v>470</v>
       </c>
       <c r="B472" s="2">
-        <v>43909</v>
+        <v>43904</v>
       </c>
       <c r="C472" t="s">
         <v>9</v>
       </c>
       <c r="D472">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E472">
-        <v>32</v>
+        <v>2</v>
       </c>
     </row>
     <row r="473" spans="1:5">
@@ -8440,16 +8440,16 @@
         <v>471</v>
       </c>
       <c r="B473" s="2">
-        <v>43910</v>
+        <v>43905</v>
       </c>
       <c r="C473" t="s">
         <v>9</v>
       </c>
       <c r="D473">
+        <v>0</v>
+      </c>
+      <c r="E473">
         <v>2</v>
-      </c>
-      <c r="E473">
-        <v>34</v>
       </c>
     </row>
     <row r="474" spans="1:5">
@@ -8457,7 +8457,7 @@
         <v>472</v>
       </c>
       <c r="B474" s="2">
-        <v>43911</v>
+        <v>43906</v>
       </c>
       <c r="C474" t="s">
         <v>9</v>
@@ -8466,7 +8466,7 @@
         <v>0</v>
       </c>
       <c r="E474">
-        <v>34</v>
+        <v>2</v>
       </c>
     </row>
     <row r="475" spans="1:5">
@@ -8474,7 +8474,7 @@
         <v>473</v>
       </c>
       <c r="B475" s="2">
-        <v>43912</v>
+        <v>43907</v>
       </c>
       <c r="C475" t="s">
         <v>9</v>
@@ -8483,7 +8483,7 @@
         <v>0</v>
       </c>
       <c r="E475">
-        <v>34</v>
+        <v>2</v>
       </c>
     </row>
     <row r="476" spans="1:5">
@@ -8491,7 +8491,7 @@
         <v>474</v>
       </c>
       <c r="B476" s="2">
-        <v>43913</v>
+        <v>43908</v>
       </c>
       <c r="C476" t="s">
         <v>9</v>
@@ -8500,7 +8500,7 @@
         <v>0</v>
       </c>
       <c r="E476">
-        <v>34</v>
+        <v>2</v>
       </c>
     </row>
     <row r="477" spans="1:5">
@@ -8508,16 +8508,16 @@
         <v>475</v>
       </c>
       <c r="B477" s="2">
-        <v>43914</v>
+        <v>43909</v>
       </c>
       <c r="C477" t="s">
         <v>9</v>
       </c>
       <c r="D477">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E477">
-        <v>37</v>
+        <v>2</v>
       </c>
     </row>
     <row r="478" spans="1:5">
@@ -8525,16 +8525,16 @@
         <v>476</v>
       </c>
       <c r="B478" s="2">
-        <v>43915</v>
+        <v>43910</v>
       </c>
       <c r="C478" t="s">
         <v>9</v>
       </c>
       <c r="D478">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E478">
-        <v>38</v>
+        <v>2</v>
       </c>
     </row>
     <row r="479" spans="1:5">
@@ -8542,16 +8542,16 @@
         <v>477</v>
       </c>
       <c r="B479" s="2">
-        <v>43916</v>
+        <v>43911</v>
       </c>
       <c r="C479" t="s">
         <v>9</v>
       </c>
       <c r="D479">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E479">
-        <v>41</v>
+        <v>2</v>
       </c>
     </row>
     <row r="480" spans="1:5">
@@ -8559,16 +8559,16 @@
         <v>478</v>
       </c>
       <c r="B480" s="2">
-        <v>43917</v>
+        <v>43912</v>
       </c>
       <c r="C480" t="s">
         <v>9</v>
       </c>
       <c r="D480">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E480">
-        <v>44</v>
+        <v>2</v>
       </c>
     </row>
     <row r="481" spans="1:5">
@@ -8576,16 +8576,16 @@
         <v>479</v>
       </c>
       <c r="B481" s="2">
-        <v>43918</v>
+        <v>43913</v>
       </c>
       <c r="C481" t="s">
         <v>9</v>
       </c>
       <c r="D481">
+        <v>0</v>
+      </c>
+      <c r="E481">
         <v>2</v>
-      </c>
-      <c r="E481">
-        <v>46</v>
       </c>
     </row>
     <row r="482" spans="1:5">
@@ -8593,16 +8593,16 @@
         <v>480</v>
       </c>
       <c r="B482" s="2">
-        <v>43919</v>
+        <v>43914</v>
       </c>
       <c r="C482" t="s">
         <v>9</v>
       </c>
       <c r="D482">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E482">
-        <v>49</v>
+        <v>2</v>
       </c>
     </row>
     <row r="483" spans="1:5">
@@ -8610,16 +8610,16 @@
         <v>481</v>
       </c>
       <c r="B483" s="2">
-        <v>43920</v>
+        <v>43915</v>
       </c>
       <c r="C483" t="s">
         <v>9</v>
       </c>
       <c r="D483">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E483">
-        <v>50</v>
+        <v>4</v>
       </c>
     </row>
     <row r="484" spans="1:5">
@@ -8627,16 +8627,16 @@
         <v>482</v>
       </c>
       <c r="B484" s="2">
-        <v>43921</v>
+        <v>43916</v>
       </c>
       <c r="C484" t="s">
         <v>9</v>
       </c>
       <c r="D484">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E484">
-        <v>54</v>
+        <v>4</v>
       </c>
     </row>
     <row r="485" spans="1:5">
@@ -8644,16 +8644,16 @@
         <v>483</v>
       </c>
       <c r="B485" s="2">
-        <v>43922</v>
+        <v>43917</v>
       </c>
       <c r="C485" t="s">
         <v>9</v>
       </c>
       <c r="D485">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E485">
-        <v>57</v>
+        <v>5</v>
       </c>
     </row>
     <row r="486" spans="1:5">
@@ -8661,16 +8661,16 @@
         <v>484</v>
       </c>
       <c r="B486" s="2">
-        <v>43923</v>
+        <v>43918</v>
       </c>
       <c r="C486" t="s">
         <v>9</v>
       </c>
       <c r="D486">
+        <v>1</v>
+      </c>
+      <c r="E486">
         <v>6</v>
-      </c>
-      <c r="E486">
-        <v>63</v>
       </c>
     </row>
     <row r="487" spans="1:5">
@@ -8678,16 +8678,16 @@
         <v>485</v>
       </c>
       <c r="B487" s="2">
-        <v>43924</v>
+        <v>43919</v>
       </c>
       <c r="C487" t="s">
         <v>9</v>
       </c>
       <c r="D487">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E487">
-        <v>68</v>
+        <v>7</v>
       </c>
     </row>
     <row r="488" spans="1:5">
@@ -8695,16 +8695,16 @@
         <v>486</v>
       </c>
       <c r="B488" s="2">
-        <v>43925</v>
+        <v>43920</v>
       </c>
       <c r="C488" t="s">
         <v>9</v>
       </c>
       <c r="D488">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E488">
-        <v>73</v>
+        <v>7</v>
       </c>
     </row>
     <row r="489" spans="1:5">
@@ -8712,16 +8712,16 @@
         <v>487</v>
       </c>
       <c r="B489" s="2">
-        <v>43926</v>
+        <v>43921</v>
       </c>
       <c r="C489" t="s">
         <v>9</v>
       </c>
       <c r="D489">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E489">
-        <v>74</v>
+        <v>7</v>
       </c>
     </row>
     <row r="490" spans="1:5">
@@ -8729,16 +8729,16 @@
         <v>488</v>
       </c>
       <c r="B490" s="2">
-        <v>43927</v>
+        <v>43922</v>
       </c>
       <c r="C490" t="s">
         <v>9</v>
       </c>
       <c r="D490">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E490">
-        <v>77</v>
+        <v>7</v>
       </c>
     </row>
     <row r="491" spans="1:5">
@@ -8746,16 +8746,16 @@
         <v>489</v>
       </c>
       <c r="B491" s="2">
-        <v>43928</v>
+        <v>43923</v>
       </c>
       <c r="C491" t="s">
         <v>9</v>
       </c>
       <c r="D491">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E491">
-        <v>87</v>
+        <v>8</v>
       </c>
     </row>
     <row r="492" spans="1:5">
@@ -8763,16 +8763,16 @@
         <v>490</v>
       </c>
       <c r="B492" s="2">
-        <v>43929</v>
+        <v>43924</v>
       </c>
       <c r="C492" t="s">
         <v>9</v>
       </c>
       <c r="D492">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E492">
-        <v>97</v>
+        <v>8</v>
       </c>
     </row>
     <row r="493" spans="1:5">
@@ -8780,16 +8780,16 @@
         <v>491</v>
       </c>
       <c r="B493" s="2">
-        <v>43930</v>
+        <v>43925</v>
       </c>
       <c r="C493" t="s">
         <v>9</v>
       </c>
       <c r="D493">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E493">
-        <v>109</v>
+        <v>9</v>
       </c>
     </row>
     <row r="494" spans="1:5">
@@ -8797,16 +8797,16 @@
         <v>492</v>
       </c>
       <c r="B494" s="2">
-        <v>43931</v>
+        <v>43926</v>
       </c>
       <c r="C494" t="s">
         <v>9</v>
       </c>
       <c r="D494">
+        <v>0</v>
+      </c>
+      <c r="E494">
         <v>9</v>
-      </c>
-      <c r="E494">
-        <v>118</v>
       </c>
     </row>
     <row r="495" spans="1:5">
@@ -8814,16 +8814,16 @@
         <v>493</v>
       </c>
       <c r="B495" s="2">
-        <v>43932</v>
+        <v>43927</v>
       </c>
       <c r="C495" t="s">
         <v>9</v>
       </c>
       <c r="D495">
+        <v>0</v>
+      </c>
+      <c r="E495">
         <v>9</v>
-      </c>
-      <c r="E495">
-        <v>127</v>
       </c>
     </row>
     <row r="496" spans="1:5">
@@ -8831,16 +8831,16 @@
         <v>494</v>
       </c>
       <c r="B496" s="2">
-        <v>43933</v>
+        <v>43928</v>
       </c>
       <c r="C496" t="s">
         <v>9</v>
       </c>
       <c r="D496">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E496">
-        <v>139</v>
+        <v>9</v>
       </c>
     </row>
     <row r="497" spans="1:5">
@@ -8848,16 +8848,16 @@
         <v>495</v>
       </c>
       <c r="B497" s="2">
-        <v>43934</v>
+        <v>43929</v>
       </c>
       <c r="C497" t="s">
         <v>9</v>
       </c>
       <c r="D497">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E497">
-        <v>144</v>
+        <v>11</v>
       </c>
     </row>
     <row r="498" spans="1:5">
@@ -8865,16 +8865,16 @@
         <v>496</v>
       </c>
       <c r="B498" s="2">
-        <v>43935</v>
+        <v>43930</v>
       </c>
       <c r="C498" t="s">
         <v>9</v>
       </c>
       <c r="D498">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E498">
-        <v>146</v>
+        <v>14</v>
       </c>
     </row>
     <row r="499" spans="1:5">
@@ -8882,16 +8882,16 @@
         <v>497</v>
       </c>
       <c r="B499" s="2">
-        <v>43936</v>
+        <v>43931</v>
       </c>
       <c r="C499" t="s">
         <v>9</v>
       </c>
       <c r="D499">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="E499">
-        <v>173</v>
+        <v>22</v>
       </c>
     </row>
     <row r="500" spans="1:5">
@@ -8899,16 +8899,16 @@
         <v>498</v>
       </c>
       <c r="B500" s="2">
-        <v>43937</v>
+        <v>43932</v>
       </c>
       <c r="C500" t="s">
         <v>9</v>
       </c>
       <c r="D500">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E500">
-        <v>182</v>
+        <v>24</v>
       </c>
     </row>
     <row r="501" spans="1:5">
@@ -8916,16 +8916,16 @@
         <v>499</v>
       </c>
       <c r="B501" s="2">
-        <v>43938</v>
+        <v>43933</v>
       </c>
       <c r="C501" t="s">
         <v>9</v>
       </c>
       <c r="D501">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E501">
-        <v>192</v>
+        <v>25</v>
       </c>
     </row>
     <row r="502" spans="1:5">
@@ -8933,16 +8933,16 @@
         <v>500</v>
       </c>
       <c r="B502" s="2">
-        <v>43939</v>
+        <v>43934</v>
       </c>
       <c r="C502" t="s">
         <v>9</v>
       </c>
       <c r="D502">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E502">
-        <v>194</v>
+        <v>25</v>
       </c>
     </row>
     <row r="503" spans="1:5">
@@ -8950,7 +8950,7 @@
         <v>501</v>
       </c>
       <c r="B503" s="2">
-        <v>43940</v>
+        <v>43935</v>
       </c>
       <c r="C503" t="s">
         <v>9</v>
@@ -8959,7 +8959,7 @@
         <v>2</v>
       </c>
       <c r="E503">
-        <v>196</v>
+        <v>27</v>
       </c>
     </row>
     <row r="504" spans="1:5">
@@ -8967,16 +8967,16 @@
         <v>502</v>
       </c>
       <c r="B504" s="2">
-        <v>43941</v>
+        <v>43936</v>
       </c>
       <c r="C504" t="s">
         <v>9</v>
       </c>
       <c r="D504">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E504">
-        <v>201</v>
+        <v>29</v>
       </c>
     </row>
     <row r="505" spans="1:5">
@@ -8984,16 +8984,16 @@
         <v>503</v>
       </c>
       <c r="B505" s="2">
-        <v>43942</v>
+        <v>43937</v>
       </c>
       <c r="C505" t="s">
         <v>9</v>
       </c>
       <c r="D505">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E505">
-        <v>206</v>
+        <v>29</v>
       </c>
     </row>
     <row r="506" spans="1:5">
@@ -9001,16 +9001,16 @@
         <v>504</v>
       </c>
       <c r="B506" s="2">
-        <v>43859</v>
+        <v>43938</v>
       </c>
       <c r="C506" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D506">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E506">
-        <v>1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="507" spans="1:5">
@@ -9018,16 +9018,16 @@
         <v>505</v>
       </c>
       <c r="B507" s="2">
-        <v>43860</v>
+        <v>43939</v>
       </c>
       <c r="C507" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D507">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E507">
-        <v>1</v>
+        <v>37</v>
       </c>
     </row>
     <row r="508" spans="1:5">
@@ -9035,16 +9035,16 @@
         <v>506</v>
       </c>
       <c r="B508" s="2">
-        <v>43861</v>
+        <v>43940</v>
       </c>
       <c r="C508" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D508">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E508">
-        <v>1</v>
+        <v>39</v>
       </c>
     </row>
     <row r="509" spans="1:5">
@@ -9052,16 +9052,16 @@
         <v>507</v>
       </c>
       <c r="B509" s="2">
-        <v>43862</v>
+        <v>43941</v>
       </c>
       <c r="C509" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D509">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="E509">
-        <v>1</v>
+        <v>66</v>
       </c>
     </row>
     <row r="510" spans="1:5">
@@ -9069,16 +9069,16 @@
         <v>508</v>
       </c>
       <c r="B510" s="2">
-        <v>43863</v>
+        <v>43942</v>
       </c>
       <c r="C510" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D510">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E510">
-        <v>1</v>
+        <v>68</v>
       </c>
     </row>
     <row r="511" spans="1:5">
@@ -9086,16 +9086,16 @@
         <v>509</v>
       </c>
       <c r="B511" s="2">
-        <v>43864</v>
+        <v>43943</v>
       </c>
       <c r="C511" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D511">
         <v>0</v>
       </c>
       <c r="E511">
-        <v>1</v>
+        <v>68</v>
       </c>
     </row>
     <row r="512" spans="1:5">
@@ -9103,13 +9103,13 @@
         <v>510</v>
       </c>
       <c r="B512" s="2">
-        <v>43865</v>
+        <v>43859</v>
       </c>
       <c r="C512" t="s">
         <v>10</v>
       </c>
       <c r="D512">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E512">
         <v>1</v>
@@ -9120,7 +9120,7 @@
         <v>511</v>
       </c>
       <c r="B513" s="2">
-        <v>43866</v>
+        <v>43860</v>
       </c>
       <c r="C513" t="s">
         <v>10</v>
@@ -9137,7 +9137,7 @@
         <v>512</v>
       </c>
       <c r="B514" s="2">
-        <v>43867</v>
+        <v>43861</v>
       </c>
       <c r="C514" t="s">
         <v>10</v>
@@ -9154,7 +9154,7 @@
         <v>513</v>
       </c>
       <c r="B515" s="2">
-        <v>43868</v>
+        <v>43862</v>
       </c>
       <c r="C515" t="s">
         <v>10</v>
@@ -9171,7 +9171,7 @@
         <v>514</v>
       </c>
       <c r="B516" s="2">
-        <v>43869</v>
+        <v>43863</v>
       </c>
       <c r="C516" t="s">
         <v>10</v>
@@ -9188,7 +9188,7 @@
         <v>515</v>
       </c>
       <c r="B517" s="2">
-        <v>43870</v>
+        <v>43864</v>
       </c>
       <c r="C517" t="s">
         <v>10</v>
@@ -9205,7 +9205,7 @@
         <v>516</v>
       </c>
       <c r="B518" s="2">
-        <v>43871</v>
+        <v>43865</v>
       </c>
       <c r="C518" t="s">
         <v>10</v>
@@ -9222,7 +9222,7 @@
         <v>517</v>
       </c>
       <c r="B519" s="2">
-        <v>43872</v>
+        <v>43866</v>
       </c>
       <c r="C519" t="s">
         <v>10</v>
@@ -9239,7 +9239,7 @@
         <v>518</v>
       </c>
       <c r="B520" s="2">
-        <v>43873</v>
+        <v>43867</v>
       </c>
       <c r="C520" t="s">
         <v>10</v>
@@ -9256,7 +9256,7 @@
         <v>519</v>
       </c>
       <c r="B521" s="2">
-        <v>43874</v>
+        <v>43868</v>
       </c>
       <c r="C521" t="s">
         <v>10</v>
@@ -9273,7 +9273,7 @@
         <v>520</v>
       </c>
       <c r="B522" s="2">
-        <v>43875</v>
+        <v>43869</v>
       </c>
       <c r="C522" t="s">
         <v>10</v>
@@ -9290,7 +9290,7 @@
         <v>521</v>
       </c>
       <c r="B523" s="2">
-        <v>43876</v>
+        <v>43870</v>
       </c>
       <c r="C523" t="s">
         <v>10</v>
@@ -9307,7 +9307,7 @@
         <v>522</v>
       </c>
       <c r="B524" s="2">
-        <v>43877</v>
+        <v>43871</v>
       </c>
       <c r="C524" t="s">
         <v>10</v>
@@ -9324,7 +9324,7 @@
         <v>523</v>
       </c>
       <c r="B525" s="2">
-        <v>43878</v>
+        <v>43872</v>
       </c>
       <c r="C525" t="s">
         <v>10</v>
@@ -9341,7 +9341,7 @@
         <v>524</v>
       </c>
       <c r="B526" s="2">
-        <v>43879</v>
+        <v>43873</v>
       </c>
       <c r="C526" t="s">
         <v>10</v>
@@ -9358,7 +9358,7 @@
         <v>525</v>
       </c>
       <c r="B527" s="2">
-        <v>43880</v>
+        <v>43874</v>
       </c>
       <c r="C527" t="s">
         <v>10</v>
@@ -9375,7 +9375,7 @@
         <v>526</v>
       </c>
       <c r="B528" s="2">
-        <v>43881</v>
+        <v>43875</v>
       </c>
       <c r="C528" t="s">
         <v>10</v>
@@ -9392,7 +9392,7 @@
         <v>527</v>
       </c>
       <c r="B529" s="2">
-        <v>43882</v>
+        <v>43876</v>
       </c>
       <c r="C529" t="s">
         <v>10</v>
@@ -9409,7 +9409,7 @@
         <v>528</v>
       </c>
       <c r="B530" s="2">
-        <v>43883</v>
+        <v>43877</v>
       </c>
       <c r="C530" t="s">
         <v>10</v>
@@ -9426,7 +9426,7 @@
         <v>529</v>
       </c>
       <c r="B531" s="2">
-        <v>43884</v>
+        <v>43878</v>
       </c>
       <c r="C531" t="s">
         <v>10</v>
@@ -9443,7 +9443,7 @@
         <v>530</v>
       </c>
       <c r="B532" s="2">
-        <v>43885</v>
+        <v>43879</v>
       </c>
       <c r="C532" t="s">
         <v>10</v>
@@ -9460,7 +9460,7 @@
         <v>531</v>
       </c>
       <c r="B533" s="2">
-        <v>43886</v>
+        <v>43880</v>
       </c>
       <c r="C533" t="s">
         <v>10</v>
@@ -9477,7 +9477,7 @@
         <v>532</v>
       </c>
       <c r="B534" s="2">
-        <v>43887</v>
+        <v>43881</v>
       </c>
       <c r="C534" t="s">
         <v>10</v>
@@ -9494,16 +9494,16 @@
         <v>533</v>
       </c>
       <c r="B535" s="2">
-        <v>43888</v>
+        <v>43882</v>
       </c>
       <c r="C535" t="s">
         <v>10</v>
       </c>
       <c r="D535">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E535">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="536" spans="1:5">
@@ -9511,16 +9511,16 @@
         <v>534</v>
       </c>
       <c r="B536" s="2">
-        <v>43889</v>
+        <v>43883</v>
       </c>
       <c r="C536" t="s">
         <v>10</v>
       </c>
       <c r="D536">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E536">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="537" spans="1:5">
@@ -9528,7 +9528,7 @@
         <v>535</v>
       </c>
       <c r="B537" s="2">
-        <v>43890</v>
+        <v>43884</v>
       </c>
       <c r="C537" t="s">
         <v>10</v>
@@ -9537,7 +9537,7 @@
         <v>0</v>
       </c>
       <c r="E537">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="538" spans="1:5">
@@ -9545,7 +9545,7 @@
         <v>536</v>
       </c>
       <c r="B538" s="2">
-        <v>43891</v>
+        <v>43885</v>
       </c>
       <c r="C538" t="s">
         <v>10</v>
@@ -9554,7 +9554,7 @@
         <v>0</v>
       </c>
       <c r="E538">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="539" spans="1:5">
@@ -9562,16 +9562,16 @@
         <v>537</v>
       </c>
       <c r="B539" s="2">
-        <v>43892</v>
+        <v>43886</v>
       </c>
       <c r="C539" t="s">
         <v>10</v>
       </c>
       <c r="D539">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E539">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="540" spans="1:5">
@@ -9579,16 +9579,16 @@
         <v>538</v>
       </c>
       <c r="B540" s="2">
-        <v>43893</v>
+        <v>43887</v>
       </c>
       <c r="C540" t="s">
         <v>10</v>
       </c>
       <c r="D540">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E540">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="541" spans="1:5">
@@ -9596,16 +9596,16 @@
         <v>539</v>
       </c>
       <c r="B541" s="2">
-        <v>43894</v>
+        <v>43888</v>
       </c>
       <c r="C541" t="s">
         <v>10</v>
       </c>
       <c r="D541">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E541">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="542" spans="1:5">
@@ -9613,16 +9613,16 @@
         <v>540</v>
       </c>
       <c r="B542" s="2">
-        <v>43895</v>
+        <v>43889</v>
       </c>
       <c r="C542" t="s">
         <v>10</v>
       </c>
       <c r="D542">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E542">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="543" spans="1:5">
@@ -9630,16 +9630,16 @@
         <v>541</v>
       </c>
       <c r="B543" s="2">
-        <v>43896</v>
+        <v>43890</v>
       </c>
       <c r="C543" t="s">
         <v>10</v>
       </c>
       <c r="D543">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E543">
-        <v>31</v>
+        <v>4</v>
       </c>
     </row>
     <row r="544" spans="1:5">
@@ -9647,16 +9647,16 @@
         <v>542</v>
       </c>
       <c r="B544" s="2">
-        <v>43897</v>
+        <v>43891</v>
       </c>
       <c r="C544" t="s">
         <v>10</v>
       </c>
       <c r="D544">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E544">
-        <v>41</v>
+        <v>4</v>
       </c>
     </row>
     <row r="545" spans="1:5">
@@ -9664,16 +9664,16 @@
         <v>543</v>
       </c>
       <c r="B545" s="2">
-        <v>43898</v>
+        <v>43892</v>
       </c>
       <c r="C545" t="s">
         <v>10</v>
       </c>
       <c r="D545">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E545">
-        <v>55</v>
+        <v>6</v>
       </c>
     </row>
     <row r="546" spans="1:5">
@@ -9681,16 +9681,16 @@
         <v>544</v>
       </c>
       <c r="B546" s="2">
-        <v>43899</v>
+        <v>43893</v>
       </c>
       <c r="C546" t="s">
         <v>10</v>
       </c>
       <c r="D546">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E546">
-        <v>55</v>
+        <v>8</v>
       </c>
     </row>
     <row r="547" spans="1:5">
@@ -9698,16 +9698,16 @@
         <v>545</v>
       </c>
       <c r="B547" s="2">
-        <v>43900</v>
+        <v>43894</v>
       </c>
       <c r="C547" t="s">
         <v>10</v>
       </c>
       <c r="D547">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E547">
-        <v>73</v>
+        <v>17</v>
       </c>
     </row>
     <row r="548" spans="1:5">
@@ -9715,16 +9715,16 @@
         <v>546</v>
       </c>
       <c r="B548" s="2">
-        <v>43901</v>
+        <v>43895</v>
       </c>
       <c r="C548" t="s">
         <v>10</v>
       </c>
       <c r="D548">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E548">
-        <v>80</v>
+        <v>18</v>
       </c>
     </row>
     <row r="549" spans="1:5">
@@ -9732,16 +9732,16 @@
         <v>547</v>
       </c>
       <c r="B549" s="2">
-        <v>43902</v>
+        <v>43896</v>
       </c>
       <c r="C549" t="s">
         <v>10</v>
       </c>
       <c r="D549">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E549">
-        <v>89</v>
+        <v>31</v>
       </c>
     </row>
     <row r="550" spans="1:5">
@@ -9749,16 +9749,16 @@
         <v>548</v>
       </c>
       <c r="B550" s="2">
-        <v>43903</v>
+        <v>43897</v>
       </c>
       <c r="C550" t="s">
         <v>10</v>
       </c>
       <c r="D550">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E550">
-        <v>92</v>
+        <v>41</v>
       </c>
     </row>
     <row r="551" spans="1:5">
@@ -9766,16 +9766,16 @@
         <v>549</v>
       </c>
       <c r="B551" s="2">
-        <v>43904</v>
+        <v>43898</v>
       </c>
       <c r="C551" t="s">
         <v>10</v>
       </c>
       <c r="D551">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E551">
-        <v>102</v>
+        <v>55</v>
       </c>
     </row>
     <row r="552" spans="1:5">
@@ -9783,16 +9783,16 @@
         <v>550</v>
       </c>
       <c r="B552" s="2">
-        <v>43905</v>
+        <v>43899</v>
       </c>
       <c r="C552" t="s">
         <v>10</v>
       </c>
       <c r="D552">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E552">
-        <v>106</v>
+        <v>55</v>
       </c>
     </row>
     <row r="553" spans="1:5">
@@ -9800,16 +9800,16 @@
         <v>551</v>
       </c>
       <c r="B553" s="2">
-        <v>43906</v>
+        <v>43900</v>
       </c>
       <c r="C553" t="s">
         <v>10</v>
       </c>
       <c r="D553">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="E553">
-        <v>108</v>
+        <v>73</v>
       </c>
     </row>
     <row r="554" spans="1:5">
@@ -9817,16 +9817,16 @@
         <v>552</v>
       </c>
       <c r="B554" s="2">
-        <v>43907</v>
+        <v>43901</v>
       </c>
       <c r="C554" t="s">
         <v>10</v>
       </c>
       <c r="D554">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E554">
-        <v>112</v>
+        <v>80</v>
       </c>
     </row>
     <row r="555" spans="1:5">
@@ -9834,16 +9834,16 @@
         <v>553</v>
       </c>
       <c r="B555" s="2">
-        <v>43908</v>
+        <v>43902</v>
       </c>
       <c r="C555" t="s">
         <v>10</v>
       </c>
       <c r="D555">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E555">
-        <v>117</v>
+        <v>89</v>
       </c>
     </row>
     <row r="556" spans="1:5">
@@ -9851,16 +9851,16 @@
         <v>554</v>
       </c>
       <c r="B556" s="2">
-        <v>43909</v>
+        <v>43903</v>
       </c>
       <c r="C556" t="s">
         <v>10</v>
       </c>
       <c r="D556">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E556">
-        <v>119</v>
+        <v>92</v>
       </c>
     </row>
     <row r="557" spans="1:5">
@@ -9868,16 +9868,16 @@
         <v>555</v>
       </c>
       <c r="B557" s="2">
-        <v>43910</v>
+        <v>43904</v>
       </c>
       <c r="C557" t="s">
         <v>10</v>
       </c>
       <c r="D557">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E557">
-        <v>123</v>
+        <v>102</v>
       </c>
     </row>
     <row r="558" spans="1:5">
@@ -9885,16 +9885,16 @@
         <v>556</v>
       </c>
       <c r="B558" s="2">
-        <v>43911</v>
+        <v>43905</v>
       </c>
       <c r="C558" t="s">
         <v>10</v>
       </c>
       <c r="D558">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E558">
-        <v>125</v>
+        <v>106</v>
       </c>
     </row>
     <row r="559" spans="1:5">
@@ -9902,16 +9902,16 @@
         <v>557</v>
       </c>
       <c r="B559" s="2">
-        <v>43912</v>
+        <v>43906</v>
       </c>
       <c r="C559" t="s">
         <v>10</v>
       </c>
       <c r="D559">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E559">
-        <v>131</v>
+        <v>108</v>
       </c>
     </row>
     <row r="560" spans="1:5">
@@ -9919,16 +9919,16 @@
         <v>558</v>
       </c>
       <c r="B560" s="2">
-        <v>43913</v>
+        <v>43907</v>
       </c>
       <c r="C560" t="s">
         <v>10</v>
       </c>
       <c r="D560">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E560">
-        <v>134</v>
+        <v>112</v>
       </c>
     </row>
     <row r="561" spans="1:5">
@@ -9936,16 +9936,16 @@
         <v>559</v>
       </c>
       <c r="B561" s="2">
-        <v>43914</v>
+        <v>43908</v>
       </c>
       <c r="C561" t="s">
         <v>10</v>
       </c>
       <c r="D561">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E561">
-        <v>142</v>
+        <v>117</v>
       </c>
     </row>
     <row r="562" spans="1:5">
@@ -9953,16 +9953,16 @@
         <v>560</v>
       </c>
       <c r="B562" s="2">
-        <v>43915</v>
+        <v>43909</v>
       </c>
       <c r="C562" t="s">
         <v>10</v>
       </c>
       <c r="D562">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E562">
-        <v>149</v>
+        <v>119</v>
       </c>
     </row>
     <row r="563" spans="1:5">
@@ -9970,16 +9970,16 @@
         <v>561</v>
       </c>
       <c r="B563" s="2">
-        <v>43916</v>
+        <v>43910</v>
       </c>
       <c r="C563" t="s">
         <v>10</v>
       </c>
       <c r="D563">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E563">
-        <v>156</v>
+        <v>123</v>
       </c>
     </row>
     <row r="564" spans="1:5">
@@ -9987,16 +9987,16 @@
         <v>562</v>
       </c>
       <c r="B564" s="2">
-        <v>43917</v>
+        <v>43911</v>
       </c>
       <c r="C564" t="s">
         <v>10</v>
       </c>
       <c r="D564">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E564">
-        <v>176</v>
+        <v>125</v>
       </c>
     </row>
     <row r="565" spans="1:5">
@@ -10004,16 +10004,16 @@
         <v>563</v>
       </c>
       <c r="B565" s="2">
-        <v>43918</v>
+        <v>43912</v>
       </c>
       <c r="C565" t="s">
         <v>10</v>
       </c>
       <c r="D565">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E565">
-        <v>191</v>
+        <v>131</v>
       </c>
     </row>
     <row r="566" spans="1:5">
@@ -10021,16 +10021,16 @@
         <v>564</v>
       </c>
       <c r="B566" s="2">
-        <v>43919</v>
+        <v>43913</v>
       </c>
       <c r="C566" t="s">
         <v>10</v>
       </c>
       <c r="D566">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="E566">
-        <v>208</v>
+        <v>134</v>
       </c>
     </row>
     <row r="567" spans="1:5">
@@ -10038,7 +10038,7 @@
         <v>565</v>
       </c>
       <c r="B567" s="2">
-        <v>43920</v>
+        <v>43914</v>
       </c>
       <c r="C567" t="s">
         <v>10</v>
@@ -10047,7 +10047,7 @@
         <v>8</v>
       </c>
       <c r="E567">
-        <v>216</v>
+        <v>142</v>
       </c>
     </row>
     <row r="568" spans="1:5">
@@ -10055,16 +10055,16 @@
         <v>566</v>
       </c>
       <c r="B568" s="2">
-        <v>43921</v>
+        <v>43915</v>
       </c>
       <c r="C568" t="s">
         <v>10</v>
       </c>
       <c r="D568">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="E568">
-        <v>244</v>
+        <v>149</v>
       </c>
     </row>
     <row r="569" spans="1:5">
@@ -10072,16 +10072,16 @@
         <v>567</v>
       </c>
       <c r="B569" s="2">
-        <v>43922</v>
+        <v>43916</v>
       </c>
       <c r="C569" t="s">
         <v>10</v>
       </c>
       <c r="D569">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="E569">
-        <v>278</v>
+        <v>156</v>
       </c>
     </row>
     <row r="570" spans="1:5">
@@ -10089,16 +10089,16 @@
         <v>568</v>
       </c>
       <c r="B570" s="2">
-        <v>43923</v>
+        <v>43917</v>
       </c>
       <c r="C570" t="s">
         <v>10</v>
       </c>
       <c r="D570">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E570">
-        <v>311</v>
+        <v>176</v>
       </c>
     </row>
     <row r="571" spans="1:5">
@@ -10106,16 +10106,16 @@
         <v>569</v>
       </c>
       <c r="B571" s="2">
-        <v>43924</v>
+        <v>43918</v>
       </c>
       <c r="C571" t="s">
         <v>10</v>
       </c>
       <c r="D571">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="E571">
-        <v>346</v>
+        <v>191</v>
       </c>
     </row>
     <row r="572" spans="1:5">
@@ -10123,16 +10123,16 @@
         <v>570</v>
       </c>
       <c r="B572" s="2">
-        <v>43925</v>
+        <v>43919</v>
       </c>
       <c r="C572" t="s">
         <v>10</v>
       </c>
       <c r="D572">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="E572">
-        <v>387</v>
+        <v>208</v>
       </c>
     </row>
     <row r="573" spans="1:5">
@@ -10140,16 +10140,16 @@
         <v>571</v>
       </c>
       <c r="B573" s="2">
-        <v>43926</v>
+        <v>43920</v>
       </c>
       <c r="C573" t="s">
         <v>10</v>
       </c>
       <c r="D573">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E573">
-        <v>408</v>
+        <v>216</v>
       </c>
     </row>
     <row r="574" spans="1:5">
@@ -10157,16 +10157,16 @@
         <v>572</v>
       </c>
       <c r="B574" s="2">
-        <v>43927</v>
+        <v>43921</v>
       </c>
       <c r="C574" t="s">
         <v>10</v>
       </c>
       <c r="D574">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E574">
-        <v>428</v>
+        <v>244</v>
       </c>
     </row>
     <row r="575" spans="1:5">
@@ -10174,16 +10174,16 @@
         <v>573</v>
       </c>
       <c r="B575" s="2">
-        <v>43928</v>
+        <v>43922</v>
       </c>
       <c r="C575" t="s">
         <v>10</v>
       </c>
       <c r="D575">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="E575">
-        <v>481</v>
+        <v>278</v>
       </c>
     </row>
     <row r="576" spans="1:5">
@@ -10191,16 +10191,16 @@
         <v>574</v>
       </c>
       <c r="B576" s="2">
-        <v>43929</v>
+        <v>43923</v>
       </c>
       <c r="C576" t="s">
         <v>10</v>
       </c>
       <c r="D576">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="E576">
-        <v>524</v>
+        <v>311</v>
       </c>
     </row>
     <row r="577" spans="1:5">
@@ -10208,16 +10208,16 @@
         <v>575</v>
       </c>
       <c r="B577" s="2">
-        <v>43930</v>
+        <v>43924</v>
       </c>
       <c r="C577" t="s">
         <v>10</v>
       </c>
       <c r="D577">
-        <v>92</v>
+        <v>35</v>
       </c>
       <c r="E577">
-        <v>616</v>
+        <v>346</v>
       </c>
     </row>
     <row r="578" spans="1:5">
@@ -10225,16 +10225,16 @@
         <v>576</v>
       </c>
       <c r="B578" s="2">
-        <v>43931</v>
+        <v>43925</v>
       </c>
       <c r="C578" t="s">
         <v>10</v>
       </c>
       <c r="D578">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="E578">
-        <v>696</v>
+        <v>387</v>
       </c>
     </row>
     <row r="579" spans="1:5">
@@ -10242,16 +10242,16 @@
         <v>577</v>
       </c>
       <c r="B579" s="2">
-        <v>43932</v>
+        <v>43926</v>
       </c>
       <c r="C579" t="s">
         <v>10</v>
       </c>
       <c r="D579">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="E579">
-        <v>766</v>
+        <v>408</v>
       </c>
     </row>
     <row r="580" spans="1:5">
@@ -10259,16 +10259,16 @@
         <v>578</v>
       </c>
       <c r="B580" s="2">
-        <v>43933</v>
+        <v>43927</v>
       </c>
       <c r="C580" t="s">
         <v>10</v>
       </c>
       <c r="D580">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="E580">
-        <v>811</v>
+        <v>428</v>
       </c>
     </row>
     <row r="581" spans="1:5">
@@ -10276,16 +10276,16 @@
         <v>579</v>
       </c>
       <c r="B581" s="2">
-        <v>43934</v>
+        <v>43928</v>
       </c>
       <c r="C581" t="s">
         <v>10</v>
       </c>
       <c r="D581">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="E581">
-        <v>835</v>
+        <v>481</v>
       </c>
     </row>
     <row r="582" spans="1:5">
@@ -10293,16 +10293,16 @@
         <v>580</v>
       </c>
       <c r="B582" s="2">
-        <v>43935</v>
+        <v>43929</v>
       </c>
       <c r="C582" t="s">
         <v>10</v>
       </c>
       <c r="D582">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="E582">
-        <v>894</v>
+        <v>524</v>
       </c>
     </row>
     <row r="583" spans="1:5">
@@ -10310,16 +10310,16 @@
         <v>581</v>
       </c>
       <c r="B583" s="2">
-        <v>43936</v>
+        <v>43930</v>
       </c>
       <c r="C583" t="s">
         <v>10</v>
       </c>
       <c r="D583">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="E583">
-        <v>968</v>
+        <v>616</v>
       </c>
     </row>
     <row r="584" spans="1:5">
@@ -10327,16 +10327,16 @@
         <v>582</v>
       </c>
       <c r="B584" s="2">
-        <v>43937</v>
+        <v>43931</v>
       </c>
       <c r="C584" t="s">
         <v>10</v>
       </c>
       <c r="D584">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="E584">
-        <v>1020</v>
+        <v>696</v>
       </c>
     </row>
     <row r="585" spans="1:5">
@@ -10344,16 +10344,16 @@
         <v>583</v>
       </c>
       <c r="B585" s="2">
-        <v>43938</v>
+        <v>43932</v>
       </c>
       <c r="C585" t="s">
         <v>10</v>
       </c>
       <c r="D585">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="E585">
-        <v>1075</v>
+        <v>766</v>
       </c>
     </row>
     <row r="586" spans="1:5">
@@ -10361,16 +10361,16 @@
         <v>584</v>
       </c>
       <c r="B586" s="2">
-        <v>43939</v>
+        <v>43933</v>
       </c>
       <c r="C586" t="s">
         <v>10</v>
       </c>
       <c r="D586">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="E586">
-        <v>1163</v>
+        <v>811</v>
       </c>
     </row>
     <row r="587" spans="1:5">
@@ -10378,16 +10378,16 @@
         <v>585</v>
       </c>
       <c r="B587" s="2">
-        <v>43940</v>
+        <v>43934</v>
       </c>
       <c r="C587" t="s">
         <v>10</v>
       </c>
       <c r="D587">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="E587">
-        <v>1211</v>
+        <v>835</v>
       </c>
     </row>
     <row r="588" spans="1:5">
@@ -10395,16 +10395,16 @@
         <v>586</v>
       </c>
       <c r="B588" s="2">
-        <v>43941</v>
+        <v>43935</v>
       </c>
       <c r="C588" t="s">
         <v>10</v>
       </c>
       <c r="D588">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="E588">
-        <v>1295</v>
+        <v>894</v>
       </c>
     </row>
     <row r="589" spans="1:5">
@@ -10412,16 +10412,135 @@
         <v>587</v>
       </c>
       <c r="B589" s="2">
-        <v>43942</v>
+        <v>43936</v>
       </c>
       <c r="C589" t="s">
         <v>10</v>
       </c>
       <c r="D589">
+        <v>74</v>
+      </c>
+      <c r="E589">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="590" spans="1:5">
+      <c r="A590" s="1">
+        <v>588</v>
+      </c>
+      <c r="B590" s="2">
+        <v>43937</v>
+      </c>
+      <c r="C590" t="s">
+        <v>10</v>
+      </c>
+      <c r="D590">
+        <v>52</v>
+      </c>
+      <c r="E590">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="591" spans="1:5">
+      <c r="A591" s="1">
+        <v>589</v>
+      </c>
+      <c r="B591" s="2">
+        <v>43938</v>
+      </c>
+      <c r="C591" t="s">
+        <v>10</v>
+      </c>
+      <c r="D591">
+        <v>55</v>
+      </c>
+      <c r="E591">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="592" spans="1:5">
+      <c r="A592" s="1">
+        <v>590</v>
+      </c>
+      <c r="B592" s="2">
+        <v>43939</v>
+      </c>
+      <c r="C592" t="s">
+        <v>10</v>
+      </c>
+      <c r="D592">
+        <v>88</v>
+      </c>
+      <c r="E592">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="593" spans="1:5">
+      <c r="A593" s="1">
+        <v>591</v>
+      </c>
+      <c r="B593" s="2">
+        <v>43940</v>
+      </c>
+      <c r="C593" t="s">
+        <v>10</v>
+      </c>
+      <c r="D593">
+        <v>48</v>
+      </c>
+      <c r="E593">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="594" spans="1:5">
+      <c r="A594" s="1">
+        <v>592</v>
+      </c>
+      <c r="B594" s="2">
+        <v>43941</v>
+      </c>
+      <c r="C594" t="s">
+        <v>10</v>
+      </c>
+      <c r="D594">
+        <v>84</v>
+      </c>
+      <c r="E594">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="595" spans="1:5">
+      <c r="A595" s="1">
+        <v>593</v>
+      </c>
+      <c r="B595" s="2">
+        <v>43942</v>
+      </c>
+      <c r="C595" t="s">
+        <v>10</v>
+      </c>
+      <c r="D595">
         <v>54</v>
       </c>
-      <c r="E589">
+      <c r="E595">
         <v>1349</v>
+      </c>
+    </row>
+    <row r="596" spans="1:5">
+      <c r="A596" s="1">
+        <v>594</v>
+      </c>
+      <c r="B596" s="2">
+        <v>43943</v>
+      </c>
+      <c r="C596" t="s">
+        <v>10</v>
+      </c>
+      <c r="D596">
+        <v>35</v>
+      </c>
+      <c r="E596">
+        <v>1384</v>
       </c>
     </row>
   </sheetData>

--- a/Covid19_Osaka_AreaNumData.xlsx
+++ b/Covid19_Osaka_AreaNumData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="11">
   <si>
     <t>日付</t>
   </si>
@@ -28,22 +28,22 @@
     <t>累計</t>
   </si>
   <si>
-    <t>北大阪</t>
+    <t>東部大阪</t>
+  </si>
+  <si>
+    <t>南河内</t>
+  </si>
+  <si>
+    <t>泉州</t>
   </si>
   <si>
     <t>大阪市</t>
   </si>
   <si>
-    <t>泉州</t>
-  </si>
-  <si>
-    <t>東部大阪</t>
-  </si>
-  <si>
     <t>その他</t>
   </si>
   <si>
-    <t>南河内</t>
+    <t>北大阪</t>
   </si>
   <si>
     <t>全域</t>
@@ -408,7 +408,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E596"/>
+  <dimension ref="A1:E603"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1017,10 +1017,10 @@
         <v>4</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1034,10 +1034,10 @@
         <v>4</v>
       </c>
       <c r="D37">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1051,10 +1051,10 @@
         <v>4</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1068,10 +1068,10 @@
         <v>4</v>
       </c>
       <c r="D39">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E39">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1088,7 +1088,7 @@
         <v>4</v>
       </c>
       <c r="E40">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1105,7 +1105,7 @@
         <v>2</v>
       </c>
       <c r="E41">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1136,7 +1136,7 @@
         <v>4</v>
       </c>
       <c r="D43">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E43">
         <v>16</v>
@@ -1153,10 +1153,10 @@
         <v>4</v>
       </c>
       <c r="D44">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E44">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1170,10 +1170,10 @@
         <v>4</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E45">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1187,10 +1187,10 @@
         <v>4</v>
       </c>
       <c r="D46">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E46">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1207,7 +1207,7 @@
         <v>3</v>
       </c>
       <c r="E47">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1224,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="E48">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1238,10 +1238,10 @@
         <v>4</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E49">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1258,7 +1258,7 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1272,10 +1272,10 @@
         <v>4</v>
       </c>
       <c r="D51">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E51">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1289,10 +1289,10 @@
         <v>4</v>
       </c>
       <c r="D52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E52">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1306,10 +1306,10 @@
         <v>4</v>
       </c>
       <c r="D53">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E53">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1340,10 +1340,10 @@
         <v>4</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E55">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1360,7 +1360,7 @@
         <v>0</v>
       </c>
       <c r="E56">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1374,10 +1374,10 @@
         <v>4</v>
       </c>
       <c r="D57">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E57">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1394,7 +1394,7 @@
         <v>1</v>
       </c>
       <c r="E58">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1408,10 +1408,10 @@
         <v>4</v>
       </c>
       <c r="D59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E59">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1425,10 +1425,10 @@
         <v>4</v>
       </c>
       <c r="D60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E60">
-        <v>44</v>
+        <v>31</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1445,7 +1445,7 @@
         <v>2</v>
       </c>
       <c r="E61">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1462,7 +1462,7 @@
         <v>3</v>
       </c>
       <c r="E62">
-        <v>49</v>
+        <v>36</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1476,10 +1476,10 @@
         <v>4</v>
       </c>
       <c r="D63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E63">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1493,10 +1493,10 @@
         <v>4</v>
       </c>
       <c r="D64">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E64">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1510,10 +1510,10 @@
         <v>4</v>
       </c>
       <c r="D65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E65">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1530,7 +1530,7 @@
         <v>6</v>
       </c>
       <c r="E66">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1547,7 +1547,7 @@
         <v>5</v>
       </c>
       <c r="E67">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1561,10 +1561,10 @@
         <v>4</v>
       </c>
       <c r="D68">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E68">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1581,7 +1581,7 @@
         <v>1</v>
       </c>
       <c r="E69">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1595,10 +1595,10 @@
         <v>4</v>
       </c>
       <c r="D70">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E70">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1612,10 +1612,10 @@
         <v>4</v>
       </c>
       <c r="D71">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E71">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1629,10 +1629,10 @@
         <v>4</v>
       </c>
       <c r="D72">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E72">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1646,10 +1646,10 @@
         <v>4</v>
       </c>
       <c r="D73">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E73">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1663,10 +1663,10 @@
         <v>4</v>
       </c>
       <c r="D74">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E74">
-        <v>118</v>
+        <v>127</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1680,10 +1680,10 @@
         <v>4</v>
       </c>
       <c r="D75">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75">
-        <v>127</v>
+        <v>137</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1697,7 +1697,7 @@
         <v>4</v>
       </c>
       <c r="D76">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E76">
         <v>139</v>
@@ -1731,10 +1731,10 @@
         <v>4</v>
       </c>
       <c r="D78">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E78">
-        <v>146</v>
+        <v>155</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1748,10 +1748,10 @@
         <v>4</v>
       </c>
       <c r="D79">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E79">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1765,10 +1765,10 @@
         <v>4</v>
       </c>
       <c r="D80">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E80">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1782,10 +1782,10 @@
         <v>4</v>
       </c>
       <c r="D81">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E81">
-        <v>192</v>
+        <v>184</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -1799,10 +1799,10 @@
         <v>4</v>
       </c>
       <c r="D82">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E82">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -1816,10 +1816,10 @@
         <v>4</v>
       </c>
       <c r="D83">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E83">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1833,10 +1833,10 @@
         <v>4</v>
       </c>
       <c r="D84">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E84">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -1850,10 +1850,10 @@
         <v>4</v>
       </c>
       <c r="D85">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E85">
-        <v>206</v>
+        <v>213</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -1867,10 +1867,10 @@
         <v>4</v>
       </c>
       <c r="D86">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E86">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -1878,16 +1878,16 @@
         <v>85</v>
       </c>
       <c r="B87" s="2">
-        <v>43859</v>
+        <v>43944</v>
       </c>
       <c r="C87" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D87">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E87">
-        <v>1</v>
+        <v>224</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -1895,7 +1895,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="2">
-        <v>43860</v>
+        <v>43859</v>
       </c>
       <c r="C88" t="s">
         <v>5</v>
@@ -1904,7 +1904,7 @@
         <v>0</v>
       </c>
       <c r="E88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -1912,7 +1912,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="2">
-        <v>43861</v>
+        <v>43860</v>
       </c>
       <c r="C89" t="s">
         <v>5</v>
@@ -1921,7 +1921,7 @@
         <v>0</v>
       </c>
       <c r="E89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -1929,7 +1929,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="2">
-        <v>43862</v>
+        <v>43861</v>
       </c>
       <c r="C90" t="s">
         <v>5</v>
@@ -1938,7 +1938,7 @@
         <v>0</v>
       </c>
       <c r="E90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -1946,7 +1946,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="2">
-        <v>43863</v>
+        <v>43862</v>
       </c>
       <c r="C91" t="s">
         <v>5</v>
@@ -1955,7 +1955,7 @@
         <v>0</v>
       </c>
       <c r="E91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -1963,7 +1963,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="2">
-        <v>43864</v>
+        <v>43863</v>
       </c>
       <c r="C92" t="s">
         <v>5</v>
@@ -1972,7 +1972,7 @@
         <v>0</v>
       </c>
       <c r="E92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -1980,7 +1980,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="2">
-        <v>43865</v>
+        <v>43864</v>
       </c>
       <c r="C93" t="s">
         <v>5</v>
@@ -1989,7 +1989,7 @@
         <v>0</v>
       </c>
       <c r="E93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -1997,7 +1997,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="2">
-        <v>43866</v>
+        <v>43865</v>
       </c>
       <c r="C94" t="s">
         <v>5</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="E94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2014,7 +2014,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="2">
-        <v>43867</v>
+        <v>43866</v>
       </c>
       <c r="C95" t="s">
         <v>5</v>
@@ -2023,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="E95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2031,7 +2031,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="2">
-        <v>43868</v>
+        <v>43867</v>
       </c>
       <c r="C96" t="s">
         <v>5</v>
@@ -2040,7 +2040,7 @@
         <v>0</v>
       </c>
       <c r="E96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2048,7 +2048,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="2">
-        <v>43869</v>
+        <v>43868</v>
       </c>
       <c r="C97" t="s">
         <v>5</v>
@@ -2057,7 +2057,7 @@
         <v>0</v>
       </c>
       <c r="E97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2065,7 +2065,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="2">
-        <v>43870</v>
+        <v>43869</v>
       </c>
       <c r="C98" t="s">
         <v>5</v>
@@ -2074,7 +2074,7 @@
         <v>0</v>
       </c>
       <c r="E98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2082,7 +2082,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="2">
-        <v>43871</v>
+        <v>43870</v>
       </c>
       <c r="C99" t="s">
         <v>5</v>
@@ -2091,7 +2091,7 @@
         <v>0</v>
       </c>
       <c r="E99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2099,7 +2099,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="2">
-        <v>43872</v>
+        <v>43871</v>
       </c>
       <c r="C100" t="s">
         <v>5</v>
@@ -2108,7 +2108,7 @@
         <v>0</v>
       </c>
       <c r="E100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2116,7 +2116,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="2">
-        <v>43873</v>
+        <v>43872</v>
       </c>
       <c r="C101" t="s">
         <v>5</v>
@@ -2125,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="E101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2133,7 +2133,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="2">
-        <v>43874</v>
+        <v>43873</v>
       </c>
       <c r="C102" t="s">
         <v>5</v>
@@ -2142,7 +2142,7 @@
         <v>0</v>
       </c>
       <c r="E102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2150,7 +2150,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="2">
-        <v>43875</v>
+        <v>43874</v>
       </c>
       <c r="C103" t="s">
         <v>5</v>
@@ -2159,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="E103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2167,7 +2167,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="2">
-        <v>43876</v>
+        <v>43875</v>
       </c>
       <c r="C104" t="s">
         <v>5</v>
@@ -2176,7 +2176,7 @@
         <v>0</v>
       </c>
       <c r="E104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2184,7 +2184,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="2">
-        <v>43877</v>
+        <v>43876</v>
       </c>
       <c r="C105" t="s">
         <v>5</v>
@@ -2193,7 +2193,7 @@
         <v>0</v>
       </c>
       <c r="E105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2201,7 +2201,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="2">
-        <v>43878</v>
+        <v>43877</v>
       </c>
       <c r="C106" t="s">
         <v>5</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="E106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2218,7 +2218,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="2">
-        <v>43879</v>
+        <v>43878</v>
       </c>
       <c r="C107" t="s">
         <v>5</v>
@@ -2227,7 +2227,7 @@
         <v>0</v>
       </c>
       <c r="E107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2235,7 +2235,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="2">
-        <v>43880</v>
+        <v>43879</v>
       </c>
       <c r="C108" t="s">
         <v>5</v>
@@ -2244,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="E108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2252,7 +2252,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="2">
-        <v>43881</v>
+        <v>43880</v>
       </c>
       <c r="C109" t="s">
         <v>5</v>
@@ -2261,7 +2261,7 @@
         <v>0</v>
       </c>
       <c r="E109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2269,7 +2269,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="2">
-        <v>43882</v>
+        <v>43881</v>
       </c>
       <c r="C110" t="s">
         <v>5</v>
@@ -2278,7 +2278,7 @@
         <v>0</v>
       </c>
       <c r="E110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2286,7 +2286,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="2">
-        <v>43883</v>
+        <v>43882</v>
       </c>
       <c r="C111" t="s">
         <v>5</v>
@@ -2295,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="E111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2303,7 +2303,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="2">
-        <v>43884</v>
+        <v>43883</v>
       </c>
       <c r="C112" t="s">
         <v>5</v>
@@ -2312,7 +2312,7 @@
         <v>0</v>
       </c>
       <c r="E112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2320,7 +2320,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="2">
-        <v>43885</v>
+        <v>43884</v>
       </c>
       <c r="C113" t="s">
         <v>5</v>
@@ -2329,7 +2329,7 @@
         <v>0</v>
       </c>
       <c r="E113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2337,7 +2337,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="2">
-        <v>43886</v>
+        <v>43885</v>
       </c>
       <c r="C114" t="s">
         <v>5</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="E114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2354,7 +2354,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="2">
-        <v>43887</v>
+        <v>43886</v>
       </c>
       <c r="C115" t="s">
         <v>5</v>
@@ -2363,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="E115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2371,16 +2371,16 @@
         <v>114</v>
       </c>
       <c r="B116" s="2">
-        <v>43888</v>
+        <v>43887</v>
       </c>
       <c r="C116" t="s">
         <v>5</v>
       </c>
       <c r="D116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2388,16 +2388,16 @@
         <v>115</v>
       </c>
       <c r="B117" s="2">
-        <v>43889</v>
+        <v>43888</v>
       </c>
       <c r="C117" t="s">
         <v>5</v>
       </c>
       <c r="D117">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E117">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2405,7 +2405,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="2">
-        <v>43890</v>
+        <v>43889</v>
       </c>
       <c r="C118" t="s">
         <v>5</v>
@@ -2414,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="E118">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -2422,7 +2422,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="2">
-        <v>43891</v>
+        <v>43890</v>
       </c>
       <c r="C119" t="s">
         <v>5</v>
@@ -2431,7 +2431,7 @@
         <v>0</v>
       </c>
       <c r="E119">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -2439,16 +2439,16 @@
         <v>118</v>
       </c>
       <c r="B120" s="2">
-        <v>43892</v>
+        <v>43891</v>
       </c>
       <c r="C120" t="s">
         <v>5</v>
       </c>
       <c r="D120">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E120">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -2456,16 +2456,16 @@
         <v>119</v>
       </c>
       <c r="B121" s="2">
-        <v>43893</v>
+        <v>43892</v>
       </c>
       <c r="C121" t="s">
         <v>5</v>
       </c>
       <c r="D121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E121">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -2473,16 +2473,16 @@
         <v>120</v>
       </c>
       <c r="B122" s="2">
-        <v>43894</v>
+        <v>43893</v>
       </c>
       <c r="C122" t="s">
         <v>5</v>
       </c>
       <c r="D122">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E122">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -2490,16 +2490,16 @@
         <v>121</v>
       </c>
       <c r="B123" s="2">
-        <v>43895</v>
+        <v>43894</v>
       </c>
       <c r="C123" t="s">
         <v>5</v>
       </c>
       <c r="D123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E123">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -2507,16 +2507,16 @@
         <v>122</v>
       </c>
       <c r="B124" s="2">
-        <v>43896</v>
+        <v>43895</v>
       </c>
       <c r="C124" t="s">
         <v>5</v>
       </c>
       <c r="D124">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E124">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2524,7 +2524,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="2">
-        <v>43897</v>
+        <v>43896</v>
       </c>
       <c r="C125" t="s">
         <v>5</v>
@@ -2533,7 +2533,7 @@
         <v>0</v>
       </c>
       <c r="E125">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -2541,16 +2541,16 @@
         <v>124</v>
       </c>
       <c r="B126" s="2">
-        <v>43898</v>
+        <v>43897</v>
       </c>
       <c r="C126" t="s">
         <v>5</v>
       </c>
       <c r="D126">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E126">
-        <v>26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -2558,7 +2558,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="2">
-        <v>43899</v>
+        <v>43898</v>
       </c>
       <c r="C127" t="s">
         <v>5</v>
@@ -2567,7 +2567,7 @@
         <v>0</v>
       </c>
       <c r="E127">
-        <v>26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -2575,16 +2575,16 @@
         <v>126</v>
       </c>
       <c r="B128" s="2">
-        <v>43900</v>
+        <v>43899</v>
       </c>
       <c r="C128" t="s">
         <v>5</v>
       </c>
       <c r="D128">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E128">
-        <v>35</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -2592,16 +2592,16 @@
         <v>127</v>
       </c>
       <c r="B129" s="2">
-        <v>43901</v>
+        <v>43900</v>
       </c>
       <c r="C129" t="s">
         <v>5</v>
       </c>
       <c r="D129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E129">
-        <v>36</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -2609,16 +2609,16 @@
         <v>128</v>
       </c>
       <c r="B130" s="2">
-        <v>43902</v>
+        <v>43901</v>
       </c>
       <c r="C130" t="s">
         <v>5</v>
       </c>
       <c r="D130">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E130">
-        <v>39</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -2626,7 +2626,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="2">
-        <v>43903</v>
+        <v>43902</v>
       </c>
       <c r="C131" t="s">
         <v>5</v>
@@ -2635,7 +2635,7 @@
         <v>0</v>
       </c>
       <c r="E131">
-        <v>39</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -2643,16 +2643,16 @@
         <v>130</v>
       </c>
       <c r="B132" s="2">
-        <v>43904</v>
+        <v>43903</v>
       </c>
       <c r="C132" t="s">
         <v>5</v>
       </c>
       <c r="D132">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E132">
-        <v>42</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -2660,16 +2660,16 @@
         <v>131</v>
       </c>
       <c r="B133" s="2">
-        <v>43905</v>
+        <v>43904</v>
       </c>
       <c r="C133" t="s">
         <v>5</v>
       </c>
       <c r="D133">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E133">
-        <v>45</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -2677,7 +2677,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="2">
-        <v>43906</v>
+        <v>43905</v>
       </c>
       <c r="C134" t="s">
         <v>5</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="E134">
-        <v>45</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -2694,16 +2694,16 @@
         <v>133</v>
       </c>
       <c r="B135" s="2">
-        <v>43907</v>
+        <v>43906</v>
       </c>
       <c r="C135" t="s">
         <v>5</v>
       </c>
       <c r="D135">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E135">
-        <v>48</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -2711,7 +2711,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="2">
-        <v>43908</v>
+        <v>43907</v>
       </c>
       <c r="C136" t="s">
         <v>5</v>
@@ -2720,7 +2720,7 @@
         <v>0</v>
       </c>
       <c r="E136">
-        <v>48</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -2728,16 +2728,16 @@
         <v>135</v>
       </c>
       <c r="B137" s="2">
-        <v>43909</v>
+        <v>43908</v>
       </c>
       <c r="C137" t="s">
         <v>5</v>
       </c>
       <c r="D137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E137">
-        <v>49</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -2745,16 +2745,16 @@
         <v>136</v>
       </c>
       <c r="B138" s="2">
-        <v>43910</v>
+        <v>43909</v>
       </c>
       <c r="C138" t="s">
         <v>5</v>
       </c>
       <c r="D138">
+        <v>0</v>
+      </c>
+      <c r="E138">
         <v>2</v>
-      </c>
-      <c r="E138">
-        <v>51</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -2762,7 +2762,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="2">
-        <v>43911</v>
+        <v>43910</v>
       </c>
       <c r="C139" t="s">
         <v>5</v>
@@ -2771,7 +2771,7 @@
         <v>0</v>
       </c>
       <c r="E139">
-        <v>51</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -2779,16 +2779,16 @@
         <v>138</v>
       </c>
       <c r="B140" s="2">
-        <v>43912</v>
+        <v>43911</v>
       </c>
       <c r="C140" t="s">
         <v>5</v>
       </c>
       <c r="D140">
+        <v>0</v>
+      </c>
+      <c r="E140">
         <v>2</v>
-      </c>
-      <c r="E140">
-        <v>53</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -2796,16 +2796,16 @@
         <v>139</v>
       </c>
       <c r="B141" s="2">
-        <v>43913</v>
+        <v>43912</v>
       </c>
       <c r="C141" t="s">
         <v>5</v>
       </c>
       <c r="D141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E141">
-        <v>54</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -2813,16 +2813,16 @@
         <v>140</v>
       </c>
       <c r="B142" s="2">
-        <v>43914</v>
+        <v>43913</v>
       </c>
       <c r="C142" t="s">
         <v>5</v>
       </c>
       <c r="D142">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E142">
-        <v>57</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -2830,16 +2830,16 @@
         <v>141</v>
       </c>
       <c r="B143" s="2">
-        <v>43915</v>
+        <v>43914</v>
       </c>
       <c r="C143" t="s">
         <v>5</v>
       </c>
       <c r="D143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E143">
-        <v>58</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -2847,16 +2847,16 @@
         <v>142</v>
       </c>
       <c r="B144" s="2">
-        <v>43916</v>
+        <v>43915</v>
       </c>
       <c r="C144" t="s">
         <v>5</v>
       </c>
       <c r="D144">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E144">
-        <v>61</v>
+        <v>4</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -2864,16 +2864,16 @@
         <v>143</v>
       </c>
       <c r="B145" s="2">
-        <v>43917</v>
+        <v>43916</v>
       </c>
       <c r="C145" t="s">
         <v>5</v>
       </c>
       <c r="D145">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E145">
-        <v>73</v>
+        <v>4</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -2881,16 +2881,16 @@
         <v>144</v>
       </c>
       <c r="B146" s="2">
-        <v>43918</v>
+        <v>43917</v>
       </c>
       <c r="C146" t="s">
         <v>5</v>
       </c>
       <c r="D146">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E146">
-        <v>81</v>
+        <v>5</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -2898,16 +2898,16 @@
         <v>145</v>
       </c>
       <c r="B147" s="2">
-        <v>43919</v>
+        <v>43918</v>
       </c>
       <c r="C147" t="s">
         <v>5</v>
       </c>
       <c r="D147">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E147">
-        <v>86</v>
+        <v>6</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -2915,16 +2915,16 @@
         <v>146</v>
       </c>
       <c r="B148" s="2">
-        <v>43920</v>
+        <v>43919</v>
       </c>
       <c r="C148" t="s">
         <v>5</v>
       </c>
       <c r="D148">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E148">
-        <v>90</v>
+        <v>7</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -2932,16 +2932,16 @@
         <v>147</v>
       </c>
       <c r="B149" s="2">
-        <v>43921</v>
+        <v>43920</v>
       </c>
       <c r="C149" t="s">
         <v>5</v>
       </c>
       <c r="D149">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E149">
-        <v>103</v>
+        <v>7</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -2949,16 +2949,16 @@
         <v>148</v>
       </c>
       <c r="B150" s="2">
-        <v>43922</v>
+        <v>43921</v>
       </c>
       <c r="C150" t="s">
         <v>5</v>
       </c>
       <c r="D150">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E150">
-        <v>128</v>
+        <v>7</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -2966,16 +2966,16 @@
         <v>149</v>
       </c>
       <c r="B151" s="2">
-        <v>43923</v>
+        <v>43922</v>
       </c>
       <c r="C151" t="s">
         <v>5</v>
       </c>
       <c r="D151">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E151">
-        <v>142</v>
+        <v>7</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -2983,16 +2983,16 @@
         <v>150</v>
       </c>
       <c r="B152" s="2">
-        <v>43924</v>
+        <v>43923</v>
       </c>
       <c r="C152" t="s">
         <v>5</v>
       </c>
       <c r="D152">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="E152">
-        <v>161</v>
+        <v>8</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -3000,16 +3000,16 @@
         <v>151</v>
       </c>
       <c r="B153" s="2">
-        <v>43925</v>
+        <v>43924</v>
       </c>
       <c r="C153" t="s">
         <v>5</v>
       </c>
       <c r="D153">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="E153">
-        <v>182</v>
+        <v>8</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -3017,16 +3017,16 @@
         <v>152</v>
       </c>
       <c r="B154" s="2">
-        <v>43926</v>
+        <v>43925</v>
       </c>
       <c r="C154" t="s">
         <v>5</v>
       </c>
       <c r="D154">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E154">
-        <v>194</v>
+        <v>9</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3034,16 +3034,16 @@
         <v>153</v>
       </c>
       <c r="B155" s="2">
-        <v>43927</v>
+        <v>43926</v>
       </c>
       <c r="C155" t="s">
         <v>5</v>
       </c>
       <c r="D155">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E155">
-        <v>199</v>
+        <v>9</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3051,16 +3051,16 @@
         <v>154</v>
       </c>
       <c r="B156" s="2">
-        <v>43928</v>
+        <v>43927</v>
       </c>
       <c r="C156" t="s">
         <v>5</v>
       </c>
       <c r="D156">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E156">
-        <v>223</v>
+        <v>9</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3068,16 +3068,16 @@
         <v>155</v>
       </c>
       <c r="B157" s="2">
-        <v>43929</v>
+        <v>43928</v>
       </c>
       <c r="C157" t="s">
         <v>5</v>
       </c>
       <c r="D157">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E157">
-        <v>248</v>
+        <v>9</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3085,16 +3085,16 @@
         <v>156</v>
       </c>
       <c r="B158" s="2">
-        <v>43930</v>
+        <v>43929</v>
       </c>
       <c r="C158" t="s">
         <v>5</v>
       </c>
       <c r="D158">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="E158">
-        <v>283</v>
+        <v>11</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3102,16 +3102,16 @@
         <v>157</v>
       </c>
       <c r="B159" s="2">
-        <v>43931</v>
+        <v>43930</v>
       </c>
       <c r="C159" t="s">
         <v>5</v>
       </c>
       <c r="D159">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="E159">
-        <v>319</v>
+        <v>14</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3119,16 +3119,16 @@
         <v>158</v>
       </c>
       <c r="B160" s="2">
-        <v>43932</v>
+        <v>43931</v>
       </c>
       <c r="C160" t="s">
         <v>5</v>
       </c>
       <c r="D160">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="E160">
-        <v>352</v>
+        <v>22</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3136,16 +3136,16 @@
         <v>159</v>
       </c>
       <c r="B161" s="2">
-        <v>43933</v>
+        <v>43932</v>
       </c>
       <c r="C161" t="s">
         <v>5</v>
       </c>
       <c r="D161">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="E161">
-        <v>377</v>
+        <v>24</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3153,16 +3153,16 @@
         <v>160</v>
       </c>
       <c r="B162" s="2">
-        <v>43934</v>
+        <v>43933</v>
       </c>
       <c r="C162" t="s">
         <v>5</v>
       </c>
       <c r="D162">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E162">
-        <v>386</v>
+        <v>25</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -3170,16 +3170,16 @@
         <v>161</v>
       </c>
       <c r="B163" s="2">
-        <v>43935</v>
+        <v>43934</v>
       </c>
       <c r="C163" t="s">
         <v>5</v>
       </c>
       <c r="D163">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="E163">
-        <v>422</v>
+        <v>25</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3187,16 +3187,16 @@
         <v>162</v>
       </c>
       <c r="B164" s="2">
-        <v>43936</v>
+        <v>43935</v>
       </c>
       <c r="C164" t="s">
         <v>5</v>
       </c>
       <c r="D164">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E164">
-        <v>442</v>
+        <v>27</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -3204,16 +3204,16 @@
         <v>163</v>
       </c>
       <c r="B165" s="2">
-        <v>43937</v>
+        <v>43936</v>
       </c>
       <c r="C165" t="s">
         <v>5</v>
       </c>
       <c r="D165">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="E165">
-        <v>463</v>
+        <v>29</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -3221,16 +3221,16 @@
         <v>164</v>
       </c>
       <c r="B166" s="2">
-        <v>43938</v>
+        <v>43937</v>
       </c>
       <c r="C166" t="s">
         <v>5</v>
       </c>
       <c r="D166">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="E166">
-        <v>490</v>
+        <v>29</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -3238,16 +3238,16 @@
         <v>165</v>
       </c>
       <c r="B167" s="2">
-        <v>43939</v>
+        <v>43938</v>
       </c>
       <c r="C167" t="s">
         <v>5</v>
       </c>
       <c r="D167">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="E167">
-        <v>514</v>
+        <v>33</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -3255,16 +3255,16 @@
         <v>166</v>
       </c>
       <c r="B168" s="2">
-        <v>43940</v>
+        <v>43939</v>
       </c>
       <c r="C168" t="s">
         <v>5</v>
       </c>
       <c r="D168">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="E168">
-        <v>536</v>
+        <v>37</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -3272,16 +3272,16 @@
         <v>167</v>
       </c>
       <c r="B169" s="2">
-        <v>43941</v>
+        <v>43940</v>
       </c>
       <c r="C169" t="s">
         <v>5</v>
       </c>
       <c r="D169">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E169">
-        <v>540</v>
+        <v>39</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -3289,16 +3289,16 @@
         <v>168</v>
       </c>
       <c r="B170" s="2">
-        <v>43942</v>
+        <v>43941</v>
       </c>
       <c r="C170" t="s">
         <v>5</v>
       </c>
       <c r="D170">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E170">
-        <v>551</v>
+        <v>66</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -3306,16 +3306,16 @@
         <v>169</v>
       </c>
       <c r="B171" s="2">
-        <v>43943</v>
+        <v>43942</v>
       </c>
       <c r="C171" t="s">
         <v>5</v>
       </c>
       <c r="D171">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="E171">
-        <v>569</v>
+        <v>68</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -3323,16 +3323,16 @@
         <v>170</v>
       </c>
       <c r="B172" s="2">
-        <v>43859</v>
+        <v>43943</v>
       </c>
       <c r="C172" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D172">
         <v>0</v>
       </c>
       <c r="E172">
-        <v>0</v>
+        <v>68</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -3340,16 +3340,16 @@
         <v>171</v>
       </c>
       <c r="B173" s="2">
-        <v>43860</v>
+        <v>43944</v>
       </c>
       <c r="C173" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D173">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E173">
-        <v>0</v>
+        <v>71</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -3357,7 +3357,7 @@
         <v>172</v>
       </c>
       <c r="B174" s="2">
-        <v>43861</v>
+        <v>43859</v>
       </c>
       <c r="C174" t="s">
         <v>6</v>
@@ -3374,7 +3374,7 @@
         <v>173</v>
       </c>
       <c r="B175" s="2">
-        <v>43862</v>
+        <v>43860</v>
       </c>
       <c r="C175" t="s">
         <v>6</v>
@@ -3391,7 +3391,7 @@
         <v>174</v>
       </c>
       <c r="B176" s="2">
-        <v>43863</v>
+        <v>43861</v>
       </c>
       <c r="C176" t="s">
         <v>6</v>
@@ -3408,7 +3408,7 @@
         <v>175</v>
       </c>
       <c r="B177" s="2">
-        <v>43864</v>
+        <v>43862</v>
       </c>
       <c r="C177" t="s">
         <v>6</v>
@@ -3425,7 +3425,7 @@
         <v>176</v>
       </c>
       <c r="B178" s="2">
-        <v>43865</v>
+        <v>43863</v>
       </c>
       <c r="C178" t="s">
         <v>6</v>
@@ -3442,7 +3442,7 @@
         <v>177</v>
       </c>
       <c r="B179" s="2">
-        <v>43866</v>
+        <v>43864</v>
       </c>
       <c r="C179" t="s">
         <v>6</v>
@@ -3459,7 +3459,7 @@
         <v>178</v>
       </c>
       <c r="B180" s="2">
-        <v>43867</v>
+        <v>43865</v>
       </c>
       <c r="C180" t="s">
         <v>6</v>
@@ -3476,7 +3476,7 @@
         <v>179</v>
       </c>
       <c r="B181" s="2">
-        <v>43868</v>
+        <v>43866</v>
       </c>
       <c r="C181" t="s">
         <v>6</v>
@@ -3493,7 +3493,7 @@
         <v>180</v>
       </c>
       <c r="B182" s="2">
-        <v>43869</v>
+        <v>43867</v>
       </c>
       <c r="C182" t="s">
         <v>6</v>
@@ -3510,7 +3510,7 @@
         <v>181</v>
       </c>
       <c r="B183" s="2">
-        <v>43870</v>
+        <v>43868</v>
       </c>
       <c r="C183" t="s">
         <v>6</v>
@@ -3527,7 +3527,7 @@
         <v>182</v>
       </c>
       <c r="B184" s="2">
-        <v>43871</v>
+        <v>43869</v>
       </c>
       <c r="C184" t="s">
         <v>6</v>
@@ -3544,7 +3544,7 @@
         <v>183</v>
       </c>
       <c r="B185" s="2">
-        <v>43872</v>
+        <v>43870</v>
       </c>
       <c r="C185" t="s">
         <v>6</v>
@@ -3561,7 +3561,7 @@
         <v>184</v>
       </c>
       <c r="B186" s="2">
-        <v>43873</v>
+        <v>43871</v>
       </c>
       <c r="C186" t="s">
         <v>6</v>
@@ -3578,7 +3578,7 @@
         <v>185</v>
       </c>
       <c r="B187" s="2">
-        <v>43874</v>
+        <v>43872</v>
       </c>
       <c r="C187" t="s">
         <v>6</v>
@@ -3595,7 +3595,7 @@
         <v>186</v>
       </c>
       <c r="B188" s="2">
-        <v>43875</v>
+        <v>43873</v>
       </c>
       <c r="C188" t="s">
         <v>6</v>
@@ -3612,7 +3612,7 @@
         <v>187</v>
       </c>
       <c r="B189" s="2">
-        <v>43876</v>
+        <v>43874</v>
       </c>
       <c r="C189" t="s">
         <v>6</v>
@@ -3629,7 +3629,7 @@
         <v>188</v>
       </c>
       <c r="B190" s="2">
-        <v>43877</v>
+        <v>43875</v>
       </c>
       <c r="C190" t="s">
         <v>6</v>
@@ -3646,7 +3646,7 @@
         <v>189</v>
       </c>
       <c r="B191" s="2">
-        <v>43878</v>
+        <v>43876</v>
       </c>
       <c r="C191" t="s">
         <v>6</v>
@@ -3663,7 +3663,7 @@
         <v>190</v>
       </c>
       <c r="B192" s="2">
-        <v>43879</v>
+        <v>43877</v>
       </c>
       <c r="C192" t="s">
         <v>6</v>
@@ -3680,7 +3680,7 @@
         <v>191</v>
       </c>
       <c r="B193" s="2">
-        <v>43880</v>
+        <v>43878</v>
       </c>
       <c r="C193" t="s">
         <v>6</v>
@@ -3697,7 +3697,7 @@
         <v>192</v>
       </c>
       <c r="B194" s="2">
-        <v>43881</v>
+        <v>43879</v>
       </c>
       <c r="C194" t="s">
         <v>6</v>
@@ -3714,7 +3714,7 @@
         <v>193</v>
       </c>
       <c r="B195" s="2">
-        <v>43882</v>
+        <v>43880</v>
       </c>
       <c r="C195" t="s">
         <v>6</v>
@@ -3731,7 +3731,7 @@
         <v>194</v>
       </c>
       <c r="B196" s="2">
-        <v>43883</v>
+        <v>43881</v>
       </c>
       <c r="C196" t="s">
         <v>6</v>
@@ -3748,7 +3748,7 @@
         <v>195</v>
       </c>
       <c r="B197" s="2">
-        <v>43884</v>
+        <v>43882</v>
       </c>
       <c r="C197" t="s">
         <v>6</v>
@@ -3765,7 +3765,7 @@
         <v>196</v>
       </c>
       <c r="B198" s="2">
-        <v>43885</v>
+        <v>43883</v>
       </c>
       <c r="C198" t="s">
         <v>6</v>
@@ -3782,7 +3782,7 @@
         <v>197</v>
       </c>
       <c r="B199" s="2">
-        <v>43886</v>
+        <v>43884</v>
       </c>
       <c r="C199" t="s">
         <v>6</v>
@@ -3799,7 +3799,7 @@
         <v>198</v>
       </c>
       <c r="B200" s="2">
-        <v>43887</v>
+        <v>43885</v>
       </c>
       <c r="C200" t="s">
         <v>6</v>
@@ -3816,7 +3816,7 @@
         <v>199</v>
       </c>
       <c r="B201" s="2">
-        <v>43888</v>
+        <v>43886</v>
       </c>
       <c r="C201" t="s">
         <v>6</v>
@@ -3833,7 +3833,7 @@
         <v>200</v>
       </c>
       <c r="B202" s="2">
-        <v>43889</v>
+        <v>43887</v>
       </c>
       <c r="C202" t="s">
         <v>6</v>
@@ -3850,7 +3850,7 @@
         <v>201</v>
       </c>
       <c r="B203" s="2">
-        <v>43890</v>
+        <v>43888</v>
       </c>
       <c r="C203" t="s">
         <v>6</v>
@@ -3867,7 +3867,7 @@
         <v>202</v>
       </c>
       <c r="B204" s="2">
-        <v>43891</v>
+        <v>43889</v>
       </c>
       <c r="C204" t="s">
         <v>6</v>
@@ -3884,7 +3884,7 @@
         <v>203</v>
       </c>
       <c r="B205" s="2">
-        <v>43892</v>
+        <v>43890</v>
       </c>
       <c r="C205" t="s">
         <v>6</v>
@@ -3901,7 +3901,7 @@
         <v>204</v>
       </c>
       <c r="B206" s="2">
-        <v>43893</v>
+        <v>43891</v>
       </c>
       <c r="C206" t="s">
         <v>6</v>
@@ -3918,7 +3918,7 @@
         <v>205</v>
       </c>
       <c r="B207" s="2">
-        <v>43894</v>
+        <v>43892</v>
       </c>
       <c r="C207" t="s">
         <v>6</v>
@@ -3935,7 +3935,7 @@
         <v>206</v>
       </c>
       <c r="B208" s="2">
-        <v>43895</v>
+        <v>43893</v>
       </c>
       <c r="C208" t="s">
         <v>6</v>
@@ -3952,16 +3952,16 @@
         <v>207</v>
       </c>
       <c r="B209" s="2">
-        <v>43896</v>
+        <v>43894</v>
       </c>
       <c r="C209" t="s">
         <v>6</v>
       </c>
       <c r="D209">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E209">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -3969,16 +3969,16 @@
         <v>208</v>
       </c>
       <c r="B210" s="2">
-        <v>43897</v>
+        <v>43895</v>
       </c>
       <c r="C210" t="s">
         <v>6</v>
       </c>
       <c r="D210">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E210">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -3986,16 +3986,16 @@
         <v>209</v>
       </c>
       <c r="B211" s="2">
-        <v>43898</v>
+        <v>43896</v>
       </c>
       <c r="C211" t="s">
         <v>6</v>
       </c>
       <c r="D211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E211">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -4003,13 +4003,13 @@
         <v>210</v>
       </c>
       <c r="B212" s="2">
-        <v>43899</v>
+        <v>43897</v>
       </c>
       <c r="C212" t="s">
         <v>6</v>
       </c>
       <c r="D212">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E212">
         <v>3</v>
@@ -4020,16 +4020,16 @@
         <v>211</v>
       </c>
       <c r="B213" s="2">
-        <v>43900</v>
+        <v>43898</v>
       </c>
       <c r="C213" t="s">
         <v>6</v>
       </c>
       <c r="D213">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E213">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -4037,7 +4037,7 @@
         <v>212</v>
       </c>
       <c r="B214" s="2">
-        <v>43901</v>
+        <v>43899</v>
       </c>
       <c r="C214" t="s">
         <v>6</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="E214">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -4054,16 +4054,16 @@
         <v>213</v>
       </c>
       <c r="B215" s="2">
-        <v>43902</v>
+        <v>43900</v>
       </c>
       <c r="C215" t="s">
         <v>6</v>
       </c>
       <c r="D215">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E215">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -4071,7 +4071,7 @@
         <v>214</v>
       </c>
       <c r="B216" s="2">
-        <v>43903</v>
+        <v>43901</v>
       </c>
       <c r="C216" t="s">
         <v>6</v>
@@ -4080,7 +4080,7 @@
         <v>0</v>
       </c>
       <c r="E216">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -4088,16 +4088,16 @@
         <v>215</v>
       </c>
       <c r="B217" s="2">
-        <v>43904</v>
+        <v>43902</v>
       </c>
       <c r="C217" t="s">
         <v>6</v>
       </c>
       <c r="D217">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E217">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -4105,16 +4105,16 @@
         <v>216</v>
       </c>
       <c r="B218" s="2">
-        <v>43905</v>
+        <v>43903</v>
       </c>
       <c r="C218" t="s">
         <v>6</v>
       </c>
       <c r="D218">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E218">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -4122,16 +4122,16 @@
         <v>217</v>
       </c>
       <c r="B219" s="2">
-        <v>43906</v>
+        <v>43904</v>
       </c>
       <c r="C219" t="s">
         <v>6</v>
       </c>
       <c r="D219">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E219">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -4139,7 +4139,7 @@
         <v>218</v>
       </c>
       <c r="B220" s="2">
-        <v>43907</v>
+        <v>43905</v>
       </c>
       <c r="C220" t="s">
         <v>6</v>
@@ -4148,7 +4148,7 @@
         <v>1</v>
       </c>
       <c r="E220">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -4156,16 +4156,16 @@
         <v>219</v>
       </c>
       <c r="B221" s="2">
-        <v>43908</v>
+        <v>43906</v>
       </c>
       <c r="C221" t="s">
         <v>6</v>
       </c>
       <c r="D221">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E221">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -4173,16 +4173,16 @@
         <v>220</v>
       </c>
       <c r="B222" s="2">
-        <v>43909</v>
+        <v>43907</v>
       </c>
       <c r="C222" t="s">
         <v>6</v>
       </c>
       <c r="D222">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E222">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -4190,13 +4190,13 @@
         <v>221</v>
       </c>
       <c r="B223" s="2">
-        <v>43910</v>
+        <v>43908</v>
       </c>
       <c r="C223" t="s">
         <v>6</v>
       </c>
       <c r="D223">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E223">
         <v>11</v>
@@ -4207,16 +4207,16 @@
         <v>222</v>
       </c>
       <c r="B224" s="2">
-        <v>43911</v>
+        <v>43909</v>
       </c>
       <c r="C224" t="s">
         <v>6</v>
       </c>
       <c r="D224">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E224">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -4224,7 +4224,7 @@
         <v>223</v>
       </c>
       <c r="B225" s="2">
-        <v>43912</v>
+        <v>43910</v>
       </c>
       <c r="C225" t="s">
         <v>6</v>
@@ -4233,7 +4233,7 @@
         <v>0</v>
       </c>
       <c r="E225">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -4241,7 +4241,7 @@
         <v>224</v>
       </c>
       <c r="B226" s="2">
-        <v>43913</v>
+        <v>43911</v>
       </c>
       <c r="C226" t="s">
         <v>6</v>
@@ -4250,7 +4250,7 @@
         <v>2</v>
       </c>
       <c r="E226">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -4258,16 +4258,16 @@
         <v>225</v>
       </c>
       <c r="B227" s="2">
-        <v>43914</v>
+        <v>43912</v>
       </c>
       <c r="C227" t="s">
         <v>6</v>
       </c>
       <c r="D227">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E227">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -4275,16 +4275,16 @@
         <v>226</v>
       </c>
       <c r="B228" s="2">
-        <v>43915</v>
+        <v>43913</v>
       </c>
       <c r="C228" t="s">
         <v>6</v>
       </c>
       <c r="D228">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E228">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -4292,16 +4292,16 @@
         <v>227</v>
       </c>
       <c r="B229" s="2">
-        <v>43916</v>
+        <v>43914</v>
       </c>
       <c r="C229" t="s">
         <v>6</v>
       </c>
       <c r="D229">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E229">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -4309,16 +4309,16 @@
         <v>228</v>
       </c>
       <c r="B230" s="2">
-        <v>43917</v>
+        <v>43915</v>
       </c>
       <c r="C230" t="s">
         <v>6</v>
       </c>
       <c r="D230">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E230">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -4326,16 +4326,16 @@
         <v>229</v>
       </c>
       <c r="B231" s="2">
-        <v>43918</v>
+        <v>43916</v>
       </c>
       <c r="C231" t="s">
         <v>6</v>
       </c>
       <c r="D231">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E231">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -4343,16 +4343,16 @@
         <v>230</v>
       </c>
       <c r="B232" s="2">
-        <v>43919</v>
+        <v>43917</v>
       </c>
       <c r="C232" t="s">
         <v>6</v>
       </c>
       <c r="D232">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E232">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -4360,7 +4360,7 @@
         <v>231</v>
       </c>
       <c r="B233" s="2">
-        <v>43920</v>
+        <v>43918</v>
       </c>
       <c r="C233" t="s">
         <v>6</v>
@@ -4369,7 +4369,7 @@
         <v>1</v>
       </c>
       <c r="E233">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -4377,16 +4377,16 @@
         <v>232</v>
       </c>
       <c r="B234" s="2">
-        <v>43921</v>
+        <v>43919</v>
       </c>
       <c r="C234" t="s">
         <v>6</v>
       </c>
       <c r="D234">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E234">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -4394,16 +4394,16 @@
         <v>233</v>
       </c>
       <c r="B235" s="2">
-        <v>43922</v>
+        <v>43920</v>
       </c>
       <c r="C235" t="s">
         <v>6</v>
       </c>
       <c r="D235">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E235">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -4411,16 +4411,16 @@
         <v>234</v>
       </c>
       <c r="B236" s="2">
-        <v>43923</v>
+        <v>43921</v>
       </c>
       <c r="C236" t="s">
         <v>6</v>
       </c>
       <c r="D236">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E236">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -4428,16 +4428,16 @@
         <v>235</v>
       </c>
       <c r="B237" s="2">
-        <v>43924</v>
+        <v>43922</v>
       </c>
       <c r="C237" t="s">
         <v>6</v>
       </c>
       <c r="D237">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E237">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -4445,16 +4445,16 @@
         <v>236</v>
       </c>
       <c r="B238" s="2">
-        <v>43925</v>
+        <v>43923</v>
       </c>
       <c r="C238" t="s">
         <v>6</v>
       </c>
       <c r="D238">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E238">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -4462,16 +4462,16 @@
         <v>237</v>
       </c>
       <c r="B239" s="2">
-        <v>43926</v>
+        <v>43924</v>
       </c>
       <c r="C239" t="s">
         <v>6</v>
       </c>
       <c r="D239">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E239">
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -4479,7 +4479,7 @@
         <v>238</v>
       </c>
       <c r="B240" s="2">
-        <v>43927</v>
+        <v>43925</v>
       </c>
       <c r="C240" t="s">
         <v>6</v>
@@ -4488,7 +4488,7 @@
         <v>5</v>
       </c>
       <c r="E240">
-        <v>59</v>
+        <v>47</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -4496,16 +4496,16 @@
         <v>239</v>
       </c>
       <c r="B241" s="2">
-        <v>43928</v>
+        <v>43926</v>
       </c>
       <c r="C241" t="s">
         <v>6</v>
       </c>
       <c r="D241">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E241">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -4513,16 +4513,16 @@
         <v>240</v>
       </c>
       <c r="B242" s="2">
-        <v>43929</v>
+        <v>43927</v>
       </c>
       <c r="C242" t="s">
         <v>6</v>
       </c>
       <c r="D242">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E242">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -4530,16 +4530,16 @@
         <v>241</v>
       </c>
       <c r="B243" s="2">
-        <v>43930</v>
+        <v>43928</v>
       </c>
       <c r="C243" t="s">
         <v>6</v>
       </c>
       <c r="D243">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="E243">
-        <v>89</v>
+        <v>63</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -4547,16 +4547,16 @@
         <v>242</v>
       </c>
       <c r="B244" s="2">
-        <v>43931</v>
+        <v>43929</v>
       </c>
       <c r="C244" t="s">
         <v>6</v>
       </c>
       <c r="D244">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E244">
-        <v>97</v>
+        <v>65</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -4564,16 +4564,16 @@
         <v>243</v>
       </c>
       <c r="B245" s="2">
-        <v>43932</v>
+        <v>43930</v>
       </c>
       <c r="C245" t="s">
         <v>6</v>
       </c>
       <c r="D245">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E245">
-        <v>112</v>
+        <v>89</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -4581,16 +4581,16 @@
         <v>244</v>
       </c>
       <c r="B246" s="2">
-        <v>43933</v>
+        <v>43931</v>
       </c>
       <c r="C246" t="s">
         <v>6</v>
       </c>
       <c r="D246">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E246">
-        <v>115</v>
+        <v>97</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -4598,16 +4598,16 @@
         <v>245</v>
       </c>
       <c r="B247" s="2">
-        <v>43934</v>
+        <v>43932</v>
       </c>
       <c r="C247" t="s">
         <v>6</v>
       </c>
       <c r="D247">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E247">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -4615,16 +4615,16 @@
         <v>246</v>
       </c>
       <c r="B248" s="2">
-        <v>43935</v>
+        <v>43933</v>
       </c>
       <c r="C248" t="s">
         <v>6</v>
       </c>
       <c r="D248">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E248">
-        <v>127</v>
+        <v>115</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -4632,16 +4632,16 @@
         <v>247</v>
       </c>
       <c r="B249" s="2">
-        <v>43936</v>
+        <v>43934</v>
       </c>
       <c r="C249" t="s">
         <v>6</v>
       </c>
       <c r="D249">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E249">
-        <v>136</v>
+        <v>120</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -4649,16 +4649,16 @@
         <v>248</v>
       </c>
       <c r="B250" s="2">
-        <v>43937</v>
+        <v>43935</v>
       </c>
       <c r="C250" t="s">
         <v>6</v>
       </c>
       <c r="D250">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E250">
-        <v>146</v>
+        <v>127</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -4666,16 +4666,16 @@
         <v>249</v>
       </c>
       <c r="B251" s="2">
-        <v>43938</v>
+        <v>43936</v>
       </c>
       <c r="C251" t="s">
         <v>6</v>
       </c>
       <c r="D251">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E251">
-        <v>153</v>
+        <v>136</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -4683,16 +4683,16 @@
         <v>250</v>
       </c>
       <c r="B252" s="2">
-        <v>43939</v>
+        <v>43937</v>
       </c>
       <c r="C252" t="s">
         <v>6</v>
       </c>
       <c r="D252">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E252">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -4700,16 +4700,16 @@
         <v>251</v>
       </c>
       <c r="B253" s="2">
-        <v>43940</v>
+        <v>43938</v>
       </c>
       <c r="C253" t="s">
         <v>6</v>
       </c>
       <c r="D253">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E253">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -4717,7 +4717,7 @@
         <v>252</v>
       </c>
       <c r="B254" s="2">
-        <v>43941</v>
+        <v>43939</v>
       </c>
       <c r="C254" t="s">
         <v>6</v>
@@ -4726,7 +4726,7 @@
         <v>4</v>
       </c>
       <c r="E254">
-        <v>169</v>
+        <v>157</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -4734,16 +4734,16 @@
         <v>253</v>
       </c>
       <c r="B255" s="2">
-        <v>43942</v>
+        <v>43940</v>
       </c>
       <c r="C255" t="s">
         <v>6</v>
       </c>
       <c r="D255">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E255">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -4751,16 +4751,16 @@
         <v>254</v>
       </c>
       <c r="B256" s="2">
-        <v>43943</v>
+        <v>43941</v>
       </c>
       <c r="C256" t="s">
         <v>6</v>
       </c>
       <c r="D256">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E256">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -4768,16 +4768,16 @@
         <v>255</v>
       </c>
       <c r="B257" s="2">
-        <v>43859</v>
+        <v>43942</v>
       </c>
       <c r="C257" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D257">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E257">
-        <v>0</v>
+        <v>170</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -4785,16 +4785,16 @@
         <v>256</v>
       </c>
       <c r="B258" s="2">
-        <v>43860</v>
+        <v>43943</v>
       </c>
       <c r="C258" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D258">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E258">
-        <v>0</v>
+        <v>172</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -4802,16 +4802,16 @@
         <v>257</v>
       </c>
       <c r="B259" s="2">
-        <v>43861</v>
+        <v>43944</v>
       </c>
       <c r="C259" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D259">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E259">
-        <v>0</v>
+        <v>174</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -4819,16 +4819,16 @@
         <v>258</v>
       </c>
       <c r="B260" s="2">
-        <v>43862</v>
+        <v>43859</v>
       </c>
       <c r="C260" t="s">
         <v>7</v>
       </c>
       <c r="D260">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E260">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -4836,7 +4836,7 @@
         <v>259</v>
       </c>
       <c r="B261" s="2">
-        <v>43863</v>
+        <v>43860</v>
       </c>
       <c r="C261" t="s">
         <v>7</v>
@@ -4845,7 +4845,7 @@
         <v>0</v>
       </c>
       <c r="E261">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -4853,7 +4853,7 @@
         <v>260</v>
       </c>
       <c r="B262" s="2">
-        <v>43864</v>
+        <v>43861</v>
       </c>
       <c r="C262" t="s">
         <v>7</v>
@@ -4862,7 +4862,7 @@
         <v>0</v>
       </c>
       <c r="E262">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -4870,7 +4870,7 @@
         <v>261</v>
       </c>
       <c r="B263" s="2">
-        <v>43865</v>
+        <v>43862</v>
       </c>
       <c r="C263" t="s">
         <v>7</v>
@@ -4879,7 +4879,7 @@
         <v>0</v>
       </c>
       <c r="E263">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -4887,7 +4887,7 @@
         <v>262</v>
       </c>
       <c r="B264" s="2">
-        <v>43866</v>
+        <v>43863</v>
       </c>
       <c r="C264" t="s">
         <v>7</v>
@@ -4896,7 +4896,7 @@
         <v>0</v>
       </c>
       <c r="E264">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -4904,7 +4904,7 @@
         <v>263</v>
       </c>
       <c r="B265" s="2">
-        <v>43867</v>
+        <v>43864</v>
       </c>
       <c r="C265" t="s">
         <v>7</v>
@@ -4913,7 +4913,7 @@
         <v>0</v>
       </c>
       <c r="E265">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -4921,7 +4921,7 @@
         <v>264</v>
       </c>
       <c r="B266" s="2">
-        <v>43868</v>
+        <v>43865</v>
       </c>
       <c r="C266" t="s">
         <v>7</v>
@@ -4930,7 +4930,7 @@
         <v>0</v>
       </c>
       <c r="E266">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -4938,7 +4938,7 @@
         <v>265</v>
       </c>
       <c r="B267" s="2">
-        <v>43869</v>
+        <v>43866</v>
       </c>
       <c r="C267" t="s">
         <v>7</v>
@@ -4947,7 +4947,7 @@
         <v>0</v>
       </c>
       <c r="E267">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -4955,7 +4955,7 @@
         <v>266</v>
       </c>
       <c r="B268" s="2">
-        <v>43870</v>
+        <v>43867</v>
       </c>
       <c r="C268" t="s">
         <v>7</v>
@@ -4964,7 +4964,7 @@
         <v>0</v>
       </c>
       <c r="E268">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -4972,7 +4972,7 @@
         <v>267</v>
       </c>
       <c r="B269" s="2">
-        <v>43871</v>
+        <v>43868</v>
       </c>
       <c r="C269" t="s">
         <v>7</v>
@@ -4981,7 +4981,7 @@
         <v>0</v>
       </c>
       <c r="E269">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -4989,7 +4989,7 @@
         <v>268</v>
       </c>
       <c r="B270" s="2">
-        <v>43872</v>
+        <v>43869</v>
       </c>
       <c r="C270" t="s">
         <v>7</v>
@@ -4998,7 +4998,7 @@
         <v>0</v>
       </c>
       <c r="E270">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -5006,7 +5006,7 @@
         <v>269</v>
       </c>
       <c r="B271" s="2">
-        <v>43873</v>
+        <v>43870</v>
       </c>
       <c r="C271" t="s">
         <v>7</v>
@@ -5015,7 +5015,7 @@
         <v>0</v>
       </c>
       <c r="E271">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -5023,7 +5023,7 @@
         <v>270</v>
       </c>
       <c r="B272" s="2">
-        <v>43874</v>
+        <v>43871</v>
       </c>
       <c r="C272" t="s">
         <v>7</v>
@@ -5032,7 +5032,7 @@
         <v>0</v>
       </c>
       <c r="E272">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -5040,7 +5040,7 @@
         <v>271</v>
       </c>
       <c r="B273" s="2">
-        <v>43875</v>
+        <v>43872</v>
       </c>
       <c r="C273" t="s">
         <v>7</v>
@@ -5049,7 +5049,7 @@
         <v>0</v>
       </c>
       <c r="E273">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -5057,7 +5057,7 @@
         <v>272</v>
       </c>
       <c r="B274" s="2">
-        <v>43876</v>
+        <v>43873</v>
       </c>
       <c r="C274" t="s">
         <v>7</v>
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="E274">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -5074,7 +5074,7 @@
         <v>273</v>
       </c>
       <c r="B275" s="2">
-        <v>43877</v>
+        <v>43874</v>
       </c>
       <c r="C275" t="s">
         <v>7</v>
@@ -5083,7 +5083,7 @@
         <v>0</v>
       </c>
       <c r="E275">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -5091,7 +5091,7 @@
         <v>274</v>
       </c>
       <c r="B276" s="2">
-        <v>43878</v>
+        <v>43875</v>
       </c>
       <c r="C276" t="s">
         <v>7</v>
@@ -5100,7 +5100,7 @@
         <v>0</v>
       </c>
       <c r="E276">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -5108,7 +5108,7 @@
         <v>275</v>
       </c>
       <c r="B277" s="2">
-        <v>43879</v>
+        <v>43876</v>
       </c>
       <c r="C277" t="s">
         <v>7</v>
@@ -5117,7 +5117,7 @@
         <v>0</v>
       </c>
       <c r="E277">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -5125,7 +5125,7 @@
         <v>276</v>
       </c>
       <c r="B278" s="2">
-        <v>43880</v>
+        <v>43877</v>
       </c>
       <c r="C278" t="s">
         <v>7</v>
@@ -5134,7 +5134,7 @@
         <v>0</v>
       </c>
       <c r="E278">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -5142,7 +5142,7 @@
         <v>277</v>
       </c>
       <c r="B279" s="2">
-        <v>43881</v>
+        <v>43878</v>
       </c>
       <c r="C279" t="s">
         <v>7</v>
@@ -5151,7 +5151,7 @@
         <v>0</v>
       </c>
       <c r="E279">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -5159,7 +5159,7 @@
         <v>278</v>
       </c>
       <c r="B280" s="2">
-        <v>43882</v>
+        <v>43879</v>
       </c>
       <c r="C280" t="s">
         <v>7</v>
@@ -5168,7 +5168,7 @@
         <v>0</v>
       </c>
       <c r="E280">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -5176,7 +5176,7 @@
         <v>279</v>
       </c>
       <c r="B281" s="2">
-        <v>43883</v>
+        <v>43880</v>
       </c>
       <c r="C281" t="s">
         <v>7</v>
@@ -5185,7 +5185,7 @@
         <v>0</v>
       </c>
       <c r="E281">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -5193,7 +5193,7 @@
         <v>280</v>
       </c>
       <c r="B282" s="2">
-        <v>43884</v>
+        <v>43881</v>
       </c>
       <c r="C282" t="s">
         <v>7</v>
@@ -5202,7 +5202,7 @@
         <v>0</v>
       </c>
       <c r="E282">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -5210,7 +5210,7 @@
         <v>281</v>
       </c>
       <c r="B283" s="2">
-        <v>43885</v>
+        <v>43882</v>
       </c>
       <c r="C283" t="s">
         <v>7</v>
@@ -5219,7 +5219,7 @@
         <v>0</v>
       </c>
       <c r="E283">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -5227,7 +5227,7 @@
         <v>282</v>
       </c>
       <c r="B284" s="2">
-        <v>43886</v>
+        <v>43883</v>
       </c>
       <c r="C284" t="s">
         <v>7</v>
@@ -5236,7 +5236,7 @@
         <v>0</v>
       </c>
       <c r="E284">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -5244,7 +5244,7 @@
         <v>283</v>
       </c>
       <c r="B285" s="2">
-        <v>43887</v>
+        <v>43884</v>
       </c>
       <c r="C285" t="s">
         <v>7</v>
@@ -5253,7 +5253,7 @@
         <v>0</v>
       </c>
       <c r="E285">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -5261,7 +5261,7 @@
         <v>284</v>
       </c>
       <c r="B286" s="2">
-        <v>43888</v>
+        <v>43885</v>
       </c>
       <c r="C286" t="s">
         <v>7</v>
@@ -5270,7 +5270,7 @@
         <v>0</v>
       </c>
       <c r="E286">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -5278,7 +5278,7 @@
         <v>285</v>
       </c>
       <c r="B287" s="2">
-        <v>43889</v>
+        <v>43886</v>
       </c>
       <c r="C287" t="s">
         <v>7</v>
@@ -5287,7 +5287,7 @@
         <v>0</v>
       </c>
       <c r="E287">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -5295,7 +5295,7 @@
         <v>286</v>
       </c>
       <c r="B288" s="2">
-        <v>43890</v>
+        <v>43887</v>
       </c>
       <c r="C288" t="s">
         <v>7</v>
@@ -5304,7 +5304,7 @@
         <v>0</v>
       </c>
       <c r="E288">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -5312,16 +5312,16 @@
         <v>287</v>
       </c>
       <c r="B289" s="2">
-        <v>43891</v>
+        <v>43888</v>
       </c>
       <c r="C289" t="s">
         <v>7</v>
       </c>
       <c r="D289">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -5329,16 +5329,16 @@
         <v>288</v>
       </c>
       <c r="B290" s="2">
-        <v>43892</v>
+        <v>43889</v>
       </c>
       <c r="C290" t="s">
         <v>7</v>
       </c>
       <c r="D290">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E290">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -5346,16 +5346,16 @@
         <v>289</v>
       </c>
       <c r="B291" s="2">
-        <v>43893</v>
+        <v>43890</v>
       </c>
       <c r="C291" t="s">
         <v>7</v>
       </c>
       <c r="D291">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E291">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -5363,16 +5363,16 @@
         <v>290</v>
       </c>
       <c r="B292" s="2">
-        <v>43894</v>
+        <v>43891</v>
       </c>
       <c r="C292" t="s">
         <v>7</v>
       </c>
       <c r="D292">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E292">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -5380,13 +5380,13 @@
         <v>291</v>
       </c>
       <c r="B293" s="2">
-        <v>43895</v>
+        <v>43892</v>
       </c>
       <c r="C293" t="s">
         <v>7</v>
       </c>
       <c r="D293">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E293">
         <v>6</v>
@@ -5397,16 +5397,16 @@
         <v>292</v>
       </c>
       <c r="B294" s="2">
-        <v>43896</v>
+        <v>43893</v>
       </c>
       <c r="C294" t="s">
         <v>7</v>
       </c>
       <c r="D294">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E294">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -5414,16 +5414,16 @@
         <v>293</v>
       </c>
       <c r="B295" s="2">
-        <v>43897</v>
+        <v>43894</v>
       </c>
       <c r="C295" t="s">
         <v>7</v>
       </c>
       <c r="D295">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E295">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -5431,16 +5431,16 @@
         <v>294</v>
       </c>
       <c r="B296" s="2">
-        <v>43898</v>
+        <v>43895</v>
       </c>
       <c r="C296" t="s">
         <v>7</v>
       </c>
       <c r="D296">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E296">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -5448,16 +5448,16 @@
         <v>295</v>
       </c>
       <c r="B297" s="2">
-        <v>43899</v>
+        <v>43896</v>
       </c>
       <c r="C297" t="s">
         <v>7</v>
       </c>
       <c r="D297">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E297">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -5465,13 +5465,13 @@
         <v>296</v>
       </c>
       <c r="B298" s="2">
-        <v>43900</v>
+        <v>43897</v>
       </c>
       <c r="C298" t="s">
         <v>7</v>
       </c>
       <c r="D298">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E298">
         <v>16</v>
@@ -5482,16 +5482,16 @@
         <v>297</v>
       </c>
       <c r="B299" s="2">
-        <v>43901</v>
+        <v>43898</v>
       </c>
       <c r="C299" t="s">
         <v>7</v>
       </c>
       <c r="D299">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E299">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -5499,16 +5499,16 @@
         <v>298</v>
       </c>
       <c r="B300" s="2">
-        <v>43902</v>
+        <v>43899</v>
       </c>
       <c r="C300" t="s">
         <v>7</v>
       </c>
       <c r="D300">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E300">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -5516,16 +5516,16 @@
         <v>299</v>
       </c>
       <c r="B301" s="2">
-        <v>43903</v>
+        <v>43900</v>
       </c>
       <c r="C301" t="s">
         <v>7</v>
       </c>
       <c r="D301">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E301">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -5533,16 +5533,16 @@
         <v>300</v>
       </c>
       <c r="B302" s="2">
-        <v>43904</v>
+        <v>43901</v>
       </c>
       <c r="C302" t="s">
         <v>7</v>
       </c>
       <c r="D302">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E302">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -5550,16 +5550,16 @@
         <v>301</v>
       </c>
       <c r="B303" s="2">
-        <v>43905</v>
+        <v>43902</v>
       </c>
       <c r="C303" t="s">
         <v>7</v>
       </c>
       <c r="D303">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E303">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -5567,16 +5567,16 @@
         <v>302</v>
       </c>
       <c r="B304" s="2">
-        <v>43906</v>
+        <v>43903</v>
       </c>
       <c r="C304" t="s">
         <v>7</v>
       </c>
       <c r="D304">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E304">
-        <v>23</v>
+        <v>39</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -5584,16 +5584,16 @@
         <v>303</v>
       </c>
       <c r="B305" s="2">
-        <v>43907</v>
+        <v>43904</v>
       </c>
       <c r="C305" t="s">
         <v>7</v>
       </c>
       <c r="D305">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E305">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -5601,16 +5601,16 @@
         <v>304</v>
       </c>
       <c r="B306" s="2">
-        <v>43908</v>
+        <v>43905</v>
       </c>
       <c r="C306" t="s">
         <v>7</v>
       </c>
       <c r="D306">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E306">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -5618,7 +5618,7 @@
         <v>305</v>
       </c>
       <c r="B307" s="2">
-        <v>43909</v>
+        <v>43906</v>
       </c>
       <c r="C307" t="s">
         <v>7</v>
@@ -5627,7 +5627,7 @@
         <v>0</v>
       </c>
       <c r="E307">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -5635,16 +5635,16 @@
         <v>306</v>
       </c>
       <c r="B308" s="2">
-        <v>43910</v>
+        <v>43907</v>
       </c>
       <c r="C308" t="s">
         <v>7</v>
       </c>
       <c r="D308">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E308">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -5652,7 +5652,7 @@
         <v>307</v>
       </c>
       <c r="B309" s="2">
-        <v>43911</v>
+        <v>43908</v>
       </c>
       <c r="C309" t="s">
         <v>7</v>
@@ -5661,7 +5661,7 @@
         <v>0</v>
       </c>
       <c r="E309">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -5669,16 +5669,16 @@
         <v>308</v>
       </c>
       <c r="B310" s="2">
-        <v>43912</v>
+        <v>43909</v>
       </c>
       <c r="C310" t="s">
         <v>7</v>
       </c>
       <c r="D310">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E310">
-        <v>27</v>
+        <v>49</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -5686,16 +5686,16 @@
         <v>309</v>
       </c>
       <c r="B311" s="2">
-        <v>43913</v>
+        <v>43910</v>
       </c>
       <c r="C311" t="s">
         <v>7</v>
       </c>
       <c r="D311">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E311">
-        <v>27</v>
+        <v>51</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -5703,16 +5703,16 @@
         <v>310</v>
       </c>
       <c r="B312" s="2">
-        <v>43914</v>
+        <v>43911</v>
       </c>
       <c r="C312" t="s">
         <v>7</v>
       </c>
       <c r="D312">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E312">
-        <v>28</v>
+        <v>51</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -5720,16 +5720,16 @@
         <v>311</v>
       </c>
       <c r="B313" s="2">
-        <v>43915</v>
+        <v>43912</v>
       </c>
       <c r="C313" t="s">
         <v>7</v>
       </c>
       <c r="D313">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E313">
-        <v>29</v>
+        <v>53</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -5737,7 +5737,7 @@
         <v>312</v>
       </c>
       <c r="B314" s="2">
-        <v>43916</v>
+        <v>43913</v>
       </c>
       <c r="C314" t="s">
         <v>7</v>
@@ -5746,7 +5746,7 @@
         <v>1</v>
       </c>
       <c r="E314">
-        <v>30</v>
+        <v>54</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -5754,16 +5754,16 @@
         <v>313</v>
       </c>
       <c r="B315" s="2">
-        <v>43917</v>
+        <v>43914</v>
       </c>
       <c r="C315" t="s">
         <v>7</v>
       </c>
       <c r="D315">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E315">
-        <v>31</v>
+        <v>57</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -5771,16 +5771,16 @@
         <v>314</v>
       </c>
       <c r="B316" s="2">
-        <v>43918</v>
+        <v>43915</v>
       </c>
       <c r="C316" t="s">
         <v>7</v>
       </c>
       <c r="D316">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E316">
-        <v>33</v>
+        <v>58</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -5788,7 +5788,7 @@
         <v>315</v>
       </c>
       <c r="B317" s="2">
-        <v>43919</v>
+        <v>43916</v>
       </c>
       <c r="C317" t="s">
         <v>7</v>
@@ -5797,7 +5797,7 @@
         <v>3</v>
       </c>
       <c r="E317">
-        <v>36</v>
+        <v>61</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -5805,16 +5805,16 @@
         <v>316</v>
       </c>
       <c r="B318" s="2">
-        <v>43920</v>
+        <v>43917</v>
       </c>
       <c r="C318" t="s">
         <v>7</v>
       </c>
       <c r="D318">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E318">
-        <v>38</v>
+        <v>73</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -5822,16 +5822,16 @@
         <v>317</v>
       </c>
       <c r="B319" s="2">
-        <v>43921</v>
+        <v>43918</v>
       </c>
       <c r="C319" t="s">
         <v>7</v>
       </c>
       <c r="D319">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E319">
-        <v>47</v>
+        <v>81</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -5839,16 +5839,16 @@
         <v>318</v>
       </c>
       <c r="B320" s="2">
-        <v>43922</v>
+        <v>43919</v>
       </c>
       <c r="C320" t="s">
         <v>7</v>
       </c>
       <c r="D320">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E320">
-        <v>48</v>
+        <v>86</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -5856,16 +5856,16 @@
         <v>319</v>
       </c>
       <c r="B321" s="2">
-        <v>43923</v>
+        <v>43920</v>
       </c>
       <c r="C321" t="s">
         <v>7</v>
       </c>
       <c r="D321">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E321">
-        <v>54</v>
+        <v>90</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -5873,16 +5873,16 @@
         <v>320</v>
       </c>
       <c r="B322" s="2">
-        <v>43924</v>
+        <v>43921</v>
       </c>
       <c r="C322" t="s">
         <v>7</v>
       </c>
       <c r="D322">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E322">
-        <v>59</v>
+        <v>103</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -5890,16 +5890,16 @@
         <v>321</v>
       </c>
       <c r="B323" s="2">
-        <v>43925</v>
+        <v>43922</v>
       </c>
       <c r="C323" t="s">
         <v>7</v>
       </c>
       <c r="D323">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E323">
-        <v>68</v>
+        <v>128</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -5907,16 +5907,16 @@
         <v>322</v>
       </c>
       <c r="B324" s="2">
-        <v>43926</v>
+        <v>43923</v>
       </c>
       <c r="C324" t="s">
         <v>7</v>
       </c>
       <c r="D324">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E324">
-        <v>69</v>
+        <v>142</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -5924,16 +5924,16 @@
         <v>323</v>
       </c>
       <c r="B325" s="2">
-        <v>43927</v>
+        <v>43924</v>
       </c>
       <c r="C325" t="s">
         <v>7</v>
       </c>
       <c r="D325">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E325">
-        <v>76</v>
+        <v>161</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -5941,16 +5941,16 @@
         <v>324</v>
       </c>
       <c r="B326" s="2">
-        <v>43928</v>
+        <v>43925</v>
       </c>
       <c r="C326" t="s">
         <v>7</v>
       </c>
       <c r="D326">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E326">
-        <v>91</v>
+        <v>182</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -5958,16 +5958,16 @@
         <v>325</v>
       </c>
       <c r="B327" s="2">
-        <v>43929</v>
+        <v>43926</v>
       </c>
       <c r="C327" t="s">
         <v>7</v>
       </c>
       <c r="D327">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E327">
-        <v>95</v>
+        <v>194</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -5975,16 +5975,16 @@
         <v>326</v>
       </c>
       <c r="B328" s="2">
-        <v>43930</v>
+        <v>43927</v>
       </c>
       <c r="C328" t="s">
         <v>7</v>
       </c>
       <c r="D328">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E328">
-        <v>112</v>
+        <v>199</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -5992,16 +5992,16 @@
         <v>327</v>
       </c>
       <c r="B329" s="2">
-        <v>43931</v>
+        <v>43928</v>
       </c>
       <c r="C329" t="s">
         <v>7</v>
       </c>
       <c r="D329">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E329">
-        <v>127</v>
+        <v>223</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -6009,16 +6009,16 @@
         <v>328</v>
       </c>
       <c r="B330" s="2">
-        <v>43932</v>
+        <v>43929</v>
       </c>
       <c r="C330" t="s">
         <v>7</v>
       </c>
       <c r="D330">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E330">
-        <v>137</v>
+        <v>248</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -6026,16 +6026,16 @@
         <v>329</v>
       </c>
       <c r="B331" s="2">
-        <v>43933</v>
+        <v>43930</v>
       </c>
       <c r="C331" t="s">
         <v>7</v>
       </c>
       <c r="D331">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="E331">
-        <v>139</v>
+        <v>283</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -6043,16 +6043,16 @@
         <v>330</v>
       </c>
       <c r="B332" s="2">
-        <v>43934</v>
+        <v>43931</v>
       </c>
       <c r="C332" t="s">
         <v>7</v>
       </c>
       <c r="D332">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="E332">
-        <v>144</v>
+        <v>319</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -6060,16 +6060,16 @@
         <v>331</v>
       </c>
       <c r="B333" s="2">
-        <v>43935</v>
+        <v>43932</v>
       </c>
       <c r="C333" t="s">
         <v>7</v>
       </c>
       <c r="D333">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="E333">
-        <v>155</v>
+        <v>352</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -6077,16 +6077,16 @@
         <v>332</v>
       </c>
       <c r="B334" s="2">
-        <v>43936</v>
+        <v>43933</v>
       </c>
       <c r="C334" t="s">
         <v>7</v>
       </c>
       <c r="D334">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E334">
-        <v>168</v>
+        <v>377</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -6094,16 +6094,16 @@
         <v>333</v>
       </c>
       <c r="B335" s="2">
-        <v>43937</v>
+        <v>43934</v>
       </c>
       <c r="C335" t="s">
         <v>7</v>
       </c>
       <c r="D335">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E335">
-        <v>179</v>
+        <v>386</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -6111,16 +6111,16 @@
         <v>334</v>
       </c>
       <c r="B336" s="2">
-        <v>43938</v>
+        <v>43935</v>
       </c>
       <c r="C336" t="s">
         <v>7</v>
       </c>
       <c r="D336">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="E336">
-        <v>184</v>
+        <v>422</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -6128,16 +6128,16 @@
         <v>335</v>
       </c>
       <c r="B337" s="2">
-        <v>43939</v>
+        <v>43936</v>
       </c>
       <c r="C337" t="s">
         <v>7</v>
       </c>
       <c r="D337">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E337">
-        <v>195</v>
+        <v>442</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -6145,16 +6145,16 @@
         <v>336</v>
       </c>
       <c r="B338" s="2">
-        <v>43940</v>
+        <v>43937</v>
       </c>
       <c r="C338" t="s">
         <v>7</v>
       </c>
       <c r="D338">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E338">
-        <v>200</v>
+        <v>463</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -6162,16 +6162,16 @@
         <v>337</v>
       </c>
       <c r="B339" s="2">
-        <v>43941</v>
+        <v>43938</v>
       </c>
       <c r="C339" t="s">
         <v>7</v>
       </c>
       <c r="D339">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="E339">
-        <v>202</v>
+        <v>490</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -6179,16 +6179,16 @@
         <v>338</v>
       </c>
       <c r="B340" s="2">
-        <v>43942</v>
+        <v>43939</v>
       </c>
       <c r="C340" t="s">
         <v>7</v>
       </c>
       <c r="D340">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E340">
-        <v>213</v>
+        <v>514</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -6196,16 +6196,16 @@
         <v>339</v>
       </c>
       <c r="B341" s="2">
-        <v>43943</v>
+        <v>43940</v>
       </c>
       <c r="C341" t="s">
         <v>7</v>
       </c>
       <c r="D341">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="E341">
-        <v>217</v>
+        <v>536</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -6213,16 +6213,16 @@
         <v>340</v>
       </c>
       <c r="B342" s="2">
-        <v>43859</v>
+        <v>43941</v>
       </c>
       <c r="C342" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D342">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E342">
-        <v>0</v>
+        <v>540</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -6230,16 +6230,16 @@
         <v>341</v>
       </c>
       <c r="B343" s="2">
-        <v>43860</v>
+        <v>43942</v>
       </c>
       <c r="C343" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D343">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E343">
-        <v>0</v>
+        <v>551</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -6247,16 +6247,16 @@
         <v>342</v>
       </c>
       <c r="B344" s="2">
-        <v>43861</v>
+        <v>43943</v>
       </c>
       <c r="C344" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D344">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E344">
-        <v>0</v>
+        <v>569</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -6264,16 +6264,16 @@
         <v>343</v>
       </c>
       <c r="B345" s="2">
-        <v>43862</v>
+        <v>43944</v>
       </c>
       <c r="C345" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D345">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E345">
-        <v>0</v>
+        <v>583</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -6281,7 +6281,7 @@
         <v>344</v>
       </c>
       <c r="B346" s="2">
-        <v>43863</v>
+        <v>43859</v>
       </c>
       <c r="C346" t="s">
         <v>8</v>
@@ -6298,7 +6298,7 @@
         <v>345</v>
       </c>
       <c r="B347" s="2">
-        <v>43864</v>
+        <v>43860</v>
       </c>
       <c r="C347" t="s">
         <v>8</v>
@@ -6315,7 +6315,7 @@
         <v>346</v>
       </c>
       <c r="B348" s="2">
-        <v>43865</v>
+        <v>43861</v>
       </c>
       <c r="C348" t="s">
         <v>8</v>
@@ -6332,7 +6332,7 @@
         <v>347</v>
       </c>
       <c r="B349" s="2">
-        <v>43866</v>
+        <v>43862</v>
       </c>
       <c r="C349" t="s">
         <v>8</v>
@@ -6349,7 +6349,7 @@
         <v>348</v>
       </c>
       <c r="B350" s="2">
-        <v>43867</v>
+        <v>43863</v>
       </c>
       <c r="C350" t="s">
         <v>8</v>
@@ -6366,7 +6366,7 @@
         <v>349</v>
       </c>
       <c r="B351" s="2">
-        <v>43868</v>
+        <v>43864</v>
       </c>
       <c r="C351" t="s">
         <v>8</v>
@@ -6383,7 +6383,7 @@
         <v>350</v>
       </c>
       <c r="B352" s="2">
-        <v>43869</v>
+        <v>43865</v>
       </c>
       <c r="C352" t="s">
         <v>8</v>
@@ -6400,7 +6400,7 @@
         <v>351</v>
       </c>
       <c r="B353" s="2">
-        <v>43870</v>
+        <v>43866</v>
       </c>
       <c r="C353" t="s">
         <v>8</v>
@@ -6417,7 +6417,7 @@
         <v>352</v>
       </c>
       <c r="B354" s="2">
-        <v>43871</v>
+        <v>43867</v>
       </c>
       <c r="C354" t="s">
         <v>8</v>
@@ -6434,7 +6434,7 @@
         <v>353</v>
       </c>
       <c r="B355" s="2">
-        <v>43872</v>
+        <v>43868</v>
       </c>
       <c r="C355" t="s">
         <v>8</v>
@@ -6451,7 +6451,7 @@
         <v>354</v>
       </c>
       <c r="B356" s="2">
-        <v>43873</v>
+        <v>43869</v>
       </c>
       <c r="C356" t="s">
         <v>8</v>
@@ -6468,7 +6468,7 @@
         <v>355</v>
       </c>
       <c r="B357" s="2">
-        <v>43874</v>
+        <v>43870</v>
       </c>
       <c r="C357" t="s">
         <v>8</v>
@@ -6485,7 +6485,7 @@
         <v>356</v>
       </c>
       <c r="B358" s="2">
-        <v>43875</v>
+        <v>43871</v>
       </c>
       <c r="C358" t="s">
         <v>8</v>
@@ -6502,7 +6502,7 @@
         <v>357</v>
       </c>
       <c r="B359" s="2">
-        <v>43876</v>
+        <v>43872</v>
       </c>
       <c r="C359" t="s">
         <v>8</v>
@@ -6519,7 +6519,7 @@
         <v>358</v>
       </c>
       <c r="B360" s="2">
-        <v>43877</v>
+        <v>43873</v>
       </c>
       <c r="C360" t="s">
         <v>8</v>
@@ -6536,7 +6536,7 @@
         <v>359</v>
       </c>
       <c r="B361" s="2">
-        <v>43878</v>
+        <v>43874</v>
       </c>
       <c r="C361" t="s">
         <v>8</v>
@@ -6553,7 +6553,7 @@
         <v>360</v>
       </c>
       <c r="B362" s="2">
-        <v>43879</v>
+        <v>43875</v>
       </c>
       <c r="C362" t="s">
         <v>8</v>
@@ -6570,7 +6570,7 @@
         <v>361</v>
       </c>
       <c r="B363" s="2">
-        <v>43880</v>
+        <v>43876</v>
       </c>
       <c r="C363" t="s">
         <v>8</v>
@@ -6587,7 +6587,7 @@
         <v>362</v>
       </c>
       <c r="B364" s="2">
-        <v>43881</v>
+        <v>43877</v>
       </c>
       <c r="C364" t="s">
         <v>8</v>
@@ -6604,7 +6604,7 @@
         <v>363</v>
       </c>
       <c r="B365" s="2">
-        <v>43882</v>
+        <v>43878</v>
       </c>
       <c r="C365" t="s">
         <v>8</v>
@@ -6621,7 +6621,7 @@
         <v>364</v>
       </c>
       <c r="B366" s="2">
-        <v>43883</v>
+        <v>43879</v>
       </c>
       <c r="C366" t="s">
         <v>8</v>
@@ -6638,7 +6638,7 @@
         <v>365</v>
       </c>
       <c r="B367" s="2">
-        <v>43884</v>
+        <v>43880</v>
       </c>
       <c r="C367" t="s">
         <v>8</v>
@@ -6655,7 +6655,7 @@
         <v>366</v>
       </c>
       <c r="B368" s="2">
-        <v>43885</v>
+        <v>43881</v>
       </c>
       <c r="C368" t="s">
         <v>8</v>
@@ -6672,7 +6672,7 @@
         <v>367</v>
       </c>
       <c r="B369" s="2">
-        <v>43886</v>
+        <v>43882</v>
       </c>
       <c r="C369" t="s">
         <v>8</v>
@@ -6689,7 +6689,7 @@
         <v>368</v>
       </c>
       <c r="B370" s="2">
-        <v>43887</v>
+        <v>43883</v>
       </c>
       <c r="C370" t="s">
         <v>8</v>
@@ -6706,7 +6706,7 @@
         <v>369</v>
       </c>
       <c r="B371" s="2">
-        <v>43888</v>
+        <v>43884</v>
       </c>
       <c r="C371" t="s">
         <v>8</v>
@@ -6723,7 +6723,7 @@
         <v>370</v>
       </c>
       <c r="B372" s="2">
-        <v>43889</v>
+        <v>43885</v>
       </c>
       <c r="C372" t="s">
         <v>8</v>
@@ -6740,7 +6740,7 @@
         <v>371</v>
       </c>
       <c r="B373" s="2">
-        <v>43890</v>
+        <v>43886</v>
       </c>
       <c r="C373" t="s">
         <v>8</v>
@@ -6757,7 +6757,7 @@
         <v>372</v>
       </c>
       <c r="B374" s="2">
-        <v>43891</v>
+        <v>43887</v>
       </c>
       <c r="C374" t="s">
         <v>8</v>
@@ -6774,7 +6774,7 @@
         <v>373</v>
       </c>
       <c r="B375" s="2">
-        <v>43892</v>
+        <v>43888</v>
       </c>
       <c r="C375" t="s">
         <v>8</v>
@@ -6791,7 +6791,7 @@
         <v>374</v>
       </c>
       <c r="B376" s="2">
-        <v>43893</v>
+        <v>43889</v>
       </c>
       <c r="C376" t="s">
         <v>8</v>
@@ -6808,7 +6808,7 @@
         <v>375</v>
       </c>
       <c r="B377" s="2">
-        <v>43894</v>
+        <v>43890</v>
       </c>
       <c r="C377" t="s">
         <v>8</v>
@@ -6825,7 +6825,7 @@
         <v>376</v>
       </c>
       <c r="B378" s="2">
-        <v>43895</v>
+        <v>43891</v>
       </c>
       <c r="C378" t="s">
         <v>8</v>
@@ -6842,7 +6842,7 @@
         <v>377</v>
       </c>
       <c r="B379" s="2">
-        <v>43896</v>
+        <v>43892</v>
       </c>
       <c r="C379" t="s">
         <v>8</v>
@@ -6859,7 +6859,7 @@
         <v>378</v>
       </c>
       <c r="B380" s="2">
-        <v>43897</v>
+        <v>43893</v>
       </c>
       <c r="C380" t="s">
         <v>8</v>
@@ -6876,7 +6876,7 @@
         <v>379</v>
       </c>
       <c r="B381" s="2">
-        <v>43898</v>
+        <v>43894</v>
       </c>
       <c r="C381" t="s">
         <v>8</v>
@@ -6893,7 +6893,7 @@
         <v>380</v>
       </c>
       <c r="B382" s="2">
-        <v>43899</v>
+        <v>43895</v>
       </c>
       <c r="C382" t="s">
         <v>8</v>
@@ -6910,16 +6910,16 @@
         <v>381</v>
       </c>
       <c r="B383" s="2">
-        <v>43900</v>
+        <v>43896</v>
       </c>
       <c r="C383" t="s">
         <v>8</v>
       </c>
       <c r="D383">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E383">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:5">
@@ -6927,7 +6927,7 @@
         <v>382</v>
       </c>
       <c r="B384" s="2">
-        <v>43901</v>
+        <v>43897</v>
       </c>
       <c r="C384" t="s">
         <v>8</v>
@@ -6936,7 +6936,7 @@
         <v>0</v>
       </c>
       <c r="E384">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:5">
@@ -6944,16 +6944,16 @@
         <v>383</v>
       </c>
       <c r="B385" s="2">
-        <v>43902</v>
+        <v>43898</v>
       </c>
       <c r="C385" t="s">
         <v>8</v>
       </c>
       <c r="D385">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E385">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:5">
@@ -6961,7 +6961,7 @@
         <v>384</v>
       </c>
       <c r="B386" s="2">
-        <v>43903</v>
+        <v>43899</v>
       </c>
       <c r="C386" t="s">
         <v>8</v>
@@ -6970,7 +6970,7 @@
         <v>0</v>
       </c>
       <c r="E386">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:5">
@@ -6978,16 +6978,16 @@
         <v>385</v>
       </c>
       <c r="B387" s="2">
-        <v>43904</v>
+        <v>43900</v>
       </c>
       <c r="C387" t="s">
         <v>8</v>
       </c>
       <c r="D387">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E387">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388" spans="1:5">
@@ -6995,7 +6995,7 @@
         <v>386</v>
       </c>
       <c r="B388" s="2">
-        <v>43905</v>
+        <v>43901</v>
       </c>
       <c r="C388" t="s">
         <v>8</v>
@@ -7004,7 +7004,7 @@
         <v>0</v>
       </c>
       <c r="E388">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389" spans="1:5">
@@ -7012,13 +7012,13 @@
         <v>387</v>
       </c>
       <c r="B389" s="2">
-        <v>43906</v>
+        <v>43902</v>
       </c>
       <c r="C389" t="s">
         <v>8</v>
       </c>
       <c r="D389">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E389">
         <v>2</v>
@@ -7029,7 +7029,7 @@
         <v>388</v>
       </c>
       <c r="B390" s="2">
-        <v>43907</v>
+        <v>43903</v>
       </c>
       <c r="C390" t="s">
         <v>8</v>
@@ -7046,7 +7046,7 @@
         <v>389</v>
       </c>
       <c r="B391" s="2">
-        <v>43908</v>
+        <v>43904</v>
       </c>
       <c r="C391" t="s">
         <v>8</v>
@@ -7063,7 +7063,7 @@
         <v>390</v>
       </c>
       <c r="B392" s="2">
-        <v>43909</v>
+        <v>43905</v>
       </c>
       <c r="C392" t="s">
         <v>8</v>
@@ -7080,7 +7080,7 @@
         <v>391</v>
       </c>
       <c r="B393" s="2">
-        <v>43910</v>
+        <v>43906</v>
       </c>
       <c r="C393" t="s">
         <v>8</v>
@@ -7097,7 +7097,7 @@
         <v>392</v>
       </c>
       <c r="B394" s="2">
-        <v>43911</v>
+        <v>43907</v>
       </c>
       <c r="C394" t="s">
         <v>8</v>
@@ -7114,7 +7114,7 @@
         <v>393</v>
       </c>
       <c r="B395" s="2">
-        <v>43912</v>
+        <v>43908</v>
       </c>
       <c r="C395" t="s">
         <v>8</v>
@@ -7131,7 +7131,7 @@
         <v>394</v>
       </c>
       <c r="B396" s="2">
-        <v>43913</v>
+        <v>43909</v>
       </c>
       <c r="C396" t="s">
         <v>8</v>
@@ -7148,7 +7148,7 @@
         <v>395</v>
       </c>
       <c r="B397" s="2">
-        <v>43914</v>
+        <v>43910</v>
       </c>
       <c r="C397" t="s">
         <v>8</v>
@@ -7165,16 +7165,16 @@
         <v>396</v>
       </c>
       <c r="B398" s="2">
-        <v>43915</v>
+        <v>43911</v>
       </c>
       <c r="C398" t="s">
         <v>8</v>
       </c>
       <c r="D398">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E398">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:5">
@@ -7182,7 +7182,7 @@
         <v>397</v>
       </c>
       <c r="B399" s="2">
-        <v>43916</v>
+        <v>43912</v>
       </c>
       <c r="C399" t="s">
         <v>8</v>
@@ -7191,7 +7191,7 @@
         <v>0</v>
       </c>
       <c r="E399">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:5">
@@ -7199,16 +7199,16 @@
         <v>398</v>
       </c>
       <c r="B400" s="2">
-        <v>43917</v>
+        <v>43913</v>
       </c>
       <c r="C400" t="s">
         <v>8</v>
       </c>
       <c r="D400">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E400">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:5">
@@ -7216,16 +7216,16 @@
         <v>399</v>
       </c>
       <c r="B401" s="2">
-        <v>43918</v>
+        <v>43914</v>
       </c>
       <c r="C401" t="s">
         <v>8</v>
       </c>
       <c r="D401">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E401">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:5">
@@ -7233,16 +7233,16 @@
         <v>400</v>
       </c>
       <c r="B402" s="2">
-        <v>43919</v>
+        <v>43915</v>
       </c>
       <c r="C402" t="s">
         <v>8</v>
       </c>
       <c r="D402">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E402">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="403" spans="1:5">
@@ -7250,7 +7250,7 @@
         <v>401</v>
       </c>
       <c r="B403" s="2">
-        <v>43920</v>
+        <v>43916</v>
       </c>
       <c r="C403" t="s">
         <v>8</v>
@@ -7259,7 +7259,7 @@
         <v>0</v>
       </c>
       <c r="E403">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="404" spans="1:5">
@@ -7267,16 +7267,16 @@
         <v>402</v>
       </c>
       <c r="B404" s="2">
-        <v>43921</v>
+        <v>43917</v>
       </c>
       <c r="C404" t="s">
         <v>8</v>
       </c>
       <c r="D404">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E404">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="405" spans="1:5">
@@ -7284,16 +7284,16 @@
         <v>403</v>
       </c>
       <c r="B405" s="2">
-        <v>43922</v>
+        <v>43918</v>
       </c>
       <c r="C405" t="s">
         <v>8</v>
       </c>
       <c r="D405">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E405">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="406" spans="1:5">
@@ -7301,7 +7301,7 @@
         <v>404</v>
       </c>
       <c r="B406" s="2">
-        <v>43923</v>
+        <v>43919</v>
       </c>
       <c r="C406" t="s">
         <v>8</v>
@@ -7310,7 +7310,7 @@
         <v>0</v>
       </c>
       <c r="E406">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="407" spans="1:5">
@@ -7318,16 +7318,16 @@
         <v>405</v>
       </c>
       <c r="B407" s="2">
-        <v>43924</v>
+        <v>43920</v>
       </c>
       <c r="C407" t="s">
         <v>8</v>
       </c>
       <c r="D407">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E407">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="408" spans="1:5">
@@ -7335,7 +7335,7 @@
         <v>406</v>
       </c>
       <c r="B408" s="2">
-        <v>43925</v>
+        <v>43921</v>
       </c>
       <c r="C408" t="s">
         <v>8</v>
@@ -7344,7 +7344,7 @@
         <v>0</v>
       </c>
       <c r="E408">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="409" spans="1:5">
@@ -7352,16 +7352,16 @@
         <v>407</v>
       </c>
       <c r="B409" s="2">
-        <v>43926</v>
+        <v>43922</v>
       </c>
       <c r="C409" t="s">
         <v>8</v>
       </c>
       <c r="D409">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E409">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="410" spans="1:5">
@@ -7369,7 +7369,7 @@
         <v>408</v>
       </c>
       <c r="B410" s="2">
-        <v>43927</v>
+        <v>43923</v>
       </c>
       <c r="C410" t="s">
         <v>8</v>
@@ -7378,7 +7378,7 @@
         <v>0</v>
       </c>
       <c r="E410">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="411" spans="1:5">
@@ -7386,13 +7386,13 @@
         <v>409</v>
       </c>
       <c r="B411" s="2">
-        <v>43928</v>
+        <v>43924</v>
       </c>
       <c r="C411" t="s">
         <v>8</v>
       </c>
       <c r="D411">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E411">
         <v>8</v>
@@ -7403,7 +7403,7 @@
         <v>410</v>
       </c>
       <c r="B412" s="2">
-        <v>43929</v>
+        <v>43925</v>
       </c>
       <c r="C412" t="s">
         <v>8</v>
@@ -7420,16 +7420,16 @@
         <v>411</v>
       </c>
       <c r="B413" s="2">
-        <v>43930</v>
+        <v>43926</v>
       </c>
       <c r="C413" t="s">
         <v>8</v>
       </c>
       <c r="D413">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E413">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="414" spans="1:5">
@@ -7437,16 +7437,16 @@
         <v>412</v>
       </c>
       <c r="B414" s="2">
-        <v>43931</v>
+        <v>43927</v>
       </c>
       <c r="C414" t="s">
         <v>8</v>
       </c>
       <c r="D414">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E414">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="415" spans="1:5">
@@ -7454,16 +7454,16 @@
         <v>413</v>
       </c>
       <c r="B415" s="2">
-        <v>43932</v>
+        <v>43928</v>
       </c>
       <c r="C415" t="s">
         <v>8</v>
       </c>
       <c r="D415">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E415">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="416" spans="1:5">
@@ -7471,16 +7471,16 @@
         <v>414</v>
       </c>
       <c r="B416" s="2">
-        <v>43933</v>
+        <v>43929</v>
       </c>
       <c r="C416" t="s">
         <v>8</v>
       </c>
       <c r="D416">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E416">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="417" spans="1:5">
@@ -7488,16 +7488,16 @@
         <v>415</v>
       </c>
       <c r="B417" s="2">
-        <v>43934</v>
+        <v>43930</v>
       </c>
       <c r="C417" t="s">
         <v>8</v>
       </c>
       <c r="D417">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E417">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="418" spans="1:5">
@@ -7505,16 +7505,16 @@
         <v>416</v>
       </c>
       <c r="B418" s="2">
-        <v>43935</v>
+        <v>43931</v>
       </c>
       <c r="C418" t="s">
         <v>8</v>
       </c>
       <c r="D418">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E418">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="419" spans="1:5">
@@ -7522,16 +7522,16 @@
         <v>417</v>
       </c>
       <c r="B419" s="2">
-        <v>43936</v>
+        <v>43932</v>
       </c>
       <c r="C419" t="s">
         <v>8</v>
       </c>
       <c r="D419">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E419">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="420" spans="1:5">
@@ -7539,16 +7539,16 @@
         <v>418</v>
       </c>
       <c r="B420" s="2">
-        <v>43937</v>
+        <v>43933</v>
       </c>
       <c r="C420" t="s">
         <v>8</v>
       </c>
       <c r="D420">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E420">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="421" spans="1:5">
@@ -7556,16 +7556,16 @@
         <v>419</v>
       </c>
       <c r="B421" s="2">
-        <v>43938</v>
+        <v>43934</v>
       </c>
       <c r="C421" t="s">
         <v>8</v>
       </c>
       <c r="D421">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E421">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="422" spans="1:5">
@@ -7573,16 +7573,16 @@
         <v>420</v>
       </c>
       <c r="B422" s="2">
-        <v>43939</v>
+        <v>43935</v>
       </c>
       <c r="C422" t="s">
         <v>8</v>
       </c>
       <c r="D422">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="E422">
-        <v>66</v>
+        <v>17</v>
       </c>
     </row>
     <row r="423" spans="1:5">
@@ -7590,16 +7590,16 @@
         <v>421</v>
       </c>
       <c r="B423" s="2">
-        <v>43940</v>
+        <v>43936</v>
       </c>
       <c r="C423" t="s">
         <v>8</v>
       </c>
       <c r="D423">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E423">
-        <v>75</v>
+        <v>20</v>
       </c>
     </row>
     <row r="424" spans="1:5">
@@ -7607,16 +7607,16 @@
         <v>422</v>
       </c>
       <c r="B424" s="2">
-        <v>43941</v>
+        <v>43937</v>
       </c>
       <c r="C424" t="s">
         <v>8</v>
       </c>
       <c r="D424">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="E424">
-        <v>117</v>
+        <v>21</v>
       </c>
     </row>
     <row r="425" spans="1:5">
@@ -7624,16 +7624,16 @@
         <v>423</v>
       </c>
       <c r="B425" s="2">
-        <v>43942</v>
+        <v>43938</v>
       </c>
       <c r="C425" t="s">
         <v>8</v>
       </c>
       <c r="D425">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="E425">
-        <v>141</v>
+        <v>23</v>
       </c>
     </row>
     <row r="426" spans="1:5">
@@ -7641,16 +7641,16 @@
         <v>424</v>
       </c>
       <c r="B426" s="2">
-        <v>43943</v>
+        <v>43939</v>
       </c>
       <c r="C426" t="s">
         <v>8</v>
       </c>
       <c r="D426">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="E426">
-        <v>144</v>
+        <v>66</v>
       </c>
     </row>
     <row r="427" spans="1:5">
@@ -7658,16 +7658,16 @@
         <v>425</v>
       </c>
       <c r="B427" s="2">
-        <v>43859</v>
+        <v>43940</v>
       </c>
       <c r="C427" t="s">
+        <v>8</v>
+      </c>
+      <c r="D427">
         <v>9</v>
       </c>
-      <c r="D427">
-        <v>0</v>
-      </c>
       <c r="E427">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="428" spans="1:5">
@@ -7675,16 +7675,16 @@
         <v>426</v>
       </c>
       <c r="B428" s="2">
-        <v>43860</v>
+        <v>43941</v>
       </c>
       <c r="C428" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D428">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="E428">
-        <v>0</v>
+        <v>117</v>
       </c>
     </row>
     <row r="429" spans="1:5">
@@ -7692,16 +7692,16 @@
         <v>427</v>
       </c>
       <c r="B429" s="2">
-        <v>43861</v>
+        <v>43942</v>
       </c>
       <c r="C429" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D429">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E429">
-        <v>0</v>
+        <v>141</v>
       </c>
     </row>
     <row r="430" spans="1:5">
@@ -7709,16 +7709,16 @@
         <v>428</v>
       </c>
       <c r="B430" s="2">
-        <v>43862</v>
+        <v>43943</v>
       </c>
       <c r="C430" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D430">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E430">
-        <v>0</v>
+        <v>143</v>
       </c>
     </row>
     <row r="431" spans="1:5">
@@ -7726,16 +7726,16 @@
         <v>429</v>
       </c>
       <c r="B431" s="2">
-        <v>43863</v>
+        <v>43944</v>
       </c>
       <c r="C431" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D431">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E431">
-        <v>0</v>
+        <v>149</v>
       </c>
     </row>
     <row r="432" spans="1:5">
@@ -7743,7 +7743,7 @@
         <v>430</v>
       </c>
       <c r="B432" s="2">
-        <v>43864</v>
+        <v>43859</v>
       </c>
       <c r="C432" t="s">
         <v>9</v>
@@ -7760,7 +7760,7 @@
         <v>431</v>
       </c>
       <c r="B433" s="2">
-        <v>43865</v>
+        <v>43860</v>
       </c>
       <c r="C433" t="s">
         <v>9</v>
@@ -7777,7 +7777,7 @@
         <v>432</v>
       </c>
       <c r="B434" s="2">
-        <v>43866</v>
+        <v>43861</v>
       </c>
       <c r="C434" t="s">
         <v>9</v>
@@ -7794,7 +7794,7 @@
         <v>433</v>
       </c>
       <c r="B435" s="2">
-        <v>43867</v>
+        <v>43862</v>
       </c>
       <c r="C435" t="s">
         <v>9</v>
@@ -7811,7 +7811,7 @@
         <v>434</v>
       </c>
       <c r="B436" s="2">
-        <v>43868</v>
+        <v>43863</v>
       </c>
       <c r="C436" t="s">
         <v>9</v>
@@ -7828,7 +7828,7 @@
         <v>435</v>
       </c>
       <c r="B437" s="2">
-        <v>43869</v>
+        <v>43864</v>
       </c>
       <c r="C437" t="s">
         <v>9</v>
@@ -7845,7 +7845,7 @@
         <v>436</v>
       </c>
       <c r="B438" s="2">
-        <v>43870</v>
+        <v>43865</v>
       </c>
       <c r="C438" t="s">
         <v>9</v>
@@ -7862,7 +7862,7 @@
         <v>437</v>
       </c>
       <c r="B439" s="2">
-        <v>43871</v>
+        <v>43866</v>
       </c>
       <c r="C439" t="s">
         <v>9</v>
@@ -7879,7 +7879,7 @@
         <v>438</v>
       </c>
       <c r="B440" s="2">
-        <v>43872</v>
+        <v>43867</v>
       </c>
       <c r="C440" t="s">
         <v>9</v>
@@ -7896,7 +7896,7 @@
         <v>439</v>
       </c>
       <c r="B441" s="2">
-        <v>43873</v>
+        <v>43868</v>
       </c>
       <c r="C441" t="s">
         <v>9</v>
@@ -7913,7 +7913,7 @@
         <v>440</v>
       </c>
       <c r="B442" s="2">
-        <v>43874</v>
+        <v>43869</v>
       </c>
       <c r="C442" t="s">
         <v>9</v>
@@ -7930,7 +7930,7 @@
         <v>441</v>
       </c>
       <c r="B443" s="2">
-        <v>43875</v>
+        <v>43870</v>
       </c>
       <c r="C443" t="s">
         <v>9</v>
@@ -7947,7 +7947,7 @@
         <v>442</v>
       </c>
       <c r="B444" s="2">
-        <v>43876</v>
+        <v>43871</v>
       </c>
       <c r="C444" t="s">
         <v>9</v>
@@ -7964,7 +7964,7 @@
         <v>443</v>
       </c>
       <c r="B445" s="2">
-        <v>43877</v>
+        <v>43872</v>
       </c>
       <c r="C445" t="s">
         <v>9</v>
@@ -7981,7 +7981,7 @@
         <v>444</v>
       </c>
       <c r="B446" s="2">
-        <v>43878</v>
+        <v>43873</v>
       </c>
       <c r="C446" t="s">
         <v>9</v>
@@ -7998,7 +7998,7 @@
         <v>445</v>
       </c>
       <c r="B447" s="2">
-        <v>43879</v>
+        <v>43874</v>
       </c>
       <c r="C447" t="s">
         <v>9</v>
@@ -8015,7 +8015,7 @@
         <v>446</v>
       </c>
       <c r="B448" s="2">
-        <v>43880</v>
+        <v>43875</v>
       </c>
       <c r="C448" t="s">
         <v>9</v>
@@ -8032,7 +8032,7 @@
         <v>447</v>
       </c>
       <c r="B449" s="2">
-        <v>43881</v>
+        <v>43876</v>
       </c>
       <c r="C449" t="s">
         <v>9</v>
@@ -8049,7 +8049,7 @@
         <v>448</v>
       </c>
       <c r="B450" s="2">
-        <v>43882</v>
+        <v>43877</v>
       </c>
       <c r="C450" t="s">
         <v>9</v>
@@ -8066,7 +8066,7 @@
         <v>449</v>
       </c>
       <c r="B451" s="2">
-        <v>43883</v>
+        <v>43878</v>
       </c>
       <c r="C451" t="s">
         <v>9</v>
@@ -8083,7 +8083,7 @@
         <v>450</v>
       </c>
       <c r="B452" s="2">
-        <v>43884</v>
+        <v>43879</v>
       </c>
       <c r="C452" t="s">
         <v>9</v>
@@ -8100,7 +8100,7 @@
         <v>451</v>
       </c>
       <c r="B453" s="2">
-        <v>43885</v>
+        <v>43880</v>
       </c>
       <c r="C453" t="s">
         <v>9</v>
@@ -8117,7 +8117,7 @@
         <v>452</v>
       </c>
       <c r="B454" s="2">
-        <v>43886</v>
+        <v>43881</v>
       </c>
       <c r="C454" t="s">
         <v>9</v>
@@ -8134,7 +8134,7 @@
         <v>453</v>
       </c>
       <c r="B455" s="2">
-        <v>43887</v>
+        <v>43882</v>
       </c>
       <c r="C455" t="s">
         <v>9</v>
@@ -8151,7 +8151,7 @@
         <v>454</v>
       </c>
       <c r="B456" s="2">
-        <v>43888</v>
+        <v>43883</v>
       </c>
       <c r="C456" t="s">
         <v>9</v>
@@ -8168,7 +8168,7 @@
         <v>455</v>
       </c>
       <c r="B457" s="2">
-        <v>43889</v>
+        <v>43884</v>
       </c>
       <c r="C457" t="s">
         <v>9</v>
@@ -8185,7 +8185,7 @@
         <v>456</v>
       </c>
       <c r="B458" s="2">
-        <v>43890</v>
+        <v>43885</v>
       </c>
       <c r="C458" t="s">
         <v>9</v>
@@ -8202,7 +8202,7 @@
         <v>457</v>
       </c>
       <c r="B459" s="2">
-        <v>43891</v>
+        <v>43886</v>
       </c>
       <c r="C459" t="s">
         <v>9</v>
@@ -8219,7 +8219,7 @@
         <v>458</v>
       </c>
       <c r="B460" s="2">
-        <v>43892</v>
+        <v>43887</v>
       </c>
       <c r="C460" t="s">
         <v>9</v>
@@ -8236,7 +8236,7 @@
         <v>459</v>
       </c>
       <c r="B461" s="2">
-        <v>43893</v>
+        <v>43888</v>
       </c>
       <c r="C461" t="s">
         <v>9</v>
@@ -8253,16 +8253,16 @@
         <v>460</v>
       </c>
       <c r="B462" s="2">
-        <v>43894</v>
+        <v>43889</v>
       </c>
       <c r="C462" t="s">
         <v>9</v>
       </c>
       <c r="D462">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E462">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:5">
@@ -8270,7 +8270,7 @@
         <v>461</v>
       </c>
       <c r="B463" s="2">
-        <v>43895</v>
+        <v>43890</v>
       </c>
       <c r="C463" t="s">
         <v>9</v>
@@ -8279,7 +8279,7 @@
         <v>0</v>
       </c>
       <c r="E463">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:5">
@@ -8287,7 +8287,7 @@
         <v>462</v>
       </c>
       <c r="B464" s="2">
-        <v>43896</v>
+        <v>43891</v>
       </c>
       <c r="C464" t="s">
         <v>9</v>
@@ -8296,7 +8296,7 @@
         <v>0</v>
       </c>
       <c r="E464">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:5">
@@ -8304,7 +8304,7 @@
         <v>463</v>
       </c>
       <c r="B465" s="2">
-        <v>43897</v>
+        <v>43892</v>
       </c>
       <c r="C465" t="s">
         <v>9</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="E465">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:5">
@@ -8321,7 +8321,7 @@
         <v>464</v>
       </c>
       <c r="B466" s="2">
-        <v>43898</v>
+        <v>43893</v>
       </c>
       <c r="C466" t="s">
         <v>9</v>
@@ -8330,7 +8330,7 @@
         <v>0</v>
       </c>
       <c r="E466">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:5">
@@ -8338,16 +8338,16 @@
         <v>465</v>
       </c>
       <c r="B467" s="2">
-        <v>43899</v>
+        <v>43894</v>
       </c>
       <c r="C467" t="s">
         <v>9</v>
       </c>
       <c r="D467">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E467">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="468" spans="1:5">
@@ -8355,7 +8355,7 @@
         <v>466</v>
       </c>
       <c r="B468" s="2">
-        <v>43900</v>
+        <v>43895</v>
       </c>
       <c r="C468" t="s">
         <v>9</v>
@@ -8364,7 +8364,7 @@
         <v>0</v>
       </c>
       <c r="E468">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="469" spans="1:5">
@@ -8372,16 +8372,16 @@
         <v>467</v>
       </c>
       <c r="B469" s="2">
-        <v>43901</v>
+        <v>43896</v>
       </c>
       <c r="C469" t="s">
         <v>9</v>
       </c>
       <c r="D469">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E469">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="470" spans="1:5">
@@ -8389,16 +8389,16 @@
         <v>468</v>
       </c>
       <c r="B470" s="2">
-        <v>43902</v>
+        <v>43897</v>
       </c>
       <c r="C470" t="s">
         <v>9</v>
       </c>
       <c r="D470">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E470">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="471" spans="1:5">
@@ -8406,16 +8406,16 @@
         <v>469</v>
       </c>
       <c r="B471" s="2">
-        <v>43903</v>
+        <v>43898</v>
       </c>
       <c r="C471" t="s">
         <v>9</v>
       </c>
       <c r="D471">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E471">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="472" spans="1:5">
@@ -8423,7 +8423,7 @@
         <v>470</v>
       </c>
       <c r="B472" s="2">
-        <v>43904</v>
+        <v>43899</v>
       </c>
       <c r="C472" t="s">
         <v>9</v>
@@ -8432,7 +8432,7 @@
         <v>0</v>
       </c>
       <c r="E472">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="473" spans="1:5">
@@ -8440,16 +8440,16 @@
         <v>471</v>
       </c>
       <c r="B473" s="2">
-        <v>43905</v>
+        <v>43900</v>
       </c>
       <c r="C473" t="s">
         <v>9</v>
       </c>
       <c r="D473">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E473">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="474" spans="1:5">
@@ -8457,16 +8457,16 @@
         <v>472</v>
       </c>
       <c r="B474" s="2">
-        <v>43906</v>
+        <v>43901</v>
       </c>
       <c r="C474" t="s">
         <v>9</v>
       </c>
       <c r="D474">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E474">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="475" spans="1:5">
@@ -8474,16 +8474,16 @@
         <v>473</v>
       </c>
       <c r="B475" s="2">
-        <v>43907</v>
+        <v>43902</v>
       </c>
       <c r="C475" t="s">
         <v>9</v>
       </c>
       <c r="D475">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E475">
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="476" spans="1:5">
@@ -8491,16 +8491,16 @@
         <v>474</v>
       </c>
       <c r="B476" s="2">
-        <v>43908</v>
+        <v>43903</v>
       </c>
       <c r="C476" t="s">
         <v>9</v>
       </c>
       <c r="D476">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E476">
-        <v>2</v>
+        <v>25</v>
       </c>
     </row>
     <row r="477" spans="1:5">
@@ -8508,16 +8508,16 @@
         <v>475</v>
       </c>
       <c r="B477" s="2">
-        <v>43909</v>
+        <v>43904</v>
       </c>
       <c r="C477" t="s">
         <v>9</v>
       </c>
       <c r="D477">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E477">
-        <v>2</v>
+        <v>28</v>
       </c>
     </row>
     <row r="478" spans="1:5">
@@ -8525,7 +8525,7 @@
         <v>476</v>
       </c>
       <c r="B478" s="2">
-        <v>43910</v>
+        <v>43905</v>
       </c>
       <c r="C478" t="s">
         <v>9</v>
@@ -8534,7 +8534,7 @@
         <v>0</v>
       </c>
       <c r="E478">
-        <v>2</v>
+        <v>28</v>
       </c>
     </row>
     <row r="479" spans="1:5">
@@ -8542,7 +8542,7 @@
         <v>477</v>
       </c>
       <c r="B479" s="2">
-        <v>43911</v>
+        <v>43906</v>
       </c>
       <c r="C479" t="s">
         <v>9</v>
@@ -8551,7 +8551,7 @@
         <v>0</v>
       </c>
       <c r="E479">
-        <v>2</v>
+        <v>28</v>
       </c>
     </row>
     <row r="480" spans="1:5">
@@ -8559,7 +8559,7 @@
         <v>478</v>
       </c>
       <c r="B480" s="2">
-        <v>43912</v>
+        <v>43907</v>
       </c>
       <c r="C480" t="s">
         <v>9</v>
@@ -8568,7 +8568,7 @@
         <v>0</v>
       </c>
       <c r="E480">
-        <v>2</v>
+        <v>28</v>
       </c>
     </row>
     <row r="481" spans="1:5">
@@ -8576,16 +8576,16 @@
         <v>479</v>
       </c>
       <c r="B481" s="2">
-        <v>43913</v>
+        <v>43908</v>
       </c>
       <c r="C481" t="s">
         <v>9</v>
       </c>
       <c r="D481">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E481">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="482" spans="1:5">
@@ -8593,16 +8593,16 @@
         <v>480</v>
       </c>
       <c r="B482" s="2">
-        <v>43914</v>
+        <v>43909</v>
       </c>
       <c r="C482" t="s">
         <v>9</v>
       </c>
       <c r="D482">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E482">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="483" spans="1:5">
@@ -8610,7 +8610,7 @@
         <v>481</v>
       </c>
       <c r="B483" s="2">
-        <v>43915</v>
+        <v>43910</v>
       </c>
       <c r="C483" t="s">
         <v>9</v>
@@ -8619,7 +8619,7 @@
         <v>2</v>
       </c>
       <c r="E483">
-        <v>4</v>
+        <v>34</v>
       </c>
     </row>
     <row r="484" spans="1:5">
@@ -8627,7 +8627,7 @@
         <v>482</v>
       </c>
       <c r="B484" s="2">
-        <v>43916</v>
+        <v>43911</v>
       </c>
       <c r="C484" t="s">
         <v>9</v>
@@ -8636,7 +8636,7 @@
         <v>0</v>
       </c>
       <c r="E484">
-        <v>4</v>
+        <v>34</v>
       </c>
     </row>
     <row r="485" spans="1:5">
@@ -8644,16 +8644,16 @@
         <v>483</v>
       </c>
       <c r="B485" s="2">
-        <v>43917</v>
+        <v>43912</v>
       </c>
       <c r="C485" t="s">
         <v>9</v>
       </c>
       <c r="D485">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E485">
-        <v>5</v>
+        <v>34</v>
       </c>
     </row>
     <row r="486" spans="1:5">
@@ -8661,16 +8661,16 @@
         <v>484</v>
       </c>
       <c r="B486" s="2">
-        <v>43918</v>
+        <v>43913</v>
       </c>
       <c r="C486" t="s">
         <v>9</v>
       </c>
       <c r="D486">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E486">
-        <v>6</v>
+        <v>34</v>
       </c>
     </row>
     <row r="487" spans="1:5">
@@ -8678,16 +8678,16 @@
         <v>485</v>
       </c>
       <c r="B487" s="2">
-        <v>43919</v>
+        <v>43914</v>
       </c>
       <c r="C487" t="s">
         <v>9</v>
       </c>
       <c r="D487">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E487">
-        <v>7</v>
+        <v>37</v>
       </c>
     </row>
     <row r="488" spans="1:5">
@@ -8695,16 +8695,16 @@
         <v>486</v>
       </c>
       <c r="B488" s="2">
-        <v>43920</v>
+        <v>43915</v>
       </c>
       <c r="C488" t="s">
         <v>9</v>
       </c>
       <c r="D488">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E488">
-        <v>7</v>
+        <v>38</v>
       </c>
     </row>
     <row r="489" spans="1:5">
@@ -8712,16 +8712,16 @@
         <v>487</v>
       </c>
       <c r="B489" s="2">
-        <v>43921</v>
+        <v>43916</v>
       </c>
       <c r="C489" t="s">
         <v>9</v>
       </c>
       <c r="D489">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E489">
-        <v>7</v>
+        <v>41</v>
       </c>
     </row>
     <row r="490" spans="1:5">
@@ -8729,16 +8729,16 @@
         <v>488</v>
       </c>
       <c r="B490" s="2">
-        <v>43922</v>
+        <v>43917</v>
       </c>
       <c r="C490" t="s">
         <v>9</v>
       </c>
       <c r="D490">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E490">
-        <v>7</v>
+        <v>44</v>
       </c>
     </row>
     <row r="491" spans="1:5">
@@ -8746,16 +8746,16 @@
         <v>489</v>
       </c>
       <c r="B491" s="2">
-        <v>43923</v>
+        <v>43918</v>
       </c>
       <c r="C491" t="s">
         <v>9</v>
       </c>
       <c r="D491">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E491">
-        <v>8</v>
+        <v>46</v>
       </c>
     </row>
     <row r="492" spans="1:5">
@@ -8763,16 +8763,16 @@
         <v>490</v>
       </c>
       <c r="B492" s="2">
-        <v>43924</v>
+        <v>43919</v>
       </c>
       <c r="C492" t="s">
         <v>9</v>
       </c>
       <c r="D492">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E492">
-        <v>8</v>
+        <v>49</v>
       </c>
     </row>
     <row r="493" spans="1:5">
@@ -8780,7 +8780,7 @@
         <v>491</v>
       </c>
       <c r="B493" s="2">
-        <v>43925</v>
+        <v>43920</v>
       </c>
       <c r="C493" t="s">
         <v>9</v>
@@ -8789,7 +8789,7 @@
         <v>1</v>
       </c>
       <c r="E493">
-        <v>9</v>
+        <v>50</v>
       </c>
     </row>
     <row r="494" spans="1:5">
@@ -8797,16 +8797,16 @@
         <v>492</v>
       </c>
       <c r="B494" s="2">
-        <v>43926</v>
+        <v>43921</v>
       </c>
       <c r="C494" t="s">
         <v>9</v>
       </c>
       <c r="D494">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E494">
-        <v>9</v>
+        <v>54</v>
       </c>
     </row>
     <row r="495" spans="1:5">
@@ -8814,16 +8814,16 @@
         <v>493</v>
       </c>
       <c r="B495" s="2">
-        <v>43927</v>
+        <v>43922</v>
       </c>
       <c r="C495" t="s">
         <v>9</v>
       </c>
       <c r="D495">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E495">
-        <v>9</v>
+        <v>57</v>
       </c>
     </row>
     <row r="496" spans="1:5">
@@ -8831,16 +8831,16 @@
         <v>494</v>
       </c>
       <c r="B496" s="2">
-        <v>43928</v>
+        <v>43923</v>
       </c>
       <c r="C496" t="s">
         <v>9</v>
       </c>
       <c r="D496">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E496">
-        <v>9</v>
+        <v>63</v>
       </c>
     </row>
     <row r="497" spans="1:5">
@@ -8848,16 +8848,16 @@
         <v>495</v>
       </c>
       <c r="B497" s="2">
-        <v>43929</v>
+        <v>43924</v>
       </c>
       <c r="C497" t="s">
         <v>9</v>
       </c>
       <c r="D497">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E497">
-        <v>11</v>
+        <v>68</v>
       </c>
     </row>
     <row r="498" spans="1:5">
@@ -8865,16 +8865,16 @@
         <v>496</v>
       </c>
       <c r="B498" s="2">
-        <v>43930</v>
+        <v>43925</v>
       </c>
       <c r="C498" t="s">
         <v>9</v>
       </c>
       <c r="D498">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E498">
-        <v>14</v>
+        <v>73</v>
       </c>
     </row>
     <row r="499" spans="1:5">
@@ -8882,16 +8882,16 @@
         <v>497</v>
       </c>
       <c r="B499" s="2">
-        <v>43931</v>
+        <v>43926</v>
       </c>
       <c r="C499" t="s">
         <v>9</v>
       </c>
       <c r="D499">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E499">
-        <v>22</v>
+        <v>74</v>
       </c>
     </row>
     <row r="500" spans="1:5">
@@ -8899,16 +8899,16 @@
         <v>498</v>
       </c>
       <c r="B500" s="2">
-        <v>43932</v>
+        <v>43927</v>
       </c>
       <c r="C500" t="s">
         <v>9</v>
       </c>
       <c r="D500">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E500">
-        <v>24</v>
+        <v>77</v>
       </c>
     </row>
     <row r="501" spans="1:5">
@@ -8916,16 +8916,16 @@
         <v>499</v>
       </c>
       <c r="B501" s="2">
-        <v>43933</v>
+        <v>43928</v>
       </c>
       <c r="C501" t="s">
         <v>9</v>
       </c>
       <c r="D501">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E501">
-        <v>25</v>
+        <v>87</v>
       </c>
     </row>
     <row r="502" spans="1:5">
@@ -8933,16 +8933,16 @@
         <v>500</v>
       </c>
       <c r="B502" s="2">
-        <v>43934</v>
+        <v>43929</v>
       </c>
       <c r="C502" t="s">
         <v>9</v>
       </c>
       <c r="D502">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E502">
-        <v>25</v>
+        <v>97</v>
       </c>
     </row>
     <row r="503" spans="1:5">
@@ -8950,16 +8950,16 @@
         <v>501</v>
       </c>
       <c r="B503" s="2">
-        <v>43935</v>
+        <v>43930</v>
       </c>
       <c r="C503" t="s">
         <v>9</v>
       </c>
       <c r="D503">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E503">
-        <v>27</v>
+        <v>109</v>
       </c>
     </row>
     <row r="504" spans="1:5">
@@ -8967,16 +8967,16 @@
         <v>502</v>
       </c>
       <c r="B504" s="2">
-        <v>43936</v>
+        <v>43931</v>
       </c>
       <c r="C504" t="s">
         <v>9</v>
       </c>
       <c r="D504">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E504">
-        <v>29</v>
+        <v>118</v>
       </c>
     </row>
     <row r="505" spans="1:5">
@@ -8984,16 +8984,16 @@
         <v>503</v>
       </c>
       <c r="B505" s="2">
-        <v>43937</v>
+        <v>43932</v>
       </c>
       <c r="C505" t="s">
         <v>9</v>
       </c>
       <c r="D505">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E505">
-        <v>29</v>
+        <v>127</v>
       </c>
     </row>
     <row r="506" spans="1:5">
@@ -9001,16 +9001,16 @@
         <v>504</v>
       </c>
       <c r="B506" s="2">
-        <v>43938</v>
+        <v>43933</v>
       </c>
       <c r="C506" t="s">
         <v>9</v>
       </c>
       <c r="D506">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E506">
-        <v>33</v>
+        <v>139</v>
       </c>
     </row>
     <row r="507" spans="1:5">
@@ -9018,16 +9018,16 @@
         <v>505</v>
       </c>
       <c r="B507" s="2">
-        <v>43939</v>
+        <v>43934</v>
       </c>
       <c r="C507" t="s">
         <v>9</v>
       </c>
       <c r="D507">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E507">
-        <v>37</v>
+        <v>144</v>
       </c>
     </row>
     <row r="508" spans="1:5">
@@ -9035,7 +9035,7 @@
         <v>506</v>
       </c>
       <c r="B508" s="2">
-        <v>43940</v>
+        <v>43935</v>
       </c>
       <c r="C508" t="s">
         <v>9</v>
@@ -9044,7 +9044,7 @@
         <v>2</v>
       </c>
       <c r="E508">
-        <v>39</v>
+        <v>146</v>
       </c>
     </row>
     <row r="509" spans="1:5">
@@ -9052,7 +9052,7 @@
         <v>507</v>
       </c>
       <c r="B509" s="2">
-        <v>43941</v>
+        <v>43936</v>
       </c>
       <c r="C509" t="s">
         <v>9</v>
@@ -9061,7 +9061,7 @@
         <v>27</v>
       </c>
       <c r="E509">
-        <v>66</v>
+        <v>173</v>
       </c>
     </row>
     <row r="510" spans="1:5">
@@ -9069,16 +9069,16 @@
         <v>508</v>
       </c>
       <c r="B510" s="2">
-        <v>43942</v>
+        <v>43937</v>
       </c>
       <c r="C510" t="s">
         <v>9</v>
       </c>
       <c r="D510">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E510">
-        <v>68</v>
+        <v>182</v>
       </c>
     </row>
     <row r="511" spans="1:5">
@@ -9086,16 +9086,16 @@
         <v>509</v>
       </c>
       <c r="B511" s="2">
-        <v>43943</v>
+        <v>43938</v>
       </c>
       <c r="C511" t="s">
         <v>9</v>
       </c>
       <c r="D511">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E511">
-        <v>68</v>
+        <v>192</v>
       </c>
     </row>
     <row r="512" spans="1:5">
@@ -9103,16 +9103,16 @@
         <v>510</v>
       </c>
       <c r="B512" s="2">
-        <v>43859</v>
+        <v>43939</v>
       </c>
       <c r="C512" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D512">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E512">
-        <v>1</v>
+        <v>194</v>
       </c>
     </row>
     <row r="513" spans="1:5">
@@ -9120,16 +9120,16 @@
         <v>511</v>
       </c>
       <c r="B513" s="2">
-        <v>43860</v>
+        <v>43940</v>
       </c>
       <c r="C513" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D513">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E513">
-        <v>1</v>
+        <v>196</v>
       </c>
     </row>
     <row r="514" spans="1:5">
@@ -9137,16 +9137,16 @@
         <v>512</v>
       </c>
       <c r="B514" s="2">
-        <v>43861</v>
+        <v>43941</v>
       </c>
       <c r="C514" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D514">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E514">
-        <v>1</v>
+        <v>201</v>
       </c>
     </row>
     <row r="515" spans="1:5">
@@ -9154,16 +9154,16 @@
         <v>513</v>
       </c>
       <c r="B515" s="2">
-        <v>43862</v>
+        <v>43942</v>
       </c>
       <c r="C515" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D515">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E515">
-        <v>1</v>
+        <v>206</v>
       </c>
     </row>
     <row r="516" spans="1:5">
@@ -9171,16 +9171,16 @@
         <v>514</v>
       </c>
       <c r="B516" s="2">
-        <v>43863</v>
+        <v>43943</v>
       </c>
       <c r="C516" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D516">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E516">
-        <v>1</v>
+        <v>212</v>
       </c>
     </row>
     <row r="517" spans="1:5">
@@ -9188,16 +9188,16 @@
         <v>515</v>
       </c>
       <c r="B517" s="2">
-        <v>43864</v>
+        <v>43944</v>
       </c>
       <c r="C517" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D517">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E517">
-        <v>1</v>
+        <v>214</v>
       </c>
     </row>
     <row r="518" spans="1:5">
@@ -9205,13 +9205,13 @@
         <v>516</v>
       </c>
       <c r="B518" s="2">
-        <v>43865</v>
+        <v>43859</v>
       </c>
       <c r="C518" t="s">
         <v>10</v>
       </c>
       <c r="D518">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E518">
         <v>1</v>
@@ -9222,7 +9222,7 @@
         <v>517</v>
       </c>
       <c r="B519" s="2">
-        <v>43866</v>
+        <v>43860</v>
       </c>
       <c r="C519" t="s">
         <v>10</v>
@@ -9239,7 +9239,7 @@
         <v>518</v>
       </c>
       <c r="B520" s="2">
-        <v>43867</v>
+        <v>43861</v>
       </c>
       <c r="C520" t="s">
         <v>10</v>
@@ -9256,7 +9256,7 @@
         <v>519</v>
       </c>
       <c r="B521" s="2">
-        <v>43868</v>
+        <v>43862</v>
       </c>
       <c r="C521" t="s">
         <v>10</v>
@@ -9273,7 +9273,7 @@
         <v>520</v>
       </c>
       <c r="B522" s="2">
-        <v>43869</v>
+        <v>43863</v>
       </c>
       <c r="C522" t="s">
         <v>10</v>
@@ -9290,7 +9290,7 @@
         <v>521</v>
       </c>
       <c r="B523" s="2">
-        <v>43870</v>
+        <v>43864</v>
       </c>
       <c r="C523" t="s">
         <v>10</v>
@@ -9307,7 +9307,7 @@
         <v>522</v>
       </c>
       <c r="B524" s="2">
-        <v>43871</v>
+        <v>43865</v>
       </c>
       <c r="C524" t="s">
         <v>10</v>
@@ -9324,7 +9324,7 @@
         <v>523</v>
       </c>
       <c r="B525" s="2">
-        <v>43872</v>
+        <v>43866</v>
       </c>
       <c r="C525" t="s">
         <v>10</v>
@@ -9341,7 +9341,7 @@
         <v>524</v>
       </c>
       <c r="B526" s="2">
-        <v>43873</v>
+        <v>43867</v>
       </c>
       <c r="C526" t="s">
         <v>10</v>
@@ -9358,7 +9358,7 @@
         <v>525</v>
       </c>
       <c r="B527" s="2">
-        <v>43874</v>
+        <v>43868</v>
       </c>
       <c r="C527" t="s">
         <v>10</v>
@@ -9375,7 +9375,7 @@
         <v>526</v>
       </c>
       <c r="B528" s="2">
-        <v>43875</v>
+        <v>43869</v>
       </c>
       <c r="C528" t="s">
         <v>10</v>
@@ -9392,7 +9392,7 @@
         <v>527</v>
       </c>
       <c r="B529" s="2">
-        <v>43876</v>
+        <v>43870</v>
       </c>
       <c r="C529" t="s">
         <v>10</v>
@@ -9409,7 +9409,7 @@
         <v>528</v>
       </c>
       <c r="B530" s="2">
-        <v>43877</v>
+        <v>43871</v>
       </c>
       <c r="C530" t="s">
         <v>10</v>
@@ -9426,7 +9426,7 @@
         <v>529</v>
       </c>
       <c r="B531" s="2">
-        <v>43878</v>
+        <v>43872</v>
       </c>
       <c r="C531" t="s">
         <v>10</v>
@@ -9443,7 +9443,7 @@
         <v>530</v>
       </c>
       <c r="B532" s="2">
-        <v>43879</v>
+        <v>43873</v>
       </c>
       <c r="C532" t="s">
         <v>10</v>
@@ -9460,7 +9460,7 @@
         <v>531</v>
       </c>
       <c r="B533" s="2">
-        <v>43880</v>
+        <v>43874</v>
       </c>
       <c r="C533" t="s">
         <v>10</v>
@@ -9477,7 +9477,7 @@
         <v>532</v>
       </c>
       <c r="B534" s="2">
-        <v>43881</v>
+        <v>43875</v>
       </c>
       <c r="C534" t="s">
         <v>10</v>
@@ -9494,7 +9494,7 @@
         <v>533</v>
       </c>
       <c r="B535" s="2">
-        <v>43882</v>
+        <v>43876</v>
       </c>
       <c r="C535" t="s">
         <v>10</v>
@@ -9511,7 +9511,7 @@
         <v>534</v>
       </c>
       <c r="B536" s="2">
-        <v>43883</v>
+        <v>43877</v>
       </c>
       <c r="C536" t="s">
         <v>10</v>
@@ -9528,7 +9528,7 @@
         <v>535</v>
       </c>
       <c r="B537" s="2">
-        <v>43884</v>
+        <v>43878</v>
       </c>
       <c r="C537" t="s">
         <v>10</v>
@@ -9545,7 +9545,7 @@
         <v>536</v>
       </c>
       <c r="B538" s="2">
-        <v>43885</v>
+        <v>43879</v>
       </c>
       <c r="C538" t="s">
         <v>10</v>
@@ -9562,7 +9562,7 @@
         <v>537</v>
       </c>
       <c r="B539" s="2">
-        <v>43886</v>
+        <v>43880</v>
       </c>
       <c r="C539" t="s">
         <v>10</v>
@@ -9579,7 +9579,7 @@
         <v>538</v>
       </c>
       <c r="B540" s="2">
-        <v>43887</v>
+        <v>43881</v>
       </c>
       <c r="C540" t="s">
         <v>10</v>
@@ -9596,16 +9596,16 @@
         <v>539</v>
       </c>
       <c r="B541" s="2">
-        <v>43888</v>
+        <v>43882</v>
       </c>
       <c r="C541" t="s">
         <v>10</v>
       </c>
       <c r="D541">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E541">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="542" spans="1:5">
@@ -9613,16 +9613,16 @@
         <v>540</v>
       </c>
       <c r="B542" s="2">
-        <v>43889</v>
+        <v>43883</v>
       </c>
       <c r="C542" t="s">
         <v>10</v>
       </c>
       <c r="D542">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E542">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="543" spans="1:5">
@@ -9630,7 +9630,7 @@
         <v>541</v>
       </c>
       <c r="B543" s="2">
-        <v>43890</v>
+        <v>43884</v>
       </c>
       <c r="C543" t="s">
         <v>10</v>
@@ -9639,7 +9639,7 @@
         <v>0</v>
       </c>
       <c r="E543">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="544" spans="1:5">
@@ -9647,7 +9647,7 @@
         <v>542</v>
       </c>
       <c r="B544" s="2">
-        <v>43891</v>
+        <v>43885</v>
       </c>
       <c r="C544" t="s">
         <v>10</v>
@@ -9656,7 +9656,7 @@
         <v>0</v>
       </c>
       <c r="E544">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="545" spans="1:5">
@@ -9664,16 +9664,16 @@
         <v>543</v>
       </c>
       <c r="B545" s="2">
-        <v>43892</v>
+        <v>43886</v>
       </c>
       <c r="C545" t="s">
         <v>10</v>
       </c>
       <c r="D545">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E545">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="546" spans="1:5">
@@ -9681,16 +9681,16 @@
         <v>544</v>
       </c>
       <c r="B546" s="2">
-        <v>43893</v>
+        <v>43887</v>
       </c>
       <c r="C546" t="s">
         <v>10</v>
       </c>
       <c r="D546">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E546">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="547" spans="1:5">
@@ -9698,16 +9698,16 @@
         <v>545</v>
       </c>
       <c r="B547" s="2">
-        <v>43894</v>
+        <v>43888</v>
       </c>
       <c r="C547" t="s">
         <v>10</v>
       </c>
       <c r="D547">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E547">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="548" spans="1:5">
@@ -9715,16 +9715,16 @@
         <v>546</v>
       </c>
       <c r="B548" s="2">
-        <v>43895</v>
+        <v>43889</v>
       </c>
       <c r="C548" t="s">
         <v>10</v>
       </c>
       <c r="D548">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E548">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="549" spans="1:5">
@@ -9732,16 +9732,16 @@
         <v>547</v>
       </c>
       <c r="B549" s="2">
-        <v>43896</v>
+        <v>43890</v>
       </c>
       <c r="C549" t="s">
         <v>10</v>
       </c>
       <c r="D549">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E549">
-        <v>31</v>
+        <v>4</v>
       </c>
     </row>
     <row r="550" spans="1:5">
@@ -9749,16 +9749,16 @@
         <v>548</v>
       </c>
       <c r="B550" s="2">
-        <v>43897</v>
+        <v>43891</v>
       </c>
       <c r="C550" t="s">
         <v>10</v>
       </c>
       <c r="D550">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E550">
-        <v>41</v>
+        <v>4</v>
       </c>
     </row>
     <row r="551" spans="1:5">
@@ -9766,16 +9766,16 @@
         <v>549</v>
       </c>
       <c r="B551" s="2">
-        <v>43898</v>
+        <v>43892</v>
       </c>
       <c r="C551" t="s">
         <v>10</v>
       </c>
       <c r="D551">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E551">
-        <v>55</v>
+        <v>6</v>
       </c>
     </row>
     <row r="552" spans="1:5">
@@ -9783,16 +9783,16 @@
         <v>550</v>
       </c>
       <c r="B552" s="2">
-        <v>43899</v>
+        <v>43893</v>
       </c>
       <c r="C552" t="s">
         <v>10</v>
       </c>
       <c r="D552">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E552">
-        <v>55</v>
+        <v>8</v>
       </c>
     </row>
     <row r="553" spans="1:5">
@@ -9800,16 +9800,16 @@
         <v>551</v>
       </c>
       <c r="B553" s="2">
-        <v>43900</v>
+        <v>43894</v>
       </c>
       <c r="C553" t="s">
         <v>10</v>
       </c>
       <c r="D553">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E553">
-        <v>73</v>
+        <v>17</v>
       </c>
     </row>
     <row r="554" spans="1:5">
@@ -9817,16 +9817,16 @@
         <v>552</v>
       </c>
       <c r="B554" s="2">
-        <v>43901</v>
+        <v>43895</v>
       </c>
       <c r="C554" t="s">
         <v>10</v>
       </c>
       <c r="D554">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E554">
-        <v>80</v>
+        <v>18</v>
       </c>
     </row>
     <row r="555" spans="1:5">
@@ -9834,16 +9834,16 @@
         <v>553</v>
       </c>
       <c r="B555" s="2">
-        <v>43902</v>
+        <v>43896</v>
       </c>
       <c r="C555" t="s">
         <v>10</v>
       </c>
       <c r="D555">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E555">
-        <v>89</v>
+        <v>31</v>
       </c>
     </row>
     <row r="556" spans="1:5">
@@ -9851,16 +9851,16 @@
         <v>554</v>
       </c>
       <c r="B556" s="2">
-        <v>43903</v>
+        <v>43897</v>
       </c>
       <c r="C556" t="s">
         <v>10</v>
       </c>
       <c r="D556">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E556">
-        <v>92</v>
+        <v>41</v>
       </c>
     </row>
     <row r="557" spans="1:5">
@@ -9868,16 +9868,16 @@
         <v>555</v>
       </c>
       <c r="B557" s="2">
-        <v>43904</v>
+        <v>43898</v>
       </c>
       <c r="C557" t="s">
         <v>10</v>
       </c>
       <c r="D557">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E557">
-        <v>102</v>
+        <v>55</v>
       </c>
     </row>
     <row r="558" spans="1:5">
@@ -9885,16 +9885,16 @@
         <v>556</v>
       </c>
       <c r="B558" s="2">
-        <v>43905</v>
+        <v>43899</v>
       </c>
       <c r="C558" t="s">
         <v>10</v>
       </c>
       <c r="D558">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E558">
-        <v>106</v>
+        <v>55</v>
       </c>
     </row>
     <row r="559" spans="1:5">
@@ -9902,16 +9902,16 @@
         <v>557</v>
       </c>
       <c r="B559" s="2">
-        <v>43906</v>
+        <v>43900</v>
       </c>
       <c r="C559" t="s">
         <v>10</v>
       </c>
       <c r="D559">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="E559">
-        <v>108</v>
+        <v>73</v>
       </c>
     </row>
     <row r="560" spans="1:5">
@@ -9919,16 +9919,16 @@
         <v>558</v>
       </c>
       <c r="B560" s="2">
-        <v>43907</v>
+        <v>43901</v>
       </c>
       <c r="C560" t="s">
         <v>10</v>
       </c>
       <c r="D560">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E560">
-        <v>112</v>
+        <v>80</v>
       </c>
     </row>
     <row r="561" spans="1:5">
@@ -9936,16 +9936,16 @@
         <v>559</v>
       </c>
       <c r="B561" s="2">
-        <v>43908</v>
+        <v>43902</v>
       </c>
       <c r="C561" t="s">
         <v>10</v>
       </c>
       <c r="D561">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E561">
-        <v>117</v>
+        <v>89</v>
       </c>
     </row>
     <row r="562" spans="1:5">
@@ -9953,16 +9953,16 @@
         <v>560</v>
       </c>
       <c r="B562" s="2">
-        <v>43909</v>
+        <v>43903</v>
       </c>
       <c r="C562" t="s">
         <v>10</v>
       </c>
       <c r="D562">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E562">
-        <v>119</v>
+        <v>92</v>
       </c>
     </row>
     <row r="563" spans="1:5">
@@ -9970,16 +9970,16 @@
         <v>561</v>
       </c>
       <c r="B563" s="2">
-        <v>43910</v>
+        <v>43904</v>
       </c>
       <c r="C563" t="s">
         <v>10</v>
       </c>
       <c r="D563">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E563">
-        <v>123</v>
+        <v>102</v>
       </c>
     </row>
     <row r="564" spans="1:5">
@@ -9987,16 +9987,16 @@
         <v>562</v>
       </c>
       <c r="B564" s="2">
-        <v>43911</v>
+        <v>43905</v>
       </c>
       <c r="C564" t="s">
         <v>10</v>
       </c>
       <c r="D564">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E564">
-        <v>125</v>
+        <v>106</v>
       </c>
     </row>
     <row r="565" spans="1:5">
@@ -10004,16 +10004,16 @@
         <v>563</v>
       </c>
       <c r="B565" s="2">
-        <v>43912</v>
+        <v>43906</v>
       </c>
       <c r="C565" t="s">
         <v>10</v>
       </c>
       <c r="D565">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E565">
-        <v>131</v>
+        <v>108</v>
       </c>
     </row>
     <row r="566" spans="1:5">
@@ -10021,16 +10021,16 @@
         <v>564</v>
       </c>
       <c r="B566" s="2">
-        <v>43913</v>
+        <v>43907</v>
       </c>
       <c r="C566" t="s">
         <v>10</v>
       </c>
       <c r="D566">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E566">
-        <v>134</v>
+        <v>112</v>
       </c>
     </row>
     <row r="567" spans="1:5">
@@ -10038,16 +10038,16 @@
         <v>565</v>
       </c>
       <c r="B567" s="2">
-        <v>43914</v>
+        <v>43908</v>
       </c>
       <c r="C567" t="s">
         <v>10</v>
       </c>
       <c r="D567">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E567">
-        <v>142</v>
+        <v>117</v>
       </c>
     </row>
     <row r="568" spans="1:5">
@@ -10055,16 +10055,16 @@
         <v>566</v>
       </c>
       <c r="B568" s="2">
-        <v>43915</v>
+        <v>43909</v>
       </c>
       <c r="C568" t="s">
         <v>10</v>
       </c>
       <c r="D568">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E568">
-        <v>149</v>
+        <v>119</v>
       </c>
     </row>
     <row r="569" spans="1:5">
@@ -10072,16 +10072,16 @@
         <v>567</v>
       </c>
       <c r="B569" s="2">
-        <v>43916</v>
+        <v>43910</v>
       </c>
       <c r="C569" t="s">
         <v>10</v>
       </c>
       <c r="D569">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E569">
-        <v>156</v>
+        <v>123</v>
       </c>
     </row>
     <row r="570" spans="1:5">
@@ -10089,16 +10089,16 @@
         <v>568</v>
       </c>
       <c r="B570" s="2">
-        <v>43917</v>
+        <v>43911</v>
       </c>
       <c r="C570" t="s">
         <v>10</v>
       </c>
       <c r="D570">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E570">
-        <v>176</v>
+        <v>125</v>
       </c>
     </row>
     <row r="571" spans="1:5">
@@ -10106,16 +10106,16 @@
         <v>569</v>
       </c>
       <c r="B571" s="2">
-        <v>43918</v>
+        <v>43912</v>
       </c>
       <c r="C571" t="s">
         <v>10</v>
       </c>
       <c r="D571">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E571">
-        <v>191</v>
+        <v>131</v>
       </c>
     </row>
     <row r="572" spans="1:5">
@@ -10123,16 +10123,16 @@
         <v>570</v>
       </c>
       <c r="B572" s="2">
-        <v>43919</v>
+        <v>43913</v>
       </c>
       <c r="C572" t="s">
         <v>10</v>
       </c>
       <c r="D572">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="E572">
-        <v>208</v>
+        <v>134</v>
       </c>
     </row>
     <row r="573" spans="1:5">
@@ -10140,7 +10140,7 @@
         <v>571</v>
       </c>
       <c r="B573" s="2">
-        <v>43920</v>
+        <v>43914</v>
       </c>
       <c r="C573" t="s">
         <v>10</v>
@@ -10149,7 +10149,7 @@
         <v>8</v>
       </c>
       <c r="E573">
-        <v>216</v>
+        <v>142</v>
       </c>
     </row>
     <row r="574" spans="1:5">
@@ -10157,16 +10157,16 @@
         <v>572</v>
       </c>
       <c r="B574" s="2">
-        <v>43921</v>
+        <v>43915</v>
       </c>
       <c r="C574" t="s">
         <v>10</v>
       </c>
       <c r="D574">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="E574">
-        <v>244</v>
+        <v>149</v>
       </c>
     </row>
     <row r="575" spans="1:5">
@@ -10174,16 +10174,16 @@
         <v>573</v>
       </c>
       <c r="B575" s="2">
-        <v>43922</v>
+        <v>43916</v>
       </c>
       <c r="C575" t="s">
         <v>10</v>
       </c>
       <c r="D575">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="E575">
-        <v>278</v>
+        <v>156</v>
       </c>
     </row>
     <row r="576" spans="1:5">
@@ -10191,16 +10191,16 @@
         <v>574</v>
       </c>
       <c r="B576" s="2">
-        <v>43923</v>
+        <v>43917</v>
       </c>
       <c r="C576" t="s">
         <v>10</v>
       </c>
       <c r="D576">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E576">
-        <v>311</v>
+        <v>176</v>
       </c>
     </row>
     <row r="577" spans="1:5">
@@ -10208,16 +10208,16 @@
         <v>575</v>
       </c>
       <c r="B577" s="2">
-        <v>43924</v>
+        <v>43918</v>
       </c>
       <c r="C577" t="s">
         <v>10</v>
       </c>
       <c r="D577">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="E577">
-        <v>346</v>
+        <v>191</v>
       </c>
     </row>
     <row r="578" spans="1:5">
@@ -10225,16 +10225,16 @@
         <v>576</v>
       </c>
       <c r="B578" s="2">
-        <v>43925</v>
+        <v>43919</v>
       </c>
       <c r="C578" t="s">
         <v>10</v>
       </c>
       <c r="D578">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="E578">
-        <v>387</v>
+        <v>208</v>
       </c>
     </row>
     <row r="579" spans="1:5">
@@ -10242,16 +10242,16 @@
         <v>577</v>
       </c>
       <c r="B579" s="2">
-        <v>43926</v>
+        <v>43920</v>
       </c>
       <c r="C579" t="s">
         <v>10</v>
       </c>
       <c r="D579">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E579">
-        <v>408</v>
+        <v>216</v>
       </c>
     </row>
     <row r="580" spans="1:5">
@@ -10259,16 +10259,16 @@
         <v>578</v>
       </c>
       <c r="B580" s="2">
-        <v>43927</v>
+        <v>43921</v>
       </c>
       <c r="C580" t="s">
         <v>10</v>
       </c>
       <c r="D580">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E580">
-        <v>428</v>
+        <v>244</v>
       </c>
     </row>
     <row r="581" spans="1:5">
@@ -10276,16 +10276,16 @@
         <v>579</v>
       </c>
       <c r="B581" s="2">
-        <v>43928</v>
+        <v>43922</v>
       </c>
       <c r="C581" t="s">
         <v>10</v>
       </c>
       <c r="D581">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="E581">
-        <v>481</v>
+        <v>278</v>
       </c>
     </row>
     <row r="582" spans="1:5">
@@ -10293,16 +10293,16 @@
         <v>580</v>
       </c>
       <c r="B582" s="2">
-        <v>43929</v>
+        <v>43923</v>
       </c>
       <c r="C582" t="s">
         <v>10</v>
       </c>
       <c r="D582">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="E582">
-        <v>524</v>
+        <v>311</v>
       </c>
     </row>
     <row r="583" spans="1:5">
@@ -10310,16 +10310,16 @@
         <v>581</v>
       </c>
       <c r="B583" s="2">
-        <v>43930</v>
+        <v>43924</v>
       </c>
       <c r="C583" t="s">
         <v>10</v>
       </c>
       <c r="D583">
-        <v>92</v>
+        <v>35</v>
       </c>
       <c r="E583">
-        <v>616</v>
+        <v>346</v>
       </c>
     </row>
     <row r="584" spans="1:5">
@@ -10327,16 +10327,16 @@
         <v>582</v>
       </c>
       <c r="B584" s="2">
-        <v>43931</v>
+        <v>43925</v>
       </c>
       <c r="C584" t="s">
         <v>10</v>
       </c>
       <c r="D584">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="E584">
-        <v>696</v>
+        <v>387</v>
       </c>
     </row>
     <row r="585" spans="1:5">
@@ -10344,16 +10344,16 @@
         <v>583</v>
       </c>
       <c r="B585" s="2">
-        <v>43932</v>
+        <v>43926</v>
       </c>
       <c r="C585" t="s">
         <v>10</v>
       </c>
       <c r="D585">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="E585">
-        <v>766</v>
+        <v>408</v>
       </c>
     </row>
     <row r="586" spans="1:5">
@@ -10361,16 +10361,16 @@
         <v>584</v>
       </c>
       <c r="B586" s="2">
-        <v>43933</v>
+        <v>43927</v>
       </c>
       <c r="C586" t="s">
         <v>10</v>
       </c>
       <c r="D586">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="E586">
-        <v>811</v>
+        <v>428</v>
       </c>
     </row>
     <row r="587" spans="1:5">
@@ -10378,16 +10378,16 @@
         <v>585</v>
       </c>
       <c r="B587" s="2">
-        <v>43934</v>
+        <v>43928</v>
       </c>
       <c r="C587" t="s">
         <v>10</v>
       </c>
       <c r="D587">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="E587">
-        <v>835</v>
+        <v>481</v>
       </c>
     </row>
     <row r="588" spans="1:5">
@@ -10395,16 +10395,16 @@
         <v>586</v>
       </c>
       <c r="B588" s="2">
-        <v>43935</v>
+        <v>43929</v>
       </c>
       <c r="C588" t="s">
         <v>10</v>
       </c>
       <c r="D588">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="E588">
-        <v>894</v>
+        <v>524</v>
       </c>
     </row>
     <row r="589" spans="1:5">
@@ -10412,16 +10412,16 @@
         <v>587</v>
       </c>
       <c r="B589" s="2">
-        <v>43936</v>
+        <v>43930</v>
       </c>
       <c r="C589" t="s">
         <v>10</v>
       </c>
       <c r="D589">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="E589">
-        <v>968</v>
+        <v>616</v>
       </c>
     </row>
     <row r="590" spans="1:5">
@@ -10429,16 +10429,16 @@
         <v>588</v>
       </c>
       <c r="B590" s="2">
-        <v>43937</v>
+        <v>43931</v>
       </c>
       <c r="C590" t="s">
         <v>10</v>
       </c>
       <c r="D590">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="E590">
-        <v>1020</v>
+        <v>696</v>
       </c>
     </row>
     <row r="591" spans="1:5">
@@ -10446,16 +10446,16 @@
         <v>589</v>
       </c>
       <c r="B591" s="2">
-        <v>43938</v>
+        <v>43932</v>
       </c>
       <c r="C591" t="s">
         <v>10</v>
       </c>
       <c r="D591">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="E591">
-        <v>1075</v>
+        <v>766</v>
       </c>
     </row>
     <row r="592" spans="1:5">
@@ -10463,16 +10463,16 @@
         <v>590</v>
       </c>
       <c r="B592" s="2">
-        <v>43939</v>
+        <v>43933</v>
       </c>
       <c r="C592" t="s">
         <v>10</v>
       </c>
       <c r="D592">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="E592">
-        <v>1163</v>
+        <v>811</v>
       </c>
     </row>
     <row r="593" spans="1:5">
@@ -10480,16 +10480,16 @@
         <v>591</v>
       </c>
       <c r="B593" s="2">
-        <v>43940</v>
+        <v>43934</v>
       </c>
       <c r="C593" t="s">
         <v>10</v>
       </c>
       <c r="D593">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="E593">
-        <v>1211</v>
+        <v>835</v>
       </c>
     </row>
     <row r="594" spans="1:5">
@@ -10497,16 +10497,16 @@
         <v>592</v>
       </c>
       <c r="B594" s="2">
-        <v>43941</v>
+        <v>43935</v>
       </c>
       <c r="C594" t="s">
         <v>10</v>
       </c>
       <c r="D594">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="E594">
-        <v>1295</v>
+        <v>894</v>
       </c>
     </row>
     <row r="595" spans="1:5">
@@ -10514,16 +10514,16 @@
         <v>593</v>
       </c>
       <c r="B595" s="2">
-        <v>43942</v>
+        <v>43936</v>
       </c>
       <c r="C595" t="s">
         <v>10</v>
       </c>
       <c r="D595">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="E595">
-        <v>1349</v>
+        <v>968</v>
       </c>
     </row>
     <row r="596" spans="1:5">
@@ -10531,16 +10531,135 @@
         <v>594</v>
       </c>
       <c r="B596" s="2">
-        <v>43943</v>
+        <v>43937</v>
       </c>
       <c r="C596" t="s">
         <v>10</v>
       </c>
       <c r="D596">
+        <v>52</v>
+      </c>
+      <c r="E596">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="597" spans="1:5">
+      <c r="A597" s="1">
+        <v>595</v>
+      </c>
+      <c r="B597" s="2">
+        <v>43938</v>
+      </c>
+      <c r="C597" t="s">
+        <v>10</v>
+      </c>
+      <c r="D597">
+        <v>55</v>
+      </c>
+      <c r="E597">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="598" spans="1:5">
+      <c r="A598" s="1">
+        <v>596</v>
+      </c>
+      <c r="B598" s="2">
+        <v>43939</v>
+      </c>
+      <c r="C598" t="s">
+        <v>10</v>
+      </c>
+      <c r="D598">
+        <v>88</v>
+      </c>
+      <c r="E598">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="599" spans="1:5">
+      <c r="A599" s="1">
+        <v>597</v>
+      </c>
+      <c r="B599" s="2">
+        <v>43940</v>
+      </c>
+      <c r="C599" t="s">
+        <v>10</v>
+      </c>
+      <c r="D599">
+        <v>48</v>
+      </c>
+      <c r="E599">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="600" spans="1:5">
+      <c r="A600" s="1">
+        <v>598</v>
+      </c>
+      <c r="B600" s="2">
+        <v>43941</v>
+      </c>
+      <c r="C600" t="s">
+        <v>10</v>
+      </c>
+      <c r="D600">
+        <v>84</v>
+      </c>
+      <c r="E600">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="601" spans="1:5">
+      <c r="A601" s="1">
+        <v>599</v>
+      </c>
+      <c r="B601" s="2">
+        <v>43942</v>
+      </c>
+      <c r="C601" t="s">
+        <v>10</v>
+      </c>
+      <c r="D601">
+        <v>54</v>
+      </c>
+      <c r="E601">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="602" spans="1:5">
+      <c r="A602" s="1">
+        <v>600</v>
+      </c>
+      <c r="B602" s="2">
+        <v>43943</v>
+      </c>
+      <c r="C602" t="s">
+        <v>10</v>
+      </c>
+      <c r="D602">
+        <v>31</v>
+      </c>
+      <c r="E602">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="603" spans="1:5">
+      <c r="A603" s="1">
+        <v>601</v>
+      </c>
+      <c r="B603" s="2">
+        <v>43944</v>
+      </c>
+      <c r="C603" t="s">
+        <v>10</v>
+      </c>
+      <c r="D603">
         <v>35</v>
       </c>
-      <c r="E596">
-        <v>1384</v>
+      <c r="E603">
+        <v>1415</v>
       </c>
     </row>
   </sheetData>

--- a/Covid19_Osaka_AreaNumData.xlsx
+++ b/Covid19_Osaka_AreaNumData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="11">
   <si>
     <t>日付</t>
   </si>
@@ -28,22 +28,22 @@
     <t>累計</t>
   </si>
   <si>
-    <t>東部大阪</t>
-  </si>
-  <si>
-    <t>南河内</t>
-  </si>
-  <si>
-    <t>泉州</t>
-  </si>
-  <si>
     <t>大阪市</t>
   </si>
   <si>
     <t>その他</t>
   </si>
   <si>
+    <t>東部大阪</t>
+  </si>
+  <si>
     <t>北大阪</t>
+  </si>
+  <si>
+    <t>泉州</t>
+  </si>
+  <si>
+    <t>南河内</t>
   </si>
   <si>
     <t>全域</t>
@@ -408,7 +408,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E603"/>
+  <dimension ref="A1:E610"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -439,10 +439,10 @@
         <v>4</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -459,7 +459,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -476,7 +476,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -493,7 +493,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -510,7 +510,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -527,7 +527,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -544,7 +544,7 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -561,7 +561,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -578,7 +578,7 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -612,7 +612,7 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -629,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -646,7 +646,7 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -697,7 +697,7 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -714,7 +714,7 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -731,7 +731,7 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -748,7 +748,7 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -765,7 +765,7 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -782,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -799,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -816,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -850,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -884,7 +884,7 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -901,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -932,10 +932,10 @@
         <v>4</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -949,10 +949,10 @@
         <v>4</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -969,7 +969,7 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -986,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1000,10 +1000,10 @@
         <v>4</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1020,7 +1020,7 @@
         <v>1</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1034,10 +1034,10 @@
         <v>4</v>
       </c>
       <c r="D37">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E37">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1051,10 +1051,10 @@
         <v>4</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1068,10 +1068,10 @@
         <v>4</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E39">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1085,10 +1085,10 @@
         <v>4</v>
       </c>
       <c r="D40">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E40">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1102,10 +1102,10 @@
         <v>4</v>
       </c>
       <c r="D41">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E41">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1136,10 +1136,10 @@
         <v>4</v>
       </c>
       <c r="D43">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E43">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1153,10 +1153,10 @@
         <v>4</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1170,10 +1170,10 @@
         <v>4</v>
       </c>
       <c r="D45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E45">
-        <v>18</v>
+        <v>39</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="E46">
-        <v>18</v>
+        <v>39</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1207,7 +1207,7 @@
         <v>3</v>
       </c>
       <c r="E47">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1221,10 +1221,10 @@
         <v>4</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E48">
-        <v>21</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1238,10 +1238,10 @@
         <v>4</v>
       </c>
       <c r="D49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E49">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1255,10 +1255,10 @@
         <v>4</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E50">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="E51">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1289,10 +1289,10 @@
         <v>4</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E52">
-        <v>23</v>
+        <v>49</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1306,10 +1306,10 @@
         <v>4</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E53">
-        <v>23</v>
+        <v>51</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>23</v>
+        <v>51</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1340,10 +1340,10 @@
         <v>4</v>
       </c>
       <c r="D55">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E55">
-        <v>27</v>
+        <v>53</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1357,10 +1357,10 @@
         <v>4</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E56">
-        <v>27</v>
+        <v>54</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1374,10 +1374,10 @@
         <v>4</v>
       </c>
       <c r="D57">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E57">
-        <v>28</v>
+        <v>57</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1394,7 +1394,7 @@
         <v>1</v>
       </c>
       <c r="E58">
-        <v>29</v>
+        <v>58</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1408,10 +1408,10 @@
         <v>4</v>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E59">
-        <v>30</v>
+        <v>61</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1425,10 +1425,10 @@
         <v>4</v>
       </c>
       <c r="D60">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E60">
-        <v>31</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1442,10 +1442,10 @@
         <v>4</v>
       </c>
       <c r="D61">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E61">
-        <v>33</v>
+        <v>81</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1459,10 +1459,10 @@
         <v>4</v>
       </c>
       <c r="D62">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E62">
-        <v>36</v>
+        <v>86</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1476,10 +1476,10 @@
         <v>4</v>
       </c>
       <c r="D63">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E63">
-        <v>38</v>
+        <v>90</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1493,10 +1493,10 @@
         <v>4</v>
       </c>
       <c r="D64">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E64">
-        <v>47</v>
+        <v>103</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1510,10 +1510,10 @@
         <v>4</v>
       </c>
       <c r="D65">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E65">
-        <v>48</v>
+        <v>128</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1527,10 +1527,10 @@
         <v>4</v>
       </c>
       <c r="D66">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E66">
-        <v>54</v>
+        <v>142</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1544,10 +1544,10 @@
         <v>4</v>
       </c>
       <c r="D67">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="E67">
-        <v>59</v>
+        <v>161</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1561,10 +1561,10 @@
         <v>4</v>
       </c>
       <c r="D68">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="E68">
-        <v>68</v>
+        <v>182</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1578,10 +1578,10 @@
         <v>4</v>
       </c>
       <c r="D69">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E69">
-        <v>69</v>
+        <v>194</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1595,10 +1595,10 @@
         <v>4</v>
       </c>
       <c r="D70">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E70">
-        <v>76</v>
+        <v>199</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1612,10 +1612,10 @@
         <v>4</v>
       </c>
       <c r="D71">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E71">
-        <v>91</v>
+        <v>223</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1629,10 +1629,10 @@
         <v>4</v>
       </c>
       <c r="D72">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="E72">
-        <v>95</v>
+        <v>248</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1646,10 +1646,10 @@
         <v>4</v>
       </c>
       <c r="D73">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E73">
-        <v>112</v>
+        <v>283</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1663,10 +1663,10 @@
         <v>4</v>
       </c>
       <c r="D74">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="E74">
-        <v>127</v>
+        <v>319</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1680,10 +1680,10 @@
         <v>4</v>
       </c>
       <c r="D75">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E75">
-        <v>137</v>
+        <v>352</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1697,10 +1697,10 @@
         <v>4</v>
       </c>
       <c r="D76">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="E76">
-        <v>139</v>
+        <v>377</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1714,10 +1714,10 @@
         <v>4</v>
       </c>
       <c r="D77">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E77">
-        <v>144</v>
+        <v>386</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1731,10 +1731,10 @@
         <v>4</v>
       </c>
       <c r="D78">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="E78">
-        <v>155</v>
+        <v>422</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1748,10 +1748,10 @@
         <v>4</v>
       </c>
       <c r="D79">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E79">
-        <v>168</v>
+        <v>442</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1765,10 +1765,10 @@
         <v>4</v>
       </c>
       <c r="D80">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E80">
-        <v>179</v>
+        <v>463</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1782,10 +1782,10 @@
         <v>4</v>
       </c>
       <c r="D81">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="E81">
-        <v>184</v>
+        <v>490</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -1799,10 +1799,10 @@
         <v>4</v>
       </c>
       <c r="D82">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E82">
-        <v>195</v>
+        <v>514</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -1816,10 +1816,10 @@
         <v>4</v>
       </c>
       <c r="D83">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="E83">
-        <v>200</v>
+        <v>536</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1833,10 +1833,10 @@
         <v>4</v>
       </c>
       <c r="D84">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E84">
-        <v>202</v>
+        <v>540</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -1853,7 +1853,7 @@
         <v>11</v>
       </c>
       <c r="E85">
-        <v>213</v>
+        <v>551</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -1867,10 +1867,10 @@
         <v>4</v>
       </c>
       <c r="D86">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="E86">
-        <v>216</v>
+        <v>569</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -1884,10 +1884,10 @@
         <v>4</v>
       </c>
       <c r="D87">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E87">
-        <v>224</v>
+        <v>583</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -1895,16 +1895,16 @@
         <v>86</v>
       </c>
       <c r="B88" s="2">
-        <v>43859</v>
+        <v>43945</v>
       </c>
       <c r="C88" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D88">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -1912,7 +1912,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="2">
-        <v>43860</v>
+        <v>43859</v>
       </c>
       <c r="C89" t="s">
         <v>5</v>
@@ -1929,7 +1929,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="2">
-        <v>43861</v>
+        <v>43860</v>
       </c>
       <c r="C90" t="s">
         <v>5</v>
@@ -1946,7 +1946,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="2">
-        <v>43862</v>
+        <v>43861</v>
       </c>
       <c r="C91" t="s">
         <v>5</v>
@@ -1963,7 +1963,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="2">
-        <v>43863</v>
+        <v>43862</v>
       </c>
       <c r="C92" t="s">
         <v>5</v>
@@ -1980,7 +1980,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="2">
-        <v>43864</v>
+        <v>43863</v>
       </c>
       <c r="C93" t="s">
         <v>5</v>
@@ -1997,7 +1997,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="2">
-        <v>43865</v>
+        <v>43864</v>
       </c>
       <c r="C94" t="s">
         <v>5</v>
@@ -2014,7 +2014,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="2">
-        <v>43866</v>
+        <v>43865</v>
       </c>
       <c r="C95" t="s">
         <v>5</v>
@@ -2031,7 +2031,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="2">
-        <v>43867</v>
+        <v>43866</v>
       </c>
       <c r="C96" t="s">
         <v>5</v>
@@ -2048,7 +2048,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="2">
-        <v>43868</v>
+        <v>43867</v>
       </c>
       <c r="C97" t="s">
         <v>5</v>
@@ -2065,7 +2065,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="2">
-        <v>43869</v>
+        <v>43868</v>
       </c>
       <c r="C98" t="s">
         <v>5</v>
@@ -2082,7 +2082,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="2">
-        <v>43870</v>
+        <v>43869</v>
       </c>
       <c r="C99" t="s">
         <v>5</v>
@@ -2099,7 +2099,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="2">
-        <v>43871</v>
+        <v>43870</v>
       </c>
       <c r="C100" t="s">
         <v>5</v>
@@ -2116,7 +2116,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="2">
-        <v>43872</v>
+        <v>43871</v>
       </c>
       <c r="C101" t="s">
         <v>5</v>
@@ -2133,7 +2133,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="2">
-        <v>43873</v>
+        <v>43872</v>
       </c>
       <c r="C102" t="s">
         <v>5</v>
@@ -2150,7 +2150,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="2">
-        <v>43874</v>
+        <v>43873</v>
       </c>
       <c r="C103" t="s">
         <v>5</v>
@@ -2167,7 +2167,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="2">
-        <v>43875</v>
+        <v>43874</v>
       </c>
       <c r="C104" t="s">
         <v>5</v>
@@ -2184,7 +2184,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="2">
-        <v>43876</v>
+        <v>43875</v>
       </c>
       <c r="C105" t="s">
         <v>5</v>
@@ -2201,7 +2201,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="2">
-        <v>43877</v>
+        <v>43876</v>
       </c>
       <c r="C106" t="s">
         <v>5</v>
@@ -2218,7 +2218,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="2">
-        <v>43878</v>
+        <v>43877</v>
       </c>
       <c r="C107" t="s">
         <v>5</v>
@@ -2235,7 +2235,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="2">
-        <v>43879</v>
+        <v>43878</v>
       </c>
       <c r="C108" t="s">
         <v>5</v>
@@ -2252,7 +2252,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="2">
-        <v>43880</v>
+        <v>43879</v>
       </c>
       <c r="C109" t="s">
         <v>5</v>
@@ -2269,7 +2269,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="2">
-        <v>43881</v>
+        <v>43880</v>
       </c>
       <c r="C110" t="s">
         <v>5</v>
@@ -2286,7 +2286,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="2">
-        <v>43882</v>
+        <v>43881</v>
       </c>
       <c r="C111" t="s">
         <v>5</v>
@@ -2303,7 +2303,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="2">
-        <v>43883</v>
+        <v>43882</v>
       </c>
       <c r="C112" t="s">
         <v>5</v>
@@ -2320,7 +2320,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="2">
-        <v>43884</v>
+        <v>43883</v>
       </c>
       <c r="C113" t="s">
         <v>5</v>
@@ -2337,7 +2337,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="2">
-        <v>43885</v>
+        <v>43884</v>
       </c>
       <c r="C114" t="s">
         <v>5</v>
@@ -2354,7 +2354,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="2">
-        <v>43886</v>
+        <v>43885</v>
       </c>
       <c r="C115" t="s">
         <v>5</v>
@@ -2371,7 +2371,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="2">
-        <v>43887</v>
+        <v>43886</v>
       </c>
       <c r="C116" t="s">
         <v>5</v>
@@ -2388,7 +2388,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="2">
-        <v>43888</v>
+        <v>43887</v>
       </c>
       <c r="C117" t="s">
         <v>5</v>
@@ -2405,7 +2405,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="2">
-        <v>43889</v>
+        <v>43888</v>
       </c>
       <c r="C118" t="s">
         <v>5</v>
@@ -2422,7 +2422,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="2">
-        <v>43890</v>
+        <v>43889</v>
       </c>
       <c r="C119" t="s">
         <v>5</v>
@@ -2439,7 +2439,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="2">
-        <v>43891</v>
+        <v>43890</v>
       </c>
       <c r="C120" t="s">
         <v>5</v>
@@ -2456,7 +2456,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="2">
-        <v>43892</v>
+        <v>43891</v>
       </c>
       <c r="C121" t="s">
         <v>5</v>
@@ -2473,7 +2473,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="2">
-        <v>43893</v>
+        <v>43892</v>
       </c>
       <c r="C122" t="s">
         <v>5</v>
@@ -2490,16 +2490,16 @@
         <v>121</v>
       </c>
       <c r="B123" s="2">
-        <v>43894</v>
+        <v>43893</v>
       </c>
       <c r="C123" t="s">
         <v>5</v>
       </c>
       <c r="D123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -2507,7 +2507,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="2">
-        <v>43895</v>
+        <v>43894</v>
       </c>
       <c r="C124" t="s">
         <v>5</v>
@@ -2516,7 +2516,7 @@
         <v>0</v>
       </c>
       <c r="E124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2524,7 +2524,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="2">
-        <v>43896</v>
+        <v>43895</v>
       </c>
       <c r="C125" t="s">
         <v>5</v>
@@ -2533,7 +2533,7 @@
         <v>0</v>
       </c>
       <c r="E125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -2541,7 +2541,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="2">
-        <v>43897</v>
+        <v>43896</v>
       </c>
       <c r="C126" t="s">
         <v>5</v>
@@ -2550,7 +2550,7 @@
         <v>0</v>
       </c>
       <c r="E126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -2558,7 +2558,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="2">
-        <v>43898</v>
+        <v>43897</v>
       </c>
       <c r="C127" t="s">
         <v>5</v>
@@ -2567,7 +2567,7 @@
         <v>0</v>
       </c>
       <c r="E127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -2575,7 +2575,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="2">
-        <v>43899</v>
+        <v>43898</v>
       </c>
       <c r="C128" t="s">
         <v>5</v>
@@ -2584,7 +2584,7 @@
         <v>0</v>
       </c>
       <c r="E128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -2592,7 +2592,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="2">
-        <v>43900</v>
+        <v>43899</v>
       </c>
       <c r="C129" t="s">
         <v>5</v>
@@ -2601,7 +2601,7 @@
         <v>0</v>
       </c>
       <c r="E129">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -2609,7 +2609,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="2">
-        <v>43901</v>
+        <v>43900</v>
       </c>
       <c r="C130" t="s">
         <v>5</v>
@@ -2618,7 +2618,7 @@
         <v>1</v>
       </c>
       <c r="E130">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -2626,7 +2626,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="2">
-        <v>43902</v>
+        <v>43901</v>
       </c>
       <c r="C131" t="s">
         <v>5</v>
@@ -2635,7 +2635,7 @@
         <v>0</v>
       </c>
       <c r="E131">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -2643,13 +2643,13 @@
         <v>130</v>
       </c>
       <c r="B132" s="2">
-        <v>43903</v>
+        <v>43902</v>
       </c>
       <c r="C132" t="s">
         <v>5</v>
       </c>
       <c r="D132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E132">
         <v>2</v>
@@ -2660,7 +2660,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="2">
-        <v>43904</v>
+        <v>43903</v>
       </c>
       <c r="C133" t="s">
         <v>5</v>
@@ -2677,7 +2677,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="2">
-        <v>43905</v>
+        <v>43904</v>
       </c>
       <c r="C134" t="s">
         <v>5</v>
@@ -2694,7 +2694,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="2">
-        <v>43906</v>
+        <v>43905</v>
       </c>
       <c r="C135" t="s">
         <v>5</v>
@@ -2711,7 +2711,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="2">
-        <v>43907</v>
+        <v>43906</v>
       </c>
       <c r="C136" t="s">
         <v>5</v>
@@ -2728,7 +2728,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="2">
-        <v>43908</v>
+        <v>43907</v>
       </c>
       <c r="C137" t="s">
         <v>5</v>
@@ -2745,7 +2745,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="2">
-        <v>43909</v>
+        <v>43908</v>
       </c>
       <c r="C138" t="s">
         <v>5</v>
@@ -2762,7 +2762,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="2">
-        <v>43910</v>
+        <v>43909</v>
       </c>
       <c r="C139" t="s">
         <v>5</v>
@@ -2779,7 +2779,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="2">
-        <v>43911</v>
+        <v>43910</v>
       </c>
       <c r="C140" t="s">
         <v>5</v>
@@ -2796,7 +2796,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="2">
-        <v>43912</v>
+        <v>43911</v>
       </c>
       <c r="C141" t="s">
         <v>5</v>
@@ -2813,7 +2813,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="2">
-        <v>43913</v>
+        <v>43912</v>
       </c>
       <c r="C142" t="s">
         <v>5</v>
@@ -2830,7 +2830,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="2">
-        <v>43914</v>
+        <v>43913</v>
       </c>
       <c r="C143" t="s">
         <v>5</v>
@@ -2847,16 +2847,16 @@
         <v>142</v>
       </c>
       <c r="B144" s="2">
-        <v>43915</v>
+        <v>43914</v>
       </c>
       <c r="C144" t="s">
         <v>5</v>
       </c>
       <c r="D144">
+        <v>0</v>
+      </c>
+      <c r="E144">
         <v>2</v>
-      </c>
-      <c r="E144">
-        <v>4</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -2864,16 +2864,16 @@
         <v>143</v>
       </c>
       <c r="B145" s="2">
-        <v>43916</v>
+        <v>43915</v>
       </c>
       <c r="C145" t="s">
         <v>5</v>
       </c>
       <c r="D145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E145">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -2881,16 +2881,16 @@
         <v>144</v>
       </c>
       <c r="B146" s="2">
-        <v>43917</v>
+        <v>43916</v>
       </c>
       <c r="C146" t="s">
         <v>5</v>
       </c>
       <c r="D146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E146">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -2898,7 +2898,7 @@
         <v>145</v>
       </c>
       <c r="B147" s="2">
-        <v>43918</v>
+        <v>43917</v>
       </c>
       <c r="C147" t="s">
         <v>5</v>
@@ -2907,7 +2907,7 @@
         <v>1</v>
       </c>
       <c r="E147">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -2915,7 +2915,7 @@
         <v>146</v>
       </c>
       <c r="B148" s="2">
-        <v>43919</v>
+        <v>43918</v>
       </c>
       <c r="C148" t="s">
         <v>5</v>
@@ -2924,7 +2924,7 @@
         <v>1</v>
       </c>
       <c r="E148">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -2932,7 +2932,7 @@
         <v>147</v>
       </c>
       <c r="B149" s="2">
-        <v>43920</v>
+        <v>43919</v>
       </c>
       <c r="C149" t="s">
         <v>5</v>
@@ -2941,7 +2941,7 @@
         <v>0</v>
       </c>
       <c r="E149">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -2949,7 +2949,7 @@
         <v>148</v>
       </c>
       <c r="B150" s="2">
-        <v>43921</v>
+        <v>43920</v>
       </c>
       <c r="C150" t="s">
         <v>5</v>
@@ -2958,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="E150">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -2966,7 +2966,7 @@
         <v>149</v>
       </c>
       <c r="B151" s="2">
-        <v>43922</v>
+        <v>43921</v>
       </c>
       <c r="C151" t="s">
         <v>5</v>
@@ -2975,7 +2975,7 @@
         <v>0</v>
       </c>
       <c r="E151">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -2983,16 +2983,16 @@
         <v>150</v>
       </c>
       <c r="B152" s="2">
-        <v>43923</v>
+        <v>43922</v>
       </c>
       <c r="C152" t="s">
         <v>5</v>
       </c>
       <c r="D152">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E152">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -3000,7 +3000,7 @@
         <v>151</v>
       </c>
       <c r="B153" s="2">
-        <v>43924</v>
+        <v>43923</v>
       </c>
       <c r="C153" t="s">
         <v>5</v>
@@ -3009,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="E153">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -3017,7 +3017,7 @@
         <v>152</v>
       </c>
       <c r="B154" s="2">
-        <v>43925</v>
+        <v>43924</v>
       </c>
       <c r="C154" t="s">
         <v>5</v>
@@ -3026,7 +3026,7 @@
         <v>1</v>
       </c>
       <c r="E154">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3034,7 +3034,7 @@
         <v>153</v>
       </c>
       <c r="B155" s="2">
-        <v>43926</v>
+        <v>43925</v>
       </c>
       <c r="C155" t="s">
         <v>5</v>
@@ -3043,7 +3043,7 @@
         <v>0</v>
       </c>
       <c r="E155">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3051,7 +3051,7 @@
         <v>154</v>
       </c>
       <c r="B156" s="2">
-        <v>43927</v>
+        <v>43926</v>
       </c>
       <c r="C156" t="s">
         <v>5</v>
@@ -3060,7 +3060,7 @@
         <v>0</v>
       </c>
       <c r="E156">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3068,7 +3068,7 @@
         <v>155</v>
       </c>
       <c r="B157" s="2">
-        <v>43928</v>
+        <v>43927</v>
       </c>
       <c r="C157" t="s">
         <v>5</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="E157">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3085,16 +3085,16 @@
         <v>156</v>
       </c>
       <c r="B158" s="2">
-        <v>43929</v>
+        <v>43928</v>
       </c>
       <c r="C158" t="s">
         <v>5</v>
       </c>
       <c r="D158">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E158">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3102,16 +3102,16 @@
         <v>157</v>
       </c>
       <c r="B159" s="2">
-        <v>43930</v>
+        <v>43929</v>
       </c>
       <c r="C159" t="s">
         <v>5</v>
       </c>
       <c r="D159">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E159">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3119,16 +3119,16 @@
         <v>158</v>
       </c>
       <c r="B160" s="2">
-        <v>43931</v>
+        <v>43930</v>
       </c>
       <c r="C160" t="s">
         <v>5</v>
       </c>
       <c r="D160">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E160">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3136,16 +3136,16 @@
         <v>159</v>
       </c>
       <c r="B161" s="2">
-        <v>43932</v>
+        <v>43931</v>
       </c>
       <c r="C161" t="s">
         <v>5</v>
       </c>
       <c r="D161">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E161">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3153,7 +3153,7 @@
         <v>160</v>
       </c>
       <c r="B162" s="2">
-        <v>43933</v>
+        <v>43932</v>
       </c>
       <c r="C162" t="s">
         <v>5</v>
@@ -3162,7 +3162,7 @@
         <v>1</v>
       </c>
       <c r="E162">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -3170,16 +3170,16 @@
         <v>161</v>
       </c>
       <c r="B163" s="2">
-        <v>43934</v>
+        <v>43933</v>
       </c>
       <c r="C163" t="s">
         <v>5</v>
       </c>
       <c r="D163">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E163">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3187,16 +3187,16 @@
         <v>162</v>
       </c>
       <c r="B164" s="2">
-        <v>43935</v>
+        <v>43934</v>
       </c>
       <c r="C164" t="s">
         <v>5</v>
       </c>
       <c r="D164">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E164">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -3204,16 +3204,16 @@
         <v>163</v>
       </c>
       <c r="B165" s="2">
-        <v>43936</v>
+        <v>43935</v>
       </c>
       <c r="C165" t="s">
         <v>5</v>
       </c>
       <c r="D165">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E165">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -3221,16 +3221,16 @@
         <v>164</v>
       </c>
       <c r="B166" s="2">
-        <v>43937</v>
+        <v>43936</v>
       </c>
       <c r="C166" t="s">
         <v>5</v>
       </c>
       <c r="D166">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E166">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -3238,16 +3238,16 @@
         <v>165</v>
       </c>
       <c r="B167" s="2">
-        <v>43938</v>
+        <v>43937</v>
       </c>
       <c r="C167" t="s">
         <v>5</v>
       </c>
       <c r="D167">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E167">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -3255,16 +3255,16 @@
         <v>166</v>
       </c>
       <c r="B168" s="2">
-        <v>43939</v>
+        <v>43938</v>
       </c>
       <c r="C168" t="s">
         <v>5</v>
       </c>
       <c r="D168">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E168">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -3272,16 +3272,16 @@
         <v>167</v>
       </c>
       <c r="B169" s="2">
-        <v>43940</v>
+        <v>43939</v>
       </c>
       <c r="C169" t="s">
         <v>5</v>
       </c>
       <c r="D169">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="E169">
-        <v>39</v>
+        <v>66</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -3289,16 +3289,16 @@
         <v>168</v>
       </c>
       <c r="B170" s="2">
-        <v>43941</v>
+        <v>43940</v>
       </c>
       <c r="C170" t="s">
         <v>5</v>
       </c>
       <c r="D170">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="E170">
-        <v>66</v>
+        <v>75</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -3306,16 +3306,16 @@
         <v>169</v>
       </c>
       <c r="B171" s="2">
-        <v>43942</v>
+        <v>43941</v>
       </c>
       <c r="C171" t="s">
         <v>5</v>
       </c>
       <c r="D171">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="E171">
-        <v>68</v>
+        <v>117</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -3323,16 +3323,16 @@
         <v>170</v>
       </c>
       <c r="B172" s="2">
-        <v>43943</v>
+        <v>43942</v>
       </c>
       <c r="C172" t="s">
         <v>5</v>
       </c>
       <c r="D172">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E172">
-        <v>68</v>
+        <v>141</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -3340,16 +3340,16 @@
         <v>171</v>
       </c>
       <c r="B173" s="2">
-        <v>43944</v>
+        <v>43943</v>
       </c>
       <c r="C173" t="s">
         <v>5</v>
       </c>
       <c r="D173">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E173">
-        <v>71</v>
+        <v>143</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -3357,16 +3357,16 @@
         <v>172</v>
       </c>
       <c r="B174" s="2">
-        <v>43859</v>
+        <v>43944</v>
       </c>
       <c r="C174" t="s">
+        <v>5</v>
+      </c>
+      <c r="D174">
         <v>6</v>
       </c>
-      <c r="D174">
-        <v>0</v>
-      </c>
       <c r="E174">
-        <v>0</v>
+        <v>149</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -3374,16 +3374,16 @@
         <v>173</v>
       </c>
       <c r="B175" s="2">
-        <v>43860</v>
+        <v>43945</v>
       </c>
       <c r="C175" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D175">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E175">
-        <v>0</v>
+        <v>152</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -3391,7 +3391,7 @@
         <v>174</v>
       </c>
       <c r="B176" s="2">
-        <v>43861</v>
+        <v>43859</v>
       </c>
       <c r="C176" t="s">
         <v>6</v>
@@ -3408,7 +3408,7 @@
         <v>175</v>
       </c>
       <c r="B177" s="2">
-        <v>43862</v>
+        <v>43860</v>
       </c>
       <c r="C177" t="s">
         <v>6</v>
@@ -3425,7 +3425,7 @@
         <v>176</v>
       </c>
       <c r="B178" s="2">
-        <v>43863</v>
+        <v>43861</v>
       </c>
       <c r="C178" t="s">
         <v>6</v>
@@ -3442,7 +3442,7 @@
         <v>177</v>
       </c>
       <c r="B179" s="2">
-        <v>43864</v>
+        <v>43862</v>
       </c>
       <c r="C179" t="s">
         <v>6</v>
@@ -3459,7 +3459,7 @@
         <v>178</v>
       </c>
       <c r="B180" s="2">
-        <v>43865</v>
+        <v>43863</v>
       </c>
       <c r="C180" t="s">
         <v>6</v>
@@ -3476,7 +3476,7 @@
         <v>179</v>
       </c>
       <c r="B181" s="2">
-        <v>43866</v>
+        <v>43864</v>
       </c>
       <c r="C181" t="s">
         <v>6</v>
@@ -3493,7 +3493,7 @@
         <v>180</v>
       </c>
       <c r="B182" s="2">
-        <v>43867</v>
+        <v>43865</v>
       </c>
       <c r="C182" t="s">
         <v>6</v>
@@ -3510,7 +3510,7 @@
         <v>181</v>
       </c>
       <c r="B183" s="2">
-        <v>43868</v>
+        <v>43866</v>
       </c>
       <c r="C183" t="s">
         <v>6</v>
@@ -3527,7 +3527,7 @@
         <v>182</v>
       </c>
       <c r="B184" s="2">
-        <v>43869</v>
+        <v>43867</v>
       </c>
       <c r="C184" t="s">
         <v>6</v>
@@ -3544,7 +3544,7 @@
         <v>183</v>
       </c>
       <c r="B185" s="2">
-        <v>43870</v>
+        <v>43868</v>
       </c>
       <c r="C185" t="s">
         <v>6</v>
@@ -3561,7 +3561,7 @@
         <v>184</v>
       </c>
       <c r="B186" s="2">
-        <v>43871</v>
+        <v>43869</v>
       </c>
       <c r="C186" t="s">
         <v>6</v>
@@ -3578,7 +3578,7 @@
         <v>185</v>
       </c>
       <c r="B187" s="2">
-        <v>43872</v>
+        <v>43870</v>
       </c>
       <c r="C187" t="s">
         <v>6</v>
@@ -3595,7 +3595,7 @@
         <v>186</v>
       </c>
       <c r="B188" s="2">
-        <v>43873</v>
+        <v>43871</v>
       </c>
       <c r="C188" t="s">
         <v>6</v>
@@ -3612,7 +3612,7 @@
         <v>187</v>
       </c>
       <c r="B189" s="2">
-        <v>43874</v>
+        <v>43872</v>
       </c>
       <c r="C189" t="s">
         <v>6</v>
@@ -3629,7 +3629,7 @@
         <v>188</v>
       </c>
       <c r="B190" s="2">
-        <v>43875</v>
+        <v>43873</v>
       </c>
       <c r="C190" t="s">
         <v>6</v>
@@ -3646,7 +3646,7 @@
         <v>189</v>
       </c>
       <c r="B191" s="2">
-        <v>43876</v>
+        <v>43874</v>
       </c>
       <c r="C191" t="s">
         <v>6</v>
@@ -3663,7 +3663,7 @@
         <v>190</v>
       </c>
       <c r="B192" s="2">
-        <v>43877</v>
+        <v>43875</v>
       </c>
       <c r="C192" t="s">
         <v>6</v>
@@ -3680,7 +3680,7 @@
         <v>191</v>
       </c>
       <c r="B193" s="2">
-        <v>43878</v>
+        <v>43876</v>
       </c>
       <c r="C193" t="s">
         <v>6</v>
@@ -3697,7 +3697,7 @@
         <v>192</v>
       </c>
       <c r="B194" s="2">
-        <v>43879</v>
+        <v>43877</v>
       </c>
       <c r="C194" t="s">
         <v>6</v>
@@ -3714,7 +3714,7 @@
         <v>193</v>
       </c>
       <c r="B195" s="2">
-        <v>43880</v>
+        <v>43878</v>
       </c>
       <c r="C195" t="s">
         <v>6</v>
@@ -3731,7 +3731,7 @@
         <v>194</v>
       </c>
       <c r="B196" s="2">
-        <v>43881</v>
+        <v>43879</v>
       </c>
       <c r="C196" t="s">
         <v>6</v>
@@ -3748,7 +3748,7 @@
         <v>195</v>
       </c>
       <c r="B197" s="2">
-        <v>43882</v>
+        <v>43880</v>
       </c>
       <c r="C197" t="s">
         <v>6</v>
@@ -3765,7 +3765,7 @@
         <v>196</v>
       </c>
       <c r="B198" s="2">
-        <v>43883</v>
+        <v>43881</v>
       </c>
       <c r="C198" t="s">
         <v>6</v>
@@ -3782,7 +3782,7 @@
         <v>197</v>
       </c>
       <c r="B199" s="2">
-        <v>43884</v>
+        <v>43882</v>
       </c>
       <c r="C199" t="s">
         <v>6</v>
@@ -3799,7 +3799,7 @@
         <v>198</v>
       </c>
       <c r="B200" s="2">
-        <v>43885</v>
+        <v>43883</v>
       </c>
       <c r="C200" t="s">
         <v>6</v>
@@ -3816,7 +3816,7 @@
         <v>199</v>
       </c>
       <c r="B201" s="2">
-        <v>43886</v>
+        <v>43884</v>
       </c>
       <c r="C201" t="s">
         <v>6</v>
@@ -3833,7 +3833,7 @@
         <v>200</v>
       </c>
       <c r="B202" s="2">
-        <v>43887</v>
+        <v>43885</v>
       </c>
       <c r="C202" t="s">
         <v>6</v>
@@ -3850,7 +3850,7 @@
         <v>201</v>
       </c>
       <c r="B203" s="2">
-        <v>43888</v>
+        <v>43886</v>
       </c>
       <c r="C203" t="s">
         <v>6</v>
@@ -3867,7 +3867,7 @@
         <v>202</v>
       </c>
       <c r="B204" s="2">
-        <v>43889</v>
+        <v>43887</v>
       </c>
       <c r="C204" t="s">
         <v>6</v>
@@ -3884,7 +3884,7 @@
         <v>203</v>
       </c>
       <c r="B205" s="2">
-        <v>43890</v>
+        <v>43888</v>
       </c>
       <c r="C205" t="s">
         <v>6</v>
@@ -3901,7 +3901,7 @@
         <v>204</v>
       </c>
       <c r="B206" s="2">
-        <v>43891</v>
+        <v>43889</v>
       </c>
       <c r="C206" t="s">
         <v>6</v>
@@ -3918,7 +3918,7 @@
         <v>205</v>
       </c>
       <c r="B207" s="2">
-        <v>43892</v>
+        <v>43890</v>
       </c>
       <c r="C207" t="s">
         <v>6</v>
@@ -3935,7 +3935,7 @@
         <v>206</v>
       </c>
       <c r="B208" s="2">
-        <v>43893</v>
+        <v>43891</v>
       </c>
       <c r="C208" t="s">
         <v>6</v>
@@ -3952,7 +3952,7 @@
         <v>207</v>
       </c>
       <c r="B209" s="2">
-        <v>43894</v>
+        <v>43892</v>
       </c>
       <c r="C209" t="s">
         <v>6</v>
@@ -3969,16 +3969,16 @@
         <v>208</v>
       </c>
       <c r="B210" s="2">
-        <v>43895</v>
+        <v>43893</v>
       </c>
       <c r="C210" t="s">
         <v>6</v>
       </c>
       <c r="D210">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E210">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -3986,16 +3986,16 @@
         <v>209</v>
       </c>
       <c r="B211" s="2">
-        <v>43896</v>
+        <v>43894</v>
       </c>
       <c r="C211" t="s">
         <v>6</v>
       </c>
       <c r="D211">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E211">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -4003,16 +4003,16 @@
         <v>210</v>
       </c>
       <c r="B212" s="2">
-        <v>43897</v>
+        <v>43895</v>
       </c>
       <c r="C212" t="s">
         <v>6</v>
       </c>
       <c r="D212">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E212">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -4020,7 +4020,7 @@
         <v>211</v>
       </c>
       <c r="B213" s="2">
-        <v>43898</v>
+        <v>43896</v>
       </c>
       <c r="C213" t="s">
         <v>6</v>
@@ -4029,7 +4029,7 @@
         <v>0</v>
       </c>
       <c r="E213">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -4037,16 +4037,16 @@
         <v>212</v>
       </c>
       <c r="B214" s="2">
-        <v>43899</v>
+        <v>43897</v>
       </c>
       <c r="C214" t="s">
         <v>6</v>
       </c>
       <c r="D214">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E214">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -4054,16 +4054,16 @@
         <v>213</v>
       </c>
       <c r="B215" s="2">
-        <v>43900</v>
+        <v>43898</v>
       </c>
       <c r="C215" t="s">
         <v>6</v>
       </c>
       <c r="D215">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E215">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -4071,7 +4071,7 @@
         <v>214</v>
       </c>
       <c r="B216" s="2">
-        <v>43901</v>
+        <v>43899</v>
       </c>
       <c r="C216" t="s">
         <v>6</v>
@@ -4080,7 +4080,7 @@
         <v>0</v>
       </c>
       <c r="E216">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -4088,16 +4088,16 @@
         <v>215</v>
       </c>
       <c r="B217" s="2">
-        <v>43902</v>
+        <v>43900</v>
       </c>
       <c r="C217" t="s">
         <v>6</v>
       </c>
       <c r="D217">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E217">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -4105,7 +4105,7 @@
         <v>216</v>
       </c>
       <c r="B218" s="2">
-        <v>43903</v>
+        <v>43901</v>
       </c>
       <c r="C218" t="s">
         <v>6</v>
@@ -4114,7 +4114,7 @@
         <v>0</v>
       </c>
       <c r="E218">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -4122,16 +4122,16 @@
         <v>217</v>
       </c>
       <c r="B219" s="2">
-        <v>43904</v>
+        <v>43902</v>
       </c>
       <c r="C219" t="s">
         <v>6</v>
       </c>
       <c r="D219">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E219">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -4139,16 +4139,16 @@
         <v>218</v>
       </c>
       <c r="B220" s="2">
-        <v>43905</v>
+        <v>43903</v>
       </c>
       <c r="C220" t="s">
         <v>6</v>
       </c>
       <c r="D220">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E220">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -4156,16 +4156,16 @@
         <v>219</v>
       </c>
       <c r="B221" s="2">
-        <v>43906</v>
+        <v>43904</v>
       </c>
       <c r="C221" t="s">
         <v>6</v>
       </c>
       <c r="D221">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E221">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -4173,16 +4173,16 @@
         <v>220</v>
       </c>
       <c r="B222" s="2">
-        <v>43907</v>
+        <v>43905</v>
       </c>
       <c r="C222" t="s">
         <v>6</v>
       </c>
       <c r="D222">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E222">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -4190,7 +4190,7 @@
         <v>221</v>
       </c>
       <c r="B223" s="2">
-        <v>43908</v>
+        <v>43906</v>
       </c>
       <c r="C223" t="s">
         <v>6</v>
@@ -4199,7 +4199,7 @@
         <v>2</v>
       </c>
       <c r="E223">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -4207,7 +4207,7 @@
         <v>222</v>
       </c>
       <c r="B224" s="2">
-        <v>43909</v>
+        <v>43907</v>
       </c>
       <c r="C224" t="s">
         <v>6</v>
@@ -4216,7 +4216,7 @@
         <v>0</v>
       </c>
       <c r="E224">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -4224,7 +4224,7 @@
         <v>223</v>
       </c>
       <c r="B225" s="2">
-        <v>43910</v>
+        <v>43908</v>
       </c>
       <c r="C225" t="s">
         <v>6</v>
@@ -4233,7 +4233,7 @@
         <v>0</v>
       </c>
       <c r="E225">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -4241,16 +4241,16 @@
         <v>224</v>
       </c>
       <c r="B226" s="2">
-        <v>43911</v>
+        <v>43909</v>
       </c>
       <c r="C226" t="s">
         <v>6</v>
       </c>
       <c r="D226">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E226">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -4258,7 +4258,7 @@
         <v>225</v>
       </c>
       <c r="B227" s="2">
-        <v>43912</v>
+        <v>43910</v>
       </c>
       <c r="C227" t="s">
         <v>6</v>
@@ -4267,7 +4267,7 @@
         <v>0</v>
       </c>
       <c r="E227">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -4275,16 +4275,16 @@
         <v>226</v>
       </c>
       <c r="B228" s="2">
-        <v>43913</v>
+        <v>43911</v>
       </c>
       <c r="C228" t="s">
         <v>6</v>
       </c>
       <c r="D228">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E228">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -4292,16 +4292,16 @@
         <v>227</v>
       </c>
       <c r="B229" s="2">
-        <v>43914</v>
+        <v>43912</v>
       </c>
       <c r="C229" t="s">
         <v>6</v>
       </c>
       <c r="D229">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E229">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -4309,16 +4309,16 @@
         <v>228</v>
       </c>
       <c r="B230" s="2">
-        <v>43915</v>
+        <v>43913</v>
       </c>
       <c r="C230" t="s">
         <v>6</v>
       </c>
       <c r="D230">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E230">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -4326,16 +4326,16 @@
         <v>229</v>
       </c>
       <c r="B231" s="2">
-        <v>43916</v>
+        <v>43914</v>
       </c>
       <c r="C231" t="s">
         <v>6</v>
       </c>
       <c r="D231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E231">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -4343,16 +4343,16 @@
         <v>230</v>
       </c>
       <c r="B232" s="2">
-        <v>43917</v>
+        <v>43915</v>
       </c>
       <c r="C232" t="s">
         <v>6</v>
       </c>
       <c r="D232">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E232">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -4360,7 +4360,7 @@
         <v>231</v>
       </c>
       <c r="B233" s="2">
-        <v>43918</v>
+        <v>43916</v>
       </c>
       <c r="C233" t="s">
         <v>6</v>
@@ -4369,7 +4369,7 @@
         <v>1</v>
       </c>
       <c r="E233">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -4377,16 +4377,16 @@
         <v>232</v>
       </c>
       <c r="B234" s="2">
-        <v>43919</v>
+        <v>43917</v>
       </c>
       <c r="C234" t="s">
         <v>6</v>
       </c>
       <c r="D234">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E234">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -4394,16 +4394,16 @@
         <v>233</v>
       </c>
       <c r="B235" s="2">
-        <v>43920</v>
+        <v>43918</v>
       </c>
       <c r="C235" t="s">
         <v>6</v>
       </c>
       <c r="D235">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E235">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -4411,16 +4411,16 @@
         <v>234</v>
       </c>
       <c r="B236" s="2">
-        <v>43921</v>
+        <v>43919</v>
       </c>
       <c r="C236" t="s">
         <v>6</v>
       </c>
       <c r="D236">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E236">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -4428,16 +4428,16 @@
         <v>235</v>
       </c>
       <c r="B237" s="2">
-        <v>43922</v>
+        <v>43920</v>
       </c>
       <c r="C237" t="s">
         <v>6</v>
       </c>
       <c r="D237">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E237">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -4445,16 +4445,16 @@
         <v>236</v>
       </c>
       <c r="B238" s="2">
-        <v>43923</v>
+        <v>43921</v>
       </c>
       <c r="C238" t="s">
         <v>6</v>
       </c>
       <c r="D238">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E238">
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -4462,16 +4462,16 @@
         <v>237</v>
       </c>
       <c r="B239" s="2">
-        <v>43924</v>
+        <v>43922</v>
       </c>
       <c r="C239" t="s">
         <v>6</v>
       </c>
       <c r="D239">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E239">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -4479,16 +4479,16 @@
         <v>238</v>
       </c>
       <c r="B240" s="2">
-        <v>43925</v>
+        <v>43923</v>
       </c>
       <c r="C240" t="s">
         <v>6</v>
       </c>
       <c r="D240">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E240">
-        <v>47</v>
+        <v>54</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -4496,16 +4496,16 @@
         <v>239</v>
       </c>
       <c r="B241" s="2">
-        <v>43926</v>
+        <v>43924</v>
       </c>
       <c r="C241" t="s">
         <v>6</v>
       </c>
       <c r="D241">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E241">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -4513,16 +4513,16 @@
         <v>240</v>
       </c>
       <c r="B242" s="2">
-        <v>43927</v>
+        <v>43925</v>
       </c>
       <c r="C242" t="s">
         <v>6</v>
       </c>
       <c r="D242">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E242">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -4530,16 +4530,16 @@
         <v>241</v>
       </c>
       <c r="B243" s="2">
-        <v>43928</v>
+        <v>43926</v>
       </c>
       <c r="C243" t="s">
         <v>6</v>
       </c>
       <c r="D243">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E243">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -4547,16 +4547,16 @@
         <v>242</v>
       </c>
       <c r="B244" s="2">
-        <v>43929</v>
+        <v>43927</v>
       </c>
       <c r="C244" t="s">
         <v>6</v>
       </c>
       <c r="D244">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E244">
-        <v>65</v>
+        <v>76</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -4564,16 +4564,16 @@
         <v>243</v>
       </c>
       <c r="B245" s="2">
-        <v>43930</v>
+        <v>43928</v>
       </c>
       <c r="C245" t="s">
         <v>6</v>
       </c>
       <c r="D245">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E245">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -4581,16 +4581,16 @@
         <v>244</v>
       </c>
       <c r="B246" s="2">
-        <v>43931</v>
+        <v>43929</v>
       </c>
       <c r="C246" t="s">
         <v>6</v>
       </c>
       <c r="D246">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E246">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -4598,13 +4598,13 @@
         <v>245</v>
       </c>
       <c r="B247" s="2">
-        <v>43932</v>
+        <v>43930</v>
       </c>
       <c r="C247" t="s">
         <v>6</v>
       </c>
       <c r="D247">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E247">
         <v>112</v>
@@ -4615,16 +4615,16 @@
         <v>246</v>
       </c>
       <c r="B248" s="2">
-        <v>43933</v>
+        <v>43931</v>
       </c>
       <c r="C248" t="s">
         <v>6</v>
       </c>
       <c r="D248">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E248">
-        <v>115</v>
+        <v>127</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -4632,16 +4632,16 @@
         <v>247</v>
       </c>
       <c r="B249" s="2">
-        <v>43934</v>
+        <v>43932</v>
       </c>
       <c r="C249" t="s">
         <v>6</v>
       </c>
       <c r="D249">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E249">
-        <v>120</v>
+        <v>137</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -4649,16 +4649,16 @@
         <v>248</v>
       </c>
       <c r="B250" s="2">
-        <v>43935</v>
+        <v>43933</v>
       </c>
       <c r="C250" t="s">
         <v>6</v>
       </c>
       <c r="D250">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E250">
-        <v>127</v>
+        <v>139</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -4666,16 +4666,16 @@
         <v>249</v>
       </c>
       <c r="B251" s="2">
-        <v>43936</v>
+        <v>43934</v>
       </c>
       <c r="C251" t="s">
         <v>6</v>
       </c>
       <c r="D251">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E251">
-        <v>136</v>
+        <v>144</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -4683,16 +4683,16 @@
         <v>250</v>
       </c>
       <c r="B252" s="2">
-        <v>43937</v>
+        <v>43935</v>
       </c>
       <c r="C252" t="s">
         <v>6</v>
       </c>
       <c r="D252">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E252">
-        <v>146</v>
+        <v>155</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -4700,16 +4700,16 @@
         <v>251</v>
       </c>
       <c r="B253" s="2">
-        <v>43938</v>
+        <v>43936</v>
       </c>
       <c r="C253" t="s">
         <v>6</v>
       </c>
       <c r="D253">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E253">
-        <v>153</v>
+        <v>168</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -4717,16 +4717,16 @@
         <v>252</v>
       </c>
       <c r="B254" s="2">
-        <v>43939</v>
+        <v>43937</v>
       </c>
       <c r="C254" t="s">
         <v>6</v>
       </c>
       <c r="D254">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E254">
-        <v>157</v>
+        <v>179</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -4734,16 +4734,16 @@
         <v>253</v>
       </c>
       <c r="B255" s="2">
-        <v>43940</v>
+        <v>43938</v>
       </c>
       <c r="C255" t="s">
         <v>6</v>
       </c>
       <c r="D255">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E255">
-        <v>165</v>
+        <v>184</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -4751,16 +4751,16 @@
         <v>254</v>
       </c>
       <c r="B256" s="2">
-        <v>43941</v>
+        <v>43939</v>
       </c>
       <c r="C256" t="s">
         <v>6</v>
       </c>
       <c r="D256">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E256">
-        <v>169</v>
+        <v>195</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -4768,16 +4768,16 @@
         <v>255</v>
       </c>
       <c r="B257" s="2">
-        <v>43942</v>
+        <v>43940</v>
       </c>
       <c r="C257" t="s">
         <v>6</v>
       </c>
       <c r="D257">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E257">
-        <v>170</v>
+        <v>200</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -4785,7 +4785,7 @@
         <v>256</v>
       </c>
       <c r="B258" s="2">
-        <v>43943</v>
+        <v>43941</v>
       </c>
       <c r="C258" t="s">
         <v>6</v>
@@ -4794,7 +4794,7 @@
         <v>2</v>
       </c>
       <c r="E258">
-        <v>172</v>
+        <v>202</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -4802,16 +4802,16 @@
         <v>257</v>
       </c>
       <c r="B259" s="2">
-        <v>43944</v>
+        <v>43942</v>
       </c>
       <c r="C259" t="s">
         <v>6</v>
       </c>
       <c r="D259">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E259">
-        <v>174</v>
+        <v>213</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -4819,16 +4819,16 @@
         <v>258</v>
       </c>
       <c r="B260" s="2">
-        <v>43859</v>
+        <v>43943</v>
       </c>
       <c r="C260" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D260">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E260">
-        <v>1</v>
+        <v>216</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -4836,16 +4836,16 @@
         <v>259</v>
       </c>
       <c r="B261" s="2">
-        <v>43860</v>
+        <v>43944</v>
       </c>
       <c r="C261" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D261">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E261">
-        <v>1</v>
+        <v>224</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -4853,16 +4853,16 @@
         <v>260</v>
       </c>
       <c r="B262" s="2">
-        <v>43861</v>
+        <v>43945</v>
       </c>
       <c r="C262" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D262">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E262">
-        <v>1</v>
+        <v>230</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -4870,7 +4870,7 @@
         <v>261</v>
       </c>
       <c r="B263" s="2">
-        <v>43862</v>
+        <v>43859</v>
       </c>
       <c r="C263" t="s">
         <v>7</v>
@@ -4879,7 +4879,7 @@
         <v>0</v>
       </c>
       <c r="E263">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -4887,7 +4887,7 @@
         <v>262</v>
       </c>
       <c r="B264" s="2">
-        <v>43863</v>
+        <v>43860</v>
       </c>
       <c r="C264" t="s">
         <v>7</v>
@@ -4896,7 +4896,7 @@
         <v>0</v>
       </c>
       <c r="E264">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -4904,7 +4904,7 @@
         <v>263</v>
       </c>
       <c r="B265" s="2">
-        <v>43864</v>
+        <v>43861</v>
       </c>
       <c r="C265" t="s">
         <v>7</v>
@@ -4913,7 +4913,7 @@
         <v>0</v>
       </c>
       <c r="E265">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -4921,7 +4921,7 @@
         <v>264</v>
       </c>
       <c r="B266" s="2">
-        <v>43865</v>
+        <v>43862</v>
       </c>
       <c r="C266" t="s">
         <v>7</v>
@@ -4930,7 +4930,7 @@
         <v>0</v>
       </c>
       <c r="E266">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -4938,7 +4938,7 @@
         <v>265</v>
       </c>
       <c r="B267" s="2">
-        <v>43866</v>
+        <v>43863</v>
       </c>
       <c r="C267" t="s">
         <v>7</v>
@@ -4947,7 +4947,7 @@
         <v>0</v>
       </c>
       <c r="E267">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -4955,7 +4955,7 @@
         <v>266</v>
       </c>
       <c r="B268" s="2">
-        <v>43867</v>
+        <v>43864</v>
       </c>
       <c r="C268" t="s">
         <v>7</v>
@@ -4964,7 +4964,7 @@
         <v>0</v>
       </c>
       <c r="E268">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -4972,7 +4972,7 @@
         <v>267</v>
       </c>
       <c r="B269" s="2">
-        <v>43868</v>
+        <v>43865</v>
       </c>
       <c r="C269" t="s">
         <v>7</v>
@@ -4981,7 +4981,7 @@
         <v>0</v>
       </c>
       <c r="E269">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -4989,7 +4989,7 @@
         <v>268</v>
       </c>
       <c r="B270" s="2">
-        <v>43869</v>
+        <v>43866</v>
       </c>
       <c r="C270" t="s">
         <v>7</v>
@@ -4998,7 +4998,7 @@
         <v>0</v>
       </c>
       <c r="E270">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -5006,7 +5006,7 @@
         <v>269</v>
       </c>
       <c r="B271" s="2">
-        <v>43870</v>
+        <v>43867</v>
       </c>
       <c r="C271" t="s">
         <v>7</v>
@@ -5015,7 +5015,7 @@
         <v>0</v>
       </c>
       <c r="E271">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -5023,7 +5023,7 @@
         <v>270</v>
       </c>
       <c r="B272" s="2">
-        <v>43871</v>
+        <v>43868</v>
       </c>
       <c r="C272" t="s">
         <v>7</v>
@@ -5032,7 +5032,7 @@
         <v>0</v>
       </c>
       <c r="E272">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -5040,7 +5040,7 @@
         <v>271</v>
       </c>
       <c r="B273" s="2">
-        <v>43872</v>
+        <v>43869</v>
       </c>
       <c r="C273" t="s">
         <v>7</v>
@@ -5049,7 +5049,7 @@
         <v>0</v>
       </c>
       <c r="E273">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -5057,7 +5057,7 @@
         <v>272</v>
       </c>
       <c r="B274" s="2">
-        <v>43873</v>
+        <v>43870</v>
       </c>
       <c r="C274" t="s">
         <v>7</v>
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="E274">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -5074,7 +5074,7 @@
         <v>273</v>
       </c>
       <c r="B275" s="2">
-        <v>43874</v>
+        <v>43871</v>
       </c>
       <c r="C275" t="s">
         <v>7</v>
@@ -5083,7 +5083,7 @@
         <v>0</v>
       </c>
       <c r="E275">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -5091,7 +5091,7 @@
         <v>274</v>
       </c>
       <c r="B276" s="2">
-        <v>43875</v>
+        <v>43872</v>
       </c>
       <c r="C276" t="s">
         <v>7</v>
@@ -5100,7 +5100,7 @@
         <v>0</v>
       </c>
       <c r="E276">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -5108,7 +5108,7 @@
         <v>275</v>
       </c>
       <c r="B277" s="2">
-        <v>43876</v>
+        <v>43873</v>
       </c>
       <c r="C277" t="s">
         <v>7</v>
@@ -5117,7 +5117,7 @@
         <v>0</v>
       </c>
       <c r="E277">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -5125,7 +5125,7 @@
         <v>276</v>
       </c>
       <c r="B278" s="2">
-        <v>43877</v>
+        <v>43874</v>
       </c>
       <c r="C278" t="s">
         <v>7</v>
@@ -5134,7 +5134,7 @@
         <v>0</v>
       </c>
       <c r="E278">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -5142,7 +5142,7 @@
         <v>277</v>
       </c>
       <c r="B279" s="2">
-        <v>43878</v>
+        <v>43875</v>
       </c>
       <c r="C279" t="s">
         <v>7</v>
@@ -5151,7 +5151,7 @@
         <v>0</v>
       </c>
       <c r="E279">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -5159,7 +5159,7 @@
         <v>278</v>
       </c>
       <c r="B280" s="2">
-        <v>43879</v>
+        <v>43876</v>
       </c>
       <c r="C280" t="s">
         <v>7</v>
@@ -5168,7 +5168,7 @@
         <v>0</v>
       </c>
       <c r="E280">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -5176,7 +5176,7 @@
         <v>279</v>
       </c>
       <c r="B281" s="2">
-        <v>43880</v>
+        <v>43877</v>
       </c>
       <c r="C281" t="s">
         <v>7</v>
@@ -5185,7 +5185,7 @@
         <v>0</v>
       </c>
       <c r="E281">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -5193,7 +5193,7 @@
         <v>280</v>
       </c>
       <c r="B282" s="2">
-        <v>43881</v>
+        <v>43878</v>
       </c>
       <c r="C282" t="s">
         <v>7</v>
@@ -5202,7 +5202,7 @@
         <v>0</v>
       </c>
       <c r="E282">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -5210,7 +5210,7 @@
         <v>281</v>
       </c>
       <c r="B283" s="2">
-        <v>43882</v>
+        <v>43879</v>
       </c>
       <c r="C283" t="s">
         <v>7</v>
@@ -5219,7 +5219,7 @@
         <v>0</v>
       </c>
       <c r="E283">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -5227,7 +5227,7 @@
         <v>282</v>
       </c>
       <c r="B284" s="2">
-        <v>43883</v>
+        <v>43880</v>
       </c>
       <c r="C284" t="s">
         <v>7</v>
@@ -5236,7 +5236,7 @@
         <v>0</v>
       </c>
       <c r="E284">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -5244,7 +5244,7 @@
         <v>283</v>
       </c>
       <c r="B285" s="2">
-        <v>43884</v>
+        <v>43881</v>
       </c>
       <c r="C285" t="s">
         <v>7</v>
@@ -5253,7 +5253,7 @@
         <v>0</v>
       </c>
       <c r="E285">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -5261,7 +5261,7 @@
         <v>284</v>
       </c>
       <c r="B286" s="2">
-        <v>43885</v>
+        <v>43882</v>
       </c>
       <c r="C286" t="s">
         <v>7</v>
@@ -5270,7 +5270,7 @@
         <v>0</v>
       </c>
       <c r="E286">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -5278,7 +5278,7 @@
         <v>285</v>
       </c>
       <c r="B287" s="2">
-        <v>43886</v>
+        <v>43883</v>
       </c>
       <c r="C287" t="s">
         <v>7</v>
@@ -5287,7 +5287,7 @@
         <v>0</v>
       </c>
       <c r="E287">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -5295,7 +5295,7 @@
         <v>286</v>
       </c>
       <c r="B288" s="2">
-        <v>43887</v>
+        <v>43884</v>
       </c>
       <c r="C288" t="s">
         <v>7</v>
@@ -5304,7 +5304,7 @@
         <v>0</v>
       </c>
       <c r="E288">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -5312,16 +5312,16 @@
         <v>287</v>
       </c>
       <c r="B289" s="2">
-        <v>43888</v>
+        <v>43885</v>
       </c>
       <c r="C289" t="s">
         <v>7</v>
       </c>
       <c r="D289">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -5329,16 +5329,16 @@
         <v>288</v>
       </c>
       <c r="B290" s="2">
-        <v>43889</v>
+        <v>43886</v>
       </c>
       <c r="C290" t="s">
         <v>7</v>
       </c>
       <c r="D290">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E290">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -5346,7 +5346,7 @@
         <v>289</v>
       </c>
       <c r="B291" s="2">
-        <v>43890</v>
+        <v>43887</v>
       </c>
       <c r="C291" t="s">
         <v>7</v>
@@ -5355,7 +5355,7 @@
         <v>0</v>
       </c>
       <c r="E291">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -5363,7 +5363,7 @@
         <v>290</v>
       </c>
       <c r="B292" s="2">
-        <v>43891</v>
+        <v>43888</v>
       </c>
       <c r="C292" t="s">
         <v>7</v>
@@ -5372,7 +5372,7 @@
         <v>0</v>
       </c>
       <c r="E292">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -5380,16 +5380,16 @@
         <v>291</v>
       </c>
       <c r="B293" s="2">
-        <v>43892</v>
+        <v>43889</v>
       </c>
       <c r="C293" t="s">
         <v>7</v>
       </c>
       <c r="D293">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E293">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -5397,16 +5397,16 @@
         <v>292</v>
       </c>
       <c r="B294" s="2">
-        <v>43893</v>
+        <v>43890</v>
       </c>
       <c r="C294" t="s">
         <v>7</v>
       </c>
       <c r="D294">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E294">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -5414,16 +5414,16 @@
         <v>293</v>
       </c>
       <c r="B295" s="2">
-        <v>43894</v>
+        <v>43891</v>
       </c>
       <c r="C295" t="s">
         <v>7</v>
       </c>
       <c r="D295">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E295">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -5431,7 +5431,7 @@
         <v>294</v>
       </c>
       <c r="B296" s="2">
-        <v>43895</v>
+        <v>43892</v>
       </c>
       <c r="C296" t="s">
         <v>7</v>
@@ -5440,7 +5440,7 @@
         <v>0</v>
       </c>
       <c r="E296">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -5448,16 +5448,16 @@
         <v>295</v>
       </c>
       <c r="B297" s="2">
-        <v>43896</v>
+        <v>43893</v>
       </c>
       <c r="C297" t="s">
         <v>7</v>
       </c>
       <c r="D297">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E297">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -5465,16 +5465,16 @@
         <v>296</v>
       </c>
       <c r="B298" s="2">
-        <v>43897</v>
+        <v>43894</v>
       </c>
       <c r="C298" t="s">
         <v>7</v>
       </c>
       <c r="D298">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E298">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -5482,16 +5482,16 @@
         <v>297</v>
       </c>
       <c r="B299" s="2">
-        <v>43898</v>
+        <v>43895</v>
       </c>
       <c r="C299" t="s">
         <v>7</v>
       </c>
       <c r="D299">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E299">
-        <v>26</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -5499,16 +5499,16 @@
         <v>298</v>
       </c>
       <c r="B300" s="2">
-        <v>43899</v>
+        <v>43896</v>
       </c>
       <c r="C300" t="s">
         <v>7</v>
       </c>
       <c r="D300">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E300">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -5516,16 +5516,16 @@
         <v>299</v>
       </c>
       <c r="B301" s="2">
-        <v>43900</v>
+        <v>43897</v>
       </c>
       <c r="C301" t="s">
         <v>7</v>
       </c>
       <c r="D301">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E301">
-        <v>35</v>
+        <v>11</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -5533,16 +5533,16 @@
         <v>300</v>
       </c>
       <c r="B302" s="2">
-        <v>43901</v>
+        <v>43898</v>
       </c>
       <c r="C302" t="s">
         <v>7</v>
       </c>
       <c r="D302">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E302">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -5550,16 +5550,16 @@
         <v>301</v>
       </c>
       <c r="B303" s="2">
-        <v>43902</v>
+        <v>43899</v>
       </c>
       <c r="C303" t="s">
         <v>7</v>
       </c>
       <c r="D303">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E303">
-        <v>39</v>
+        <v>13</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -5567,16 +5567,16 @@
         <v>302</v>
       </c>
       <c r="B304" s="2">
-        <v>43903</v>
+        <v>43900</v>
       </c>
       <c r="C304" t="s">
         <v>7</v>
       </c>
       <c r="D304">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E304">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -5584,16 +5584,16 @@
         <v>303</v>
       </c>
       <c r="B305" s="2">
-        <v>43904</v>
+        <v>43901</v>
       </c>
       <c r="C305" t="s">
         <v>7</v>
       </c>
       <c r="D305">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E305">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -5601,16 +5601,16 @@
         <v>304</v>
       </c>
       <c r="B306" s="2">
-        <v>43905</v>
+        <v>43902</v>
       </c>
       <c r="C306" t="s">
         <v>7</v>
       </c>
       <c r="D306">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E306">
-        <v>45</v>
+        <v>22</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -5618,16 +5618,16 @@
         <v>305</v>
       </c>
       <c r="B307" s="2">
-        <v>43906</v>
+        <v>43903</v>
       </c>
       <c r="C307" t="s">
         <v>7</v>
       </c>
       <c r="D307">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E307">
-        <v>45</v>
+        <v>25</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -5635,7 +5635,7 @@
         <v>306</v>
       </c>
       <c r="B308" s="2">
-        <v>43907</v>
+        <v>43904</v>
       </c>
       <c r="C308" t="s">
         <v>7</v>
@@ -5644,7 +5644,7 @@
         <v>3</v>
       </c>
       <c r="E308">
-        <v>48</v>
+        <v>28</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -5652,7 +5652,7 @@
         <v>307</v>
       </c>
       <c r="B309" s="2">
-        <v>43908</v>
+        <v>43905</v>
       </c>
       <c r="C309" t="s">
         <v>7</v>
@@ -5661,7 +5661,7 @@
         <v>0</v>
       </c>
       <c r="E309">
-        <v>48</v>
+        <v>28</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -5669,16 +5669,16 @@
         <v>308</v>
       </c>
       <c r="B310" s="2">
-        <v>43909</v>
+        <v>43906</v>
       </c>
       <c r="C310" t="s">
         <v>7</v>
       </c>
       <c r="D310">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E310">
-        <v>49</v>
+        <v>28</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -5686,16 +5686,16 @@
         <v>309</v>
       </c>
       <c r="B311" s="2">
-        <v>43910</v>
+        <v>43907</v>
       </c>
       <c r="C311" t="s">
         <v>7</v>
       </c>
       <c r="D311">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E311">
-        <v>51</v>
+        <v>28</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -5703,16 +5703,16 @@
         <v>310</v>
       </c>
       <c r="B312" s="2">
-        <v>43911</v>
+        <v>43908</v>
       </c>
       <c r="C312" t="s">
         <v>7</v>
       </c>
       <c r="D312">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E312">
-        <v>51</v>
+        <v>31</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -5720,16 +5720,16 @@
         <v>311</v>
       </c>
       <c r="B313" s="2">
-        <v>43912</v>
+        <v>43909</v>
       </c>
       <c r="C313" t="s">
         <v>7</v>
       </c>
       <c r="D313">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E313">
-        <v>53</v>
+        <v>32</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -5737,16 +5737,16 @@
         <v>312</v>
       </c>
       <c r="B314" s="2">
-        <v>43913</v>
+        <v>43910</v>
       </c>
       <c r="C314" t="s">
         <v>7</v>
       </c>
       <c r="D314">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E314">
-        <v>54</v>
+        <v>34</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -5754,16 +5754,16 @@
         <v>313</v>
       </c>
       <c r="B315" s="2">
-        <v>43914</v>
+        <v>43911</v>
       </c>
       <c r="C315" t="s">
         <v>7</v>
       </c>
       <c r="D315">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E315">
-        <v>57</v>
+        <v>34</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -5771,16 +5771,16 @@
         <v>314</v>
       </c>
       <c r="B316" s="2">
-        <v>43915</v>
+        <v>43912</v>
       </c>
       <c r="C316" t="s">
         <v>7</v>
       </c>
       <c r="D316">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E316">
-        <v>58</v>
+        <v>34</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -5788,16 +5788,16 @@
         <v>315</v>
       </c>
       <c r="B317" s="2">
-        <v>43916</v>
+        <v>43913</v>
       </c>
       <c r="C317" t="s">
         <v>7</v>
       </c>
       <c r="D317">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E317">
-        <v>61</v>
+        <v>34</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -5805,16 +5805,16 @@
         <v>316</v>
       </c>
       <c r="B318" s="2">
-        <v>43917</v>
+        <v>43914</v>
       </c>
       <c r="C318" t="s">
         <v>7</v>
       </c>
       <c r="D318">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E318">
-        <v>73</v>
+        <v>37</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -5822,16 +5822,16 @@
         <v>317</v>
       </c>
       <c r="B319" s="2">
-        <v>43918</v>
+        <v>43915</v>
       </c>
       <c r="C319" t="s">
         <v>7</v>
       </c>
       <c r="D319">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E319">
-        <v>81</v>
+        <v>38</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -5839,16 +5839,16 @@
         <v>318</v>
       </c>
       <c r="B320" s="2">
-        <v>43919</v>
+        <v>43916</v>
       </c>
       <c r="C320" t="s">
         <v>7</v>
       </c>
       <c r="D320">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E320">
-        <v>86</v>
+        <v>41</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -5856,16 +5856,16 @@
         <v>319</v>
       </c>
       <c r="B321" s="2">
-        <v>43920</v>
+        <v>43917</v>
       </c>
       <c r="C321" t="s">
         <v>7</v>
       </c>
       <c r="D321">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E321">
-        <v>90</v>
+        <v>44</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -5873,16 +5873,16 @@
         <v>320</v>
       </c>
       <c r="B322" s="2">
-        <v>43921</v>
+        <v>43918</v>
       </c>
       <c r="C322" t="s">
         <v>7</v>
       </c>
       <c r="D322">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E322">
-        <v>103</v>
+        <v>46</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -5890,16 +5890,16 @@
         <v>321</v>
       </c>
       <c r="B323" s="2">
-        <v>43922</v>
+        <v>43919</v>
       </c>
       <c r="C323" t="s">
         <v>7</v>
       </c>
       <c r="D323">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E323">
-        <v>128</v>
+        <v>49</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -5907,16 +5907,16 @@
         <v>322</v>
       </c>
       <c r="B324" s="2">
-        <v>43923</v>
+        <v>43920</v>
       </c>
       <c r="C324" t="s">
         <v>7</v>
       </c>
       <c r="D324">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E324">
-        <v>142</v>
+        <v>50</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -5924,16 +5924,16 @@
         <v>323</v>
       </c>
       <c r="B325" s="2">
-        <v>43924</v>
+        <v>43921</v>
       </c>
       <c r="C325" t="s">
         <v>7</v>
       </c>
       <c r="D325">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="E325">
-        <v>161</v>
+        <v>54</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -5941,16 +5941,16 @@
         <v>324</v>
       </c>
       <c r="B326" s="2">
-        <v>43925</v>
+        <v>43922</v>
       </c>
       <c r="C326" t="s">
         <v>7</v>
       </c>
       <c r="D326">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="E326">
-        <v>182</v>
+        <v>57</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -5958,16 +5958,16 @@
         <v>325</v>
       </c>
       <c r="B327" s="2">
-        <v>43926</v>
+        <v>43923</v>
       </c>
       <c r="C327" t="s">
         <v>7</v>
       </c>
       <c r="D327">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E327">
-        <v>194</v>
+        <v>63</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -5975,7 +5975,7 @@
         <v>326</v>
       </c>
       <c r="B328" s="2">
-        <v>43927</v>
+        <v>43924</v>
       </c>
       <c r="C328" t="s">
         <v>7</v>
@@ -5984,7 +5984,7 @@
         <v>5</v>
       </c>
       <c r="E328">
-        <v>199</v>
+        <v>68</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -5992,16 +5992,16 @@
         <v>327</v>
       </c>
       <c r="B329" s="2">
-        <v>43928</v>
+        <v>43925</v>
       </c>
       <c r="C329" t="s">
         <v>7</v>
       </c>
       <c r="D329">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="E329">
-        <v>223</v>
+        <v>73</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -6009,16 +6009,16 @@
         <v>328</v>
       </c>
       <c r="B330" s="2">
-        <v>43929</v>
+        <v>43926</v>
       </c>
       <c r="C330" t="s">
         <v>7</v>
       </c>
       <c r="D330">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="E330">
-        <v>248</v>
+        <v>74</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -6026,16 +6026,16 @@
         <v>329</v>
       </c>
       <c r="B331" s="2">
-        <v>43930</v>
+        <v>43927</v>
       </c>
       <c r="C331" t="s">
         <v>7</v>
       </c>
       <c r="D331">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="E331">
-        <v>283</v>
+        <v>77</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -6043,16 +6043,16 @@
         <v>330</v>
       </c>
       <c r="B332" s="2">
-        <v>43931</v>
+        <v>43928</v>
       </c>
       <c r="C332" t="s">
         <v>7</v>
       </c>
       <c r="D332">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="E332">
-        <v>319</v>
+        <v>87</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -6060,16 +6060,16 @@
         <v>331</v>
       </c>
       <c r="B333" s="2">
-        <v>43932</v>
+        <v>43929</v>
       </c>
       <c r="C333" t="s">
         <v>7</v>
       </c>
       <c r="D333">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="E333">
-        <v>352</v>
+        <v>97</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -6077,16 +6077,16 @@
         <v>332</v>
       </c>
       <c r="B334" s="2">
-        <v>43933</v>
+        <v>43930</v>
       </c>
       <c r="C334" t="s">
         <v>7</v>
       </c>
       <c r="D334">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E334">
-        <v>377</v>
+        <v>109</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -6094,7 +6094,7 @@
         <v>333</v>
       </c>
       <c r="B335" s="2">
-        <v>43934</v>
+        <v>43931</v>
       </c>
       <c r="C335" t="s">
         <v>7</v>
@@ -6103,7 +6103,7 @@
         <v>9</v>
       </c>
       <c r="E335">
-        <v>386</v>
+        <v>118</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -6111,16 +6111,16 @@
         <v>334</v>
       </c>
       <c r="B336" s="2">
-        <v>43935</v>
+        <v>43932</v>
       </c>
       <c r="C336" t="s">
         <v>7</v>
       </c>
       <c r="D336">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="E336">
-        <v>422</v>
+        <v>127</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -6128,16 +6128,16 @@
         <v>335</v>
       </c>
       <c r="B337" s="2">
-        <v>43936</v>
+        <v>43933</v>
       </c>
       <c r="C337" t="s">
         <v>7</v>
       </c>
       <c r="D337">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E337">
-        <v>442</v>
+        <v>139</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -6145,16 +6145,16 @@
         <v>336</v>
       </c>
       <c r="B338" s="2">
-        <v>43937</v>
+        <v>43934</v>
       </c>
       <c r="C338" t="s">
         <v>7</v>
       </c>
       <c r="D338">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E338">
-        <v>463</v>
+        <v>144</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -6162,16 +6162,16 @@
         <v>337</v>
       </c>
       <c r="B339" s="2">
-        <v>43938</v>
+        <v>43935</v>
       </c>
       <c r="C339" t="s">
         <v>7</v>
       </c>
       <c r="D339">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="E339">
-        <v>490</v>
+        <v>146</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -6179,16 +6179,16 @@
         <v>338</v>
       </c>
       <c r="B340" s="2">
-        <v>43939</v>
+        <v>43936</v>
       </c>
       <c r="C340" t="s">
         <v>7</v>
       </c>
       <c r="D340">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E340">
-        <v>514</v>
+        <v>173</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -6196,16 +6196,16 @@
         <v>339</v>
       </c>
       <c r="B341" s="2">
-        <v>43940</v>
+        <v>43937</v>
       </c>
       <c r="C341" t="s">
         <v>7</v>
       </c>
       <c r="D341">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="E341">
-        <v>536</v>
+        <v>182</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -6213,16 +6213,16 @@
         <v>340</v>
       </c>
       <c r="B342" s="2">
-        <v>43941</v>
+        <v>43938</v>
       </c>
       <c r="C342" t="s">
         <v>7</v>
       </c>
       <c r="D342">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E342">
-        <v>540</v>
+        <v>192</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -6230,16 +6230,16 @@
         <v>341</v>
       </c>
       <c r="B343" s="2">
-        <v>43942</v>
+        <v>43939</v>
       </c>
       <c r="C343" t="s">
         <v>7</v>
       </c>
       <c r="D343">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E343">
-        <v>551</v>
+        <v>194</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -6247,16 +6247,16 @@
         <v>342</v>
       </c>
       <c r="B344" s="2">
-        <v>43943</v>
+        <v>43940</v>
       </c>
       <c r="C344" t="s">
         <v>7</v>
       </c>
       <c r="D344">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="E344">
-        <v>569</v>
+        <v>196</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -6264,16 +6264,16 @@
         <v>343</v>
       </c>
       <c r="B345" s="2">
-        <v>43944</v>
+        <v>43941</v>
       </c>
       <c r="C345" t="s">
         <v>7</v>
       </c>
       <c r="D345">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E345">
-        <v>583</v>
+        <v>201</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -6281,16 +6281,16 @@
         <v>344</v>
       </c>
       <c r="B346" s="2">
-        <v>43859</v>
+        <v>43942</v>
       </c>
       <c r="C346" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D346">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E346">
-        <v>0</v>
+        <v>206</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -6298,16 +6298,16 @@
         <v>345</v>
       </c>
       <c r="B347" s="2">
-        <v>43860</v>
+        <v>43943</v>
       </c>
       <c r="C347" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D347">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E347">
-        <v>0</v>
+        <v>212</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -6315,16 +6315,16 @@
         <v>346</v>
       </c>
       <c r="B348" s="2">
-        <v>43861</v>
+        <v>43944</v>
       </c>
       <c r="C348" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D348">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E348">
-        <v>0</v>
+        <v>214</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -6332,16 +6332,16 @@
         <v>347</v>
       </c>
       <c r="B349" s="2">
-        <v>43862</v>
+        <v>43945</v>
       </c>
       <c r="C349" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D349">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E349">
-        <v>0</v>
+        <v>217</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -6349,7 +6349,7 @@
         <v>348</v>
       </c>
       <c r="B350" s="2">
-        <v>43863</v>
+        <v>43859</v>
       </c>
       <c r="C350" t="s">
         <v>8</v>
@@ -6366,7 +6366,7 @@
         <v>349</v>
       </c>
       <c r="B351" s="2">
-        <v>43864</v>
+        <v>43860</v>
       </c>
       <c r="C351" t="s">
         <v>8</v>
@@ -6383,7 +6383,7 @@
         <v>350</v>
       </c>
       <c r="B352" s="2">
-        <v>43865</v>
+        <v>43861</v>
       </c>
       <c r="C352" t="s">
         <v>8</v>
@@ -6400,7 +6400,7 @@
         <v>351</v>
       </c>
       <c r="B353" s="2">
-        <v>43866</v>
+        <v>43862</v>
       </c>
       <c r="C353" t="s">
         <v>8</v>
@@ -6417,7 +6417,7 @@
         <v>352</v>
       </c>
       <c r="B354" s="2">
-        <v>43867</v>
+        <v>43863</v>
       </c>
       <c r="C354" t="s">
         <v>8</v>
@@ -6434,7 +6434,7 @@
         <v>353</v>
       </c>
       <c r="B355" s="2">
-        <v>43868</v>
+        <v>43864</v>
       </c>
       <c r="C355" t="s">
         <v>8</v>
@@ -6451,7 +6451,7 @@
         <v>354</v>
       </c>
       <c r="B356" s="2">
-        <v>43869</v>
+        <v>43865</v>
       </c>
       <c r="C356" t="s">
         <v>8</v>
@@ -6468,7 +6468,7 @@
         <v>355</v>
       </c>
       <c r="B357" s="2">
-        <v>43870</v>
+        <v>43866</v>
       </c>
       <c r="C357" t="s">
         <v>8</v>
@@ -6485,7 +6485,7 @@
         <v>356</v>
       </c>
       <c r="B358" s="2">
-        <v>43871</v>
+        <v>43867</v>
       </c>
       <c r="C358" t="s">
         <v>8</v>
@@ -6502,7 +6502,7 @@
         <v>357</v>
       </c>
       <c r="B359" s="2">
-        <v>43872</v>
+        <v>43868</v>
       </c>
       <c r="C359" t="s">
         <v>8</v>
@@ -6519,7 +6519,7 @@
         <v>358</v>
       </c>
       <c r="B360" s="2">
-        <v>43873</v>
+        <v>43869</v>
       </c>
       <c r="C360" t="s">
         <v>8</v>
@@ -6536,7 +6536,7 @@
         <v>359</v>
       </c>
       <c r="B361" s="2">
-        <v>43874</v>
+        <v>43870</v>
       </c>
       <c r="C361" t="s">
         <v>8</v>
@@ -6553,7 +6553,7 @@
         <v>360</v>
       </c>
       <c r="B362" s="2">
-        <v>43875</v>
+        <v>43871</v>
       </c>
       <c r="C362" t="s">
         <v>8</v>
@@ -6570,7 +6570,7 @@
         <v>361</v>
       </c>
       <c r="B363" s="2">
-        <v>43876</v>
+        <v>43872</v>
       </c>
       <c r="C363" t="s">
         <v>8</v>
@@ -6587,7 +6587,7 @@
         <v>362</v>
       </c>
       <c r="B364" s="2">
-        <v>43877</v>
+        <v>43873</v>
       </c>
       <c r="C364" t="s">
         <v>8</v>
@@ -6604,7 +6604,7 @@
         <v>363</v>
       </c>
       <c r="B365" s="2">
-        <v>43878</v>
+        <v>43874</v>
       </c>
       <c r="C365" t="s">
         <v>8</v>
@@ -6621,7 +6621,7 @@
         <v>364</v>
       </c>
       <c r="B366" s="2">
-        <v>43879</v>
+        <v>43875</v>
       </c>
       <c r="C366" t="s">
         <v>8</v>
@@ -6638,7 +6638,7 @@
         <v>365</v>
       </c>
       <c r="B367" s="2">
-        <v>43880</v>
+        <v>43876</v>
       </c>
       <c r="C367" t="s">
         <v>8</v>
@@ -6655,7 +6655,7 @@
         <v>366</v>
       </c>
       <c r="B368" s="2">
-        <v>43881</v>
+        <v>43877</v>
       </c>
       <c r="C368" t="s">
         <v>8</v>
@@ -6672,7 +6672,7 @@
         <v>367</v>
       </c>
       <c r="B369" s="2">
-        <v>43882</v>
+        <v>43878</v>
       </c>
       <c r="C369" t="s">
         <v>8</v>
@@ -6689,7 +6689,7 @@
         <v>368</v>
       </c>
       <c r="B370" s="2">
-        <v>43883</v>
+        <v>43879</v>
       </c>
       <c r="C370" t="s">
         <v>8</v>
@@ -6706,7 +6706,7 @@
         <v>369</v>
       </c>
       <c r="B371" s="2">
-        <v>43884</v>
+        <v>43880</v>
       </c>
       <c r="C371" t="s">
         <v>8</v>
@@ -6723,7 +6723,7 @@
         <v>370</v>
       </c>
       <c r="B372" s="2">
-        <v>43885</v>
+        <v>43881</v>
       </c>
       <c r="C372" t="s">
         <v>8</v>
@@ -6740,7 +6740,7 @@
         <v>371</v>
       </c>
       <c r="B373" s="2">
-        <v>43886</v>
+        <v>43882</v>
       </c>
       <c r="C373" t="s">
         <v>8</v>
@@ -6757,7 +6757,7 @@
         <v>372</v>
       </c>
       <c r="B374" s="2">
-        <v>43887</v>
+        <v>43883</v>
       </c>
       <c r="C374" t="s">
         <v>8</v>
@@ -6774,7 +6774,7 @@
         <v>373</v>
       </c>
       <c r="B375" s="2">
-        <v>43888</v>
+        <v>43884</v>
       </c>
       <c r="C375" t="s">
         <v>8</v>
@@ -6791,7 +6791,7 @@
         <v>374</v>
       </c>
       <c r="B376" s="2">
-        <v>43889</v>
+        <v>43885</v>
       </c>
       <c r="C376" t="s">
         <v>8</v>
@@ -6808,7 +6808,7 @@
         <v>375</v>
       </c>
       <c r="B377" s="2">
-        <v>43890</v>
+        <v>43886</v>
       </c>
       <c r="C377" t="s">
         <v>8</v>
@@ -6825,7 +6825,7 @@
         <v>376</v>
       </c>
       <c r="B378" s="2">
-        <v>43891</v>
+        <v>43887</v>
       </c>
       <c r="C378" t="s">
         <v>8</v>
@@ -6842,7 +6842,7 @@
         <v>377</v>
       </c>
       <c r="B379" s="2">
-        <v>43892</v>
+        <v>43888</v>
       </c>
       <c r="C379" t="s">
         <v>8</v>
@@ -6859,7 +6859,7 @@
         <v>378</v>
       </c>
       <c r="B380" s="2">
-        <v>43893</v>
+        <v>43889</v>
       </c>
       <c r="C380" t="s">
         <v>8</v>
@@ -6876,7 +6876,7 @@
         <v>379</v>
       </c>
       <c r="B381" s="2">
-        <v>43894</v>
+        <v>43890</v>
       </c>
       <c r="C381" t="s">
         <v>8</v>
@@ -6893,7 +6893,7 @@
         <v>380</v>
       </c>
       <c r="B382" s="2">
-        <v>43895</v>
+        <v>43891</v>
       </c>
       <c r="C382" t="s">
         <v>8</v>
@@ -6910,7 +6910,7 @@
         <v>381</v>
       </c>
       <c r="B383" s="2">
-        <v>43896</v>
+        <v>43892</v>
       </c>
       <c r="C383" t="s">
         <v>8</v>
@@ -6927,7 +6927,7 @@
         <v>382</v>
       </c>
       <c r="B384" s="2">
-        <v>43897</v>
+        <v>43893</v>
       </c>
       <c r="C384" t="s">
         <v>8</v>
@@ -6944,7 +6944,7 @@
         <v>383</v>
       </c>
       <c r="B385" s="2">
-        <v>43898</v>
+        <v>43894</v>
       </c>
       <c r="C385" t="s">
         <v>8</v>
@@ -6961,7 +6961,7 @@
         <v>384</v>
       </c>
       <c r="B386" s="2">
-        <v>43899</v>
+        <v>43895</v>
       </c>
       <c r="C386" t="s">
         <v>8</v>
@@ -6978,7 +6978,7 @@
         <v>385</v>
       </c>
       <c r="B387" s="2">
-        <v>43900</v>
+        <v>43896</v>
       </c>
       <c r="C387" t="s">
         <v>8</v>
@@ -6995,16 +6995,16 @@
         <v>386</v>
       </c>
       <c r="B388" s="2">
-        <v>43901</v>
+        <v>43897</v>
       </c>
       <c r="C388" t="s">
         <v>8</v>
       </c>
       <c r="D388">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E388">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="389" spans="1:5">
@@ -7012,16 +7012,16 @@
         <v>387</v>
       </c>
       <c r="B389" s="2">
-        <v>43902</v>
+        <v>43898</v>
       </c>
       <c r="C389" t="s">
         <v>8</v>
       </c>
       <c r="D389">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E389">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="390" spans="1:5">
@@ -7029,7 +7029,7 @@
         <v>388</v>
       </c>
       <c r="B390" s="2">
-        <v>43903</v>
+        <v>43899</v>
       </c>
       <c r="C390" t="s">
         <v>8</v>
@@ -7038,7 +7038,7 @@
         <v>0</v>
       </c>
       <c r="E390">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="391" spans="1:5">
@@ -7046,16 +7046,16 @@
         <v>389</v>
       </c>
       <c r="B391" s="2">
-        <v>43904</v>
+        <v>43900</v>
       </c>
       <c r="C391" t="s">
         <v>8</v>
       </c>
       <c r="D391">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E391">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="392" spans="1:5">
@@ -7063,7 +7063,7 @@
         <v>390</v>
       </c>
       <c r="B392" s="2">
-        <v>43905</v>
+        <v>43901</v>
       </c>
       <c r="C392" t="s">
         <v>8</v>
@@ -7072,7 +7072,7 @@
         <v>0</v>
       </c>
       <c r="E392">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="393" spans="1:5">
@@ -7080,16 +7080,16 @@
         <v>391</v>
       </c>
       <c r="B393" s="2">
-        <v>43906</v>
+        <v>43902</v>
       </c>
       <c r="C393" t="s">
         <v>8</v>
       </c>
       <c r="D393">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E393">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="394" spans="1:5">
@@ -7097,7 +7097,7 @@
         <v>392</v>
       </c>
       <c r="B394" s="2">
-        <v>43907</v>
+        <v>43903</v>
       </c>
       <c r="C394" t="s">
         <v>8</v>
@@ -7106,7 +7106,7 @@
         <v>0</v>
       </c>
       <c r="E394">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="395" spans="1:5">
@@ -7114,16 +7114,16 @@
         <v>393</v>
       </c>
       <c r="B395" s="2">
-        <v>43908</v>
+        <v>43904</v>
       </c>
       <c r="C395" t="s">
         <v>8</v>
       </c>
       <c r="D395">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E395">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="396" spans="1:5">
@@ -7131,16 +7131,16 @@
         <v>394</v>
       </c>
       <c r="B396" s="2">
-        <v>43909</v>
+        <v>43905</v>
       </c>
       <c r="C396" t="s">
         <v>8</v>
       </c>
       <c r="D396">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E396">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="397" spans="1:5">
@@ -7148,7 +7148,7 @@
         <v>395</v>
       </c>
       <c r="B397" s="2">
-        <v>43910</v>
+        <v>43906</v>
       </c>
       <c r="C397" t="s">
         <v>8</v>
@@ -7157,7 +7157,7 @@
         <v>0</v>
       </c>
       <c r="E397">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="398" spans="1:5">
@@ -7165,16 +7165,16 @@
         <v>396</v>
       </c>
       <c r="B398" s="2">
-        <v>43911</v>
+        <v>43907</v>
       </c>
       <c r="C398" t="s">
         <v>8</v>
       </c>
       <c r="D398">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E398">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="399" spans="1:5">
@@ -7182,16 +7182,16 @@
         <v>397</v>
       </c>
       <c r="B399" s="2">
-        <v>43912</v>
+        <v>43908</v>
       </c>
       <c r="C399" t="s">
         <v>8</v>
       </c>
       <c r="D399">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E399">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="400" spans="1:5">
@@ -7199,7 +7199,7 @@
         <v>398</v>
       </c>
       <c r="B400" s="2">
-        <v>43913</v>
+        <v>43909</v>
       </c>
       <c r="C400" t="s">
         <v>8</v>
@@ -7208,7 +7208,7 @@
         <v>0</v>
       </c>
       <c r="E400">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="401" spans="1:5">
@@ -7216,7 +7216,7 @@
         <v>399</v>
       </c>
       <c r="B401" s="2">
-        <v>43914</v>
+        <v>43910</v>
       </c>
       <c r="C401" t="s">
         <v>8</v>
@@ -7225,7 +7225,7 @@
         <v>0</v>
       </c>
       <c r="E401">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="402" spans="1:5">
@@ -7233,16 +7233,16 @@
         <v>400</v>
       </c>
       <c r="B402" s="2">
-        <v>43915</v>
+        <v>43911</v>
       </c>
       <c r="C402" t="s">
         <v>8</v>
       </c>
       <c r="D402">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E402">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="403" spans="1:5">
@@ -7250,7 +7250,7 @@
         <v>401</v>
       </c>
       <c r="B403" s="2">
-        <v>43916</v>
+        <v>43912</v>
       </c>
       <c r="C403" t="s">
         <v>8</v>
@@ -7259,7 +7259,7 @@
         <v>0</v>
       </c>
       <c r="E403">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="404" spans="1:5">
@@ -7267,16 +7267,16 @@
         <v>402</v>
       </c>
       <c r="B404" s="2">
-        <v>43917</v>
+        <v>43913</v>
       </c>
       <c r="C404" t="s">
         <v>8</v>
       </c>
       <c r="D404">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E404">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="405" spans="1:5">
@@ -7284,7 +7284,7 @@
         <v>403</v>
       </c>
       <c r="B405" s="2">
-        <v>43918</v>
+        <v>43914</v>
       </c>
       <c r="C405" t="s">
         <v>8</v>
@@ -7293,7 +7293,7 @@
         <v>1</v>
       </c>
       <c r="E405">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="406" spans="1:5">
@@ -7301,16 +7301,16 @@
         <v>404</v>
       </c>
       <c r="B406" s="2">
-        <v>43919</v>
+        <v>43915</v>
       </c>
       <c r="C406" t="s">
         <v>8</v>
       </c>
       <c r="D406">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E406">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="407" spans="1:5">
@@ -7318,7 +7318,7 @@
         <v>405</v>
       </c>
       <c r="B407" s="2">
-        <v>43920</v>
+        <v>43916</v>
       </c>
       <c r="C407" t="s">
         <v>8</v>
@@ -7327,7 +7327,7 @@
         <v>0</v>
       </c>
       <c r="E407">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="408" spans="1:5">
@@ -7335,16 +7335,16 @@
         <v>406</v>
       </c>
       <c r="B408" s="2">
-        <v>43921</v>
+        <v>43917</v>
       </c>
       <c r="C408" t="s">
         <v>8</v>
       </c>
       <c r="D408">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E408">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="409" spans="1:5">
@@ -7352,16 +7352,16 @@
         <v>407</v>
       </c>
       <c r="B409" s="2">
-        <v>43922</v>
+        <v>43918</v>
       </c>
       <c r="C409" t="s">
         <v>8</v>
       </c>
       <c r="D409">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E409">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="410" spans="1:5">
@@ -7369,16 +7369,16 @@
         <v>408</v>
       </c>
       <c r="B410" s="2">
-        <v>43923</v>
+        <v>43919</v>
       </c>
       <c r="C410" t="s">
         <v>8</v>
       </c>
       <c r="D410">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E410">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="411" spans="1:5">
@@ -7386,7 +7386,7 @@
         <v>409</v>
       </c>
       <c r="B411" s="2">
-        <v>43924</v>
+        <v>43920</v>
       </c>
       <c r="C411" t="s">
         <v>8</v>
@@ -7395,7 +7395,7 @@
         <v>1</v>
       </c>
       <c r="E411">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="412" spans="1:5">
@@ -7403,16 +7403,16 @@
         <v>410</v>
       </c>
       <c r="B412" s="2">
-        <v>43925</v>
+        <v>43921</v>
       </c>
       <c r="C412" t="s">
         <v>8</v>
       </c>
       <c r="D412">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E412">
-        <v>8</v>
+        <v>28</v>
       </c>
     </row>
     <row r="413" spans="1:5">
@@ -7420,16 +7420,16 @@
         <v>411</v>
       </c>
       <c r="B413" s="2">
-        <v>43926</v>
+        <v>43922</v>
       </c>
       <c r="C413" t="s">
         <v>8</v>
       </c>
       <c r="D413">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E413">
-        <v>8</v>
+        <v>31</v>
       </c>
     </row>
     <row r="414" spans="1:5">
@@ -7437,16 +7437,16 @@
         <v>412</v>
       </c>
       <c r="B414" s="2">
-        <v>43927</v>
+        <v>43923</v>
       </c>
       <c r="C414" t="s">
         <v>8</v>
       </c>
       <c r="D414">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E414">
-        <v>8</v>
+        <v>37</v>
       </c>
     </row>
     <row r="415" spans="1:5">
@@ -7454,16 +7454,16 @@
         <v>413</v>
       </c>
       <c r="B415" s="2">
-        <v>43928</v>
+        <v>43924</v>
       </c>
       <c r="C415" t="s">
         <v>8</v>
       </c>
       <c r="D415">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E415">
-        <v>8</v>
+        <v>42</v>
       </c>
     </row>
     <row r="416" spans="1:5">
@@ -7471,16 +7471,16 @@
         <v>414</v>
       </c>
       <c r="B416" s="2">
-        <v>43929</v>
+        <v>43925</v>
       </c>
       <c r="C416" t="s">
         <v>8</v>
       </c>
       <c r="D416">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E416">
-        <v>8</v>
+        <v>47</v>
       </c>
     </row>
     <row r="417" spans="1:5">
@@ -7488,16 +7488,16 @@
         <v>415</v>
       </c>
       <c r="B417" s="2">
-        <v>43930</v>
+        <v>43926</v>
       </c>
       <c r="C417" t="s">
         <v>8</v>
       </c>
       <c r="D417">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E417">
-        <v>9</v>
+        <v>54</v>
       </c>
     </row>
     <row r="418" spans="1:5">
@@ -7505,16 +7505,16 @@
         <v>416</v>
       </c>
       <c r="B418" s="2">
-        <v>43931</v>
+        <v>43927</v>
       </c>
       <c r="C418" t="s">
         <v>8</v>
       </c>
       <c r="D418">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E418">
-        <v>13</v>
+        <v>59</v>
       </c>
     </row>
     <row r="419" spans="1:5">
@@ -7522,16 +7522,16 @@
         <v>417</v>
       </c>
       <c r="B419" s="2">
-        <v>43932</v>
+        <v>43928</v>
       </c>
       <c r="C419" t="s">
         <v>8</v>
       </c>
       <c r="D419">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E419">
-        <v>14</v>
+        <v>63</v>
       </c>
     </row>
     <row r="420" spans="1:5">
@@ -7539,7 +7539,7 @@
         <v>418</v>
       </c>
       <c r="B420" s="2">
-        <v>43933</v>
+        <v>43929</v>
       </c>
       <c r="C420" t="s">
         <v>8</v>
@@ -7548,7 +7548,7 @@
         <v>2</v>
       </c>
       <c r="E420">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="421" spans="1:5">
@@ -7556,16 +7556,16 @@
         <v>419</v>
       </c>
       <c r="B421" s="2">
-        <v>43934</v>
+        <v>43930</v>
       </c>
       <c r="C421" t="s">
         <v>8</v>
       </c>
       <c r="D421">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E421">
-        <v>16</v>
+        <v>89</v>
       </c>
     </row>
     <row r="422" spans="1:5">
@@ -7573,16 +7573,16 @@
         <v>420</v>
       </c>
       <c r="B422" s="2">
-        <v>43935</v>
+        <v>43931</v>
       </c>
       <c r="C422" t="s">
         <v>8</v>
       </c>
       <c r="D422">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E422">
-        <v>17</v>
+        <v>97</v>
       </c>
     </row>
     <row r="423" spans="1:5">
@@ -7590,16 +7590,16 @@
         <v>421</v>
       </c>
       <c r="B423" s="2">
-        <v>43936</v>
+        <v>43932</v>
       </c>
       <c r="C423" t="s">
         <v>8</v>
       </c>
       <c r="D423">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E423">
-        <v>20</v>
+        <v>112</v>
       </c>
     </row>
     <row r="424" spans="1:5">
@@ -7607,16 +7607,16 @@
         <v>422</v>
       </c>
       <c r="B424" s="2">
-        <v>43937</v>
+        <v>43933</v>
       </c>
       <c r="C424" t="s">
         <v>8</v>
       </c>
       <c r="D424">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E424">
-        <v>21</v>
+        <v>115</v>
       </c>
     </row>
     <row r="425" spans="1:5">
@@ -7624,16 +7624,16 @@
         <v>423</v>
       </c>
       <c r="B425" s="2">
-        <v>43938</v>
+        <v>43934</v>
       </c>
       <c r="C425" t="s">
         <v>8</v>
       </c>
       <c r="D425">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E425">
-        <v>23</v>
+        <v>120</v>
       </c>
     </row>
     <row r="426" spans="1:5">
@@ -7641,16 +7641,16 @@
         <v>424</v>
       </c>
       <c r="B426" s="2">
-        <v>43939</v>
+        <v>43935</v>
       </c>
       <c r="C426" t="s">
         <v>8</v>
       </c>
       <c r="D426">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="E426">
-        <v>66</v>
+        <v>127</v>
       </c>
     </row>
     <row r="427" spans="1:5">
@@ -7658,7 +7658,7 @@
         <v>425</v>
       </c>
       <c r="B427" s="2">
-        <v>43940</v>
+        <v>43936</v>
       </c>
       <c r="C427" t="s">
         <v>8</v>
@@ -7667,7 +7667,7 @@
         <v>9</v>
       </c>
       <c r="E427">
-        <v>75</v>
+        <v>136</v>
       </c>
     </row>
     <row r="428" spans="1:5">
@@ -7675,16 +7675,16 @@
         <v>426</v>
       </c>
       <c r="B428" s="2">
-        <v>43941</v>
+        <v>43937</v>
       </c>
       <c r="C428" t="s">
         <v>8</v>
       </c>
       <c r="D428">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="E428">
-        <v>117</v>
+        <v>146</v>
       </c>
     </row>
     <row r="429" spans="1:5">
@@ -7692,16 +7692,16 @@
         <v>427</v>
       </c>
       <c r="B429" s="2">
-        <v>43942</v>
+        <v>43938</v>
       </c>
       <c r="C429" t="s">
         <v>8</v>
       </c>
       <c r="D429">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="E429">
-        <v>141</v>
+        <v>153</v>
       </c>
     </row>
     <row r="430" spans="1:5">
@@ -7709,16 +7709,16 @@
         <v>428</v>
       </c>
       <c r="B430" s="2">
-        <v>43943</v>
+        <v>43939</v>
       </c>
       <c r="C430" t="s">
         <v>8</v>
       </c>
       <c r="D430">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E430">
-        <v>143</v>
+        <v>157</v>
       </c>
     </row>
     <row r="431" spans="1:5">
@@ -7726,16 +7726,16 @@
         <v>429</v>
       </c>
       <c r="B431" s="2">
-        <v>43944</v>
+        <v>43940</v>
       </c>
       <c r="C431" t="s">
         <v>8</v>
       </c>
       <c r="D431">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E431">
-        <v>149</v>
+        <v>165</v>
       </c>
     </row>
     <row r="432" spans="1:5">
@@ -7743,16 +7743,16 @@
         <v>430</v>
       </c>
       <c r="B432" s="2">
-        <v>43859</v>
+        <v>43941</v>
       </c>
       <c r="C432" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D432">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E432">
-        <v>0</v>
+        <v>169</v>
       </c>
     </row>
     <row r="433" spans="1:5">
@@ -7760,16 +7760,16 @@
         <v>431</v>
       </c>
       <c r="B433" s="2">
-        <v>43860</v>
+        <v>43942</v>
       </c>
       <c r="C433" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D433">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E433">
-        <v>0</v>
+        <v>170</v>
       </c>
     </row>
     <row r="434" spans="1:5">
@@ -7777,16 +7777,16 @@
         <v>432</v>
       </c>
       <c r="B434" s="2">
-        <v>43861</v>
+        <v>43943</v>
       </c>
       <c r="C434" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D434">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E434">
-        <v>0</v>
+        <v>172</v>
       </c>
     </row>
     <row r="435" spans="1:5">
@@ -7794,16 +7794,16 @@
         <v>433</v>
       </c>
       <c r="B435" s="2">
-        <v>43862</v>
+        <v>43944</v>
       </c>
       <c r="C435" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D435">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E435">
-        <v>0</v>
+        <v>174</v>
       </c>
     </row>
     <row r="436" spans="1:5">
@@ -7811,16 +7811,16 @@
         <v>434</v>
       </c>
       <c r="B436" s="2">
-        <v>43863</v>
+        <v>43945</v>
       </c>
       <c r="C436" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D436">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E436">
-        <v>0</v>
+        <v>176</v>
       </c>
     </row>
     <row r="437" spans="1:5">
@@ -7828,7 +7828,7 @@
         <v>435</v>
       </c>
       <c r="B437" s="2">
-        <v>43864</v>
+        <v>43859</v>
       </c>
       <c r="C437" t="s">
         <v>9</v>
@@ -7845,7 +7845,7 @@
         <v>436</v>
       </c>
       <c r="B438" s="2">
-        <v>43865</v>
+        <v>43860</v>
       </c>
       <c r="C438" t="s">
         <v>9</v>
@@ -7862,7 +7862,7 @@
         <v>437</v>
       </c>
       <c r="B439" s="2">
-        <v>43866</v>
+        <v>43861</v>
       </c>
       <c r="C439" t="s">
         <v>9</v>
@@ -7879,7 +7879,7 @@
         <v>438</v>
       </c>
       <c r="B440" s="2">
-        <v>43867</v>
+        <v>43862</v>
       </c>
       <c r="C440" t="s">
         <v>9</v>
@@ -7896,7 +7896,7 @@
         <v>439</v>
       </c>
       <c r="B441" s="2">
-        <v>43868</v>
+        <v>43863</v>
       </c>
       <c r="C441" t="s">
         <v>9</v>
@@ -7913,7 +7913,7 @@
         <v>440</v>
       </c>
       <c r="B442" s="2">
-        <v>43869</v>
+        <v>43864</v>
       </c>
       <c r="C442" t="s">
         <v>9</v>
@@ -7930,7 +7930,7 @@
         <v>441</v>
       </c>
       <c r="B443" s="2">
-        <v>43870</v>
+        <v>43865</v>
       </c>
       <c r="C443" t="s">
         <v>9</v>
@@ -7947,7 +7947,7 @@
         <v>442</v>
       </c>
       <c r="B444" s="2">
-        <v>43871</v>
+        <v>43866</v>
       </c>
       <c r="C444" t="s">
         <v>9</v>
@@ -7964,7 +7964,7 @@
         <v>443</v>
       </c>
       <c r="B445" s="2">
-        <v>43872</v>
+        <v>43867</v>
       </c>
       <c r="C445" t="s">
         <v>9</v>
@@ -7981,7 +7981,7 @@
         <v>444</v>
       </c>
       <c r="B446" s="2">
-        <v>43873</v>
+        <v>43868</v>
       </c>
       <c r="C446" t="s">
         <v>9</v>
@@ -7998,7 +7998,7 @@
         <v>445</v>
       </c>
       <c r="B447" s="2">
-        <v>43874</v>
+        <v>43869</v>
       </c>
       <c r="C447" t="s">
         <v>9</v>
@@ -8015,7 +8015,7 @@
         <v>446</v>
       </c>
       <c r="B448" s="2">
-        <v>43875</v>
+        <v>43870</v>
       </c>
       <c r="C448" t="s">
         <v>9</v>
@@ -8032,7 +8032,7 @@
         <v>447</v>
       </c>
       <c r="B449" s="2">
-        <v>43876</v>
+        <v>43871</v>
       </c>
       <c r="C449" t="s">
         <v>9</v>
@@ -8049,7 +8049,7 @@
         <v>448</v>
       </c>
       <c r="B450" s="2">
-        <v>43877</v>
+        <v>43872</v>
       </c>
       <c r="C450" t="s">
         <v>9</v>
@@ -8066,7 +8066,7 @@
         <v>449</v>
       </c>
       <c r="B451" s="2">
-        <v>43878</v>
+        <v>43873</v>
       </c>
       <c r="C451" t="s">
         <v>9</v>
@@ -8083,7 +8083,7 @@
         <v>450</v>
       </c>
       <c r="B452" s="2">
-        <v>43879</v>
+        <v>43874</v>
       </c>
       <c r="C452" t="s">
         <v>9</v>
@@ -8100,7 +8100,7 @@
         <v>451</v>
       </c>
       <c r="B453" s="2">
-        <v>43880</v>
+        <v>43875</v>
       </c>
       <c r="C453" t="s">
         <v>9</v>
@@ -8117,7 +8117,7 @@
         <v>452</v>
       </c>
       <c r="B454" s="2">
-        <v>43881</v>
+        <v>43876</v>
       </c>
       <c r="C454" t="s">
         <v>9</v>
@@ -8134,7 +8134,7 @@
         <v>453</v>
       </c>
       <c r="B455" s="2">
-        <v>43882</v>
+        <v>43877</v>
       </c>
       <c r="C455" t="s">
         <v>9</v>
@@ -8151,7 +8151,7 @@
         <v>454</v>
       </c>
       <c r="B456" s="2">
-        <v>43883</v>
+        <v>43878</v>
       </c>
       <c r="C456" t="s">
         <v>9</v>
@@ -8168,7 +8168,7 @@
         <v>455</v>
       </c>
       <c r="B457" s="2">
-        <v>43884</v>
+        <v>43879</v>
       </c>
       <c r="C457" t="s">
         <v>9</v>
@@ -8185,7 +8185,7 @@
         <v>456</v>
       </c>
       <c r="B458" s="2">
-        <v>43885</v>
+        <v>43880</v>
       </c>
       <c r="C458" t="s">
         <v>9</v>
@@ -8202,7 +8202,7 @@
         <v>457</v>
       </c>
       <c r="B459" s="2">
-        <v>43886</v>
+        <v>43881</v>
       </c>
       <c r="C459" t="s">
         <v>9</v>
@@ -8219,7 +8219,7 @@
         <v>458</v>
       </c>
       <c r="B460" s="2">
-        <v>43887</v>
+        <v>43882</v>
       </c>
       <c r="C460" t="s">
         <v>9</v>
@@ -8236,7 +8236,7 @@
         <v>459</v>
       </c>
       <c r="B461" s="2">
-        <v>43888</v>
+        <v>43883</v>
       </c>
       <c r="C461" t="s">
         <v>9</v>
@@ -8253,7 +8253,7 @@
         <v>460</v>
       </c>
       <c r="B462" s="2">
-        <v>43889</v>
+        <v>43884</v>
       </c>
       <c r="C462" t="s">
         <v>9</v>
@@ -8270,7 +8270,7 @@
         <v>461</v>
       </c>
       <c r="B463" s="2">
-        <v>43890</v>
+        <v>43885</v>
       </c>
       <c r="C463" t="s">
         <v>9</v>
@@ -8287,7 +8287,7 @@
         <v>462</v>
       </c>
       <c r="B464" s="2">
-        <v>43891</v>
+        <v>43886</v>
       </c>
       <c r="C464" t="s">
         <v>9</v>
@@ -8304,7 +8304,7 @@
         <v>463</v>
       </c>
       <c r="B465" s="2">
-        <v>43892</v>
+        <v>43887</v>
       </c>
       <c r="C465" t="s">
         <v>9</v>
@@ -8321,7 +8321,7 @@
         <v>464</v>
       </c>
       <c r="B466" s="2">
-        <v>43893</v>
+        <v>43888</v>
       </c>
       <c r="C466" t="s">
         <v>9</v>
@@ -8338,16 +8338,16 @@
         <v>465</v>
       </c>
       <c r="B467" s="2">
-        <v>43894</v>
+        <v>43889</v>
       </c>
       <c r="C467" t="s">
         <v>9</v>
       </c>
       <c r="D467">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E467">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:5">
@@ -8355,7 +8355,7 @@
         <v>466</v>
       </c>
       <c r="B468" s="2">
-        <v>43895</v>
+        <v>43890</v>
       </c>
       <c r="C468" t="s">
         <v>9</v>
@@ -8364,7 +8364,7 @@
         <v>0</v>
       </c>
       <c r="E468">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:5">
@@ -8372,16 +8372,16 @@
         <v>467</v>
       </c>
       <c r="B469" s="2">
-        <v>43896</v>
+        <v>43891</v>
       </c>
       <c r="C469" t="s">
         <v>9</v>
       </c>
       <c r="D469">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E469">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:5">
@@ -8389,16 +8389,16 @@
         <v>468</v>
       </c>
       <c r="B470" s="2">
-        <v>43897</v>
+        <v>43892</v>
       </c>
       <c r="C470" t="s">
         <v>9</v>
       </c>
       <c r="D470">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E470">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:5">
@@ -8406,16 +8406,16 @@
         <v>469</v>
       </c>
       <c r="B471" s="2">
-        <v>43898</v>
+        <v>43893</v>
       </c>
       <c r="C471" t="s">
         <v>9</v>
       </c>
       <c r="D471">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E471">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:5">
@@ -8423,16 +8423,16 @@
         <v>470</v>
       </c>
       <c r="B472" s="2">
-        <v>43899</v>
+        <v>43894</v>
       </c>
       <c r="C472" t="s">
         <v>9</v>
       </c>
       <c r="D472">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E472">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="473" spans="1:5">
@@ -8440,16 +8440,16 @@
         <v>471</v>
       </c>
       <c r="B473" s="2">
-        <v>43900</v>
+        <v>43895</v>
       </c>
       <c r="C473" t="s">
         <v>9</v>
       </c>
       <c r="D473">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E473">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="474" spans="1:5">
@@ -8457,16 +8457,16 @@
         <v>472</v>
       </c>
       <c r="B474" s="2">
-        <v>43901</v>
+        <v>43896</v>
       </c>
       <c r="C474" t="s">
         <v>9</v>
       </c>
       <c r="D474">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E474">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="475" spans="1:5">
@@ -8474,16 +8474,16 @@
         <v>473</v>
       </c>
       <c r="B475" s="2">
-        <v>43902</v>
+        <v>43897</v>
       </c>
       <c r="C475" t="s">
         <v>9</v>
       </c>
       <c r="D475">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E475">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="476" spans="1:5">
@@ -8491,16 +8491,16 @@
         <v>474</v>
       </c>
       <c r="B476" s="2">
-        <v>43903</v>
+        <v>43898</v>
       </c>
       <c r="C476" t="s">
         <v>9</v>
       </c>
       <c r="D476">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E476">
-        <v>25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="477" spans="1:5">
@@ -8508,16 +8508,16 @@
         <v>475</v>
       </c>
       <c r="B477" s="2">
-        <v>43904</v>
+        <v>43899</v>
       </c>
       <c r="C477" t="s">
         <v>9</v>
       </c>
       <c r="D477">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E477">
-        <v>28</v>
+        <v>1</v>
       </c>
     </row>
     <row r="478" spans="1:5">
@@ -8525,7 +8525,7 @@
         <v>476</v>
       </c>
       <c r="B478" s="2">
-        <v>43905</v>
+        <v>43900</v>
       </c>
       <c r="C478" t="s">
         <v>9</v>
@@ -8534,7 +8534,7 @@
         <v>0</v>
       </c>
       <c r="E478">
-        <v>28</v>
+        <v>1</v>
       </c>
     </row>
     <row r="479" spans="1:5">
@@ -8542,16 +8542,16 @@
         <v>477</v>
       </c>
       <c r="B479" s="2">
-        <v>43906</v>
+        <v>43901</v>
       </c>
       <c r="C479" t="s">
         <v>9</v>
       </c>
       <c r="D479">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E479">
-        <v>28</v>
+        <v>2</v>
       </c>
     </row>
     <row r="480" spans="1:5">
@@ -8559,7 +8559,7 @@
         <v>478</v>
       </c>
       <c r="B480" s="2">
-        <v>43907</v>
+        <v>43902</v>
       </c>
       <c r="C480" t="s">
         <v>9</v>
@@ -8568,7 +8568,7 @@
         <v>0</v>
       </c>
       <c r="E480">
-        <v>28</v>
+        <v>2</v>
       </c>
     </row>
     <row r="481" spans="1:5">
@@ -8576,16 +8576,16 @@
         <v>479</v>
       </c>
       <c r="B481" s="2">
-        <v>43908</v>
+        <v>43903</v>
       </c>
       <c r="C481" t="s">
         <v>9</v>
       </c>
       <c r="D481">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E481">
-        <v>31</v>
+        <v>2</v>
       </c>
     </row>
     <row r="482" spans="1:5">
@@ -8593,16 +8593,16 @@
         <v>480</v>
       </c>
       <c r="B482" s="2">
-        <v>43909</v>
+        <v>43904</v>
       </c>
       <c r="C482" t="s">
         <v>9</v>
       </c>
       <c r="D482">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E482">
-        <v>32</v>
+        <v>2</v>
       </c>
     </row>
     <row r="483" spans="1:5">
@@ -8610,16 +8610,16 @@
         <v>481</v>
       </c>
       <c r="B483" s="2">
-        <v>43910</v>
+        <v>43905</v>
       </c>
       <c r="C483" t="s">
         <v>9</v>
       </c>
       <c r="D483">
+        <v>0</v>
+      </c>
+      <c r="E483">
         <v>2</v>
-      </c>
-      <c r="E483">
-        <v>34</v>
       </c>
     </row>
     <row r="484" spans="1:5">
@@ -8627,7 +8627,7 @@
         <v>482</v>
       </c>
       <c r="B484" s="2">
-        <v>43911</v>
+        <v>43906</v>
       </c>
       <c r="C484" t="s">
         <v>9</v>
@@ -8636,7 +8636,7 @@
         <v>0</v>
       </c>
       <c r="E484">
-        <v>34</v>
+        <v>2</v>
       </c>
     </row>
     <row r="485" spans="1:5">
@@ -8644,7 +8644,7 @@
         <v>483</v>
       </c>
       <c r="B485" s="2">
-        <v>43912</v>
+        <v>43907</v>
       </c>
       <c r="C485" t="s">
         <v>9</v>
@@ -8653,7 +8653,7 @@
         <v>0</v>
       </c>
       <c r="E485">
-        <v>34</v>
+        <v>2</v>
       </c>
     </row>
     <row r="486" spans="1:5">
@@ -8661,7 +8661,7 @@
         <v>484</v>
       </c>
       <c r="B486" s="2">
-        <v>43913</v>
+        <v>43908</v>
       </c>
       <c r="C486" t="s">
         <v>9</v>
@@ -8670,7 +8670,7 @@
         <v>0</v>
       </c>
       <c r="E486">
-        <v>34</v>
+        <v>2</v>
       </c>
     </row>
     <row r="487" spans="1:5">
@@ -8678,16 +8678,16 @@
         <v>485</v>
       </c>
       <c r="B487" s="2">
-        <v>43914</v>
+        <v>43909</v>
       </c>
       <c r="C487" t="s">
         <v>9</v>
       </c>
       <c r="D487">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E487">
-        <v>37</v>
+        <v>2</v>
       </c>
     </row>
     <row r="488" spans="1:5">
@@ -8695,16 +8695,16 @@
         <v>486</v>
       </c>
       <c r="B488" s="2">
-        <v>43915</v>
+        <v>43910</v>
       </c>
       <c r="C488" t="s">
         <v>9</v>
       </c>
       <c r="D488">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E488">
-        <v>38</v>
+        <v>2</v>
       </c>
     </row>
     <row r="489" spans="1:5">
@@ -8712,16 +8712,16 @@
         <v>487</v>
       </c>
       <c r="B489" s="2">
-        <v>43916</v>
+        <v>43911</v>
       </c>
       <c r="C489" t="s">
         <v>9</v>
       </c>
       <c r="D489">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E489">
-        <v>41</v>
+        <v>2</v>
       </c>
     </row>
     <row r="490" spans="1:5">
@@ -8729,16 +8729,16 @@
         <v>488</v>
       </c>
       <c r="B490" s="2">
-        <v>43917</v>
+        <v>43912</v>
       </c>
       <c r="C490" t="s">
         <v>9</v>
       </c>
       <c r="D490">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E490">
-        <v>44</v>
+        <v>2</v>
       </c>
     </row>
     <row r="491" spans="1:5">
@@ -8746,16 +8746,16 @@
         <v>489</v>
       </c>
       <c r="B491" s="2">
-        <v>43918</v>
+        <v>43913</v>
       </c>
       <c r="C491" t="s">
         <v>9</v>
       </c>
       <c r="D491">
+        <v>0</v>
+      </c>
+      <c r="E491">
         <v>2</v>
-      </c>
-      <c r="E491">
-        <v>46</v>
       </c>
     </row>
     <row r="492" spans="1:5">
@@ -8763,16 +8763,16 @@
         <v>490</v>
       </c>
       <c r="B492" s="2">
-        <v>43919</v>
+        <v>43914</v>
       </c>
       <c r="C492" t="s">
         <v>9</v>
       </c>
       <c r="D492">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E492">
-        <v>49</v>
+        <v>2</v>
       </c>
     </row>
     <row r="493" spans="1:5">
@@ -8780,16 +8780,16 @@
         <v>491</v>
       </c>
       <c r="B493" s="2">
-        <v>43920</v>
+        <v>43915</v>
       </c>
       <c r="C493" t="s">
         <v>9</v>
       </c>
       <c r="D493">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E493">
-        <v>50</v>
+        <v>4</v>
       </c>
     </row>
     <row r="494" spans="1:5">
@@ -8797,16 +8797,16 @@
         <v>492</v>
       </c>
       <c r="B494" s="2">
-        <v>43921</v>
+        <v>43916</v>
       </c>
       <c r="C494" t="s">
         <v>9</v>
       </c>
       <c r="D494">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E494">
-        <v>54</v>
+        <v>4</v>
       </c>
     </row>
     <row r="495" spans="1:5">
@@ -8814,16 +8814,16 @@
         <v>493</v>
       </c>
       <c r="B495" s="2">
-        <v>43922</v>
+        <v>43917</v>
       </c>
       <c r="C495" t="s">
         <v>9</v>
       </c>
       <c r="D495">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E495">
-        <v>57</v>
+        <v>5</v>
       </c>
     </row>
     <row r="496" spans="1:5">
@@ -8831,16 +8831,16 @@
         <v>494</v>
       </c>
       <c r="B496" s="2">
-        <v>43923</v>
+        <v>43918</v>
       </c>
       <c r="C496" t="s">
         <v>9</v>
       </c>
       <c r="D496">
+        <v>1</v>
+      </c>
+      <c r="E496">
         <v>6</v>
-      </c>
-      <c r="E496">
-        <v>63</v>
       </c>
     </row>
     <row r="497" spans="1:5">
@@ -8848,16 +8848,16 @@
         <v>495</v>
       </c>
       <c r="B497" s="2">
-        <v>43924</v>
+        <v>43919</v>
       </c>
       <c r="C497" t="s">
         <v>9</v>
       </c>
       <c r="D497">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E497">
-        <v>68</v>
+        <v>7</v>
       </c>
     </row>
     <row r="498" spans="1:5">
@@ -8865,16 +8865,16 @@
         <v>496</v>
       </c>
       <c r="B498" s="2">
-        <v>43925</v>
+        <v>43920</v>
       </c>
       <c r="C498" t="s">
         <v>9</v>
       </c>
       <c r="D498">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E498">
-        <v>73</v>
+        <v>7</v>
       </c>
     </row>
     <row r="499" spans="1:5">
@@ -8882,16 +8882,16 @@
         <v>497</v>
       </c>
       <c r="B499" s="2">
-        <v>43926</v>
+        <v>43921</v>
       </c>
       <c r="C499" t="s">
         <v>9</v>
       </c>
       <c r="D499">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E499">
-        <v>74</v>
+        <v>7</v>
       </c>
     </row>
     <row r="500" spans="1:5">
@@ -8899,16 +8899,16 @@
         <v>498</v>
       </c>
       <c r="B500" s="2">
-        <v>43927</v>
+        <v>43922</v>
       </c>
       <c r="C500" t="s">
         <v>9</v>
       </c>
       <c r="D500">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E500">
-        <v>77</v>
+        <v>7</v>
       </c>
     </row>
     <row r="501" spans="1:5">
@@ -8916,16 +8916,16 @@
         <v>499</v>
       </c>
       <c r="B501" s="2">
-        <v>43928</v>
+        <v>43923</v>
       </c>
       <c r="C501" t="s">
         <v>9</v>
       </c>
       <c r="D501">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E501">
-        <v>87</v>
+        <v>8</v>
       </c>
     </row>
     <row r="502" spans="1:5">
@@ -8933,16 +8933,16 @@
         <v>500</v>
       </c>
       <c r="B502" s="2">
-        <v>43929</v>
+        <v>43924</v>
       </c>
       <c r="C502" t="s">
         <v>9</v>
       </c>
       <c r="D502">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E502">
-        <v>97</v>
+        <v>8</v>
       </c>
     </row>
     <row r="503" spans="1:5">
@@ -8950,16 +8950,16 @@
         <v>501</v>
       </c>
       <c r="B503" s="2">
-        <v>43930</v>
+        <v>43925</v>
       </c>
       <c r="C503" t="s">
         <v>9</v>
       </c>
       <c r="D503">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E503">
-        <v>109</v>
+        <v>9</v>
       </c>
     </row>
     <row r="504" spans="1:5">
@@ -8967,16 +8967,16 @@
         <v>502</v>
       </c>
       <c r="B504" s="2">
-        <v>43931</v>
+        <v>43926</v>
       </c>
       <c r="C504" t="s">
         <v>9</v>
       </c>
       <c r="D504">
+        <v>0</v>
+      </c>
+      <c r="E504">
         <v>9</v>
-      </c>
-      <c r="E504">
-        <v>118</v>
       </c>
     </row>
     <row r="505" spans="1:5">
@@ -8984,16 +8984,16 @@
         <v>503</v>
       </c>
       <c r="B505" s="2">
-        <v>43932</v>
+        <v>43927</v>
       </c>
       <c r="C505" t="s">
         <v>9</v>
       </c>
       <c r="D505">
+        <v>0</v>
+      </c>
+      <c r="E505">
         <v>9</v>
-      </c>
-      <c r="E505">
-        <v>127</v>
       </c>
     </row>
     <row r="506" spans="1:5">
@@ -9001,16 +9001,16 @@
         <v>504</v>
       </c>
       <c r="B506" s="2">
-        <v>43933</v>
+        <v>43928</v>
       </c>
       <c r="C506" t="s">
         <v>9</v>
       </c>
       <c r="D506">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E506">
-        <v>139</v>
+        <v>9</v>
       </c>
     </row>
     <row r="507" spans="1:5">
@@ -9018,16 +9018,16 @@
         <v>505</v>
       </c>
       <c r="B507" s="2">
-        <v>43934</v>
+        <v>43929</v>
       </c>
       <c r="C507" t="s">
         <v>9</v>
       </c>
       <c r="D507">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E507">
-        <v>144</v>
+        <v>11</v>
       </c>
     </row>
     <row r="508" spans="1:5">
@@ -9035,16 +9035,16 @@
         <v>506</v>
       </c>
       <c r="B508" s="2">
-        <v>43935</v>
+        <v>43930</v>
       </c>
       <c r="C508" t="s">
         <v>9</v>
       </c>
       <c r="D508">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E508">
-        <v>146</v>
+        <v>14</v>
       </c>
     </row>
     <row r="509" spans="1:5">
@@ -9052,16 +9052,16 @@
         <v>507</v>
       </c>
       <c r="B509" s="2">
-        <v>43936</v>
+        <v>43931</v>
       </c>
       <c r="C509" t="s">
         <v>9</v>
       </c>
       <c r="D509">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="E509">
-        <v>173</v>
+        <v>22</v>
       </c>
     </row>
     <row r="510" spans="1:5">
@@ -9069,16 +9069,16 @@
         <v>508</v>
       </c>
       <c r="B510" s="2">
-        <v>43937</v>
+        <v>43932</v>
       </c>
       <c r="C510" t="s">
         <v>9</v>
       </c>
       <c r="D510">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E510">
-        <v>182</v>
+        <v>24</v>
       </c>
     </row>
     <row r="511" spans="1:5">
@@ -9086,16 +9086,16 @@
         <v>509</v>
       </c>
       <c r="B511" s="2">
-        <v>43938</v>
+        <v>43933</v>
       </c>
       <c r="C511" t="s">
         <v>9</v>
       </c>
       <c r="D511">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E511">
-        <v>192</v>
+        <v>25</v>
       </c>
     </row>
     <row r="512" spans="1:5">
@@ -9103,16 +9103,16 @@
         <v>510</v>
       </c>
       <c r="B512" s="2">
-        <v>43939</v>
+        <v>43934</v>
       </c>
       <c r="C512" t="s">
         <v>9</v>
       </c>
       <c r="D512">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E512">
-        <v>194</v>
+        <v>25</v>
       </c>
     </row>
     <row r="513" spans="1:5">
@@ -9120,7 +9120,7 @@
         <v>511</v>
       </c>
       <c r="B513" s="2">
-        <v>43940</v>
+        <v>43935</v>
       </c>
       <c r="C513" t="s">
         <v>9</v>
@@ -9129,7 +9129,7 @@
         <v>2</v>
       </c>
       <c r="E513">
-        <v>196</v>
+        <v>27</v>
       </c>
     </row>
     <row r="514" spans="1:5">
@@ -9137,16 +9137,16 @@
         <v>512</v>
       </c>
       <c r="B514" s="2">
-        <v>43941</v>
+        <v>43936</v>
       </c>
       <c r="C514" t="s">
         <v>9</v>
       </c>
       <c r="D514">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E514">
-        <v>201</v>
+        <v>29</v>
       </c>
     </row>
     <row r="515" spans="1:5">
@@ -9154,16 +9154,16 @@
         <v>513</v>
       </c>
       <c r="B515" s="2">
-        <v>43942</v>
+        <v>43937</v>
       </c>
       <c r="C515" t="s">
         <v>9</v>
       </c>
       <c r="D515">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E515">
-        <v>206</v>
+        <v>29</v>
       </c>
     </row>
     <row r="516" spans="1:5">
@@ -9171,16 +9171,16 @@
         <v>514</v>
       </c>
       <c r="B516" s="2">
-        <v>43943</v>
+        <v>43938</v>
       </c>
       <c r="C516" t="s">
         <v>9</v>
       </c>
       <c r="D516">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E516">
-        <v>212</v>
+        <v>33</v>
       </c>
     </row>
     <row r="517" spans="1:5">
@@ -9188,16 +9188,16 @@
         <v>515</v>
       </c>
       <c r="B517" s="2">
-        <v>43944</v>
+        <v>43939</v>
       </c>
       <c r="C517" t="s">
         <v>9</v>
       </c>
       <c r="D517">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E517">
-        <v>214</v>
+        <v>37</v>
       </c>
     </row>
     <row r="518" spans="1:5">
@@ -9205,16 +9205,16 @@
         <v>516</v>
       </c>
       <c r="B518" s="2">
-        <v>43859</v>
+        <v>43940</v>
       </c>
       <c r="C518" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D518">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E518">
-        <v>1</v>
+        <v>39</v>
       </c>
     </row>
     <row r="519" spans="1:5">
@@ -9222,16 +9222,16 @@
         <v>517</v>
       </c>
       <c r="B519" s="2">
-        <v>43860</v>
+        <v>43941</v>
       </c>
       <c r="C519" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D519">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="E519">
-        <v>1</v>
+        <v>66</v>
       </c>
     </row>
     <row r="520" spans="1:5">
@@ -9239,16 +9239,16 @@
         <v>518</v>
       </c>
       <c r="B520" s="2">
-        <v>43861</v>
+        <v>43942</v>
       </c>
       <c r="C520" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D520">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E520">
-        <v>1</v>
+        <v>68</v>
       </c>
     </row>
     <row r="521" spans="1:5">
@@ -9256,16 +9256,16 @@
         <v>519</v>
       </c>
       <c r="B521" s="2">
-        <v>43862</v>
+        <v>43943</v>
       </c>
       <c r="C521" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D521">
         <v>0</v>
       </c>
       <c r="E521">
-        <v>1</v>
+        <v>68</v>
       </c>
     </row>
     <row r="522" spans="1:5">
@@ -9273,16 +9273,16 @@
         <v>520</v>
       </c>
       <c r="B522" s="2">
-        <v>43863</v>
+        <v>43944</v>
       </c>
       <c r="C522" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D522">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E522">
-        <v>1</v>
+        <v>71</v>
       </c>
     </row>
     <row r="523" spans="1:5">
@@ -9290,16 +9290,16 @@
         <v>521</v>
       </c>
       <c r="B523" s="2">
-        <v>43864</v>
+        <v>43945</v>
       </c>
       <c r="C523" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D523">
         <v>0</v>
       </c>
       <c r="E523">
-        <v>1</v>
+        <v>71</v>
       </c>
     </row>
     <row r="524" spans="1:5">
@@ -9307,13 +9307,13 @@
         <v>522</v>
       </c>
       <c r="B524" s="2">
-        <v>43865</v>
+        <v>43859</v>
       </c>
       <c r="C524" t="s">
         <v>10</v>
       </c>
       <c r="D524">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E524">
         <v>1</v>
@@ -9324,7 +9324,7 @@
         <v>523</v>
       </c>
       <c r="B525" s="2">
-        <v>43866</v>
+        <v>43860</v>
       </c>
       <c r="C525" t="s">
         <v>10</v>
@@ -9341,7 +9341,7 @@
         <v>524</v>
       </c>
       <c r="B526" s="2">
-        <v>43867</v>
+        <v>43861</v>
       </c>
       <c r="C526" t="s">
         <v>10</v>
@@ -9358,7 +9358,7 @@
         <v>525</v>
       </c>
       <c r="B527" s="2">
-        <v>43868</v>
+        <v>43862</v>
       </c>
       <c r="C527" t="s">
         <v>10</v>
@@ -9375,7 +9375,7 @@
         <v>526</v>
       </c>
       <c r="B528" s="2">
-        <v>43869</v>
+        <v>43863</v>
       </c>
       <c r="C528" t="s">
         <v>10</v>
@@ -9392,7 +9392,7 @@
         <v>527</v>
       </c>
       <c r="B529" s="2">
-        <v>43870</v>
+        <v>43864</v>
       </c>
       <c r="C529" t="s">
         <v>10</v>
@@ -9409,7 +9409,7 @@
         <v>528</v>
       </c>
       <c r="B530" s="2">
-        <v>43871</v>
+        <v>43865</v>
       </c>
       <c r="C530" t="s">
         <v>10</v>
@@ -9426,7 +9426,7 @@
         <v>529</v>
       </c>
       <c r="B531" s="2">
-        <v>43872</v>
+        <v>43866</v>
       </c>
       <c r="C531" t="s">
         <v>10</v>
@@ -9443,7 +9443,7 @@
         <v>530</v>
       </c>
       <c r="B532" s="2">
-        <v>43873</v>
+        <v>43867</v>
       </c>
       <c r="C532" t="s">
         <v>10</v>
@@ -9460,7 +9460,7 @@
         <v>531</v>
       </c>
       <c r="B533" s="2">
-        <v>43874</v>
+        <v>43868</v>
       </c>
       <c r="C533" t="s">
         <v>10</v>
@@ -9477,7 +9477,7 @@
         <v>532</v>
       </c>
       <c r="B534" s="2">
-        <v>43875</v>
+        <v>43869</v>
       </c>
       <c r="C534" t="s">
         <v>10</v>
@@ -9494,7 +9494,7 @@
         <v>533</v>
       </c>
       <c r="B535" s="2">
-        <v>43876</v>
+        <v>43870</v>
       </c>
       <c r="C535" t="s">
         <v>10</v>
@@ -9511,7 +9511,7 @@
         <v>534</v>
       </c>
       <c r="B536" s="2">
-        <v>43877</v>
+        <v>43871</v>
       </c>
       <c r="C536" t="s">
         <v>10</v>
@@ -9528,7 +9528,7 @@
         <v>535</v>
       </c>
       <c r="B537" s="2">
-        <v>43878</v>
+        <v>43872</v>
       </c>
       <c r="C537" t="s">
         <v>10</v>
@@ -9545,7 +9545,7 @@
         <v>536</v>
       </c>
       <c r="B538" s="2">
-        <v>43879</v>
+        <v>43873</v>
       </c>
       <c r="C538" t="s">
         <v>10</v>
@@ -9562,7 +9562,7 @@
         <v>537</v>
       </c>
       <c r="B539" s="2">
-        <v>43880</v>
+        <v>43874</v>
       </c>
       <c r="C539" t="s">
         <v>10</v>
@@ -9579,7 +9579,7 @@
         <v>538</v>
       </c>
       <c r="B540" s="2">
-        <v>43881</v>
+        <v>43875</v>
       </c>
       <c r="C540" t="s">
         <v>10</v>
@@ -9596,7 +9596,7 @@
         <v>539</v>
       </c>
       <c r="B541" s="2">
-        <v>43882</v>
+        <v>43876</v>
       </c>
       <c r="C541" t="s">
         <v>10</v>
@@ -9613,7 +9613,7 @@
         <v>540</v>
       </c>
       <c r="B542" s="2">
-        <v>43883</v>
+        <v>43877</v>
       </c>
       <c r="C542" t="s">
         <v>10</v>
@@ -9630,7 +9630,7 @@
         <v>541</v>
       </c>
       <c r="B543" s="2">
-        <v>43884</v>
+        <v>43878</v>
       </c>
       <c r="C543" t="s">
         <v>10</v>
@@ -9647,7 +9647,7 @@
         <v>542</v>
       </c>
       <c r="B544" s="2">
-        <v>43885</v>
+        <v>43879</v>
       </c>
       <c r="C544" t="s">
         <v>10</v>
@@ -9664,7 +9664,7 @@
         <v>543</v>
       </c>
       <c r="B545" s="2">
-        <v>43886</v>
+        <v>43880</v>
       </c>
       <c r="C545" t="s">
         <v>10</v>
@@ -9681,7 +9681,7 @@
         <v>544</v>
       </c>
       <c r="B546" s="2">
-        <v>43887</v>
+        <v>43881</v>
       </c>
       <c r="C546" t="s">
         <v>10</v>
@@ -9698,16 +9698,16 @@
         <v>545</v>
       </c>
       <c r="B547" s="2">
-        <v>43888</v>
+        <v>43882</v>
       </c>
       <c r="C547" t="s">
         <v>10</v>
       </c>
       <c r="D547">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E547">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="548" spans="1:5">
@@ -9715,16 +9715,16 @@
         <v>546</v>
       </c>
       <c r="B548" s="2">
-        <v>43889</v>
+        <v>43883</v>
       </c>
       <c r="C548" t="s">
         <v>10</v>
       </c>
       <c r="D548">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E548">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="549" spans="1:5">
@@ -9732,7 +9732,7 @@
         <v>547</v>
       </c>
       <c r="B549" s="2">
-        <v>43890</v>
+        <v>43884</v>
       </c>
       <c r="C549" t="s">
         <v>10</v>
@@ -9741,7 +9741,7 @@
         <v>0</v>
       </c>
       <c r="E549">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="550" spans="1:5">
@@ -9749,7 +9749,7 @@
         <v>548</v>
       </c>
       <c r="B550" s="2">
-        <v>43891</v>
+        <v>43885</v>
       </c>
       <c r="C550" t="s">
         <v>10</v>
@@ -9758,7 +9758,7 @@
         <v>0</v>
       </c>
       <c r="E550">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="551" spans="1:5">
@@ -9766,16 +9766,16 @@
         <v>549</v>
       </c>
       <c r="B551" s="2">
-        <v>43892</v>
+        <v>43886</v>
       </c>
       <c r="C551" t="s">
         <v>10</v>
       </c>
       <c r="D551">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E551">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="552" spans="1:5">
@@ -9783,16 +9783,16 @@
         <v>550</v>
       </c>
       <c r="B552" s="2">
-        <v>43893</v>
+        <v>43887</v>
       </c>
       <c r="C552" t="s">
         <v>10</v>
       </c>
       <c r="D552">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E552">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="553" spans="1:5">
@@ -9800,16 +9800,16 @@
         <v>551</v>
       </c>
       <c r="B553" s="2">
-        <v>43894</v>
+        <v>43888</v>
       </c>
       <c r="C553" t="s">
         <v>10</v>
       </c>
       <c r="D553">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E553">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="554" spans="1:5">
@@ -9817,16 +9817,16 @@
         <v>552</v>
       </c>
       <c r="B554" s="2">
-        <v>43895</v>
+        <v>43889</v>
       </c>
       <c r="C554" t="s">
         <v>10</v>
       </c>
       <c r="D554">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E554">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="555" spans="1:5">
@@ -9834,16 +9834,16 @@
         <v>553</v>
       </c>
       <c r="B555" s="2">
-        <v>43896</v>
+        <v>43890</v>
       </c>
       <c r="C555" t="s">
         <v>10</v>
       </c>
       <c r="D555">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E555">
-        <v>31</v>
+        <v>4</v>
       </c>
     </row>
     <row r="556" spans="1:5">
@@ -9851,16 +9851,16 @@
         <v>554</v>
       </c>
       <c r="B556" s="2">
-        <v>43897</v>
+        <v>43891</v>
       </c>
       <c r="C556" t="s">
         <v>10</v>
       </c>
       <c r="D556">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E556">
-        <v>41</v>
+        <v>4</v>
       </c>
     </row>
     <row r="557" spans="1:5">
@@ -9868,16 +9868,16 @@
         <v>555</v>
       </c>
       <c r="B557" s="2">
-        <v>43898</v>
+        <v>43892</v>
       </c>
       <c r="C557" t="s">
         <v>10</v>
       </c>
       <c r="D557">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E557">
-        <v>55</v>
+        <v>6</v>
       </c>
     </row>
     <row r="558" spans="1:5">
@@ -9885,16 +9885,16 @@
         <v>556</v>
       </c>
       <c r="B558" s="2">
-        <v>43899</v>
+        <v>43893</v>
       </c>
       <c r="C558" t="s">
         <v>10</v>
       </c>
       <c r="D558">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E558">
-        <v>55</v>
+        <v>8</v>
       </c>
     </row>
     <row r="559" spans="1:5">
@@ -9902,16 +9902,16 @@
         <v>557</v>
       </c>
       <c r="B559" s="2">
-        <v>43900</v>
+        <v>43894</v>
       </c>
       <c r="C559" t="s">
         <v>10</v>
       </c>
       <c r="D559">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E559">
-        <v>73</v>
+        <v>17</v>
       </c>
     </row>
     <row r="560" spans="1:5">
@@ -9919,16 +9919,16 @@
         <v>558</v>
       </c>
       <c r="B560" s="2">
-        <v>43901</v>
+        <v>43895</v>
       </c>
       <c r="C560" t="s">
         <v>10</v>
       </c>
       <c r="D560">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E560">
-        <v>80</v>
+        <v>18</v>
       </c>
     </row>
     <row r="561" spans="1:5">
@@ -9936,16 +9936,16 @@
         <v>559</v>
       </c>
       <c r="B561" s="2">
-        <v>43902</v>
+        <v>43896</v>
       </c>
       <c r="C561" t="s">
         <v>10</v>
       </c>
       <c r="D561">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E561">
-        <v>89</v>
+        <v>31</v>
       </c>
     </row>
     <row r="562" spans="1:5">
@@ -9953,16 +9953,16 @@
         <v>560</v>
       </c>
       <c r="B562" s="2">
-        <v>43903</v>
+        <v>43897</v>
       </c>
       <c r="C562" t="s">
         <v>10</v>
       </c>
       <c r="D562">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E562">
-        <v>92</v>
+        <v>41</v>
       </c>
     </row>
     <row r="563" spans="1:5">
@@ -9970,16 +9970,16 @@
         <v>561</v>
       </c>
       <c r="B563" s="2">
-        <v>43904</v>
+        <v>43898</v>
       </c>
       <c r="C563" t="s">
         <v>10</v>
       </c>
       <c r="D563">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E563">
-        <v>102</v>
+        <v>55</v>
       </c>
     </row>
     <row r="564" spans="1:5">
@@ -9987,16 +9987,16 @@
         <v>562</v>
       </c>
       <c r="B564" s="2">
-        <v>43905</v>
+        <v>43899</v>
       </c>
       <c r="C564" t="s">
         <v>10</v>
       </c>
       <c r="D564">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E564">
-        <v>106</v>
+        <v>55</v>
       </c>
     </row>
     <row r="565" spans="1:5">
@@ -10004,16 +10004,16 @@
         <v>563</v>
       </c>
       <c r="B565" s="2">
-        <v>43906</v>
+        <v>43900</v>
       </c>
       <c r="C565" t="s">
         <v>10</v>
       </c>
       <c r="D565">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="E565">
-        <v>108</v>
+        <v>73</v>
       </c>
     </row>
     <row r="566" spans="1:5">
@@ -10021,16 +10021,16 @@
         <v>564</v>
       </c>
       <c r="B566" s="2">
-        <v>43907</v>
+        <v>43901</v>
       </c>
       <c r="C566" t="s">
         <v>10</v>
       </c>
       <c r="D566">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E566">
-        <v>112</v>
+        <v>80</v>
       </c>
     </row>
     <row r="567" spans="1:5">
@@ -10038,16 +10038,16 @@
         <v>565</v>
       </c>
       <c r="B567" s="2">
-        <v>43908</v>
+        <v>43902</v>
       </c>
       <c r="C567" t="s">
         <v>10</v>
       </c>
       <c r="D567">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E567">
-        <v>117</v>
+        <v>89</v>
       </c>
     </row>
     <row r="568" spans="1:5">
@@ -10055,16 +10055,16 @@
         <v>566</v>
       </c>
       <c r="B568" s="2">
-        <v>43909</v>
+        <v>43903</v>
       </c>
       <c r="C568" t="s">
         <v>10</v>
       </c>
       <c r="D568">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E568">
-        <v>119</v>
+        <v>92</v>
       </c>
     </row>
     <row r="569" spans="1:5">
@@ -10072,16 +10072,16 @@
         <v>567</v>
       </c>
       <c r="B569" s="2">
-        <v>43910</v>
+        <v>43904</v>
       </c>
       <c r="C569" t="s">
         <v>10</v>
       </c>
       <c r="D569">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E569">
-        <v>123</v>
+        <v>102</v>
       </c>
     </row>
     <row r="570" spans="1:5">
@@ -10089,16 +10089,16 @@
         <v>568</v>
       </c>
       <c r="B570" s="2">
-        <v>43911</v>
+        <v>43905</v>
       </c>
       <c r="C570" t="s">
         <v>10</v>
       </c>
       <c r="D570">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E570">
-        <v>125</v>
+        <v>106</v>
       </c>
     </row>
     <row r="571" spans="1:5">
@@ -10106,16 +10106,16 @@
         <v>569</v>
       </c>
       <c r="B571" s="2">
-        <v>43912</v>
+        <v>43906</v>
       </c>
       <c r="C571" t="s">
         <v>10</v>
       </c>
       <c r="D571">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E571">
-        <v>131</v>
+        <v>108</v>
       </c>
     </row>
     <row r="572" spans="1:5">
@@ -10123,16 +10123,16 @@
         <v>570</v>
       </c>
       <c r="B572" s="2">
-        <v>43913</v>
+        <v>43907</v>
       </c>
       <c r="C572" t="s">
         <v>10</v>
       </c>
       <c r="D572">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E572">
-        <v>134</v>
+        <v>112</v>
       </c>
     </row>
     <row r="573" spans="1:5">
@@ -10140,16 +10140,16 @@
         <v>571</v>
       </c>
       <c r="B573" s="2">
-        <v>43914</v>
+        <v>43908</v>
       </c>
       <c r="C573" t="s">
         <v>10</v>
       </c>
       <c r="D573">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E573">
-        <v>142</v>
+        <v>117</v>
       </c>
     </row>
     <row r="574" spans="1:5">
@@ -10157,16 +10157,16 @@
         <v>572</v>
       </c>
       <c r="B574" s="2">
-        <v>43915</v>
+        <v>43909</v>
       </c>
       <c r="C574" t="s">
         <v>10</v>
       </c>
       <c r="D574">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E574">
-        <v>149</v>
+        <v>119</v>
       </c>
     </row>
     <row r="575" spans="1:5">
@@ -10174,16 +10174,16 @@
         <v>573</v>
       </c>
       <c r="B575" s="2">
-        <v>43916</v>
+        <v>43910</v>
       </c>
       <c r="C575" t="s">
         <v>10</v>
       </c>
       <c r="D575">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E575">
-        <v>156</v>
+        <v>123</v>
       </c>
     </row>
     <row r="576" spans="1:5">
@@ -10191,16 +10191,16 @@
         <v>574</v>
       </c>
       <c r="B576" s="2">
-        <v>43917</v>
+        <v>43911</v>
       </c>
       <c r="C576" t="s">
         <v>10</v>
       </c>
       <c r="D576">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E576">
-        <v>176</v>
+        <v>125</v>
       </c>
     </row>
     <row r="577" spans="1:5">
@@ -10208,16 +10208,16 @@
         <v>575</v>
       </c>
       <c r="B577" s="2">
-        <v>43918</v>
+        <v>43912</v>
       </c>
       <c r="C577" t="s">
         <v>10</v>
       </c>
       <c r="D577">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E577">
-        <v>191</v>
+        <v>131</v>
       </c>
     </row>
     <row r="578" spans="1:5">
@@ -10225,16 +10225,16 @@
         <v>576</v>
       </c>
       <c r="B578" s="2">
-        <v>43919</v>
+        <v>43913</v>
       </c>
       <c r="C578" t="s">
         <v>10</v>
       </c>
       <c r="D578">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="E578">
-        <v>208</v>
+        <v>134</v>
       </c>
     </row>
     <row r="579" spans="1:5">
@@ -10242,7 +10242,7 @@
         <v>577</v>
       </c>
       <c r="B579" s="2">
-        <v>43920</v>
+        <v>43914</v>
       </c>
       <c r="C579" t="s">
         <v>10</v>
@@ -10251,7 +10251,7 @@
         <v>8</v>
       </c>
       <c r="E579">
-        <v>216</v>
+        <v>142</v>
       </c>
     </row>
     <row r="580" spans="1:5">
@@ -10259,16 +10259,16 @@
         <v>578</v>
       </c>
       <c r="B580" s="2">
-        <v>43921</v>
+        <v>43915</v>
       </c>
       <c r="C580" t="s">
         <v>10</v>
       </c>
       <c r="D580">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="E580">
-        <v>244</v>
+        <v>149</v>
       </c>
     </row>
     <row r="581" spans="1:5">
@@ -10276,16 +10276,16 @@
         <v>579</v>
       </c>
       <c r="B581" s="2">
-        <v>43922</v>
+        <v>43916</v>
       </c>
       <c r="C581" t="s">
         <v>10</v>
       </c>
       <c r="D581">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="E581">
-        <v>278</v>
+        <v>156</v>
       </c>
     </row>
     <row r="582" spans="1:5">
@@ -10293,16 +10293,16 @@
         <v>580</v>
       </c>
       <c r="B582" s="2">
-        <v>43923</v>
+        <v>43917</v>
       </c>
       <c r="C582" t="s">
         <v>10</v>
       </c>
       <c r="D582">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E582">
-        <v>311</v>
+        <v>176</v>
       </c>
     </row>
     <row r="583" spans="1:5">
@@ -10310,16 +10310,16 @@
         <v>581</v>
       </c>
       <c r="B583" s="2">
-        <v>43924</v>
+        <v>43918</v>
       </c>
       <c r="C583" t="s">
         <v>10</v>
       </c>
       <c r="D583">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="E583">
-        <v>346</v>
+        <v>191</v>
       </c>
     </row>
     <row r="584" spans="1:5">
@@ -10327,16 +10327,16 @@
         <v>582</v>
       </c>
       <c r="B584" s="2">
-        <v>43925</v>
+        <v>43919</v>
       </c>
       <c r="C584" t="s">
         <v>10</v>
       </c>
       <c r="D584">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="E584">
-        <v>387</v>
+        <v>208</v>
       </c>
     </row>
     <row r="585" spans="1:5">
@@ -10344,16 +10344,16 @@
         <v>583</v>
       </c>
       <c r="B585" s="2">
-        <v>43926</v>
+        <v>43920</v>
       </c>
       <c r="C585" t="s">
         <v>10</v>
       </c>
       <c r="D585">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E585">
-        <v>408</v>
+        <v>216</v>
       </c>
     </row>
     <row r="586" spans="1:5">
@@ -10361,16 +10361,16 @@
         <v>584</v>
       </c>
       <c r="B586" s="2">
-        <v>43927</v>
+        <v>43921</v>
       </c>
       <c r="C586" t="s">
         <v>10</v>
       </c>
       <c r="D586">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E586">
-        <v>428</v>
+        <v>244</v>
       </c>
     </row>
     <row r="587" spans="1:5">
@@ -10378,16 +10378,16 @@
         <v>585</v>
       </c>
       <c r="B587" s="2">
-        <v>43928</v>
+        <v>43922</v>
       </c>
       <c r="C587" t="s">
         <v>10</v>
       </c>
       <c r="D587">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="E587">
-        <v>481</v>
+        <v>278</v>
       </c>
     </row>
     <row r="588" spans="1:5">
@@ -10395,16 +10395,16 @@
         <v>586</v>
       </c>
       <c r="B588" s="2">
-        <v>43929</v>
+        <v>43923</v>
       </c>
       <c r="C588" t="s">
         <v>10</v>
       </c>
       <c r="D588">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="E588">
-        <v>524</v>
+        <v>311</v>
       </c>
     </row>
     <row r="589" spans="1:5">
@@ -10412,16 +10412,16 @@
         <v>587</v>
       </c>
       <c r="B589" s="2">
-        <v>43930</v>
+        <v>43924</v>
       </c>
       <c r="C589" t="s">
         <v>10</v>
       </c>
       <c r="D589">
-        <v>92</v>
+        <v>35</v>
       </c>
       <c r="E589">
-        <v>616</v>
+        <v>346</v>
       </c>
     </row>
     <row r="590" spans="1:5">
@@ -10429,16 +10429,16 @@
         <v>588</v>
       </c>
       <c r="B590" s="2">
-        <v>43931</v>
+        <v>43925</v>
       </c>
       <c r="C590" t="s">
         <v>10</v>
       </c>
       <c r="D590">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="E590">
-        <v>696</v>
+        <v>387</v>
       </c>
     </row>
     <row r="591" spans="1:5">
@@ -10446,16 +10446,16 @@
         <v>589</v>
       </c>
       <c r="B591" s="2">
-        <v>43932</v>
+        <v>43926</v>
       </c>
       <c r="C591" t="s">
         <v>10</v>
       </c>
       <c r="D591">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="E591">
-        <v>766</v>
+        <v>408</v>
       </c>
     </row>
     <row r="592" spans="1:5">
@@ -10463,16 +10463,16 @@
         <v>590</v>
       </c>
       <c r="B592" s="2">
-        <v>43933</v>
+        <v>43927</v>
       </c>
       <c r="C592" t="s">
         <v>10</v>
       </c>
       <c r="D592">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="E592">
-        <v>811</v>
+        <v>428</v>
       </c>
     </row>
     <row r="593" spans="1:5">
@@ -10480,16 +10480,16 @@
         <v>591</v>
       </c>
       <c r="B593" s="2">
-        <v>43934</v>
+        <v>43928</v>
       </c>
       <c r="C593" t="s">
         <v>10</v>
       </c>
       <c r="D593">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="E593">
-        <v>835</v>
+        <v>481</v>
       </c>
     </row>
     <row r="594" spans="1:5">
@@ -10497,16 +10497,16 @@
         <v>592</v>
       </c>
       <c r="B594" s="2">
-        <v>43935</v>
+        <v>43929</v>
       </c>
       <c r="C594" t="s">
         <v>10</v>
       </c>
       <c r="D594">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="E594">
-        <v>894</v>
+        <v>524</v>
       </c>
     </row>
     <row r="595" spans="1:5">
@@ -10514,16 +10514,16 @@
         <v>593</v>
       </c>
       <c r="B595" s="2">
-        <v>43936</v>
+        <v>43930</v>
       </c>
       <c r="C595" t="s">
         <v>10</v>
       </c>
       <c r="D595">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="E595">
-        <v>968</v>
+        <v>616</v>
       </c>
     </row>
     <row r="596" spans="1:5">
@@ -10531,16 +10531,16 @@
         <v>594</v>
       </c>
       <c r="B596" s="2">
-        <v>43937</v>
+        <v>43931</v>
       </c>
       <c r="C596" t="s">
         <v>10</v>
       </c>
       <c r="D596">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="E596">
-        <v>1020</v>
+        <v>696</v>
       </c>
     </row>
     <row r="597" spans="1:5">
@@ -10548,16 +10548,16 @@
         <v>595</v>
       </c>
       <c r="B597" s="2">
-        <v>43938</v>
+        <v>43932</v>
       </c>
       <c r="C597" t="s">
         <v>10</v>
       </c>
       <c r="D597">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="E597">
-        <v>1075</v>
+        <v>766</v>
       </c>
     </row>
     <row r="598" spans="1:5">
@@ -10565,16 +10565,16 @@
         <v>596</v>
       </c>
       <c r="B598" s="2">
-        <v>43939</v>
+        <v>43933</v>
       </c>
       <c r="C598" t="s">
         <v>10</v>
       </c>
       <c r="D598">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="E598">
-        <v>1163</v>
+        <v>811</v>
       </c>
     </row>
     <row r="599" spans="1:5">
@@ -10582,16 +10582,16 @@
         <v>597</v>
       </c>
       <c r="B599" s="2">
-        <v>43940</v>
+        <v>43934</v>
       </c>
       <c r="C599" t="s">
         <v>10</v>
       </c>
       <c r="D599">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="E599">
-        <v>1211</v>
+        <v>835</v>
       </c>
     </row>
     <row r="600" spans="1:5">
@@ -10599,16 +10599,16 @@
         <v>598</v>
       </c>
       <c r="B600" s="2">
-        <v>43941</v>
+        <v>43935</v>
       </c>
       <c r="C600" t="s">
         <v>10</v>
       </c>
       <c r="D600">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="E600">
-        <v>1295</v>
+        <v>894</v>
       </c>
     </row>
     <row r="601" spans="1:5">
@@ -10616,16 +10616,16 @@
         <v>599</v>
       </c>
       <c r="B601" s="2">
-        <v>43942</v>
+        <v>43936</v>
       </c>
       <c r="C601" t="s">
         <v>10</v>
       </c>
       <c r="D601">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="E601">
-        <v>1349</v>
+        <v>968</v>
       </c>
     </row>
     <row r="602" spans="1:5">
@@ -10633,16 +10633,16 @@
         <v>600</v>
       </c>
       <c r="B602" s="2">
-        <v>43943</v>
+        <v>43937</v>
       </c>
       <c r="C602" t="s">
         <v>10</v>
       </c>
       <c r="D602">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="E602">
-        <v>1380</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="603" spans="1:5">
@@ -10650,16 +10650,135 @@
         <v>601</v>
       </c>
       <c r="B603" s="2">
-        <v>43944</v>
+        <v>43938</v>
       </c>
       <c r="C603" t="s">
         <v>10</v>
       </c>
       <c r="D603">
+        <v>55</v>
+      </c>
+      <c r="E603">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="604" spans="1:5">
+      <c r="A604" s="1">
+        <v>602</v>
+      </c>
+      <c r="B604" s="2">
+        <v>43939</v>
+      </c>
+      <c r="C604" t="s">
+        <v>10</v>
+      </c>
+      <c r="D604">
+        <v>88</v>
+      </c>
+      <c r="E604">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="605" spans="1:5">
+      <c r="A605" s="1">
+        <v>603</v>
+      </c>
+      <c r="B605" s="2">
+        <v>43940</v>
+      </c>
+      <c r="C605" t="s">
+        <v>10</v>
+      </c>
+      <c r="D605">
+        <v>48</v>
+      </c>
+      <c r="E605">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="606" spans="1:5">
+      <c r="A606" s="1">
+        <v>604</v>
+      </c>
+      <c r="B606" s="2">
+        <v>43941</v>
+      </c>
+      <c r="C606" t="s">
+        <v>10</v>
+      </c>
+      <c r="D606">
+        <v>84</v>
+      </c>
+      <c r="E606">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="607" spans="1:5">
+      <c r="A607" s="1">
+        <v>605</v>
+      </c>
+      <c r="B607" s="2">
+        <v>43942</v>
+      </c>
+      <c r="C607" t="s">
+        <v>10</v>
+      </c>
+      <c r="D607">
+        <v>54</v>
+      </c>
+      <c r="E607">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="608" spans="1:5">
+      <c r="A608" s="1">
+        <v>606</v>
+      </c>
+      <c r="B608" s="2">
+        <v>43943</v>
+      </c>
+      <c r="C608" t="s">
+        <v>10</v>
+      </c>
+      <c r="D608">
+        <v>31</v>
+      </c>
+      <c r="E608">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="609" spans="1:5">
+      <c r="A609" s="1">
+        <v>607</v>
+      </c>
+      <c r="B609" s="2">
+        <v>43944</v>
+      </c>
+      <c r="C609" t="s">
+        <v>10</v>
+      </c>
+      <c r="D609">
         <v>35</v>
       </c>
-      <c r="E603">
+      <c r="E609">
         <v>1415</v>
+      </c>
+    </row>
+    <row r="610" spans="1:5">
+      <c r="A610" s="1">
+        <v>608</v>
+      </c>
+      <c r="B610" s="2">
+        <v>43945</v>
+      </c>
+      <c r="C610" t="s">
+        <v>10</v>
+      </c>
+      <c r="D610">
+        <v>31</v>
+      </c>
+      <c r="E610">
+        <v>1446</v>
       </c>
     </row>
   </sheetData>

--- a/Covid19_Osaka_AreaNumData.xlsx
+++ b/Covid19_Osaka_AreaNumData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="11">
   <si>
     <t>日付</t>
   </si>
@@ -28,22 +28,22 @@
     <t>累計</t>
   </si>
   <si>
-    <t>大阪市</t>
+    <t>その他</t>
   </si>
   <si>
     <t>東部大阪</t>
   </si>
   <si>
-    <t>北大阪</t>
+    <t>大阪市</t>
+  </si>
+  <si>
+    <t>南河内</t>
   </si>
   <si>
     <t>泉州</t>
   </si>
   <si>
-    <t>その他</t>
-  </si>
-  <si>
-    <t>南河内</t>
+    <t>北大阪</t>
   </si>
   <si>
     <t>全域</t>
@@ -408,7 +408,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E617"/>
+  <dimension ref="A1:E624"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -439,10 +439,10 @@
         <v>4</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -459,7 +459,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -476,7 +476,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -493,7 +493,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -510,7 +510,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -527,7 +527,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -544,7 +544,7 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -561,7 +561,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -578,7 +578,7 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -612,7 +612,7 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -629,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -646,7 +646,7 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -697,7 +697,7 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -714,7 +714,7 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -731,7 +731,7 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -748,7 +748,7 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -765,7 +765,7 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -782,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -799,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -816,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -850,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -884,7 +884,7 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -901,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -932,10 +932,10 @@
         <v>4</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -949,10 +949,10 @@
         <v>4</v>
       </c>
       <c r="D32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E32">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -969,7 +969,7 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -986,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1000,10 +1000,10 @@
         <v>4</v>
       </c>
       <c r="D35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E35">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1017,10 +1017,10 @@
         <v>4</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1034,10 +1034,10 @@
         <v>4</v>
       </c>
       <c r="D37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E37">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1068,10 +1068,10 @@
         <v>4</v>
       </c>
       <c r="D39">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E39">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1102,10 +1102,10 @@
         <v>4</v>
       </c>
       <c r="D41">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E41">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1136,10 +1136,10 @@
         <v>4</v>
       </c>
       <c r="D43">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E43">
-        <v>35</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1153,10 +1153,10 @@
         <v>4</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E44">
-        <v>36</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1170,10 +1170,10 @@
         <v>4</v>
       </c>
       <c r="D45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E45">
-        <v>39</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="E46">
-        <v>39</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1204,10 +1204,10 @@
         <v>4</v>
       </c>
       <c r="D47">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E47">
-        <v>42</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1221,10 +1221,10 @@
         <v>4</v>
       </c>
       <c r="D48">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E48">
-        <v>45</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1241,7 +1241,7 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <v>45</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1255,10 +1255,10 @@
         <v>4</v>
       </c>
       <c r="D50">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E50">
-        <v>48</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="E51">
-        <v>48</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1289,10 +1289,10 @@
         <v>4</v>
       </c>
       <c r="D52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E52">
-        <v>49</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1306,10 +1306,10 @@
         <v>4</v>
       </c>
       <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
         <v>2</v>
-      </c>
-      <c r="E53">
-        <v>51</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>51</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1340,10 +1340,10 @@
         <v>4</v>
       </c>
       <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
         <v>2</v>
-      </c>
-      <c r="E55">
-        <v>53</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1357,10 +1357,10 @@
         <v>4</v>
       </c>
       <c r="D56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E56">
-        <v>54</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1374,10 +1374,10 @@
         <v>4</v>
       </c>
       <c r="D57">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E57">
-        <v>57</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1394,7 +1394,7 @@
         <v>1</v>
       </c>
       <c r="E58">
-        <v>58</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1408,10 +1408,10 @@
         <v>4</v>
       </c>
       <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
         <v>3</v>
-      </c>
-      <c r="E59">
-        <v>61</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1425,10 +1425,10 @@
         <v>4</v>
       </c>
       <c r="D60">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E60">
-        <v>73</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1442,10 +1442,10 @@
         <v>4</v>
       </c>
       <c r="D61">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E61">
-        <v>81</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1459,10 +1459,10 @@
         <v>4</v>
       </c>
       <c r="D62">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E62">
-        <v>86</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1476,10 +1476,10 @@
         <v>4</v>
       </c>
       <c r="D63">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E63">
-        <v>90</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1493,10 +1493,10 @@
         <v>4</v>
       </c>
       <c r="D64">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E64">
-        <v>103</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1510,10 +1510,10 @@
         <v>4</v>
       </c>
       <c r="D65">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="E65">
-        <v>128</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1527,10 +1527,10 @@
         <v>4</v>
       </c>
       <c r="D66">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E66">
-        <v>142</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1544,10 +1544,10 @@
         <v>4</v>
       </c>
       <c r="D67">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="E67">
-        <v>161</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1561,10 +1561,10 @@
         <v>4</v>
       </c>
       <c r="D68">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="E68">
-        <v>182</v>
+        <v>8</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1578,10 +1578,10 @@
         <v>4</v>
       </c>
       <c r="D69">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E69">
-        <v>194</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1595,10 +1595,10 @@
         <v>4</v>
       </c>
       <c r="D70">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E70">
-        <v>199</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1612,10 +1612,10 @@
         <v>4</v>
       </c>
       <c r="D71">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E71">
-        <v>223</v>
+        <v>8</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1629,10 +1629,10 @@
         <v>4</v>
       </c>
       <c r="D72">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E72">
-        <v>248</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1646,10 +1646,10 @@
         <v>4</v>
       </c>
       <c r="D73">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="E73">
-        <v>283</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1663,10 +1663,10 @@
         <v>4</v>
       </c>
       <c r="D74">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="E74">
-        <v>319</v>
+        <v>13</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1680,10 +1680,10 @@
         <v>4</v>
       </c>
       <c r="D75">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="E75">
-        <v>352</v>
+        <v>14</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1697,10 +1697,10 @@
         <v>4</v>
       </c>
       <c r="D76">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="E76">
-        <v>377</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1714,10 +1714,10 @@
         <v>4</v>
       </c>
       <c r="D77">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E77">
-        <v>386</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1731,10 +1731,10 @@
         <v>4</v>
       </c>
       <c r="D78">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="E78">
-        <v>422</v>
+        <v>17</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1748,10 +1748,10 @@
         <v>4</v>
       </c>
       <c r="D79">
+        <v>3</v>
+      </c>
+      <c r="E79">
         <v>20</v>
-      </c>
-      <c r="E79">
-        <v>442</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1765,10 +1765,10 @@
         <v>4</v>
       </c>
       <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="E80">
         <v>21</v>
-      </c>
-      <c r="E80">
-        <v>463</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1782,10 +1782,10 @@
         <v>4</v>
       </c>
       <c r="D81">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="E81">
-        <v>490</v>
+        <v>23</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -1799,10 +1799,10 @@
         <v>4</v>
       </c>
       <c r="D82">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="E82">
-        <v>514</v>
+        <v>66</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -1816,10 +1816,10 @@
         <v>4</v>
       </c>
       <c r="D83">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="E83">
-        <v>536</v>
+        <v>75</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1833,10 +1833,10 @@
         <v>4</v>
       </c>
       <c r="D84">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="E84">
-        <v>540</v>
+        <v>117</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -1850,10 +1850,10 @@
         <v>4</v>
       </c>
       <c r="D85">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E85">
-        <v>551</v>
+        <v>141</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -1867,10 +1867,10 @@
         <v>4</v>
       </c>
       <c r="D86">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="E86">
-        <v>569</v>
+        <v>143</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -1884,10 +1884,10 @@
         <v>4</v>
       </c>
       <c r="D87">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E87">
-        <v>583</v>
+        <v>149</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -1901,10 +1901,10 @@
         <v>4</v>
       </c>
       <c r="D88">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="E88">
-        <v>600</v>
+        <v>152</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -1918,10 +1918,10 @@
         <v>4</v>
       </c>
       <c r="D89">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="E89">
-        <v>617</v>
+        <v>152</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -1929,16 +1929,16 @@
         <v>88</v>
       </c>
       <c r="B90" s="2">
-        <v>43859</v>
+        <v>43947</v>
       </c>
       <c r="C90" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D90">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>158</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -1946,7 +1946,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="2">
-        <v>43860</v>
+        <v>43859</v>
       </c>
       <c r="C91" t="s">
         <v>5</v>
@@ -1963,7 +1963,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="2">
-        <v>43861</v>
+        <v>43860</v>
       </c>
       <c r="C92" t="s">
         <v>5</v>
@@ -1980,7 +1980,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="2">
-        <v>43862</v>
+        <v>43861</v>
       </c>
       <c r="C93" t="s">
         <v>5</v>
@@ -1997,7 +1997,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="2">
-        <v>43863</v>
+        <v>43862</v>
       </c>
       <c r="C94" t="s">
         <v>5</v>
@@ -2014,7 +2014,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="2">
-        <v>43864</v>
+        <v>43863</v>
       </c>
       <c r="C95" t="s">
         <v>5</v>
@@ -2031,7 +2031,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="2">
-        <v>43865</v>
+        <v>43864</v>
       </c>
       <c r="C96" t="s">
         <v>5</v>
@@ -2048,7 +2048,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="2">
-        <v>43866</v>
+        <v>43865</v>
       </c>
       <c r="C97" t="s">
         <v>5</v>
@@ -2065,7 +2065,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="2">
-        <v>43867</v>
+        <v>43866</v>
       </c>
       <c r="C98" t="s">
         <v>5</v>
@@ -2082,7 +2082,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="2">
-        <v>43868</v>
+        <v>43867</v>
       </c>
       <c r="C99" t="s">
         <v>5</v>
@@ -2099,7 +2099,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="2">
-        <v>43869</v>
+        <v>43868</v>
       </c>
       <c r="C100" t="s">
         <v>5</v>
@@ -2116,7 +2116,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="2">
-        <v>43870</v>
+        <v>43869</v>
       </c>
       <c r="C101" t="s">
         <v>5</v>
@@ -2133,7 +2133,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="2">
-        <v>43871</v>
+        <v>43870</v>
       </c>
       <c r="C102" t="s">
         <v>5</v>
@@ -2150,7 +2150,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="2">
-        <v>43872</v>
+        <v>43871</v>
       </c>
       <c r="C103" t="s">
         <v>5</v>
@@ -2167,7 +2167,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="2">
-        <v>43873</v>
+        <v>43872</v>
       </c>
       <c r="C104" t="s">
         <v>5</v>
@@ -2184,7 +2184,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="2">
-        <v>43874</v>
+        <v>43873</v>
       </c>
       <c r="C105" t="s">
         <v>5</v>
@@ -2201,7 +2201,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="2">
-        <v>43875</v>
+        <v>43874</v>
       </c>
       <c r="C106" t="s">
         <v>5</v>
@@ -2218,7 +2218,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="2">
-        <v>43876</v>
+        <v>43875</v>
       </c>
       <c r="C107" t="s">
         <v>5</v>
@@ -2235,7 +2235,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="2">
-        <v>43877</v>
+        <v>43876</v>
       </c>
       <c r="C108" t="s">
         <v>5</v>
@@ -2252,7 +2252,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="2">
-        <v>43878</v>
+        <v>43877</v>
       </c>
       <c r="C109" t="s">
         <v>5</v>
@@ -2269,7 +2269,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="2">
-        <v>43879</v>
+        <v>43878</v>
       </c>
       <c r="C110" t="s">
         <v>5</v>
@@ -2286,7 +2286,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="2">
-        <v>43880</v>
+        <v>43879</v>
       </c>
       <c r="C111" t="s">
         <v>5</v>
@@ -2303,7 +2303,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="2">
-        <v>43881</v>
+        <v>43880</v>
       </c>
       <c r="C112" t="s">
         <v>5</v>
@@ -2320,7 +2320,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="2">
-        <v>43882</v>
+        <v>43881</v>
       </c>
       <c r="C113" t="s">
         <v>5</v>
@@ -2337,7 +2337,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="2">
-        <v>43883</v>
+        <v>43882</v>
       </c>
       <c r="C114" t="s">
         <v>5</v>
@@ -2354,7 +2354,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="2">
-        <v>43884</v>
+        <v>43883</v>
       </c>
       <c r="C115" t="s">
         <v>5</v>
@@ -2371,7 +2371,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="2">
-        <v>43885</v>
+        <v>43884</v>
       </c>
       <c r="C116" t="s">
         <v>5</v>
@@ -2388,7 +2388,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="2">
-        <v>43886</v>
+        <v>43885</v>
       </c>
       <c r="C117" t="s">
         <v>5</v>
@@ -2405,7 +2405,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="2">
-        <v>43887</v>
+        <v>43886</v>
       </c>
       <c r="C118" t="s">
         <v>5</v>
@@ -2422,7 +2422,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="2">
-        <v>43888</v>
+        <v>43887</v>
       </c>
       <c r="C119" t="s">
         <v>5</v>
@@ -2439,7 +2439,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="2">
-        <v>43889</v>
+        <v>43888</v>
       </c>
       <c r="C120" t="s">
         <v>5</v>
@@ -2456,7 +2456,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="2">
-        <v>43890</v>
+        <v>43889</v>
       </c>
       <c r="C121" t="s">
         <v>5</v>
@@ -2473,7 +2473,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="2">
-        <v>43891</v>
+        <v>43890</v>
       </c>
       <c r="C122" t="s">
         <v>5</v>
@@ -2490,7 +2490,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="2">
-        <v>43892</v>
+        <v>43891</v>
       </c>
       <c r="C123" t="s">
         <v>5</v>
@@ -2507,16 +2507,16 @@
         <v>122</v>
       </c>
       <c r="B124" s="2">
-        <v>43893</v>
+        <v>43892</v>
       </c>
       <c r="C124" t="s">
         <v>5</v>
       </c>
       <c r="D124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2524,16 +2524,16 @@
         <v>123</v>
       </c>
       <c r="B125" s="2">
-        <v>43894</v>
+        <v>43893</v>
       </c>
       <c r="C125" t="s">
         <v>5</v>
       </c>
       <c r="D125">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E125">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -2541,16 +2541,16 @@
         <v>124</v>
       </c>
       <c r="B126" s="2">
-        <v>43895</v>
+        <v>43894</v>
       </c>
       <c r="C126" t="s">
         <v>5</v>
       </c>
       <c r="D126">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E126">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -2558,13 +2558,13 @@
         <v>125</v>
       </c>
       <c r="B127" s="2">
-        <v>43896</v>
+        <v>43895</v>
       </c>
       <c r="C127" t="s">
         <v>5</v>
       </c>
       <c r="D127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E127">
         <v>6</v>
@@ -2575,16 +2575,16 @@
         <v>126</v>
       </c>
       <c r="B128" s="2">
-        <v>43897</v>
+        <v>43896</v>
       </c>
       <c r="C128" t="s">
         <v>5</v>
       </c>
       <c r="D128">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E128">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -2592,16 +2592,16 @@
         <v>127</v>
       </c>
       <c r="B129" s="2">
-        <v>43898</v>
+        <v>43897</v>
       </c>
       <c r="C129" t="s">
         <v>5</v>
       </c>
       <c r="D129">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E129">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -2609,13 +2609,13 @@
         <v>128</v>
       </c>
       <c r="B130" s="2">
-        <v>43899</v>
+        <v>43898</v>
       </c>
       <c r="C130" t="s">
         <v>5</v>
       </c>
       <c r="D130">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E130">
         <v>12</v>
@@ -2626,16 +2626,16 @@
         <v>129</v>
       </c>
       <c r="B131" s="2">
-        <v>43900</v>
+        <v>43899</v>
       </c>
       <c r="C131" t="s">
         <v>5</v>
       </c>
       <c r="D131">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E131">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -2643,13 +2643,13 @@
         <v>130</v>
       </c>
       <c r="B132" s="2">
-        <v>43901</v>
+        <v>43900</v>
       </c>
       <c r="C132" t="s">
         <v>5</v>
       </c>
       <c r="D132">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E132">
         <v>16</v>
@@ -2660,16 +2660,16 @@
         <v>131</v>
       </c>
       <c r="B133" s="2">
-        <v>43902</v>
+        <v>43901</v>
       </c>
       <c r="C133" t="s">
         <v>5</v>
       </c>
       <c r="D133">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E133">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -2677,13 +2677,13 @@
         <v>132</v>
       </c>
       <c r="B134" s="2">
-        <v>43903</v>
+        <v>43902</v>
       </c>
       <c r="C134" t="s">
         <v>5</v>
       </c>
       <c r="D134">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E134">
         <v>18</v>
@@ -2694,16 +2694,16 @@
         <v>133</v>
       </c>
       <c r="B135" s="2">
-        <v>43904</v>
+        <v>43903</v>
       </c>
       <c r="C135" t="s">
         <v>5</v>
       </c>
       <c r="D135">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E135">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -2711,13 +2711,13 @@
         <v>134</v>
       </c>
       <c r="B136" s="2">
-        <v>43905</v>
+        <v>43904</v>
       </c>
       <c r="C136" t="s">
         <v>5</v>
       </c>
       <c r="D136">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E136">
         <v>21</v>
@@ -2728,16 +2728,16 @@
         <v>135</v>
       </c>
       <c r="B137" s="2">
-        <v>43906</v>
+        <v>43905</v>
       </c>
       <c r="C137" t="s">
         <v>5</v>
       </c>
       <c r="D137">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E137">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -2745,13 +2745,13 @@
         <v>136</v>
       </c>
       <c r="B138" s="2">
-        <v>43907</v>
+        <v>43906</v>
       </c>
       <c r="C138" t="s">
         <v>5</v>
       </c>
       <c r="D138">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E138">
         <v>23</v>
@@ -2762,7 +2762,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="2">
-        <v>43908</v>
+        <v>43907</v>
       </c>
       <c r="C139" t="s">
         <v>5</v>
@@ -2779,7 +2779,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="2">
-        <v>43909</v>
+        <v>43908</v>
       </c>
       <c r="C140" t="s">
         <v>5</v>
@@ -2796,7 +2796,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="2">
-        <v>43910</v>
+        <v>43909</v>
       </c>
       <c r="C141" t="s">
         <v>5</v>
@@ -2813,7 +2813,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="2">
-        <v>43911</v>
+        <v>43910</v>
       </c>
       <c r="C142" t="s">
         <v>5</v>
@@ -2830,16 +2830,16 @@
         <v>141</v>
       </c>
       <c r="B143" s="2">
-        <v>43912</v>
+        <v>43911</v>
       </c>
       <c r="C143" t="s">
         <v>5</v>
       </c>
       <c r="D143">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E143">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -2847,13 +2847,13 @@
         <v>142</v>
       </c>
       <c r="B144" s="2">
-        <v>43913</v>
+        <v>43912</v>
       </c>
       <c r="C144" t="s">
         <v>5</v>
       </c>
       <c r="D144">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E144">
         <v>27</v>
@@ -2864,16 +2864,16 @@
         <v>143</v>
       </c>
       <c r="B145" s="2">
-        <v>43914</v>
+        <v>43913</v>
       </c>
       <c r="C145" t="s">
         <v>5</v>
       </c>
       <c r="D145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E145">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -2881,7 +2881,7 @@
         <v>144</v>
       </c>
       <c r="B146" s="2">
-        <v>43915</v>
+        <v>43914</v>
       </c>
       <c r="C146" t="s">
         <v>5</v>
@@ -2890,7 +2890,7 @@
         <v>1</v>
       </c>
       <c r="E146">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -2898,7 +2898,7 @@
         <v>145</v>
       </c>
       <c r="B147" s="2">
-        <v>43916</v>
+        <v>43915</v>
       </c>
       <c r="C147" t="s">
         <v>5</v>
@@ -2907,7 +2907,7 @@
         <v>1</v>
       </c>
       <c r="E147">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -2915,7 +2915,7 @@
         <v>146</v>
       </c>
       <c r="B148" s="2">
-        <v>43917</v>
+        <v>43916</v>
       </c>
       <c r="C148" t="s">
         <v>5</v>
@@ -2924,7 +2924,7 @@
         <v>1</v>
       </c>
       <c r="E148">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -2932,16 +2932,16 @@
         <v>147</v>
       </c>
       <c r="B149" s="2">
-        <v>43918</v>
+        <v>43917</v>
       </c>
       <c r="C149" t="s">
         <v>5</v>
       </c>
       <c r="D149">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E149">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -2949,16 +2949,16 @@
         <v>148</v>
       </c>
       <c r="B150" s="2">
-        <v>43919</v>
+        <v>43918</v>
       </c>
       <c r="C150" t="s">
         <v>5</v>
       </c>
       <c r="D150">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E150">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -2966,16 +2966,16 @@
         <v>149</v>
       </c>
       <c r="B151" s="2">
-        <v>43920</v>
+        <v>43919</v>
       </c>
       <c r="C151" t="s">
         <v>5</v>
       </c>
       <c r="D151">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E151">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -2983,16 +2983,16 @@
         <v>150</v>
       </c>
       <c r="B152" s="2">
-        <v>43921</v>
+        <v>43920</v>
       </c>
       <c r="C152" t="s">
         <v>5</v>
       </c>
       <c r="D152">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E152">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -3000,16 +3000,16 @@
         <v>151</v>
       </c>
       <c r="B153" s="2">
-        <v>43922</v>
+        <v>43921</v>
       </c>
       <c r="C153" t="s">
         <v>5</v>
       </c>
       <c r="D153">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E153">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -3017,16 +3017,16 @@
         <v>152</v>
       </c>
       <c r="B154" s="2">
-        <v>43923</v>
+        <v>43922</v>
       </c>
       <c r="C154" t="s">
         <v>5</v>
       </c>
       <c r="D154">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E154">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3034,16 +3034,16 @@
         <v>153</v>
       </c>
       <c r="B155" s="2">
-        <v>43924</v>
+        <v>43923</v>
       </c>
       <c r="C155" t="s">
         <v>5</v>
       </c>
       <c r="D155">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E155">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3051,16 +3051,16 @@
         <v>154</v>
       </c>
       <c r="B156" s="2">
-        <v>43925</v>
+        <v>43924</v>
       </c>
       <c r="C156" t="s">
         <v>5</v>
       </c>
       <c r="D156">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E156">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3068,16 +3068,16 @@
         <v>155</v>
       </c>
       <c r="B157" s="2">
-        <v>43926</v>
+        <v>43925</v>
       </c>
       <c r="C157" t="s">
         <v>5</v>
       </c>
       <c r="D157">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E157">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3085,16 +3085,16 @@
         <v>156</v>
       </c>
       <c r="B158" s="2">
-        <v>43927</v>
+        <v>43926</v>
       </c>
       <c r="C158" t="s">
         <v>5</v>
       </c>
       <c r="D158">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E158">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3102,16 +3102,16 @@
         <v>157</v>
       </c>
       <c r="B159" s="2">
-        <v>43928</v>
+        <v>43927</v>
       </c>
       <c r="C159" t="s">
         <v>5</v>
       </c>
       <c r="D159">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E159">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3119,16 +3119,16 @@
         <v>158</v>
       </c>
       <c r="B160" s="2">
-        <v>43929</v>
+        <v>43928</v>
       </c>
       <c r="C160" t="s">
         <v>5</v>
       </c>
       <c r="D160">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E160">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3136,16 +3136,16 @@
         <v>159</v>
       </c>
       <c r="B161" s="2">
-        <v>43930</v>
+        <v>43929</v>
       </c>
       <c r="C161" t="s">
         <v>5</v>
       </c>
       <c r="D161">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="E161">
-        <v>112</v>
+        <v>95</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3153,16 +3153,16 @@
         <v>160</v>
       </c>
       <c r="B162" s="2">
-        <v>43931</v>
+        <v>43930</v>
       </c>
       <c r="C162" t="s">
         <v>5</v>
       </c>
       <c r="D162">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E162">
-        <v>127</v>
+        <v>112</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -3170,16 +3170,16 @@
         <v>161</v>
       </c>
       <c r="B163" s="2">
-        <v>43932</v>
+        <v>43931</v>
       </c>
       <c r="C163" t="s">
         <v>5</v>
       </c>
       <c r="D163">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E163">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3187,16 +3187,16 @@
         <v>162</v>
       </c>
       <c r="B164" s="2">
-        <v>43933</v>
+        <v>43932</v>
       </c>
       <c r="C164" t="s">
         <v>5</v>
       </c>
       <c r="D164">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E164">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -3204,16 +3204,16 @@
         <v>163</v>
       </c>
       <c r="B165" s="2">
-        <v>43934</v>
+        <v>43933</v>
       </c>
       <c r="C165" t="s">
         <v>5</v>
       </c>
       <c r="D165">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E165">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -3221,16 +3221,16 @@
         <v>164</v>
       </c>
       <c r="B166" s="2">
-        <v>43935</v>
+        <v>43934</v>
       </c>
       <c r="C166" t="s">
         <v>5</v>
       </c>
       <c r="D166">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E166">
-        <v>155</v>
+        <v>144</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -3238,16 +3238,16 @@
         <v>165</v>
       </c>
       <c r="B167" s="2">
-        <v>43936</v>
+        <v>43935</v>
       </c>
       <c r="C167" t="s">
         <v>5</v>
       </c>
       <c r="D167">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E167">
-        <v>168</v>
+        <v>155</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -3255,16 +3255,16 @@
         <v>166</v>
       </c>
       <c r="B168" s="2">
-        <v>43937</v>
+        <v>43936</v>
       </c>
       <c r="C168" t="s">
         <v>5</v>
       </c>
       <c r="D168">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E168">
-        <v>179</v>
+        <v>168</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -3272,16 +3272,16 @@
         <v>167</v>
       </c>
       <c r="B169" s="2">
-        <v>43938</v>
+        <v>43937</v>
       </c>
       <c r="C169" t="s">
         <v>5</v>
       </c>
       <c r="D169">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E169">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -3289,16 +3289,16 @@
         <v>168</v>
       </c>
       <c r="B170" s="2">
-        <v>43939</v>
+        <v>43938</v>
       </c>
       <c r="C170" t="s">
         <v>5</v>
       </c>
       <c r="D170">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E170">
-        <v>195</v>
+        <v>184</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -3306,16 +3306,16 @@
         <v>169</v>
       </c>
       <c r="B171" s="2">
-        <v>43940</v>
+        <v>43939</v>
       </c>
       <c r="C171" t="s">
         <v>5</v>
       </c>
       <c r="D171">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E171">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -3323,16 +3323,16 @@
         <v>170</v>
       </c>
       <c r="B172" s="2">
-        <v>43941</v>
+        <v>43940</v>
       </c>
       <c r="C172" t="s">
         <v>5</v>
       </c>
       <c r="D172">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E172">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -3340,16 +3340,16 @@
         <v>171</v>
       </c>
       <c r="B173" s="2">
-        <v>43942</v>
+        <v>43941</v>
       </c>
       <c r="C173" t="s">
         <v>5</v>
       </c>
       <c r="D173">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E173">
-        <v>213</v>
+        <v>202</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -3357,16 +3357,16 @@
         <v>172</v>
       </c>
       <c r="B174" s="2">
-        <v>43943</v>
+        <v>43942</v>
       </c>
       <c r="C174" t="s">
         <v>5</v>
       </c>
       <c r="D174">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E174">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -3374,16 +3374,16 @@
         <v>173</v>
       </c>
       <c r="B175" s="2">
-        <v>43944</v>
+        <v>43943</v>
       </c>
       <c r="C175" t="s">
         <v>5</v>
       </c>
       <c r="D175">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E175">
-        <v>224</v>
+        <v>216</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -3391,16 +3391,16 @@
         <v>174</v>
       </c>
       <c r="B176" s="2">
-        <v>43945</v>
+        <v>43944</v>
       </c>
       <c r="C176" t="s">
         <v>5</v>
       </c>
       <c r="D176">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E176">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -3408,16 +3408,16 @@
         <v>175</v>
       </c>
       <c r="B177" s="2">
-        <v>43946</v>
+        <v>43945</v>
       </c>
       <c r="C177" t="s">
         <v>5</v>
       </c>
       <c r="D177">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E177">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -3425,16 +3425,16 @@
         <v>176</v>
       </c>
       <c r="B178" s="2">
-        <v>43859</v>
+        <v>43946</v>
       </c>
       <c r="C178" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D178">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E178">
-        <v>0</v>
+        <v>237</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -3442,16 +3442,16 @@
         <v>177</v>
       </c>
       <c r="B179" s="2">
-        <v>43860</v>
+        <v>43947</v>
       </c>
       <c r="C179" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D179">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E179">
-        <v>0</v>
+        <v>241</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -3459,16 +3459,16 @@
         <v>178</v>
       </c>
       <c r="B180" s="2">
-        <v>43861</v>
+        <v>43859</v>
       </c>
       <c r="C180" t="s">
         <v>6</v>
       </c>
       <c r="D180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -3476,7 +3476,7 @@
         <v>179</v>
       </c>
       <c r="B181" s="2">
-        <v>43862</v>
+        <v>43860</v>
       </c>
       <c r="C181" t="s">
         <v>6</v>
@@ -3485,7 +3485,7 @@
         <v>0</v>
       </c>
       <c r="E181">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -3493,7 +3493,7 @@
         <v>180</v>
       </c>
       <c r="B182" s="2">
-        <v>43863</v>
+        <v>43861</v>
       </c>
       <c r="C182" t="s">
         <v>6</v>
@@ -3502,7 +3502,7 @@
         <v>0</v>
       </c>
       <c r="E182">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -3510,7 +3510,7 @@
         <v>181</v>
       </c>
       <c r="B183" s="2">
-        <v>43864</v>
+        <v>43862</v>
       </c>
       <c r="C183" t="s">
         <v>6</v>
@@ -3519,7 +3519,7 @@
         <v>0</v>
       </c>
       <c r="E183">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -3527,7 +3527,7 @@
         <v>182</v>
       </c>
       <c r="B184" s="2">
-        <v>43865</v>
+        <v>43863</v>
       </c>
       <c r="C184" t="s">
         <v>6</v>
@@ -3536,7 +3536,7 @@
         <v>0</v>
       </c>
       <c r="E184">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -3544,7 +3544,7 @@
         <v>183</v>
       </c>
       <c r="B185" s="2">
-        <v>43866</v>
+        <v>43864</v>
       </c>
       <c r="C185" t="s">
         <v>6</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="E185">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -3561,7 +3561,7 @@
         <v>184</v>
       </c>
       <c r="B186" s="2">
-        <v>43867</v>
+        <v>43865</v>
       </c>
       <c r="C186" t="s">
         <v>6</v>
@@ -3570,7 +3570,7 @@
         <v>0</v>
       </c>
       <c r="E186">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -3578,7 +3578,7 @@
         <v>185</v>
       </c>
       <c r="B187" s="2">
-        <v>43868</v>
+        <v>43866</v>
       </c>
       <c r="C187" t="s">
         <v>6</v>
@@ -3587,7 +3587,7 @@
         <v>0</v>
       </c>
       <c r="E187">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -3595,7 +3595,7 @@
         <v>186</v>
       </c>
       <c r="B188" s="2">
-        <v>43869</v>
+        <v>43867</v>
       </c>
       <c r="C188" t="s">
         <v>6</v>
@@ -3604,7 +3604,7 @@
         <v>0</v>
       </c>
       <c r="E188">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -3612,7 +3612,7 @@
         <v>187</v>
       </c>
       <c r="B189" s="2">
-        <v>43870</v>
+        <v>43868</v>
       </c>
       <c r="C189" t="s">
         <v>6</v>
@@ -3621,7 +3621,7 @@
         <v>0</v>
       </c>
       <c r="E189">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -3629,7 +3629,7 @@
         <v>188</v>
       </c>
       <c r="B190" s="2">
-        <v>43871</v>
+        <v>43869</v>
       </c>
       <c r="C190" t="s">
         <v>6</v>
@@ -3638,7 +3638,7 @@
         <v>0</v>
       </c>
       <c r="E190">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -3646,7 +3646,7 @@
         <v>189</v>
       </c>
       <c r="B191" s="2">
-        <v>43872</v>
+        <v>43870</v>
       </c>
       <c r="C191" t="s">
         <v>6</v>
@@ -3655,7 +3655,7 @@
         <v>0</v>
       </c>
       <c r="E191">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -3663,7 +3663,7 @@
         <v>190</v>
       </c>
       <c r="B192" s="2">
-        <v>43873</v>
+        <v>43871</v>
       </c>
       <c r="C192" t="s">
         <v>6</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="E192">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -3680,7 +3680,7 @@
         <v>191</v>
       </c>
       <c r="B193" s="2">
-        <v>43874</v>
+        <v>43872</v>
       </c>
       <c r="C193" t="s">
         <v>6</v>
@@ -3689,7 +3689,7 @@
         <v>0</v>
       </c>
       <c r="E193">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -3697,7 +3697,7 @@
         <v>192</v>
       </c>
       <c r="B194" s="2">
-        <v>43875</v>
+        <v>43873</v>
       </c>
       <c r="C194" t="s">
         <v>6</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="E194">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -3714,7 +3714,7 @@
         <v>193</v>
       </c>
       <c r="B195" s="2">
-        <v>43876</v>
+        <v>43874</v>
       </c>
       <c r="C195" t="s">
         <v>6</v>
@@ -3723,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="E195">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -3731,7 +3731,7 @@
         <v>194</v>
       </c>
       <c r="B196" s="2">
-        <v>43877</v>
+        <v>43875</v>
       </c>
       <c r="C196" t="s">
         <v>6</v>
@@ -3740,7 +3740,7 @@
         <v>0</v>
       </c>
       <c r="E196">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -3748,7 +3748,7 @@
         <v>195</v>
       </c>
       <c r="B197" s="2">
-        <v>43878</v>
+        <v>43876</v>
       </c>
       <c r="C197" t="s">
         <v>6</v>
@@ -3757,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="E197">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -3765,7 +3765,7 @@
         <v>196</v>
       </c>
       <c r="B198" s="2">
-        <v>43879</v>
+        <v>43877</v>
       </c>
       <c r="C198" t="s">
         <v>6</v>
@@ -3774,7 +3774,7 @@
         <v>0</v>
       </c>
       <c r="E198">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -3782,7 +3782,7 @@
         <v>197</v>
       </c>
       <c r="B199" s="2">
-        <v>43880</v>
+        <v>43878</v>
       </c>
       <c r="C199" t="s">
         <v>6</v>
@@ -3791,7 +3791,7 @@
         <v>0</v>
       </c>
       <c r="E199">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -3799,7 +3799,7 @@
         <v>198</v>
       </c>
       <c r="B200" s="2">
-        <v>43881</v>
+        <v>43879</v>
       </c>
       <c r="C200" t="s">
         <v>6</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="E200">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -3816,7 +3816,7 @@
         <v>199</v>
       </c>
       <c r="B201" s="2">
-        <v>43882</v>
+        <v>43880</v>
       </c>
       <c r="C201" t="s">
         <v>6</v>
@@ -3825,7 +3825,7 @@
         <v>0</v>
       </c>
       <c r="E201">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -3833,7 +3833,7 @@
         <v>200</v>
       </c>
       <c r="B202" s="2">
-        <v>43883</v>
+        <v>43881</v>
       </c>
       <c r="C202" t="s">
         <v>6</v>
@@ -3842,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="E202">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -3850,7 +3850,7 @@
         <v>201</v>
       </c>
       <c r="B203" s="2">
-        <v>43884</v>
+        <v>43882</v>
       </c>
       <c r="C203" t="s">
         <v>6</v>
@@ -3859,7 +3859,7 @@
         <v>0</v>
       </c>
       <c r="E203">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -3867,7 +3867,7 @@
         <v>202</v>
       </c>
       <c r="B204" s="2">
-        <v>43885</v>
+        <v>43883</v>
       </c>
       <c r="C204" t="s">
         <v>6</v>
@@ -3876,7 +3876,7 @@
         <v>0</v>
       </c>
       <c r="E204">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -3884,7 +3884,7 @@
         <v>203</v>
       </c>
       <c r="B205" s="2">
-        <v>43886</v>
+        <v>43884</v>
       </c>
       <c r="C205" t="s">
         <v>6</v>
@@ -3893,7 +3893,7 @@
         <v>0</v>
       </c>
       <c r="E205">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -3901,7 +3901,7 @@
         <v>204</v>
       </c>
       <c r="B206" s="2">
-        <v>43887</v>
+        <v>43885</v>
       </c>
       <c r="C206" t="s">
         <v>6</v>
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="E206">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -3918,7 +3918,7 @@
         <v>205</v>
       </c>
       <c r="B207" s="2">
-        <v>43888</v>
+        <v>43886</v>
       </c>
       <c r="C207" t="s">
         <v>6</v>
@@ -3927,7 +3927,7 @@
         <v>0</v>
       </c>
       <c r="E207">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -3935,7 +3935,7 @@
         <v>206</v>
       </c>
       <c r="B208" s="2">
-        <v>43889</v>
+        <v>43887</v>
       </c>
       <c r="C208" t="s">
         <v>6</v>
@@ -3944,7 +3944,7 @@
         <v>0</v>
       </c>
       <c r="E208">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -3952,16 +3952,16 @@
         <v>207</v>
       </c>
       <c r="B209" s="2">
-        <v>43890</v>
+        <v>43888</v>
       </c>
       <c r="C209" t="s">
         <v>6</v>
       </c>
       <c r="D209">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -3969,16 +3969,16 @@
         <v>208</v>
       </c>
       <c r="B210" s="2">
-        <v>43891</v>
+        <v>43889</v>
       </c>
       <c r="C210" t="s">
         <v>6</v>
       </c>
       <c r="D210">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E210">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -3986,7 +3986,7 @@
         <v>209</v>
       </c>
       <c r="B211" s="2">
-        <v>43892</v>
+        <v>43890</v>
       </c>
       <c r="C211" t="s">
         <v>6</v>
@@ -3995,7 +3995,7 @@
         <v>0</v>
       </c>
       <c r="E211">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -4003,7 +4003,7 @@
         <v>210</v>
       </c>
       <c r="B212" s="2">
-        <v>43893</v>
+        <v>43891</v>
       </c>
       <c r="C212" t="s">
         <v>6</v>
@@ -4012,7 +4012,7 @@
         <v>0</v>
       </c>
       <c r="E212">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -4020,7 +4020,7 @@
         <v>211</v>
       </c>
       <c r="B213" s="2">
-        <v>43894</v>
+        <v>43892</v>
       </c>
       <c r="C213" t="s">
         <v>6</v>
@@ -4029,7 +4029,7 @@
         <v>2</v>
       </c>
       <c r="E213">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -4037,16 +4037,16 @@
         <v>212</v>
       </c>
       <c r="B214" s="2">
-        <v>43895</v>
+        <v>43893</v>
       </c>
       <c r="C214" t="s">
         <v>6</v>
       </c>
       <c r="D214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E214">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -4054,16 +4054,16 @@
         <v>213</v>
       </c>
       <c r="B215" s="2">
-        <v>43896</v>
+        <v>43894</v>
       </c>
       <c r="C215" t="s">
         <v>6</v>
       </c>
       <c r="D215">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E215">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -4071,16 +4071,16 @@
         <v>214</v>
       </c>
       <c r="B216" s="2">
-        <v>43897</v>
+        <v>43895</v>
       </c>
       <c r="C216" t="s">
         <v>6</v>
       </c>
       <c r="D216">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E216">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -4088,16 +4088,16 @@
         <v>215</v>
       </c>
       <c r="B217" s="2">
-        <v>43898</v>
+        <v>43896</v>
       </c>
       <c r="C217" t="s">
         <v>6</v>
       </c>
       <c r="D217">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E217">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -4105,7 +4105,7 @@
         <v>216</v>
       </c>
       <c r="B218" s="2">
-        <v>43899</v>
+        <v>43897</v>
       </c>
       <c r="C218" t="s">
         <v>6</v>
@@ -4114,7 +4114,7 @@
         <v>0</v>
       </c>
       <c r="E218">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -4122,16 +4122,16 @@
         <v>217</v>
       </c>
       <c r="B219" s="2">
-        <v>43900</v>
+        <v>43898</v>
       </c>
       <c r="C219" t="s">
         <v>6</v>
       </c>
       <c r="D219">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E219">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -4139,16 +4139,16 @@
         <v>218</v>
       </c>
       <c r="B220" s="2">
-        <v>43901</v>
+        <v>43899</v>
       </c>
       <c r="C220" t="s">
         <v>6</v>
       </c>
       <c r="D220">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E220">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -4156,16 +4156,16 @@
         <v>219</v>
       </c>
       <c r="B221" s="2">
-        <v>43902</v>
+        <v>43900</v>
       </c>
       <c r="C221" t="s">
         <v>6</v>
       </c>
       <c r="D221">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E221">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -4173,16 +4173,16 @@
         <v>220</v>
       </c>
       <c r="B222" s="2">
-        <v>43903</v>
+        <v>43901</v>
       </c>
       <c r="C222" t="s">
         <v>6</v>
       </c>
       <c r="D222">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E222">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -4190,7 +4190,7 @@
         <v>221</v>
       </c>
       <c r="B223" s="2">
-        <v>43904</v>
+        <v>43902</v>
       </c>
       <c r="C223" t="s">
         <v>6</v>
@@ -4199,7 +4199,7 @@
         <v>3</v>
       </c>
       <c r="E223">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -4207,7 +4207,7 @@
         <v>222</v>
       </c>
       <c r="B224" s="2">
-        <v>43905</v>
+        <v>43903</v>
       </c>
       <c r="C224" t="s">
         <v>6</v>
@@ -4216,7 +4216,7 @@
         <v>0</v>
       </c>
       <c r="E224">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -4224,16 +4224,16 @@
         <v>223</v>
       </c>
       <c r="B225" s="2">
-        <v>43906</v>
+        <v>43904</v>
       </c>
       <c r="C225" t="s">
         <v>6</v>
       </c>
       <c r="D225">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E225">
-        <v>28</v>
+        <v>42</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -4241,16 +4241,16 @@
         <v>224</v>
       </c>
       <c r="B226" s="2">
-        <v>43907</v>
+        <v>43905</v>
       </c>
       <c r="C226" t="s">
         <v>6</v>
       </c>
       <c r="D226">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E226">
-        <v>28</v>
+        <v>45</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -4258,16 +4258,16 @@
         <v>225</v>
       </c>
       <c r="B227" s="2">
-        <v>43908</v>
+        <v>43906</v>
       </c>
       <c r="C227" t="s">
         <v>6</v>
       </c>
       <c r="D227">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E227">
-        <v>31</v>
+        <v>45</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -4275,16 +4275,16 @@
         <v>226</v>
       </c>
       <c r="B228" s="2">
-        <v>43909</v>
+        <v>43907</v>
       </c>
       <c r="C228" t="s">
         <v>6</v>
       </c>
       <c r="D228">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E228">
-        <v>32</v>
+        <v>48</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -4292,16 +4292,16 @@
         <v>227</v>
       </c>
       <c r="B229" s="2">
-        <v>43910</v>
+        <v>43908</v>
       </c>
       <c r="C229" t="s">
         <v>6</v>
       </c>
       <c r="D229">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E229">
-        <v>34</v>
+        <v>48</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -4309,16 +4309,16 @@
         <v>228</v>
       </c>
       <c r="B230" s="2">
-        <v>43911</v>
+        <v>43909</v>
       </c>
       <c r="C230" t="s">
         <v>6</v>
       </c>
       <c r="D230">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E230">
-        <v>34</v>
+        <v>49</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -4326,16 +4326,16 @@
         <v>229</v>
       </c>
       <c r="B231" s="2">
-        <v>43912</v>
+        <v>43910</v>
       </c>
       <c r="C231" t="s">
         <v>6</v>
       </c>
       <c r="D231">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E231">
-        <v>34</v>
+        <v>51</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -4343,7 +4343,7 @@
         <v>230</v>
       </c>
       <c r="B232" s="2">
-        <v>43913</v>
+        <v>43911</v>
       </c>
       <c r="C232" t="s">
         <v>6</v>
@@ -4352,7 +4352,7 @@
         <v>0</v>
       </c>
       <c r="E232">
-        <v>34</v>
+        <v>51</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -4360,16 +4360,16 @@
         <v>231</v>
       </c>
       <c r="B233" s="2">
-        <v>43914</v>
+        <v>43912</v>
       </c>
       <c r="C233" t="s">
         <v>6</v>
       </c>
       <c r="D233">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E233">
-        <v>37</v>
+        <v>53</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -4377,7 +4377,7 @@
         <v>232</v>
       </c>
       <c r="B234" s="2">
-        <v>43915</v>
+        <v>43913</v>
       </c>
       <c r="C234" t="s">
         <v>6</v>
@@ -4386,7 +4386,7 @@
         <v>1</v>
       </c>
       <c r="E234">
-        <v>38</v>
+        <v>54</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -4394,7 +4394,7 @@
         <v>233</v>
       </c>
       <c r="B235" s="2">
-        <v>43916</v>
+        <v>43914</v>
       </c>
       <c r="C235" t="s">
         <v>6</v>
@@ -4403,7 +4403,7 @@
         <v>3</v>
       </c>
       <c r="E235">
-        <v>41</v>
+        <v>57</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -4411,16 +4411,16 @@
         <v>234</v>
       </c>
       <c r="B236" s="2">
-        <v>43917</v>
+        <v>43915</v>
       </c>
       <c r="C236" t="s">
         <v>6</v>
       </c>
       <c r="D236">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E236">
-        <v>44</v>
+        <v>58</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -4428,16 +4428,16 @@
         <v>235</v>
       </c>
       <c r="B237" s="2">
-        <v>43918</v>
+        <v>43916</v>
       </c>
       <c r="C237" t="s">
         <v>6</v>
       </c>
       <c r="D237">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E237">
-        <v>46</v>
+        <v>61</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -4445,16 +4445,16 @@
         <v>236</v>
       </c>
       <c r="B238" s="2">
-        <v>43919</v>
+        <v>43917</v>
       </c>
       <c r="C238" t="s">
         <v>6</v>
       </c>
       <c r="D238">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E238">
-        <v>49</v>
+        <v>73</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -4462,16 +4462,16 @@
         <v>237</v>
       </c>
       <c r="B239" s="2">
-        <v>43920</v>
+        <v>43918</v>
       </c>
       <c r="C239" t="s">
         <v>6</v>
       </c>
       <c r="D239">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E239">
-        <v>50</v>
+        <v>81</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -4479,16 +4479,16 @@
         <v>238</v>
       </c>
       <c r="B240" s="2">
-        <v>43921</v>
+        <v>43919</v>
       </c>
       <c r="C240" t="s">
         <v>6</v>
       </c>
       <c r="D240">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E240">
-        <v>54</v>
+        <v>86</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -4496,16 +4496,16 @@
         <v>239</v>
       </c>
       <c r="B241" s="2">
-        <v>43922</v>
+        <v>43920</v>
       </c>
       <c r="C241" t="s">
         <v>6</v>
       </c>
       <c r="D241">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E241">
-        <v>57</v>
+        <v>90</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -4513,16 +4513,16 @@
         <v>240</v>
       </c>
       <c r="B242" s="2">
-        <v>43923</v>
+        <v>43921</v>
       </c>
       <c r="C242" t="s">
         <v>6</v>
       </c>
       <c r="D242">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E242">
-        <v>63</v>
+        <v>103</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -4530,16 +4530,16 @@
         <v>241</v>
       </c>
       <c r="B243" s="2">
-        <v>43924</v>
+        <v>43922</v>
       </c>
       <c r="C243" t="s">
         <v>6</v>
       </c>
       <c r="D243">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="E243">
-        <v>68</v>
+        <v>128</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -4547,16 +4547,16 @@
         <v>242</v>
       </c>
       <c r="B244" s="2">
-        <v>43925</v>
+        <v>43923</v>
       </c>
       <c r="C244" t="s">
         <v>6</v>
       </c>
       <c r="D244">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E244">
-        <v>73</v>
+        <v>142</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -4564,16 +4564,16 @@
         <v>243</v>
       </c>
       <c r="B245" s="2">
-        <v>43926</v>
+        <v>43924</v>
       </c>
       <c r="C245" t="s">
         <v>6</v>
       </c>
       <c r="D245">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="E245">
-        <v>74</v>
+        <v>161</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -4581,16 +4581,16 @@
         <v>244</v>
       </c>
       <c r="B246" s="2">
-        <v>43927</v>
+        <v>43925</v>
       </c>
       <c r="C246" t="s">
         <v>6</v>
       </c>
       <c r="D246">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="E246">
-        <v>77</v>
+        <v>182</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -4598,16 +4598,16 @@
         <v>245</v>
       </c>
       <c r="B247" s="2">
-        <v>43928</v>
+        <v>43926</v>
       </c>
       <c r="C247" t="s">
         <v>6</v>
       </c>
       <c r="D247">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E247">
-        <v>87</v>
+        <v>194</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -4615,16 +4615,16 @@
         <v>246</v>
       </c>
       <c r="B248" s="2">
-        <v>43929</v>
+        <v>43927</v>
       </c>
       <c r="C248" t="s">
         <v>6</v>
       </c>
       <c r="D248">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E248">
-        <v>97</v>
+        <v>199</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -4632,16 +4632,16 @@
         <v>247</v>
       </c>
       <c r="B249" s="2">
-        <v>43930</v>
+        <v>43928</v>
       </c>
       <c r="C249" t="s">
         <v>6</v>
       </c>
       <c r="D249">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E249">
-        <v>109</v>
+        <v>223</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -4649,16 +4649,16 @@
         <v>248</v>
       </c>
       <c r="B250" s="2">
-        <v>43931</v>
+        <v>43929</v>
       </c>
       <c r="C250" t="s">
         <v>6</v>
       </c>
       <c r="D250">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E250">
-        <v>118</v>
+        <v>248</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -4666,16 +4666,16 @@
         <v>249</v>
       </c>
       <c r="B251" s="2">
-        <v>43932</v>
+        <v>43930</v>
       </c>
       <c r="C251" t="s">
         <v>6</v>
       </c>
       <c r="D251">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="E251">
-        <v>127</v>
+        <v>283</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -4683,16 +4683,16 @@
         <v>250</v>
       </c>
       <c r="B252" s="2">
-        <v>43933</v>
+        <v>43931</v>
       </c>
       <c r="C252" t="s">
         <v>6</v>
       </c>
       <c r="D252">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="E252">
-        <v>139</v>
+        <v>319</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -4700,16 +4700,16 @@
         <v>251</v>
       </c>
       <c r="B253" s="2">
-        <v>43934</v>
+        <v>43932</v>
       </c>
       <c r="C253" t="s">
         <v>6</v>
       </c>
       <c r="D253">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="E253">
-        <v>144</v>
+        <v>352</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -4717,16 +4717,16 @@
         <v>252</v>
       </c>
       <c r="B254" s="2">
-        <v>43935</v>
+        <v>43933</v>
       </c>
       <c r="C254" t="s">
         <v>6</v>
       </c>
       <c r="D254">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="E254">
-        <v>146</v>
+        <v>377</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -4734,16 +4734,16 @@
         <v>253</v>
       </c>
       <c r="B255" s="2">
-        <v>43936</v>
+        <v>43934</v>
       </c>
       <c r="C255" t="s">
         <v>6</v>
       </c>
       <c r="D255">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="E255">
-        <v>173</v>
+        <v>386</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -4751,16 +4751,16 @@
         <v>254</v>
       </c>
       <c r="B256" s="2">
-        <v>43937</v>
+        <v>43935</v>
       </c>
       <c r="C256" t="s">
         <v>6</v>
       </c>
       <c r="D256">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="E256">
-        <v>182</v>
+        <v>422</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -4768,16 +4768,16 @@
         <v>255</v>
       </c>
       <c r="B257" s="2">
-        <v>43938</v>
+        <v>43936</v>
       </c>
       <c r="C257" t="s">
         <v>6</v>
       </c>
       <c r="D257">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E257">
-        <v>192</v>
+        <v>442</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -4785,16 +4785,16 @@
         <v>256</v>
       </c>
       <c r="B258" s="2">
-        <v>43939</v>
+        <v>43937</v>
       </c>
       <c r="C258" t="s">
         <v>6</v>
       </c>
       <c r="D258">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="E258">
-        <v>194</v>
+        <v>463</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -4802,16 +4802,16 @@
         <v>257</v>
       </c>
       <c r="B259" s="2">
-        <v>43940</v>
+        <v>43938</v>
       </c>
       <c r="C259" t="s">
         <v>6</v>
       </c>
       <c r="D259">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="E259">
-        <v>196</v>
+        <v>490</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -4819,16 +4819,16 @@
         <v>258</v>
       </c>
       <c r="B260" s="2">
-        <v>43941</v>
+        <v>43939</v>
       </c>
       <c r="C260" t="s">
         <v>6</v>
       </c>
       <c r="D260">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="E260">
-        <v>201</v>
+        <v>514</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -4836,16 +4836,16 @@
         <v>259</v>
       </c>
       <c r="B261" s="2">
-        <v>43942</v>
+        <v>43940</v>
       </c>
       <c r="C261" t="s">
         <v>6</v>
       </c>
       <c r="D261">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="E261">
-        <v>206</v>
+        <v>536</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -4853,16 +4853,16 @@
         <v>260</v>
       </c>
       <c r="B262" s="2">
-        <v>43943</v>
+        <v>43941</v>
       </c>
       <c r="C262" t="s">
         <v>6</v>
       </c>
       <c r="D262">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E262">
-        <v>212</v>
+        <v>540</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -4870,16 +4870,16 @@
         <v>261</v>
       </c>
       <c r="B263" s="2">
-        <v>43944</v>
+        <v>43942</v>
       </c>
       <c r="C263" t="s">
         <v>6</v>
       </c>
       <c r="D263">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E263">
-        <v>214</v>
+        <v>551</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -4887,16 +4887,16 @@
         <v>262</v>
       </c>
       <c r="B264" s="2">
-        <v>43945</v>
+        <v>43943</v>
       </c>
       <c r="C264" t="s">
         <v>6</v>
       </c>
       <c r="D264">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="E264">
-        <v>217</v>
+        <v>569</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -4904,16 +4904,16 @@
         <v>263</v>
       </c>
       <c r="B265" s="2">
-        <v>43946</v>
+        <v>43944</v>
       </c>
       <c r="C265" t="s">
         <v>6</v>
       </c>
       <c r="D265">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E265">
-        <v>221</v>
+        <v>583</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -4921,16 +4921,16 @@
         <v>264</v>
       </c>
       <c r="B266" s="2">
-        <v>43859</v>
+        <v>43945</v>
       </c>
       <c r="C266" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D266">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E266">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -4938,16 +4938,16 @@
         <v>265</v>
       </c>
       <c r="B267" s="2">
-        <v>43860</v>
+        <v>43946</v>
       </c>
       <c r="C267" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D267">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E267">
-        <v>0</v>
+        <v>617</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -4955,16 +4955,16 @@
         <v>266</v>
       </c>
       <c r="B268" s="2">
-        <v>43861</v>
+        <v>43947</v>
       </c>
       <c r="C268" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D268">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E268">
-        <v>0</v>
+        <v>620</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -4972,7 +4972,7 @@
         <v>267</v>
       </c>
       <c r="B269" s="2">
-        <v>43862</v>
+        <v>43859</v>
       </c>
       <c r="C269" t="s">
         <v>7</v>
@@ -4989,7 +4989,7 @@
         <v>268</v>
       </c>
       <c r="B270" s="2">
-        <v>43863</v>
+        <v>43860</v>
       </c>
       <c r="C270" t="s">
         <v>7</v>
@@ -5006,7 +5006,7 @@
         <v>269</v>
       </c>
       <c r="B271" s="2">
-        <v>43864</v>
+        <v>43861</v>
       </c>
       <c r="C271" t="s">
         <v>7</v>
@@ -5023,7 +5023,7 @@
         <v>270</v>
       </c>
       <c r="B272" s="2">
-        <v>43865</v>
+        <v>43862</v>
       </c>
       <c r="C272" t="s">
         <v>7</v>
@@ -5040,7 +5040,7 @@
         <v>271</v>
       </c>
       <c r="B273" s="2">
-        <v>43866</v>
+        <v>43863</v>
       </c>
       <c r="C273" t="s">
         <v>7</v>
@@ -5057,7 +5057,7 @@
         <v>272</v>
       </c>
       <c r="B274" s="2">
-        <v>43867</v>
+        <v>43864</v>
       </c>
       <c r="C274" t="s">
         <v>7</v>
@@ -5074,7 +5074,7 @@
         <v>273</v>
       </c>
       <c r="B275" s="2">
-        <v>43868</v>
+        <v>43865</v>
       </c>
       <c r="C275" t="s">
         <v>7</v>
@@ -5091,7 +5091,7 @@
         <v>274</v>
       </c>
       <c r="B276" s="2">
-        <v>43869</v>
+        <v>43866</v>
       </c>
       <c r="C276" t="s">
         <v>7</v>
@@ -5108,7 +5108,7 @@
         <v>275</v>
       </c>
       <c r="B277" s="2">
-        <v>43870</v>
+        <v>43867</v>
       </c>
       <c r="C277" t="s">
         <v>7</v>
@@ -5125,7 +5125,7 @@
         <v>276</v>
       </c>
       <c r="B278" s="2">
-        <v>43871</v>
+        <v>43868</v>
       </c>
       <c r="C278" t="s">
         <v>7</v>
@@ -5142,7 +5142,7 @@
         <v>277</v>
       </c>
       <c r="B279" s="2">
-        <v>43872</v>
+        <v>43869</v>
       </c>
       <c r="C279" t="s">
         <v>7</v>
@@ -5159,7 +5159,7 @@
         <v>278</v>
       </c>
       <c r="B280" s="2">
-        <v>43873</v>
+        <v>43870</v>
       </c>
       <c r="C280" t="s">
         <v>7</v>
@@ -5176,7 +5176,7 @@
         <v>279</v>
       </c>
       <c r="B281" s="2">
-        <v>43874</v>
+        <v>43871</v>
       </c>
       <c r="C281" t="s">
         <v>7</v>
@@ -5193,7 +5193,7 @@
         <v>280</v>
       </c>
       <c r="B282" s="2">
-        <v>43875</v>
+        <v>43872</v>
       </c>
       <c r="C282" t="s">
         <v>7</v>
@@ -5210,7 +5210,7 @@
         <v>281</v>
       </c>
       <c r="B283" s="2">
-        <v>43876</v>
+        <v>43873</v>
       </c>
       <c r="C283" t="s">
         <v>7</v>
@@ -5227,7 +5227,7 @@
         <v>282</v>
       </c>
       <c r="B284" s="2">
-        <v>43877</v>
+        <v>43874</v>
       </c>
       <c r="C284" t="s">
         <v>7</v>
@@ -5244,7 +5244,7 @@
         <v>283</v>
       </c>
       <c r="B285" s="2">
-        <v>43878</v>
+        <v>43875</v>
       </c>
       <c r="C285" t="s">
         <v>7</v>
@@ -5261,7 +5261,7 @@
         <v>284</v>
       </c>
       <c r="B286" s="2">
-        <v>43879</v>
+        <v>43876</v>
       </c>
       <c r="C286" t="s">
         <v>7</v>
@@ -5278,7 +5278,7 @@
         <v>285</v>
       </c>
       <c r="B287" s="2">
-        <v>43880</v>
+        <v>43877</v>
       </c>
       <c r="C287" t="s">
         <v>7</v>
@@ -5295,7 +5295,7 @@
         <v>286</v>
       </c>
       <c r="B288" s="2">
-        <v>43881</v>
+        <v>43878</v>
       </c>
       <c r="C288" t="s">
         <v>7</v>
@@ -5312,7 +5312,7 @@
         <v>287</v>
       </c>
       <c r="B289" s="2">
-        <v>43882</v>
+        <v>43879</v>
       </c>
       <c r="C289" t="s">
         <v>7</v>
@@ -5329,7 +5329,7 @@
         <v>288</v>
       </c>
       <c r="B290" s="2">
-        <v>43883</v>
+        <v>43880</v>
       </c>
       <c r="C290" t="s">
         <v>7</v>
@@ -5346,7 +5346,7 @@
         <v>289</v>
       </c>
       <c r="B291" s="2">
-        <v>43884</v>
+        <v>43881</v>
       </c>
       <c r="C291" t="s">
         <v>7</v>
@@ -5363,7 +5363,7 @@
         <v>290</v>
       </c>
       <c r="B292" s="2">
-        <v>43885</v>
+        <v>43882</v>
       </c>
       <c r="C292" t="s">
         <v>7</v>
@@ -5380,7 +5380,7 @@
         <v>291</v>
       </c>
       <c r="B293" s="2">
-        <v>43886</v>
+        <v>43883</v>
       </c>
       <c r="C293" t="s">
         <v>7</v>
@@ -5397,7 +5397,7 @@
         <v>292</v>
       </c>
       <c r="B294" s="2">
-        <v>43887</v>
+        <v>43884</v>
       </c>
       <c r="C294" t="s">
         <v>7</v>
@@ -5414,7 +5414,7 @@
         <v>293</v>
       </c>
       <c r="B295" s="2">
-        <v>43888</v>
+        <v>43885</v>
       </c>
       <c r="C295" t="s">
         <v>7</v>
@@ -5431,7 +5431,7 @@
         <v>294</v>
       </c>
       <c r="B296" s="2">
-        <v>43889</v>
+        <v>43886</v>
       </c>
       <c r="C296" t="s">
         <v>7</v>
@@ -5448,7 +5448,7 @@
         <v>295</v>
       </c>
       <c r="B297" s="2">
-        <v>43890</v>
+        <v>43887</v>
       </c>
       <c r="C297" t="s">
         <v>7</v>
@@ -5465,7 +5465,7 @@
         <v>296</v>
       </c>
       <c r="B298" s="2">
-        <v>43891</v>
+        <v>43888</v>
       </c>
       <c r="C298" t="s">
         <v>7</v>
@@ -5482,7 +5482,7 @@
         <v>297</v>
       </c>
       <c r="B299" s="2">
-        <v>43892</v>
+        <v>43889</v>
       </c>
       <c r="C299" t="s">
         <v>7</v>
@@ -5499,7 +5499,7 @@
         <v>298</v>
       </c>
       <c r="B300" s="2">
-        <v>43893</v>
+        <v>43890</v>
       </c>
       <c r="C300" t="s">
         <v>7</v>
@@ -5516,7 +5516,7 @@
         <v>299</v>
       </c>
       <c r="B301" s="2">
-        <v>43894</v>
+        <v>43891</v>
       </c>
       <c r="C301" t="s">
         <v>7</v>
@@ -5533,7 +5533,7 @@
         <v>300</v>
       </c>
       <c r="B302" s="2">
-        <v>43895</v>
+        <v>43892</v>
       </c>
       <c r="C302" t="s">
         <v>7</v>
@@ -5550,16 +5550,16 @@
         <v>301</v>
       </c>
       <c r="B303" s="2">
-        <v>43896</v>
+        <v>43893</v>
       </c>
       <c r="C303" t="s">
         <v>7</v>
       </c>
       <c r="D303">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E303">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -5567,16 +5567,16 @@
         <v>302</v>
       </c>
       <c r="B304" s="2">
-        <v>43897</v>
+        <v>43894</v>
       </c>
       <c r="C304" t="s">
         <v>7</v>
       </c>
       <c r="D304">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E304">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -5584,7 +5584,7 @@
         <v>303</v>
       </c>
       <c r="B305" s="2">
-        <v>43898</v>
+        <v>43895</v>
       </c>
       <c r="C305" t="s">
         <v>7</v>
@@ -5593,7 +5593,7 @@
         <v>0</v>
       </c>
       <c r="E305">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -5601,7 +5601,7 @@
         <v>304</v>
       </c>
       <c r="B306" s="2">
-        <v>43899</v>
+        <v>43896</v>
       </c>
       <c r="C306" t="s">
         <v>7</v>
@@ -5610,7 +5610,7 @@
         <v>0</v>
       </c>
       <c r="E306">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -5618,16 +5618,16 @@
         <v>305</v>
       </c>
       <c r="B307" s="2">
-        <v>43900</v>
+        <v>43897</v>
       </c>
       <c r="C307" t="s">
         <v>7</v>
       </c>
       <c r="D307">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E307">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -5635,7 +5635,7 @@
         <v>306</v>
       </c>
       <c r="B308" s="2">
-        <v>43901</v>
+        <v>43898</v>
       </c>
       <c r="C308" t="s">
         <v>7</v>
@@ -5644,7 +5644,7 @@
         <v>0</v>
       </c>
       <c r="E308">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -5652,16 +5652,16 @@
         <v>307</v>
       </c>
       <c r="B309" s="2">
-        <v>43902</v>
+        <v>43899</v>
       </c>
       <c r="C309" t="s">
         <v>7</v>
       </c>
       <c r="D309">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E309">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -5669,7 +5669,7 @@
         <v>308</v>
       </c>
       <c r="B310" s="2">
-        <v>43903</v>
+        <v>43900</v>
       </c>
       <c r="C310" t="s">
         <v>7</v>
@@ -5678,7 +5678,7 @@
         <v>0</v>
       </c>
       <c r="E310">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -5686,7 +5686,7 @@
         <v>309</v>
       </c>
       <c r="B311" s="2">
-        <v>43904</v>
+        <v>43901</v>
       </c>
       <c r="C311" t="s">
         <v>7</v>
@@ -5695,7 +5695,7 @@
         <v>1</v>
       </c>
       <c r="E311">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -5703,16 +5703,16 @@
         <v>310</v>
       </c>
       <c r="B312" s="2">
-        <v>43905</v>
+        <v>43902</v>
       </c>
       <c r="C312" t="s">
         <v>7</v>
       </c>
       <c r="D312">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E312">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -5720,7 +5720,7 @@
         <v>311</v>
       </c>
       <c r="B313" s="2">
-        <v>43906</v>
+        <v>43903</v>
       </c>
       <c r="C313" t="s">
         <v>7</v>
@@ -5729,7 +5729,7 @@
         <v>0</v>
       </c>
       <c r="E313">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -5737,16 +5737,16 @@
         <v>312</v>
       </c>
       <c r="B314" s="2">
-        <v>43907</v>
+        <v>43904</v>
       </c>
       <c r="C314" t="s">
         <v>7</v>
       </c>
       <c r="D314">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E314">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -5754,16 +5754,16 @@
         <v>313</v>
       </c>
       <c r="B315" s="2">
-        <v>43908</v>
+        <v>43905</v>
       </c>
       <c r="C315" t="s">
         <v>7</v>
       </c>
       <c r="D315">
+        <v>0</v>
+      </c>
+      <c r="E315">
         <v>2</v>
-      </c>
-      <c r="E315">
-        <v>11</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -5771,7 +5771,7 @@
         <v>314</v>
       </c>
       <c r="B316" s="2">
-        <v>43909</v>
+        <v>43906</v>
       </c>
       <c r="C316" t="s">
         <v>7</v>
@@ -5780,7 +5780,7 @@
         <v>0</v>
       </c>
       <c r="E316">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -5788,7 +5788,7 @@
         <v>315</v>
       </c>
       <c r="B317" s="2">
-        <v>43910</v>
+        <v>43907</v>
       </c>
       <c r="C317" t="s">
         <v>7</v>
@@ -5797,7 +5797,7 @@
         <v>0</v>
       </c>
       <c r="E317">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -5805,16 +5805,16 @@
         <v>316</v>
       </c>
       <c r="B318" s="2">
-        <v>43911</v>
+        <v>43908</v>
       </c>
       <c r="C318" t="s">
         <v>7</v>
       </c>
       <c r="D318">
+        <v>0</v>
+      </c>
+      <c r="E318">
         <v>2</v>
-      </c>
-      <c r="E318">
-        <v>13</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -5822,7 +5822,7 @@
         <v>317</v>
       </c>
       <c r="B319" s="2">
-        <v>43912</v>
+        <v>43909</v>
       </c>
       <c r="C319" t="s">
         <v>7</v>
@@ -5831,7 +5831,7 @@
         <v>0</v>
       </c>
       <c r="E319">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -5839,16 +5839,16 @@
         <v>318</v>
       </c>
       <c r="B320" s="2">
-        <v>43913</v>
+        <v>43910</v>
       </c>
       <c r="C320" t="s">
         <v>7</v>
       </c>
       <c r="D320">
+        <v>0</v>
+      </c>
+      <c r="E320">
         <v>2</v>
-      </c>
-      <c r="E320">
-        <v>15</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -5856,16 +5856,16 @@
         <v>319</v>
       </c>
       <c r="B321" s="2">
-        <v>43914</v>
+        <v>43911</v>
       </c>
       <c r="C321" t="s">
         <v>7</v>
       </c>
       <c r="D321">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E321">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -5873,16 +5873,16 @@
         <v>320</v>
       </c>
       <c r="B322" s="2">
-        <v>43915</v>
+        <v>43912</v>
       </c>
       <c r="C322" t="s">
         <v>7</v>
       </c>
       <c r="D322">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E322">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -5890,7 +5890,7 @@
         <v>321</v>
       </c>
       <c r="B323" s="2">
-        <v>43916</v>
+        <v>43913</v>
       </c>
       <c r="C323" t="s">
         <v>7</v>
@@ -5899,7 +5899,7 @@
         <v>0</v>
       </c>
       <c r="E323">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -5907,16 +5907,16 @@
         <v>322</v>
       </c>
       <c r="B324" s="2">
-        <v>43917</v>
+        <v>43914</v>
       </c>
       <c r="C324" t="s">
         <v>7</v>
       </c>
       <c r="D324">
+        <v>0</v>
+      </c>
+      <c r="E324">
         <v>2</v>
-      </c>
-      <c r="E324">
-        <v>19</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -5924,16 +5924,16 @@
         <v>323</v>
       </c>
       <c r="B325" s="2">
-        <v>43918</v>
+        <v>43915</v>
       </c>
       <c r="C325" t="s">
         <v>7</v>
       </c>
       <c r="D325">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E325">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -5941,16 +5941,16 @@
         <v>324</v>
       </c>
       <c r="B326" s="2">
-        <v>43919</v>
+        <v>43916</v>
       </c>
       <c r="C326" t="s">
         <v>7</v>
       </c>
       <c r="D326">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E326">
-        <v>25</v>
+        <v>4</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -5958,7 +5958,7 @@
         <v>325</v>
       </c>
       <c r="B327" s="2">
-        <v>43920</v>
+        <v>43917</v>
       </c>
       <c r="C327" t="s">
         <v>7</v>
@@ -5967,7 +5967,7 @@
         <v>1</v>
       </c>
       <c r="E327">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -5975,16 +5975,16 @@
         <v>326</v>
       </c>
       <c r="B328" s="2">
-        <v>43921</v>
+        <v>43918</v>
       </c>
       <c r="C328" t="s">
         <v>7</v>
       </c>
       <c r="D328">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E328">
-        <v>28</v>
+        <v>6</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -5992,16 +5992,16 @@
         <v>327</v>
       </c>
       <c r="B329" s="2">
-        <v>43922</v>
+        <v>43919</v>
       </c>
       <c r="C329" t="s">
         <v>7</v>
       </c>
       <c r="D329">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E329">
-        <v>31</v>
+        <v>7</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -6009,16 +6009,16 @@
         <v>328</v>
       </c>
       <c r="B330" s="2">
-        <v>43923</v>
+        <v>43920</v>
       </c>
       <c r="C330" t="s">
         <v>7</v>
       </c>
       <c r="D330">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E330">
-        <v>37</v>
+        <v>7</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -6026,16 +6026,16 @@
         <v>329</v>
       </c>
       <c r="B331" s="2">
-        <v>43924</v>
+        <v>43921</v>
       </c>
       <c r="C331" t="s">
         <v>7</v>
       </c>
       <c r="D331">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E331">
-        <v>42</v>
+        <v>7</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -6043,16 +6043,16 @@
         <v>330</v>
       </c>
       <c r="B332" s="2">
-        <v>43925</v>
+        <v>43922</v>
       </c>
       <c r="C332" t="s">
         <v>7</v>
       </c>
       <c r="D332">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E332">
-        <v>47</v>
+        <v>7</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -6060,16 +6060,16 @@
         <v>331</v>
       </c>
       <c r="B333" s="2">
-        <v>43926</v>
+        <v>43923</v>
       </c>
       <c r="C333" t="s">
         <v>7</v>
       </c>
       <c r="D333">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E333">
-        <v>54</v>
+        <v>8</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -6077,16 +6077,16 @@
         <v>332</v>
       </c>
       <c r="B334" s="2">
-        <v>43927</v>
+        <v>43924</v>
       </c>
       <c r="C334" t="s">
         <v>7</v>
       </c>
       <c r="D334">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E334">
-        <v>59</v>
+        <v>8</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -6094,16 +6094,16 @@
         <v>333</v>
       </c>
       <c r="B335" s="2">
-        <v>43928</v>
+        <v>43925</v>
       </c>
       <c r="C335" t="s">
         <v>7</v>
       </c>
       <c r="D335">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E335">
-        <v>63</v>
+        <v>9</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -6111,16 +6111,16 @@
         <v>334</v>
       </c>
       <c r="B336" s="2">
-        <v>43929</v>
+        <v>43926</v>
       </c>
       <c r="C336" t="s">
         <v>7</v>
       </c>
       <c r="D336">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E336">
-        <v>65</v>
+        <v>9</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -6128,16 +6128,16 @@
         <v>335</v>
       </c>
       <c r="B337" s="2">
-        <v>43930</v>
+        <v>43927</v>
       </c>
       <c r="C337" t="s">
         <v>7</v>
       </c>
       <c r="D337">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E337">
-        <v>89</v>
+        <v>9</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -6145,16 +6145,16 @@
         <v>336</v>
       </c>
       <c r="B338" s="2">
-        <v>43931</v>
+        <v>43928</v>
       </c>
       <c r="C338" t="s">
         <v>7</v>
       </c>
       <c r="D338">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E338">
-        <v>97</v>
+        <v>9</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -6162,16 +6162,16 @@
         <v>337</v>
       </c>
       <c r="B339" s="2">
-        <v>43932</v>
+        <v>43929</v>
       </c>
       <c r="C339" t="s">
         <v>7</v>
       </c>
       <c r="D339">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E339">
-        <v>112</v>
+        <v>11</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -6179,7 +6179,7 @@
         <v>338</v>
       </c>
       <c r="B340" s="2">
-        <v>43933</v>
+        <v>43930</v>
       </c>
       <c r="C340" t="s">
         <v>7</v>
@@ -6188,7 +6188,7 @@
         <v>3</v>
       </c>
       <c r="E340">
-        <v>115</v>
+        <v>14</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -6196,16 +6196,16 @@
         <v>339</v>
       </c>
       <c r="B341" s="2">
-        <v>43934</v>
+        <v>43931</v>
       </c>
       <c r="C341" t="s">
         <v>7</v>
       </c>
       <c r="D341">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E341">
-        <v>120</v>
+        <v>22</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -6213,16 +6213,16 @@
         <v>340</v>
       </c>
       <c r="B342" s="2">
-        <v>43935</v>
+        <v>43932</v>
       </c>
       <c r="C342" t="s">
         <v>7</v>
       </c>
       <c r="D342">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E342">
-        <v>127</v>
+        <v>24</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -6230,16 +6230,16 @@
         <v>341</v>
       </c>
       <c r="B343" s="2">
-        <v>43936</v>
+        <v>43933</v>
       </c>
       <c r="C343" t="s">
         <v>7</v>
       </c>
       <c r="D343">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E343">
-        <v>136</v>
+        <v>25</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -6247,16 +6247,16 @@
         <v>342</v>
       </c>
       <c r="B344" s="2">
-        <v>43937</v>
+        <v>43934</v>
       </c>
       <c r="C344" t="s">
         <v>7</v>
       </c>
       <c r="D344">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E344">
-        <v>146</v>
+        <v>25</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -6264,16 +6264,16 @@
         <v>343</v>
       </c>
       <c r="B345" s="2">
-        <v>43938</v>
+        <v>43935</v>
       </c>
       <c r="C345" t="s">
         <v>7</v>
       </c>
       <c r="D345">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E345">
-        <v>153</v>
+        <v>27</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -6281,16 +6281,16 @@
         <v>344</v>
       </c>
       <c r="B346" s="2">
-        <v>43939</v>
+        <v>43936</v>
       </c>
       <c r="C346" t="s">
         <v>7</v>
       </c>
       <c r="D346">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E346">
-        <v>157</v>
+        <v>29</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -6298,16 +6298,16 @@
         <v>345</v>
       </c>
       <c r="B347" s="2">
-        <v>43940</v>
+        <v>43937</v>
       </c>
       <c r="C347" t="s">
         <v>7</v>
       </c>
       <c r="D347">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E347">
-        <v>165</v>
+        <v>29</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -6315,7 +6315,7 @@
         <v>346</v>
       </c>
       <c r="B348" s="2">
-        <v>43941</v>
+        <v>43938</v>
       </c>
       <c r="C348" t="s">
         <v>7</v>
@@ -6324,7 +6324,7 @@
         <v>4</v>
       </c>
       <c r="E348">
-        <v>169</v>
+        <v>33</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -6332,16 +6332,16 @@
         <v>347</v>
       </c>
       <c r="B349" s="2">
-        <v>43942</v>
+        <v>43939</v>
       </c>
       <c r="C349" t="s">
         <v>7</v>
       </c>
       <c r="D349">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E349">
-        <v>170</v>
+        <v>37</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -6349,7 +6349,7 @@
         <v>348</v>
       </c>
       <c r="B350" s="2">
-        <v>43943</v>
+        <v>43940</v>
       </c>
       <c r="C350" t="s">
         <v>7</v>
@@ -6358,7 +6358,7 @@
         <v>2</v>
       </c>
       <c r="E350">
-        <v>172</v>
+        <v>39</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -6366,16 +6366,16 @@
         <v>349</v>
       </c>
       <c r="B351" s="2">
-        <v>43944</v>
+        <v>43941</v>
       </c>
       <c r="C351" t="s">
         <v>7</v>
       </c>
       <c r="D351">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="E351">
-        <v>174</v>
+        <v>66</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -6383,7 +6383,7 @@
         <v>350</v>
       </c>
       <c r="B352" s="2">
-        <v>43945</v>
+        <v>43942</v>
       </c>
       <c r="C352" t="s">
         <v>7</v>
@@ -6392,7 +6392,7 @@
         <v>2</v>
       </c>
       <c r="E352">
-        <v>176</v>
+        <v>68</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -6400,16 +6400,16 @@
         <v>351</v>
       </c>
       <c r="B353" s="2">
-        <v>43946</v>
+        <v>43943</v>
       </c>
       <c r="C353" t="s">
         <v>7</v>
       </c>
       <c r="D353">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E353">
-        <v>177</v>
+        <v>68</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -6417,16 +6417,16 @@
         <v>352</v>
       </c>
       <c r="B354" s="2">
-        <v>43859</v>
+        <v>43944</v>
       </c>
       <c r="C354" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D354">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E354">
-        <v>0</v>
+        <v>71</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -6434,16 +6434,16 @@
         <v>353</v>
       </c>
       <c r="B355" s="2">
-        <v>43860</v>
+        <v>43945</v>
       </c>
       <c r="C355" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D355">
         <v>0</v>
       </c>
       <c r="E355">
-        <v>0</v>
+        <v>71</v>
       </c>
     </row>
     <row r="356" spans="1:5">
@@ -6451,16 +6451,16 @@
         <v>354</v>
       </c>
       <c r="B356" s="2">
-        <v>43861</v>
+        <v>43946</v>
       </c>
       <c r="C356" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D356">
         <v>0</v>
       </c>
       <c r="E356">
-        <v>0</v>
+        <v>71</v>
       </c>
     </row>
     <row r="357" spans="1:5">
@@ -6468,16 +6468,16 @@
         <v>355</v>
       </c>
       <c r="B357" s="2">
-        <v>43862</v>
+        <v>43947</v>
       </c>
       <c r="C357" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D357">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E357">
-        <v>0</v>
+        <v>72</v>
       </c>
     </row>
     <row r="358" spans="1:5">
@@ -6485,7 +6485,7 @@
         <v>356</v>
       </c>
       <c r="B358" s="2">
-        <v>43863</v>
+        <v>43859</v>
       </c>
       <c r="C358" t="s">
         <v>8</v>
@@ -6502,7 +6502,7 @@
         <v>357</v>
       </c>
       <c r="B359" s="2">
-        <v>43864</v>
+        <v>43860</v>
       </c>
       <c r="C359" t="s">
         <v>8</v>
@@ -6519,7 +6519,7 @@
         <v>358</v>
       </c>
       <c r="B360" s="2">
-        <v>43865</v>
+        <v>43861</v>
       </c>
       <c r="C360" t="s">
         <v>8</v>
@@ -6536,7 +6536,7 @@
         <v>359</v>
       </c>
       <c r="B361" s="2">
-        <v>43866</v>
+        <v>43862</v>
       </c>
       <c r="C361" t="s">
         <v>8</v>
@@ -6553,7 +6553,7 @@
         <v>360</v>
       </c>
       <c r="B362" s="2">
-        <v>43867</v>
+        <v>43863</v>
       </c>
       <c r="C362" t="s">
         <v>8</v>
@@ -6570,7 +6570,7 @@
         <v>361</v>
       </c>
       <c r="B363" s="2">
-        <v>43868</v>
+        <v>43864</v>
       </c>
       <c r="C363" t="s">
         <v>8</v>
@@ -6587,7 +6587,7 @@
         <v>362</v>
       </c>
       <c r="B364" s="2">
-        <v>43869</v>
+        <v>43865</v>
       </c>
       <c r="C364" t="s">
         <v>8</v>
@@ -6604,7 +6604,7 @@
         <v>363</v>
       </c>
       <c r="B365" s="2">
-        <v>43870</v>
+        <v>43866</v>
       </c>
       <c r="C365" t="s">
         <v>8</v>
@@ -6621,7 +6621,7 @@
         <v>364</v>
       </c>
       <c r="B366" s="2">
-        <v>43871</v>
+        <v>43867</v>
       </c>
       <c r="C366" t="s">
         <v>8</v>
@@ -6638,7 +6638,7 @@
         <v>365</v>
       </c>
       <c r="B367" s="2">
-        <v>43872</v>
+        <v>43868</v>
       </c>
       <c r="C367" t="s">
         <v>8</v>
@@ -6655,7 +6655,7 @@
         <v>366</v>
       </c>
       <c r="B368" s="2">
-        <v>43873</v>
+        <v>43869</v>
       </c>
       <c r="C368" t="s">
         <v>8</v>
@@ -6672,7 +6672,7 @@
         <v>367</v>
       </c>
       <c r="B369" s="2">
-        <v>43874</v>
+        <v>43870</v>
       </c>
       <c r="C369" t="s">
         <v>8</v>
@@ -6689,7 +6689,7 @@
         <v>368</v>
       </c>
       <c r="B370" s="2">
-        <v>43875</v>
+        <v>43871</v>
       </c>
       <c r="C370" t="s">
         <v>8</v>
@@ -6706,7 +6706,7 @@
         <v>369</v>
       </c>
       <c r="B371" s="2">
-        <v>43876</v>
+        <v>43872</v>
       </c>
       <c r="C371" t="s">
         <v>8</v>
@@ -6723,7 +6723,7 @@
         <v>370</v>
       </c>
       <c r="B372" s="2">
-        <v>43877</v>
+        <v>43873</v>
       </c>
       <c r="C372" t="s">
         <v>8</v>
@@ -6740,7 +6740,7 @@
         <v>371</v>
       </c>
       <c r="B373" s="2">
-        <v>43878</v>
+        <v>43874</v>
       </c>
       <c r="C373" t="s">
         <v>8</v>
@@ -6757,7 +6757,7 @@
         <v>372</v>
       </c>
       <c r="B374" s="2">
-        <v>43879</v>
+        <v>43875</v>
       </c>
       <c r="C374" t="s">
         <v>8</v>
@@ -6774,7 +6774,7 @@
         <v>373</v>
       </c>
       <c r="B375" s="2">
-        <v>43880</v>
+        <v>43876</v>
       </c>
       <c r="C375" t="s">
         <v>8</v>
@@ -6791,7 +6791,7 @@
         <v>374</v>
       </c>
       <c r="B376" s="2">
-        <v>43881</v>
+        <v>43877</v>
       </c>
       <c r="C376" t="s">
         <v>8</v>
@@ -6808,7 +6808,7 @@
         <v>375</v>
       </c>
       <c r="B377" s="2">
-        <v>43882</v>
+        <v>43878</v>
       </c>
       <c r="C377" t="s">
         <v>8</v>
@@ -6825,7 +6825,7 @@
         <v>376</v>
       </c>
       <c r="B378" s="2">
-        <v>43883</v>
+        <v>43879</v>
       </c>
       <c r="C378" t="s">
         <v>8</v>
@@ -6842,7 +6842,7 @@
         <v>377</v>
       </c>
       <c r="B379" s="2">
-        <v>43884</v>
+        <v>43880</v>
       </c>
       <c r="C379" t="s">
         <v>8</v>
@@ -6859,7 +6859,7 @@
         <v>378</v>
       </c>
       <c r="B380" s="2">
-        <v>43885</v>
+        <v>43881</v>
       </c>
       <c r="C380" t="s">
         <v>8</v>
@@ -6876,7 +6876,7 @@
         <v>379</v>
       </c>
       <c r="B381" s="2">
-        <v>43886</v>
+        <v>43882</v>
       </c>
       <c r="C381" t="s">
         <v>8</v>
@@ -6893,7 +6893,7 @@
         <v>380</v>
       </c>
       <c r="B382" s="2">
-        <v>43887</v>
+        <v>43883</v>
       </c>
       <c r="C382" t="s">
         <v>8</v>
@@ -6910,7 +6910,7 @@
         <v>381</v>
       </c>
       <c r="B383" s="2">
-        <v>43888</v>
+        <v>43884</v>
       </c>
       <c r="C383" t="s">
         <v>8</v>
@@ -6927,7 +6927,7 @@
         <v>382</v>
       </c>
       <c r="B384" s="2">
-        <v>43889</v>
+        <v>43885</v>
       </c>
       <c r="C384" t="s">
         <v>8</v>
@@ -6944,7 +6944,7 @@
         <v>383</v>
       </c>
       <c r="B385" s="2">
-        <v>43890</v>
+        <v>43886</v>
       </c>
       <c r="C385" t="s">
         <v>8</v>
@@ -6961,7 +6961,7 @@
         <v>384</v>
       </c>
       <c r="B386" s="2">
-        <v>43891</v>
+        <v>43887</v>
       </c>
       <c r="C386" t="s">
         <v>8</v>
@@ -6978,7 +6978,7 @@
         <v>385</v>
       </c>
       <c r="B387" s="2">
-        <v>43892</v>
+        <v>43888</v>
       </c>
       <c r="C387" t="s">
         <v>8</v>
@@ -6995,7 +6995,7 @@
         <v>386</v>
       </c>
       <c r="B388" s="2">
-        <v>43893</v>
+        <v>43889</v>
       </c>
       <c r="C388" t="s">
         <v>8</v>
@@ -7012,7 +7012,7 @@
         <v>387</v>
       </c>
       <c r="B389" s="2">
-        <v>43894</v>
+        <v>43890</v>
       </c>
       <c r="C389" t="s">
         <v>8</v>
@@ -7029,7 +7029,7 @@
         <v>388</v>
       </c>
       <c r="B390" s="2">
-        <v>43895</v>
+        <v>43891</v>
       </c>
       <c r="C390" t="s">
         <v>8</v>
@@ -7046,7 +7046,7 @@
         <v>389</v>
       </c>
       <c r="B391" s="2">
-        <v>43896</v>
+        <v>43892</v>
       </c>
       <c r="C391" t="s">
         <v>8</v>
@@ -7063,7 +7063,7 @@
         <v>390</v>
       </c>
       <c r="B392" s="2">
-        <v>43897</v>
+        <v>43893</v>
       </c>
       <c r="C392" t="s">
         <v>8</v>
@@ -7080,7 +7080,7 @@
         <v>391</v>
       </c>
       <c r="B393" s="2">
-        <v>43898</v>
+        <v>43894</v>
       </c>
       <c r="C393" t="s">
         <v>8</v>
@@ -7097,7 +7097,7 @@
         <v>392</v>
       </c>
       <c r="B394" s="2">
-        <v>43899</v>
+        <v>43895</v>
       </c>
       <c r="C394" t="s">
         <v>8</v>
@@ -7114,7 +7114,7 @@
         <v>393</v>
       </c>
       <c r="B395" s="2">
-        <v>43900</v>
+        <v>43896</v>
       </c>
       <c r="C395" t="s">
         <v>8</v>
@@ -7131,16 +7131,16 @@
         <v>394</v>
       </c>
       <c r="B396" s="2">
-        <v>43901</v>
+        <v>43897</v>
       </c>
       <c r="C396" t="s">
         <v>8</v>
       </c>
       <c r="D396">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E396">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="397" spans="1:5">
@@ -7148,16 +7148,16 @@
         <v>395</v>
       </c>
       <c r="B397" s="2">
-        <v>43902</v>
+        <v>43898</v>
       </c>
       <c r="C397" t="s">
         <v>8</v>
       </c>
       <c r="D397">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E397">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="398" spans="1:5">
@@ -7165,7 +7165,7 @@
         <v>396</v>
       </c>
       <c r="B398" s="2">
-        <v>43903</v>
+        <v>43899</v>
       </c>
       <c r="C398" t="s">
         <v>8</v>
@@ -7174,7 +7174,7 @@
         <v>0</v>
       </c>
       <c r="E398">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="399" spans="1:5">
@@ -7182,16 +7182,16 @@
         <v>397</v>
       </c>
       <c r="B399" s="2">
-        <v>43904</v>
+        <v>43900</v>
       </c>
       <c r="C399" t="s">
         <v>8</v>
       </c>
       <c r="D399">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E399">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="400" spans="1:5">
@@ -7199,7 +7199,7 @@
         <v>398</v>
       </c>
       <c r="B400" s="2">
-        <v>43905</v>
+        <v>43901</v>
       </c>
       <c r="C400" t="s">
         <v>8</v>
@@ -7208,7 +7208,7 @@
         <v>0</v>
       </c>
       <c r="E400">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="401" spans="1:5">
@@ -7216,16 +7216,16 @@
         <v>399</v>
       </c>
       <c r="B401" s="2">
-        <v>43906</v>
+        <v>43902</v>
       </c>
       <c r="C401" t="s">
         <v>8</v>
       </c>
       <c r="D401">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E401">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="402" spans="1:5">
@@ -7233,7 +7233,7 @@
         <v>400</v>
       </c>
       <c r="B402" s="2">
-        <v>43907</v>
+        <v>43903</v>
       </c>
       <c r="C402" t="s">
         <v>8</v>
@@ -7242,7 +7242,7 @@
         <v>0</v>
       </c>
       <c r="E402">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="403" spans="1:5">
@@ -7250,16 +7250,16 @@
         <v>401</v>
       </c>
       <c r="B403" s="2">
-        <v>43908</v>
+        <v>43904</v>
       </c>
       <c r="C403" t="s">
         <v>8</v>
       </c>
       <c r="D403">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E403">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="404" spans="1:5">
@@ -7267,16 +7267,16 @@
         <v>402</v>
       </c>
       <c r="B404" s="2">
-        <v>43909</v>
+        <v>43905</v>
       </c>
       <c r="C404" t="s">
         <v>8</v>
       </c>
       <c r="D404">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E404">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="405" spans="1:5">
@@ -7284,7 +7284,7 @@
         <v>403</v>
       </c>
       <c r="B405" s="2">
-        <v>43910</v>
+        <v>43906</v>
       </c>
       <c r="C405" t="s">
         <v>8</v>
@@ -7293,7 +7293,7 @@
         <v>0</v>
       </c>
       <c r="E405">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="406" spans="1:5">
@@ -7301,16 +7301,16 @@
         <v>404</v>
       </c>
       <c r="B406" s="2">
-        <v>43911</v>
+        <v>43907</v>
       </c>
       <c r="C406" t="s">
         <v>8</v>
       </c>
       <c r="D406">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E406">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="407" spans="1:5">
@@ -7318,16 +7318,16 @@
         <v>405</v>
       </c>
       <c r="B407" s="2">
-        <v>43912</v>
+        <v>43908</v>
       </c>
       <c r="C407" t="s">
         <v>8</v>
       </c>
       <c r="D407">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E407">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="408" spans="1:5">
@@ -7335,7 +7335,7 @@
         <v>406</v>
       </c>
       <c r="B408" s="2">
-        <v>43913</v>
+        <v>43909</v>
       </c>
       <c r="C408" t="s">
         <v>8</v>
@@ -7344,7 +7344,7 @@
         <v>0</v>
       </c>
       <c r="E408">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="409" spans="1:5">
@@ -7352,7 +7352,7 @@
         <v>407</v>
       </c>
       <c r="B409" s="2">
-        <v>43914</v>
+        <v>43910</v>
       </c>
       <c r="C409" t="s">
         <v>8</v>
@@ -7361,7 +7361,7 @@
         <v>0</v>
       </c>
       <c r="E409">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="410" spans="1:5">
@@ -7369,16 +7369,16 @@
         <v>408</v>
       </c>
       <c r="B410" s="2">
-        <v>43915</v>
+        <v>43911</v>
       </c>
       <c r="C410" t="s">
         <v>8</v>
       </c>
       <c r="D410">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E410">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="411" spans="1:5">
@@ -7386,7 +7386,7 @@
         <v>409</v>
       </c>
       <c r="B411" s="2">
-        <v>43916</v>
+        <v>43912</v>
       </c>
       <c r="C411" t="s">
         <v>8</v>
@@ -7395,7 +7395,7 @@
         <v>0</v>
       </c>
       <c r="E411">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="412" spans="1:5">
@@ -7403,16 +7403,16 @@
         <v>410</v>
       </c>
       <c r="B412" s="2">
-        <v>43917</v>
+        <v>43913</v>
       </c>
       <c r="C412" t="s">
         <v>8</v>
       </c>
       <c r="D412">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E412">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="413" spans="1:5">
@@ -7420,7 +7420,7 @@
         <v>411</v>
       </c>
       <c r="B413" s="2">
-        <v>43918</v>
+        <v>43914</v>
       </c>
       <c r="C413" t="s">
         <v>8</v>
@@ -7429,7 +7429,7 @@
         <v>1</v>
       </c>
       <c r="E413">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="414" spans="1:5">
@@ -7437,16 +7437,16 @@
         <v>412</v>
       </c>
       <c r="B414" s="2">
-        <v>43919</v>
+        <v>43915</v>
       </c>
       <c r="C414" t="s">
         <v>8</v>
       </c>
       <c r="D414">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E414">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="415" spans="1:5">
@@ -7454,7 +7454,7 @@
         <v>413</v>
       </c>
       <c r="B415" s="2">
-        <v>43920</v>
+        <v>43916</v>
       </c>
       <c r="C415" t="s">
         <v>8</v>
@@ -7463,7 +7463,7 @@
         <v>0</v>
       </c>
       <c r="E415">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="416" spans="1:5">
@@ -7471,16 +7471,16 @@
         <v>414</v>
       </c>
       <c r="B416" s="2">
-        <v>43921</v>
+        <v>43917</v>
       </c>
       <c r="C416" t="s">
         <v>8</v>
       </c>
       <c r="D416">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E416">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="417" spans="1:5">
@@ -7488,16 +7488,16 @@
         <v>415</v>
       </c>
       <c r="B417" s="2">
-        <v>43922</v>
+        <v>43918</v>
       </c>
       <c r="C417" t="s">
         <v>8</v>
       </c>
       <c r="D417">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E417">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="418" spans="1:5">
@@ -7505,16 +7505,16 @@
         <v>416</v>
       </c>
       <c r="B418" s="2">
-        <v>43923</v>
+        <v>43919</v>
       </c>
       <c r="C418" t="s">
         <v>8</v>
       </c>
       <c r="D418">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E418">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="419" spans="1:5">
@@ -7522,7 +7522,7 @@
         <v>417</v>
       </c>
       <c r="B419" s="2">
-        <v>43924</v>
+        <v>43920</v>
       </c>
       <c r="C419" t="s">
         <v>8</v>
@@ -7531,7 +7531,7 @@
         <v>1</v>
       </c>
       <c r="E419">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="420" spans="1:5">
@@ -7539,16 +7539,16 @@
         <v>418</v>
       </c>
       <c r="B420" s="2">
-        <v>43925</v>
+        <v>43921</v>
       </c>
       <c r="C420" t="s">
         <v>8</v>
       </c>
       <c r="D420">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E420">
-        <v>8</v>
+        <v>28</v>
       </c>
     </row>
     <row r="421" spans="1:5">
@@ -7556,16 +7556,16 @@
         <v>419</v>
       </c>
       <c r="B421" s="2">
-        <v>43926</v>
+        <v>43922</v>
       </c>
       <c r="C421" t="s">
         <v>8</v>
       </c>
       <c r="D421">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E421">
-        <v>8</v>
+        <v>31</v>
       </c>
     </row>
     <row r="422" spans="1:5">
@@ -7573,16 +7573,16 @@
         <v>420</v>
       </c>
       <c r="B422" s="2">
-        <v>43927</v>
+        <v>43923</v>
       </c>
       <c r="C422" t="s">
         <v>8</v>
       </c>
       <c r="D422">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E422">
-        <v>8</v>
+        <v>37</v>
       </c>
     </row>
     <row r="423" spans="1:5">
@@ -7590,16 +7590,16 @@
         <v>421</v>
       </c>
       <c r="B423" s="2">
-        <v>43928</v>
+        <v>43924</v>
       </c>
       <c r="C423" t="s">
         <v>8</v>
       </c>
       <c r="D423">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E423">
-        <v>8</v>
+        <v>42</v>
       </c>
     </row>
     <row r="424" spans="1:5">
@@ -7607,16 +7607,16 @@
         <v>422</v>
       </c>
       <c r="B424" s="2">
-        <v>43929</v>
+        <v>43925</v>
       </c>
       <c r="C424" t="s">
         <v>8</v>
       </c>
       <c r="D424">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E424">
-        <v>8</v>
+        <v>47</v>
       </c>
     </row>
     <row r="425" spans="1:5">
@@ -7624,16 +7624,16 @@
         <v>423</v>
       </c>
       <c r="B425" s="2">
-        <v>43930</v>
+        <v>43926</v>
       </c>
       <c r="C425" t="s">
         <v>8</v>
       </c>
       <c r="D425">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E425">
-        <v>9</v>
+        <v>54</v>
       </c>
     </row>
     <row r="426" spans="1:5">
@@ -7641,16 +7641,16 @@
         <v>424</v>
       </c>
       <c r="B426" s="2">
-        <v>43931</v>
+        <v>43927</v>
       </c>
       <c r="C426" t="s">
         <v>8</v>
       </c>
       <c r="D426">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E426">
-        <v>13</v>
+        <v>59</v>
       </c>
     </row>
     <row r="427" spans="1:5">
@@ -7658,16 +7658,16 @@
         <v>425</v>
       </c>
       <c r="B427" s="2">
-        <v>43932</v>
+        <v>43928</v>
       </c>
       <c r="C427" t="s">
         <v>8</v>
       </c>
       <c r="D427">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E427">
-        <v>14</v>
+        <v>63</v>
       </c>
     </row>
     <row r="428" spans="1:5">
@@ -7675,7 +7675,7 @@
         <v>426</v>
       </c>
       <c r="B428" s="2">
-        <v>43933</v>
+        <v>43929</v>
       </c>
       <c r="C428" t="s">
         <v>8</v>
@@ -7684,7 +7684,7 @@
         <v>2</v>
       </c>
       <c r="E428">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="429" spans="1:5">
@@ -7692,16 +7692,16 @@
         <v>427</v>
       </c>
       <c r="B429" s="2">
-        <v>43934</v>
+        <v>43930</v>
       </c>
       <c r="C429" t="s">
         <v>8</v>
       </c>
       <c r="D429">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E429">
-        <v>16</v>
+        <v>89</v>
       </c>
     </row>
     <row r="430" spans="1:5">
@@ -7709,16 +7709,16 @@
         <v>428</v>
       </c>
       <c r="B430" s="2">
-        <v>43935</v>
+        <v>43931</v>
       </c>
       <c r="C430" t="s">
         <v>8</v>
       </c>
       <c r="D430">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E430">
-        <v>17</v>
+        <v>97</v>
       </c>
     </row>
     <row r="431" spans="1:5">
@@ -7726,16 +7726,16 @@
         <v>429</v>
       </c>
       <c r="B431" s="2">
-        <v>43936</v>
+        <v>43932</v>
       </c>
       <c r="C431" t="s">
         <v>8</v>
       </c>
       <c r="D431">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E431">
-        <v>20</v>
+        <v>112</v>
       </c>
     </row>
     <row r="432" spans="1:5">
@@ -7743,16 +7743,16 @@
         <v>430</v>
       </c>
       <c r="B432" s="2">
-        <v>43937</v>
+        <v>43933</v>
       </c>
       <c r="C432" t="s">
         <v>8</v>
       </c>
       <c r="D432">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E432">
-        <v>21</v>
+        <v>115</v>
       </c>
     </row>
     <row r="433" spans="1:5">
@@ -7760,16 +7760,16 @@
         <v>431</v>
       </c>
       <c r="B433" s="2">
-        <v>43938</v>
+        <v>43934</v>
       </c>
       <c r="C433" t="s">
         <v>8</v>
       </c>
       <c r="D433">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E433">
-        <v>23</v>
+        <v>120</v>
       </c>
     </row>
     <row r="434" spans="1:5">
@@ -7777,16 +7777,16 @@
         <v>432</v>
       </c>
       <c r="B434" s="2">
-        <v>43939</v>
+        <v>43935</v>
       </c>
       <c r="C434" t="s">
         <v>8</v>
       </c>
       <c r="D434">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="E434">
-        <v>66</v>
+        <v>127</v>
       </c>
     </row>
     <row r="435" spans="1:5">
@@ -7794,7 +7794,7 @@
         <v>433</v>
       </c>
       <c r="B435" s="2">
-        <v>43940</v>
+        <v>43936</v>
       </c>
       <c r="C435" t="s">
         <v>8</v>
@@ -7803,7 +7803,7 @@
         <v>9</v>
       </c>
       <c r="E435">
-        <v>75</v>
+        <v>136</v>
       </c>
     </row>
     <row r="436" spans="1:5">
@@ -7811,16 +7811,16 @@
         <v>434</v>
       </c>
       <c r="B436" s="2">
-        <v>43941</v>
+        <v>43937</v>
       </c>
       <c r="C436" t="s">
         <v>8</v>
       </c>
       <c r="D436">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="E436">
-        <v>117</v>
+        <v>146</v>
       </c>
     </row>
     <row r="437" spans="1:5">
@@ -7828,16 +7828,16 @@
         <v>435</v>
       </c>
       <c r="B437" s="2">
-        <v>43942</v>
+        <v>43938</v>
       </c>
       <c r="C437" t="s">
         <v>8</v>
       </c>
       <c r="D437">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="E437">
-        <v>141</v>
+        <v>153</v>
       </c>
     </row>
     <row r="438" spans="1:5">
@@ -7845,16 +7845,16 @@
         <v>436</v>
       </c>
       <c r="B438" s="2">
-        <v>43943</v>
+        <v>43939</v>
       </c>
       <c r="C438" t="s">
         <v>8</v>
       </c>
       <c r="D438">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E438">
-        <v>143</v>
+        <v>157</v>
       </c>
     </row>
     <row r="439" spans="1:5">
@@ -7862,16 +7862,16 @@
         <v>437</v>
       </c>
       <c r="B439" s="2">
-        <v>43944</v>
+        <v>43940</v>
       </c>
       <c r="C439" t="s">
         <v>8</v>
       </c>
       <c r="D439">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E439">
-        <v>149</v>
+        <v>165</v>
       </c>
     </row>
     <row r="440" spans="1:5">
@@ -7879,16 +7879,16 @@
         <v>438</v>
       </c>
       <c r="B440" s="2">
-        <v>43945</v>
+        <v>43941</v>
       </c>
       <c r="C440" t="s">
         <v>8</v>
       </c>
       <c r="D440">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E440">
-        <v>152</v>
+        <v>169</v>
       </c>
     </row>
     <row r="441" spans="1:5">
@@ -7896,16 +7896,16 @@
         <v>439</v>
       </c>
       <c r="B441" s="2">
-        <v>43946</v>
+        <v>43942</v>
       </c>
       <c r="C441" t="s">
         <v>8</v>
       </c>
       <c r="D441">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E441">
-        <v>152</v>
+        <v>170</v>
       </c>
     </row>
     <row r="442" spans="1:5">
@@ -7913,16 +7913,16 @@
         <v>440</v>
       </c>
       <c r="B442" s="2">
-        <v>43859</v>
+        <v>43943</v>
       </c>
       <c r="C442" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D442">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E442">
-        <v>0</v>
+        <v>172</v>
       </c>
     </row>
     <row r="443" spans="1:5">
@@ -7930,16 +7930,16 @@
         <v>441</v>
       </c>
       <c r="B443" s="2">
-        <v>43860</v>
+        <v>43944</v>
       </c>
       <c r="C443" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D443">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E443">
-        <v>0</v>
+        <v>174</v>
       </c>
     </row>
     <row r="444" spans="1:5">
@@ -7947,16 +7947,16 @@
         <v>442</v>
       </c>
       <c r="B444" s="2">
-        <v>43861</v>
+        <v>43945</v>
       </c>
       <c r="C444" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D444">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E444">
-        <v>0</v>
+        <v>176</v>
       </c>
     </row>
     <row r="445" spans="1:5">
@@ -7964,16 +7964,16 @@
         <v>443</v>
       </c>
       <c r="B445" s="2">
-        <v>43862</v>
+        <v>43946</v>
       </c>
       <c r="C445" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D445">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E445">
-        <v>0</v>
+        <v>177</v>
       </c>
     </row>
     <row r="446" spans="1:5">
@@ -7981,16 +7981,16 @@
         <v>444</v>
       </c>
       <c r="B446" s="2">
-        <v>43863</v>
+        <v>43947</v>
       </c>
       <c r="C446" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D446">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E446">
-        <v>0</v>
+        <v>179</v>
       </c>
     </row>
     <row r="447" spans="1:5">
@@ -7998,7 +7998,7 @@
         <v>445</v>
       </c>
       <c r="B447" s="2">
-        <v>43864</v>
+        <v>43859</v>
       </c>
       <c r="C447" t="s">
         <v>9</v>
@@ -8015,7 +8015,7 @@
         <v>446</v>
       </c>
       <c r="B448" s="2">
-        <v>43865</v>
+        <v>43860</v>
       </c>
       <c r="C448" t="s">
         <v>9</v>
@@ -8032,7 +8032,7 @@
         <v>447</v>
       </c>
       <c r="B449" s="2">
-        <v>43866</v>
+        <v>43861</v>
       </c>
       <c r="C449" t="s">
         <v>9</v>
@@ -8049,7 +8049,7 @@
         <v>448</v>
       </c>
       <c r="B450" s="2">
-        <v>43867</v>
+        <v>43862</v>
       </c>
       <c r="C450" t="s">
         <v>9</v>
@@ -8066,7 +8066,7 @@
         <v>449</v>
       </c>
       <c r="B451" s="2">
-        <v>43868</v>
+        <v>43863</v>
       </c>
       <c r="C451" t="s">
         <v>9</v>
@@ -8083,7 +8083,7 @@
         <v>450</v>
       </c>
       <c r="B452" s="2">
-        <v>43869</v>
+        <v>43864</v>
       </c>
       <c r="C452" t="s">
         <v>9</v>
@@ -8100,7 +8100,7 @@
         <v>451</v>
       </c>
       <c r="B453" s="2">
-        <v>43870</v>
+        <v>43865</v>
       </c>
       <c r="C453" t="s">
         <v>9</v>
@@ -8117,7 +8117,7 @@
         <v>452</v>
       </c>
       <c r="B454" s="2">
-        <v>43871</v>
+        <v>43866</v>
       </c>
       <c r="C454" t="s">
         <v>9</v>
@@ -8134,7 +8134,7 @@
         <v>453</v>
       </c>
       <c r="B455" s="2">
-        <v>43872</v>
+        <v>43867</v>
       </c>
       <c r="C455" t="s">
         <v>9</v>
@@ -8151,7 +8151,7 @@
         <v>454</v>
       </c>
       <c r="B456" s="2">
-        <v>43873</v>
+        <v>43868</v>
       </c>
       <c r="C456" t="s">
         <v>9</v>
@@ -8168,7 +8168,7 @@
         <v>455</v>
       </c>
       <c r="B457" s="2">
-        <v>43874</v>
+        <v>43869</v>
       </c>
       <c r="C457" t="s">
         <v>9</v>
@@ -8185,7 +8185,7 @@
         <v>456</v>
       </c>
       <c r="B458" s="2">
-        <v>43875</v>
+        <v>43870</v>
       </c>
       <c r="C458" t="s">
         <v>9</v>
@@ -8202,7 +8202,7 @@
         <v>457</v>
       </c>
       <c r="B459" s="2">
-        <v>43876</v>
+        <v>43871</v>
       </c>
       <c r="C459" t="s">
         <v>9</v>
@@ -8219,7 +8219,7 @@
         <v>458</v>
       </c>
       <c r="B460" s="2">
-        <v>43877</v>
+        <v>43872</v>
       </c>
       <c r="C460" t="s">
         <v>9</v>
@@ -8236,7 +8236,7 @@
         <v>459</v>
       </c>
       <c r="B461" s="2">
-        <v>43878</v>
+        <v>43873</v>
       </c>
       <c r="C461" t="s">
         <v>9</v>
@@ -8253,7 +8253,7 @@
         <v>460</v>
       </c>
       <c r="B462" s="2">
-        <v>43879</v>
+        <v>43874</v>
       </c>
       <c r="C462" t="s">
         <v>9</v>
@@ -8270,7 +8270,7 @@
         <v>461</v>
       </c>
       <c r="B463" s="2">
-        <v>43880</v>
+        <v>43875</v>
       </c>
       <c r="C463" t="s">
         <v>9</v>
@@ -8287,7 +8287,7 @@
         <v>462</v>
       </c>
       <c r="B464" s="2">
-        <v>43881</v>
+        <v>43876</v>
       </c>
       <c r="C464" t="s">
         <v>9</v>
@@ -8304,7 +8304,7 @@
         <v>463</v>
       </c>
       <c r="B465" s="2">
-        <v>43882</v>
+        <v>43877</v>
       </c>
       <c r="C465" t="s">
         <v>9</v>
@@ -8321,7 +8321,7 @@
         <v>464</v>
       </c>
       <c r="B466" s="2">
-        <v>43883</v>
+        <v>43878</v>
       </c>
       <c r="C466" t="s">
         <v>9</v>
@@ -8338,7 +8338,7 @@
         <v>465</v>
       </c>
       <c r="B467" s="2">
-        <v>43884</v>
+        <v>43879</v>
       </c>
       <c r="C467" t="s">
         <v>9</v>
@@ -8355,7 +8355,7 @@
         <v>466</v>
       </c>
       <c r="B468" s="2">
-        <v>43885</v>
+        <v>43880</v>
       </c>
       <c r="C468" t="s">
         <v>9</v>
@@ -8372,7 +8372,7 @@
         <v>467</v>
       </c>
       <c r="B469" s="2">
-        <v>43886</v>
+        <v>43881</v>
       </c>
       <c r="C469" t="s">
         <v>9</v>
@@ -8389,7 +8389,7 @@
         <v>468</v>
       </c>
       <c r="B470" s="2">
-        <v>43887</v>
+        <v>43882</v>
       </c>
       <c r="C470" t="s">
         <v>9</v>
@@ -8406,7 +8406,7 @@
         <v>469</v>
       </c>
       <c r="B471" s="2">
-        <v>43888</v>
+        <v>43883</v>
       </c>
       <c r="C471" t="s">
         <v>9</v>
@@ -8423,7 +8423,7 @@
         <v>470</v>
       </c>
       <c r="B472" s="2">
-        <v>43889</v>
+        <v>43884</v>
       </c>
       <c r="C472" t="s">
         <v>9</v>
@@ -8440,7 +8440,7 @@
         <v>471</v>
       </c>
       <c r="B473" s="2">
-        <v>43890</v>
+        <v>43885</v>
       </c>
       <c r="C473" t="s">
         <v>9</v>
@@ -8457,7 +8457,7 @@
         <v>472</v>
       </c>
       <c r="B474" s="2">
-        <v>43891</v>
+        <v>43886</v>
       </c>
       <c r="C474" t="s">
         <v>9</v>
@@ -8474,7 +8474,7 @@
         <v>473</v>
       </c>
       <c r="B475" s="2">
-        <v>43892</v>
+        <v>43887</v>
       </c>
       <c r="C475" t="s">
         <v>9</v>
@@ -8491,7 +8491,7 @@
         <v>474</v>
       </c>
       <c r="B476" s="2">
-        <v>43893</v>
+        <v>43888</v>
       </c>
       <c r="C476" t="s">
         <v>9</v>
@@ -8508,16 +8508,16 @@
         <v>475</v>
       </c>
       <c r="B477" s="2">
-        <v>43894</v>
+        <v>43889</v>
       </c>
       <c r="C477" t="s">
         <v>9</v>
       </c>
       <c r="D477">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E477">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:5">
@@ -8525,7 +8525,7 @@
         <v>476</v>
       </c>
       <c r="B478" s="2">
-        <v>43895</v>
+        <v>43890</v>
       </c>
       <c r="C478" t="s">
         <v>9</v>
@@ -8534,7 +8534,7 @@
         <v>0</v>
       </c>
       <c r="E478">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:5">
@@ -8542,7 +8542,7 @@
         <v>477</v>
       </c>
       <c r="B479" s="2">
-        <v>43896</v>
+        <v>43891</v>
       </c>
       <c r="C479" t="s">
         <v>9</v>
@@ -8551,7 +8551,7 @@
         <v>0</v>
       </c>
       <c r="E479">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:5">
@@ -8559,7 +8559,7 @@
         <v>478</v>
       </c>
       <c r="B480" s="2">
-        <v>43897</v>
+        <v>43892</v>
       </c>
       <c r="C480" t="s">
         <v>9</v>
@@ -8568,7 +8568,7 @@
         <v>0</v>
       </c>
       <c r="E480">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:5">
@@ -8576,7 +8576,7 @@
         <v>479</v>
       </c>
       <c r="B481" s="2">
-        <v>43898</v>
+        <v>43893</v>
       </c>
       <c r="C481" t="s">
         <v>9</v>
@@ -8585,7 +8585,7 @@
         <v>0</v>
       </c>
       <c r="E481">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:5">
@@ -8593,16 +8593,16 @@
         <v>480</v>
       </c>
       <c r="B482" s="2">
-        <v>43899</v>
+        <v>43894</v>
       </c>
       <c r="C482" t="s">
         <v>9</v>
       </c>
       <c r="D482">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E482">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="483" spans="1:5">
@@ -8610,7 +8610,7 @@
         <v>481</v>
       </c>
       <c r="B483" s="2">
-        <v>43900</v>
+        <v>43895</v>
       </c>
       <c r="C483" t="s">
         <v>9</v>
@@ -8619,7 +8619,7 @@
         <v>0</v>
       </c>
       <c r="E483">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="484" spans="1:5">
@@ -8627,16 +8627,16 @@
         <v>482</v>
       </c>
       <c r="B484" s="2">
-        <v>43901</v>
+        <v>43896</v>
       </c>
       <c r="C484" t="s">
         <v>9</v>
       </c>
       <c r="D484">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E484">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="485" spans="1:5">
@@ -8644,16 +8644,16 @@
         <v>483</v>
       </c>
       <c r="B485" s="2">
-        <v>43902</v>
+        <v>43897</v>
       </c>
       <c r="C485" t="s">
         <v>9</v>
       </c>
       <c r="D485">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E485">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="486" spans="1:5">
@@ -8661,16 +8661,16 @@
         <v>484</v>
       </c>
       <c r="B486" s="2">
-        <v>43903</v>
+        <v>43898</v>
       </c>
       <c r="C486" t="s">
         <v>9</v>
       </c>
       <c r="D486">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E486">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="487" spans="1:5">
@@ -8678,7 +8678,7 @@
         <v>485</v>
       </c>
       <c r="B487" s="2">
-        <v>43904</v>
+        <v>43899</v>
       </c>
       <c r="C487" t="s">
         <v>9</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="E487">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="488" spans="1:5">
@@ -8695,16 +8695,16 @@
         <v>486</v>
       </c>
       <c r="B488" s="2">
-        <v>43905</v>
+        <v>43900</v>
       </c>
       <c r="C488" t="s">
         <v>9</v>
       </c>
       <c r="D488">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E488">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="489" spans="1:5">
@@ -8712,16 +8712,16 @@
         <v>487</v>
       </c>
       <c r="B489" s="2">
-        <v>43906</v>
+        <v>43901</v>
       </c>
       <c r="C489" t="s">
         <v>9</v>
       </c>
       <c r="D489">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E489">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="490" spans="1:5">
@@ -8729,16 +8729,16 @@
         <v>488</v>
       </c>
       <c r="B490" s="2">
-        <v>43907</v>
+        <v>43902</v>
       </c>
       <c r="C490" t="s">
         <v>9</v>
       </c>
       <c r="D490">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E490">
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="491" spans="1:5">
@@ -8746,16 +8746,16 @@
         <v>489</v>
       </c>
       <c r="B491" s="2">
-        <v>43908</v>
+        <v>43903</v>
       </c>
       <c r="C491" t="s">
         <v>9</v>
       </c>
       <c r="D491">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E491">
-        <v>2</v>
+        <v>25</v>
       </c>
     </row>
     <row r="492" spans="1:5">
@@ -8763,16 +8763,16 @@
         <v>490</v>
       </c>
       <c r="B492" s="2">
-        <v>43909</v>
+        <v>43904</v>
       </c>
       <c r="C492" t="s">
         <v>9</v>
       </c>
       <c r="D492">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E492">
-        <v>2</v>
+        <v>28</v>
       </c>
     </row>
     <row r="493" spans="1:5">
@@ -8780,7 +8780,7 @@
         <v>491</v>
       </c>
       <c r="B493" s="2">
-        <v>43910</v>
+        <v>43905</v>
       </c>
       <c r="C493" t="s">
         <v>9</v>
@@ -8789,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="E493">
-        <v>2</v>
+        <v>28</v>
       </c>
     </row>
     <row r="494" spans="1:5">
@@ -8797,7 +8797,7 @@
         <v>492</v>
       </c>
       <c r="B494" s="2">
-        <v>43911</v>
+        <v>43906</v>
       </c>
       <c r="C494" t="s">
         <v>9</v>
@@ -8806,7 +8806,7 @@
         <v>0</v>
       </c>
       <c r="E494">
-        <v>2</v>
+        <v>28</v>
       </c>
     </row>
     <row r="495" spans="1:5">
@@ -8814,7 +8814,7 @@
         <v>493</v>
       </c>
       <c r="B495" s="2">
-        <v>43912</v>
+        <v>43907</v>
       </c>
       <c r="C495" t="s">
         <v>9</v>
@@ -8823,7 +8823,7 @@
         <v>0</v>
       </c>
       <c r="E495">
-        <v>2</v>
+        <v>28</v>
       </c>
     </row>
     <row r="496" spans="1:5">
@@ -8831,16 +8831,16 @@
         <v>494</v>
       </c>
       <c r="B496" s="2">
-        <v>43913</v>
+        <v>43908</v>
       </c>
       <c r="C496" t="s">
         <v>9</v>
       </c>
       <c r="D496">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E496">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="497" spans="1:5">
@@ -8848,16 +8848,16 @@
         <v>495</v>
       </c>
       <c r="B497" s="2">
-        <v>43914</v>
+        <v>43909</v>
       </c>
       <c r="C497" t="s">
         <v>9</v>
       </c>
       <c r="D497">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E497">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="498" spans="1:5">
@@ -8865,7 +8865,7 @@
         <v>496</v>
       </c>
       <c r="B498" s="2">
-        <v>43915</v>
+        <v>43910</v>
       </c>
       <c r="C498" t="s">
         <v>9</v>
@@ -8874,7 +8874,7 @@
         <v>2</v>
       </c>
       <c r="E498">
-        <v>4</v>
+        <v>34</v>
       </c>
     </row>
     <row r="499" spans="1:5">
@@ -8882,7 +8882,7 @@
         <v>497</v>
       </c>
       <c r="B499" s="2">
-        <v>43916</v>
+        <v>43911</v>
       </c>
       <c r="C499" t="s">
         <v>9</v>
@@ -8891,7 +8891,7 @@
         <v>0</v>
       </c>
       <c r="E499">
-        <v>4</v>
+        <v>34</v>
       </c>
     </row>
     <row r="500" spans="1:5">
@@ -8899,16 +8899,16 @@
         <v>498</v>
       </c>
       <c r="B500" s="2">
-        <v>43917</v>
+        <v>43912</v>
       </c>
       <c r="C500" t="s">
         <v>9</v>
       </c>
       <c r="D500">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E500">
-        <v>5</v>
+        <v>34</v>
       </c>
     </row>
     <row r="501" spans="1:5">
@@ -8916,16 +8916,16 @@
         <v>499</v>
       </c>
       <c r="B501" s="2">
-        <v>43918</v>
+        <v>43913</v>
       </c>
       <c r="C501" t="s">
         <v>9</v>
       </c>
       <c r="D501">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E501">
-        <v>6</v>
+        <v>34</v>
       </c>
     </row>
     <row r="502" spans="1:5">
@@ -8933,16 +8933,16 @@
         <v>500</v>
       </c>
       <c r="B502" s="2">
-        <v>43919</v>
+        <v>43914</v>
       </c>
       <c r="C502" t="s">
         <v>9</v>
       </c>
       <c r="D502">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E502">
-        <v>7</v>
+        <v>37</v>
       </c>
     </row>
     <row r="503" spans="1:5">
@@ -8950,16 +8950,16 @@
         <v>501</v>
       </c>
       <c r="B503" s="2">
-        <v>43920</v>
+        <v>43915</v>
       </c>
       <c r="C503" t="s">
         <v>9</v>
       </c>
       <c r="D503">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E503">
-        <v>7</v>
+        <v>38</v>
       </c>
     </row>
     <row r="504" spans="1:5">
@@ -8967,16 +8967,16 @@
         <v>502</v>
       </c>
       <c r="B504" s="2">
-        <v>43921</v>
+        <v>43916</v>
       </c>
       <c r="C504" t="s">
         <v>9</v>
       </c>
       <c r="D504">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E504">
-        <v>7</v>
+        <v>41</v>
       </c>
     </row>
     <row r="505" spans="1:5">
@@ -8984,16 +8984,16 @@
         <v>503</v>
       </c>
       <c r="B505" s="2">
-        <v>43922</v>
+        <v>43917</v>
       </c>
       <c r="C505" t="s">
         <v>9</v>
       </c>
       <c r="D505">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E505">
-        <v>7</v>
+        <v>44</v>
       </c>
     </row>
     <row r="506" spans="1:5">
@@ -9001,16 +9001,16 @@
         <v>504</v>
       </c>
       <c r="B506" s="2">
-        <v>43923</v>
+        <v>43918</v>
       </c>
       <c r="C506" t="s">
         <v>9</v>
       </c>
       <c r="D506">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E506">
-        <v>8</v>
+        <v>46</v>
       </c>
     </row>
     <row r="507" spans="1:5">
@@ -9018,16 +9018,16 @@
         <v>505</v>
       </c>
       <c r="B507" s="2">
-        <v>43924</v>
+        <v>43919</v>
       </c>
       <c r="C507" t="s">
         <v>9</v>
       </c>
       <c r="D507">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E507">
-        <v>8</v>
+        <v>49</v>
       </c>
     </row>
     <row r="508" spans="1:5">
@@ -9035,7 +9035,7 @@
         <v>506</v>
       </c>
       <c r="B508" s="2">
-        <v>43925</v>
+        <v>43920</v>
       </c>
       <c r="C508" t="s">
         <v>9</v>
@@ -9044,7 +9044,7 @@
         <v>1</v>
       </c>
       <c r="E508">
-        <v>9</v>
+        <v>50</v>
       </c>
     </row>
     <row r="509" spans="1:5">
@@ -9052,16 +9052,16 @@
         <v>507</v>
       </c>
       <c r="B509" s="2">
-        <v>43926</v>
+        <v>43921</v>
       </c>
       <c r="C509" t="s">
         <v>9</v>
       </c>
       <c r="D509">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E509">
-        <v>9</v>
+        <v>54</v>
       </c>
     </row>
     <row r="510" spans="1:5">
@@ -9069,16 +9069,16 @@
         <v>508</v>
       </c>
       <c r="B510" s="2">
-        <v>43927</v>
+        <v>43922</v>
       </c>
       <c r="C510" t="s">
         <v>9</v>
       </c>
       <c r="D510">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E510">
-        <v>9</v>
+        <v>57</v>
       </c>
     </row>
     <row r="511" spans="1:5">
@@ -9086,16 +9086,16 @@
         <v>509</v>
       </c>
       <c r="B511" s="2">
-        <v>43928</v>
+        <v>43923</v>
       </c>
       <c r="C511" t="s">
         <v>9</v>
       </c>
       <c r="D511">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E511">
-        <v>9</v>
+        <v>63</v>
       </c>
     </row>
     <row r="512" spans="1:5">
@@ -9103,16 +9103,16 @@
         <v>510</v>
       </c>
       <c r="B512" s="2">
-        <v>43929</v>
+        <v>43924</v>
       </c>
       <c r="C512" t="s">
         <v>9</v>
       </c>
       <c r="D512">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E512">
-        <v>11</v>
+        <v>68</v>
       </c>
     </row>
     <row r="513" spans="1:5">
@@ -9120,16 +9120,16 @@
         <v>511</v>
       </c>
       <c r="B513" s="2">
-        <v>43930</v>
+        <v>43925</v>
       </c>
       <c r="C513" t="s">
         <v>9</v>
       </c>
       <c r="D513">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E513">
-        <v>14</v>
+        <v>73</v>
       </c>
     </row>
     <row r="514" spans="1:5">
@@ -9137,16 +9137,16 @@
         <v>512</v>
       </c>
       <c r="B514" s="2">
-        <v>43931</v>
+        <v>43926</v>
       </c>
       <c r="C514" t="s">
         <v>9</v>
       </c>
       <c r="D514">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E514">
-        <v>22</v>
+        <v>74</v>
       </c>
     </row>
     <row r="515" spans="1:5">
@@ -9154,16 +9154,16 @@
         <v>513</v>
       </c>
       <c r="B515" s="2">
-        <v>43932</v>
+        <v>43927</v>
       </c>
       <c r="C515" t="s">
         <v>9</v>
       </c>
       <c r="D515">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E515">
-        <v>24</v>
+        <v>77</v>
       </c>
     </row>
     <row r="516" spans="1:5">
@@ -9171,16 +9171,16 @@
         <v>514</v>
       </c>
       <c r="B516" s="2">
-        <v>43933</v>
+        <v>43928</v>
       </c>
       <c r="C516" t="s">
         <v>9</v>
       </c>
       <c r="D516">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E516">
-        <v>25</v>
+        <v>87</v>
       </c>
     </row>
     <row r="517" spans="1:5">
@@ -9188,16 +9188,16 @@
         <v>515</v>
       </c>
       <c r="B517" s="2">
-        <v>43934</v>
+        <v>43929</v>
       </c>
       <c r="C517" t="s">
         <v>9</v>
       </c>
       <c r="D517">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E517">
-        <v>25</v>
+        <v>97</v>
       </c>
     </row>
     <row r="518" spans="1:5">
@@ -9205,16 +9205,16 @@
         <v>516</v>
       </c>
       <c r="B518" s="2">
-        <v>43935</v>
+        <v>43930</v>
       </c>
       <c r="C518" t="s">
         <v>9</v>
       </c>
       <c r="D518">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E518">
-        <v>27</v>
+        <v>109</v>
       </c>
     </row>
     <row r="519" spans="1:5">
@@ -9222,16 +9222,16 @@
         <v>517</v>
       </c>
       <c r="B519" s="2">
-        <v>43936</v>
+        <v>43931</v>
       </c>
       <c r="C519" t="s">
         <v>9</v>
       </c>
       <c r="D519">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E519">
-        <v>29</v>
+        <v>118</v>
       </c>
     </row>
     <row r="520" spans="1:5">
@@ -9239,16 +9239,16 @@
         <v>518</v>
       </c>
       <c r="B520" s="2">
-        <v>43937</v>
+        <v>43932</v>
       </c>
       <c r="C520" t="s">
         <v>9</v>
       </c>
       <c r="D520">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E520">
-        <v>29</v>
+        <v>127</v>
       </c>
     </row>
     <row r="521" spans="1:5">
@@ -9256,16 +9256,16 @@
         <v>519</v>
       </c>
       <c r="B521" s="2">
-        <v>43938</v>
+        <v>43933</v>
       </c>
       <c r="C521" t="s">
         <v>9</v>
       </c>
       <c r="D521">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E521">
-        <v>33</v>
+        <v>139</v>
       </c>
     </row>
     <row r="522" spans="1:5">
@@ -9273,16 +9273,16 @@
         <v>520</v>
       </c>
       <c r="B522" s="2">
-        <v>43939</v>
+        <v>43934</v>
       </c>
       <c r="C522" t="s">
         <v>9</v>
       </c>
       <c r="D522">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E522">
-        <v>37</v>
+        <v>144</v>
       </c>
     </row>
     <row r="523" spans="1:5">
@@ -9290,7 +9290,7 @@
         <v>521</v>
       </c>
       <c r="B523" s="2">
-        <v>43940</v>
+        <v>43935</v>
       </c>
       <c r="C523" t="s">
         <v>9</v>
@@ -9299,7 +9299,7 @@
         <v>2</v>
       </c>
       <c r="E523">
-        <v>39</v>
+        <v>146</v>
       </c>
     </row>
     <row r="524" spans="1:5">
@@ -9307,7 +9307,7 @@
         <v>522</v>
       </c>
       <c r="B524" s="2">
-        <v>43941</v>
+        <v>43936</v>
       </c>
       <c r="C524" t="s">
         <v>9</v>
@@ -9316,7 +9316,7 @@
         <v>27</v>
       </c>
       <c r="E524">
-        <v>66</v>
+        <v>173</v>
       </c>
     </row>
     <row r="525" spans="1:5">
@@ -9324,16 +9324,16 @@
         <v>523</v>
       </c>
       <c r="B525" s="2">
-        <v>43942</v>
+        <v>43937</v>
       </c>
       <c r="C525" t="s">
         <v>9</v>
       </c>
       <c r="D525">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E525">
-        <v>68</v>
+        <v>182</v>
       </c>
     </row>
     <row r="526" spans="1:5">
@@ -9341,16 +9341,16 @@
         <v>524</v>
       </c>
       <c r="B526" s="2">
-        <v>43943</v>
+        <v>43938</v>
       </c>
       <c r="C526" t="s">
         <v>9</v>
       </c>
       <c r="D526">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E526">
-        <v>68</v>
+        <v>192</v>
       </c>
     </row>
     <row r="527" spans="1:5">
@@ -9358,16 +9358,16 @@
         <v>525</v>
       </c>
       <c r="B527" s="2">
-        <v>43944</v>
+        <v>43939</v>
       </c>
       <c r="C527" t="s">
         <v>9</v>
       </c>
       <c r="D527">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E527">
-        <v>71</v>
+        <v>194</v>
       </c>
     </row>
     <row r="528" spans="1:5">
@@ -9375,16 +9375,16 @@
         <v>526</v>
       </c>
       <c r="B528" s="2">
-        <v>43945</v>
+        <v>43940</v>
       </c>
       <c r="C528" t="s">
         <v>9</v>
       </c>
       <c r="D528">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E528">
-        <v>71</v>
+        <v>196</v>
       </c>
     </row>
     <row r="529" spans="1:5">
@@ -9392,16 +9392,16 @@
         <v>527</v>
       </c>
       <c r="B529" s="2">
-        <v>43946</v>
+        <v>43941</v>
       </c>
       <c r="C529" t="s">
         <v>9</v>
       </c>
       <c r="D529">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E529">
-        <v>71</v>
+        <v>201</v>
       </c>
     </row>
     <row r="530" spans="1:5">
@@ -9409,16 +9409,16 @@
         <v>528</v>
       </c>
       <c r="B530" s="2">
-        <v>43859</v>
+        <v>43942</v>
       </c>
       <c r="C530" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D530">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E530">
-        <v>1</v>
+        <v>206</v>
       </c>
     </row>
     <row r="531" spans="1:5">
@@ -9426,16 +9426,16 @@
         <v>529</v>
       </c>
       <c r="B531" s="2">
-        <v>43860</v>
+        <v>43943</v>
       </c>
       <c r="C531" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D531">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E531">
-        <v>1</v>
+        <v>212</v>
       </c>
     </row>
     <row r="532" spans="1:5">
@@ -9443,16 +9443,16 @@
         <v>530</v>
       </c>
       <c r="B532" s="2">
-        <v>43861</v>
+        <v>43944</v>
       </c>
       <c r="C532" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D532">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E532">
-        <v>1</v>
+        <v>214</v>
       </c>
     </row>
     <row r="533" spans="1:5">
@@ -9460,16 +9460,16 @@
         <v>531</v>
       </c>
       <c r="B533" s="2">
-        <v>43862</v>
+        <v>43945</v>
       </c>
       <c r="C533" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D533">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E533">
-        <v>1</v>
+        <v>217</v>
       </c>
     </row>
     <row r="534" spans="1:5">
@@ -9477,16 +9477,16 @@
         <v>532</v>
       </c>
       <c r="B534" s="2">
-        <v>43863</v>
+        <v>43946</v>
       </c>
       <c r="C534" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D534">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E534">
-        <v>1</v>
+        <v>221</v>
       </c>
     </row>
     <row r="535" spans="1:5">
@@ -9494,16 +9494,16 @@
         <v>533</v>
       </c>
       <c r="B535" s="2">
-        <v>43864</v>
+        <v>43947</v>
       </c>
       <c r="C535" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D535">
         <v>0</v>
       </c>
       <c r="E535">
-        <v>1</v>
+        <v>221</v>
       </c>
     </row>
     <row r="536" spans="1:5">
@@ -9511,13 +9511,13 @@
         <v>534</v>
       </c>
       <c r="B536" s="2">
-        <v>43865</v>
+        <v>43859</v>
       </c>
       <c r="C536" t="s">
         <v>10</v>
       </c>
       <c r="D536">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E536">
         <v>1</v>
@@ -9528,7 +9528,7 @@
         <v>535</v>
       </c>
       <c r="B537" s="2">
-        <v>43866</v>
+        <v>43860</v>
       </c>
       <c r="C537" t="s">
         <v>10</v>
@@ -9545,7 +9545,7 @@
         <v>536</v>
       </c>
       <c r="B538" s="2">
-        <v>43867</v>
+        <v>43861</v>
       </c>
       <c r="C538" t="s">
         <v>10</v>
@@ -9562,7 +9562,7 @@
         <v>537</v>
       </c>
       <c r="B539" s="2">
-        <v>43868</v>
+        <v>43862</v>
       </c>
       <c r="C539" t="s">
         <v>10</v>
@@ -9579,7 +9579,7 @@
         <v>538</v>
       </c>
       <c r="B540" s="2">
-        <v>43869</v>
+        <v>43863</v>
       </c>
       <c r="C540" t="s">
         <v>10</v>
@@ -9596,7 +9596,7 @@
         <v>539</v>
       </c>
       <c r="B541" s="2">
-        <v>43870</v>
+        <v>43864</v>
       </c>
       <c r="C541" t="s">
         <v>10</v>
@@ -9613,7 +9613,7 @@
         <v>540</v>
       </c>
       <c r="B542" s="2">
-        <v>43871</v>
+        <v>43865</v>
       </c>
       <c r="C542" t="s">
         <v>10</v>
@@ -9630,7 +9630,7 @@
         <v>541</v>
       </c>
       <c r="B543" s="2">
-        <v>43872</v>
+        <v>43866</v>
       </c>
       <c r="C543" t="s">
         <v>10</v>
@@ -9647,7 +9647,7 @@
         <v>542</v>
       </c>
       <c r="B544" s="2">
-        <v>43873</v>
+        <v>43867</v>
       </c>
       <c r="C544" t="s">
         <v>10</v>
@@ -9664,7 +9664,7 @@
         <v>543</v>
       </c>
       <c r="B545" s="2">
-        <v>43874</v>
+        <v>43868</v>
       </c>
       <c r="C545" t="s">
         <v>10</v>
@@ -9681,7 +9681,7 @@
         <v>544</v>
       </c>
       <c r="B546" s="2">
-        <v>43875</v>
+        <v>43869</v>
       </c>
       <c r="C546" t="s">
         <v>10</v>
@@ -9698,7 +9698,7 @@
         <v>545</v>
       </c>
       <c r="B547" s="2">
-        <v>43876</v>
+        <v>43870</v>
       </c>
       <c r="C547" t="s">
         <v>10</v>
@@ -9715,7 +9715,7 @@
         <v>546</v>
       </c>
       <c r="B548" s="2">
-        <v>43877</v>
+        <v>43871</v>
       </c>
       <c r="C548" t="s">
         <v>10</v>
@@ -9732,7 +9732,7 @@
         <v>547</v>
       </c>
       <c r="B549" s="2">
-        <v>43878</v>
+        <v>43872</v>
       </c>
       <c r="C549" t="s">
         <v>10</v>
@@ -9749,7 +9749,7 @@
         <v>548</v>
       </c>
       <c r="B550" s="2">
-        <v>43879</v>
+        <v>43873</v>
       </c>
       <c r="C550" t="s">
         <v>10</v>
@@ -9766,7 +9766,7 @@
         <v>549</v>
       </c>
       <c r="B551" s="2">
-        <v>43880</v>
+        <v>43874</v>
       </c>
       <c r="C551" t="s">
         <v>10</v>
@@ -9783,7 +9783,7 @@
         <v>550</v>
       </c>
       <c r="B552" s="2">
-        <v>43881</v>
+        <v>43875</v>
       </c>
       <c r="C552" t="s">
         <v>10</v>
@@ -9800,7 +9800,7 @@
         <v>551</v>
       </c>
       <c r="B553" s="2">
-        <v>43882</v>
+        <v>43876</v>
       </c>
       <c r="C553" t="s">
         <v>10</v>
@@ -9817,7 +9817,7 @@
         <v>552</v>
       </c>
       <c r="B554" s="2">
-        <v>43883</v>
+        <v>43877</v>
       </c>
       <c r="C554" t="s">
         <v>10</v>
@@ -9834,7 +9834,7 @@
         <v>553</v>
       </c>
       <c r="B555" s="2">
-        <v>43884</v>
+        <v>43878</v>
       </c>
       <c r="C555" t="s">
         <v>10</v>
@@ -9851,7 +9851,7 @@
         <v>554</v>
       </c>
       <c r="B556" s="2">
-        <v>43885</v>
+        <v>43879</v>
       </c>
       <c r="C556" t="s">
         <v>10</v>
@@ -9868,7 +9868,7 @@
         <v>555</v>
       </c>
       <c r="B557" s="2">
-        <v>43886</v>
+        <v>43880</v>
       </c>
       <c r="C557" t="s">
         <v>10</v>
@@ -9885,7 +9885,7 @@
         <v>556</v>
       </c>
       <c r="B558" s="2">
-        <v>43887</v>
+        <v>43881</v>
       </c>
       <c r="C558" t="s">
         <v>10</v>
@@ -9902,16 +9902,16 @@
         <v>557</v>
       </c>
       <c r="B559" s="2">
-        <v>43888</v>
+        <v>43882</v>
       </c>
       <c r="C559" t="s">
         <v>10</v>
       </c>
       <c r="D559">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E559">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="560" spans="1:5">
@@ -9919,16 +9919,16 @@
         <v>558</v>
       </c>
       <c r="B560" s="2">
-        <v>43889</v>
+        <v>43883</v>
       </c>
       <c r="C560" t="s">
         <v>10</v>
       </c>
       <c r="D560">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E560">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="561" spans="1:5">
@@ -9936,7 +9936,7 @@
         <v>559</v>
       </c>
       <c r="B561" s="2">
-        <v>43890</v>
+        <v>43884</v>
       </c>
       <c r="C561" t="s">
         <v>10</v>
@@ -9945,7 +9945,7 @@
         <v>0</v>
       </c>
       <c r="E561">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="562" spans="1:5">
@@ -9953,7 +9953,7 @@
         <v>560</v>
       </c>
       <c r="B562" s="2">
-        <v>43891</v>
+        <v>43885</v>
       </c>
       <c r="C562" t="s">
         <v>10</v>
@@ -9962,7 +9962,7 @@
         <v>0</v>
       </c>
       <c r="E562">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="563" spans="1:5">
@@ -9970,16 +9970,16 @@
         <v>561</v>
       </c>
       <c r="B563" s="2">
-        <v>43892</v>
+        <v>43886</v>
       </c>
       <c r="C563" t="s">
         <v>10</v>
       </c>
       <c r="D563">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E563">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="564" spans="1:5">
@@ -9987,16 +9987,16 @@
         <v>562</v>
       </c>
       <c r="B564" s="2">
-        <v>43893</v>
+        <v>43887</v>
       </c>
       <c r="C564" t="s">
         <v>10</v>
       </c>
       <c r="D564">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E564">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="565" spans="1:5">
@@ -10004,16 +10004,16 @@
         <v>563</v>
       </c>
       <c r="B565" s="2">
-        <v>43894</v>
+        <v>43888</v>
       </c>
       <c r="C565" t="s">
         <v>10</v>
       </c>
       <c r="D565">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E565">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="566" spans="1:5">
@@ -10021,16 +10021,16 @@
         <v>564</v>
       </c>
       <c r="B566" s="2">
-        <v>43895</v>
+        <v>43889</v>
       </c>
       <c r="C566" t="s">
         <v>10</v>
       </c>
       <c r="D566">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E566">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="567" spans="1:5">
@@ -10038,16 +10038,16 @@
         <v>565</v>
       </c>
       <c r="B567" s="2">
-        <v>43896</v>
+        <v>43890</v>
       </c>
       <c r="C567" t="s">
         <v>10</v>
       </c>
       <c r="D567">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E567">
-        <v>31</v>
+        <v>4</v>
       </c>
     </row>
     <row r="568" spans="1:5">
@@ -10055,16 +10055,16 @@
         <v>566</v>
       </c>
       <c r="B568" s="2">
-        <v>43897</v>
+        <v>43891</v>
       </c>
       <c r="C568" t="s">
         <v>10</v>
       </c>
       <c r="D568">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E568">
-        <v>41</v>
+        <v>4</v>
       </c>
     </row>
     <row r="569" spans="1:5">
@@ -10072,16 +10072,16 @@
         <v>567</v>
       </c>
       <c r="B569" s="2">
-        <v>43898</v>
+        <v>43892</v>
       </c>
       <c r="C569" t="s">
         <v>10</v>
       </c>
       <c r="D569">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E569">
-        <v>55</v>
+        <v>6</v>
       </c>
     </row>
     <row r="570" spans="1:5">
@@ -10089,16 +10089,16 @@
         <v>568</v>
       </c>
       <c r="B570" s="2">
-        <v>43899</v>
+        <v>43893</v>
       </c>
       <c r="C570" t="s">
         <v>10</v>
       </c>
       <c r="D570">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E570">
-        <v>55</v>
+        <v>8</v>
       </c>
     </row>
     <row r="571" spans="1:5">
@@ -10106,16 +10106,16 @@
         <v>569</v>
       </c>
       <c r="B571" s="2">
-        <v>43900</v>
+        <v>43894</v>
       </c>
       <c r="C571" t="s">
         <v>10</v>
       </c>
       <c r="D571">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E571">
-        <v>73</v>
+        <v>17</v>
       </c>
     </row>
     <row r="572" spans="1:5">
@@ -10123,16 +10123,16 @@
         <v>570</v>
       </c>
       <c r="B572" s="2">
-        <v>43901</v>
+        <v>43895</v>
       </c>
       <c r="C572" t="s">
         <v>10</v>
       </c>
       <c r="D572">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E572">
-        <v>80</v>
+        <v>18</v>
       </c>
     </row>
     <row r="573" spans="1:5">
@@ -10140,16 +10140,16 @@
         <v>571</v>
       </c>
       <c r="B573" s="2">
-        <v>43902</v>
+        <v>43896</v>
       </c>
       <c r="C573" t="s">
         <v>10</v>
       </c>
       <c r="D573">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E573">
-        <v>89</v>
+        <v>31</v>
       </c>
     </row>
     <row r="574" spans="1:5">
@@ -10157,16 +10157,16 @@
         <v>572</v>
       </c>
       <c r="B574" s="2">
-        <v>43903</v>
+        <v>43897</v>
       </c>
       <c r="C574" t="s">
         <v>10</v>
       </c>
       <c r="D574">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E574">
-        <v>92</v>
+        <v>41</v>
       </c>
     </row>
     <row r="575" spans="1:5">
@@ -10174,16 +10174,16 @@
         <v>573</v>
       </c>
       <c r="B575" s="2">
-        <v>43904</v>
+        <v>43898</v>
       </c>
       <c r="C575" t="s">
         <v>10</v>
       </c>
       <c r="D575">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E575">
-        <v>102</v>
+        <v>55</v>
       </c>
     </row>
     <row r="576" spans="1:5">
@@ -10191,16 +10191,16 @@
         <v>574</v>
       </c>
       <c r="B576" s="2">
-        <v>43905</v>
+        <v>43899</v>
       </c>
       <c r="C576" t="s">
         <v>10</v>
       </c>
       <c r="D576">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E576">
-        <v>106</v>
+        <v>55</v>
       </c>
     </row>
     <row r="577" spans="1:5">
@@ -10208,16 +10208,16 @@
         <v>575</v>
       </c>
       <c r="B577" s="2">
-        <v>43906</v>
+        <v>43900</v>
       </c>
       <c r="C577" t="s">
         <v>10</v>
       </c>
       <c r="D577">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="E577">
-        <v>108</v>
+        <v>73</v>
       </c>
     </row>
     <row r="578" spans="1:5">
@@ -10225,16 +10225,16 @@
         <v>576</v>
       </c>
       <c r="B578" s="2">
-        <v>43907</v>
+        <v>43901</v>
       </c>
       <c r="C578" t="s">
         <v>10</v>
       </c>
       <c r="D578">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E578">
-        <v>112</v>
+        <v>80</v>
       </c>
     </row>
     <row r="579" spans="1:5">
@@ -10242,16 +10242,16 @@
         <v>577</v>
       </c>
       <c r="B579" s="2">
-        <v>43908</v>
+        <v>43902</v>
       </c>
       <c r="C579" t="s">
         <v>10</v>
       </c>
       <c r="D579">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E579">
-        <v>117</v>
+        <v>89</v>
       </c>
     </row>
     <row r="580" spans="1:5">
@@ -10259,16 +10259,16 @@
         <v>578</v>
       </c>
       <c r="B580" s="2">
-        <v>43909</v>
+        <v>43903</v>
       </c>
       <c r="C580" t="s">
         <v>10</v>
       </c>
       <c r="D580">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E580">
-        <v>119</v>
+        <v>92</v>
       </c>
     </row>
     <row r="581" spans="1:5">
@@ -10276,16 +10276,16 @@
         <v>579</v>
       </c>
       <c r="B581" s="2">
-        <v>43910</v>
+        <v>43904</v>
       </c>
       <c r="C581" t="s">
         <v>10</v>
       </c>
       <c r="D581">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E581">
-        <v>123</v>
+        <v>102</v>
       </c>
     </row>
     <row r="582" spans="1:5">
@@ -10293,16 +10293,16 @@
         <v>580</v>
       </c>
       <c r="B582" s="2">
-        <v>43911</v>
+        <v>43905</v>
       </c>
       <c r="C582" t="s">
         <v>10</v>
       </c>
       <c r="D582">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E582">
-        <v>125</v>
+        <v>106</v>
       </c>
     </row>
     <row r="583" spans="1:5">
@@ -10310,16 +10310,16 @@
         <v>581</v>
       </c>
       <c r="B583" s="2">
-        <v>43912</v>
+        <v>43906</v>
       </c>
       <c r="C583" t="s">
         <v>10</v>
       </c>
       <c r="D583">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E583">
-        <v>131</v>
+        <v>108</v>
       </c>
     </row>
     <row r="584" spans="1:5">
@@ -10327,16 +10327,16 @@
         <v>582</v>
       </c>
       <c r="B584" s="2">
-        <v>43913</v>
+        <v>43907</v>
       </c>
       <c r="C584" t="s">
         <v>10</v>
       </c>
       <c r="D584">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E584">
-        <v>134</v>
+        <v>112</v>
       </c>
     </row>
     <row r="585" spans="1:5">
@@ -10344,16 +10344,16 @@
         <v>583</v>
       </c>
       <c r="B585" s="2">
-        <v>43914</v>
+        <v>43908</v>
       </c>
       <c r="C585" t="s">
         <v>10</v>
       </c>
       <c r="D585">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E585">
-        <v>142</v>
+        <v>117</v>
       </c>
     </row>
     <row r="586" spans="1:5">
@@ -10361,16 +10361,16 @@
         <v>584</v>
       </c>
       <c r="B586" s="2">
-        <v>43915</v>
+        <v>43909</v>
       </c>
       <c r="C586" t="s">
         <v>10</v>
       </c>
       <c r="D586">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E586">
-        <v>149</v>
+        <v>119</v>
       </c>
     </row>
     <row r="587" spans="1:5">
@@ -10378,16 +10378,16 @@
         <v>585</v>
       </c>
       <c r="B587" s="2">
-        <v>43916</v>
+        <v>43910</v>
       </c>
       <c r="C587" t="s">
         <v>10</v>
       </c>
       <c r="D587">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E587">
-        <v>156</v>
+        <v>123</v>
       </c>
     </row>
     <row r="588" spans="1:5">
@@ -10395,16 +10395,16 @@
         <v>586</v>
       </c>
       <c r="B588" s="2">
-        <v>43917</v>
+        <v>43911</v>
       </c>
       <c r="C588" t="s">
         <v>10</v>
       </c>
       <c r="D588">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E588">
-        <v>176</v>
+        <v>125</v>
       </c>
     </row>
     <row r="589" spans="1:5">
@@ -10412,16 +10412,16 @@
         <v>587</v>
       </c>
       <c r="B589" s="2">
-        <v>43918</v>
+        <v>43912</v>
       </c>
       <c r="C589" t="s">
         <v>10</v>
       </c>
       <c r="D589">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E589">
-        <v>191</v>
+        <v>131</v>
       </c>
     </row>
     <row r="590" spans="1:5">
@@ -10429,16 +10429,16 @@
         <v>588</v>
       </c>
       <c r="B590" s="2">
-        <v>43919</v>
+        <v>43913</v>
       </c>
       <c r="C590" t="s">
         <v>10</v>
       </c>
       <c r="D590">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="E590">
-        <v>208</v>
+        <v>134</v>
       </c>
     </row>
     <row r="591" spans="1:5">
@@ -10446,7 +10446,7 @@
         <v>589</v>
       </c>
       <c r="B591" s="2">
-        <v>43920</v>
+        <v>43914</v>
       </c>
       <c r="C591" t="s">
         <v>10</v>
@@ -10455,7 +10455,7 @@
         <v>8</v>
       </c>
       <c r="E591">
-        <v>216</v>
+        <v>142</v>
       </c>
     </row>
     <row r="592" spans="1:5">
@@ -10463,16 +10463,16 @@
         <v>590</v>
       </c>
       <c r="B592" s="2">
-        <v>43921</v>
+        <v>43915</v>
       </c>
       <c r="C592" t="s">
         <v>10</v>
       </c>
       <c r="D592">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="E592">
-        <v>244</v>
+        <v>149</v>
       </c>
     </row>
     <row r="593" spans="1:5">
@@ -10480,16 +10480,16 @@
         <v>591</v>
       </c>
       <c r="B593" s="2">
-        <v>43922</v>
+        <v>43916</v>
       </c>
       <c r="C593" t="s">
         <v>10</v>
       </c>
       <c r="D593">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="E593">
-        <v>278</v>
+        <v>156</v>
       </c>
     </row>
     <row r="594" spans="1:5">
@@ -10497,16 +10497,16 @@
         <v>592</v>
       </c>
       <c r="B594" s="2">
-        <v>43923</v>
+        <v>43917</v>
       </c>
       <c r="C594" t="s">
         <v>10</v>
       </c>
       <c r="D594">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E594">
-        <v>311</v>
+        <v>176</v>
       </c>
     </row>
     <row r="595" spans="1:5">
@@ -10514,16 +10514,16 @@
         <v>593</v>
       </c>
       <c r="B595" s="2">
-        <v>43924</v>
+        <v>43918</v>
       </c>
       <c r="C595" t="s">
         <v>10</v>
       </c>
       <c r="D595">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="E595">
-        <v>346</v>
+        <v>191</v>
       </c>
     </row>
     <row r="596" spans="1:5">
@@ -10531,16 +10531,16 @@
         <v>594</v>
       </c>
       <c r="B596" s="2">
-        <v>43925</v>
+        <v>43919</v>
       </c>
       <c r="C596" t="s">
         <v>10</v>
       </c>
       <c r="D596">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="E596">
-        <v>387</v>
+        <v>208</v>
       </c>
     </row>
     <row r="597" spans="1:5">
@@ -10548,16 +10548,16 @@
         <v>595</v>
       </c>
       <c r="B597" s="2">
-        <v>43926</v>
+        <v>43920</v>
       </c>
       <c r="C597" t="s">
         <v>10</v>
       </c>
       <c r="D597">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E597">
-        <v>408</v>
+        <v>216</v>
       </c>
     </row>
     <row r="598" spans="1:5">
@@ -10565,16 +10565,16 @@
         <v>596</v>
       </c>
       <c r="B598" s="2">
-        <v>43927</v>
+        <v>43921</v>
       </c>
       <c r="C598" t="s">
         <v>10</v>
       </c>
       <c r="D598">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E598">
-        <v>428</v>
+        <v>244</v>
       </c>
     </row>
     <row r="599" spans="1:5">
@@ -10582,16 +10582,16 @@
         <v>597</v>
       </c>
       <c r="B599" s="2">
-        <v>43928</v>
+        <v>43922</v>
       </c>
       <c r="C599" t="s">
         <v>10</v>
       </c>
       <c r="D599">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="E599">
-        <v>481</v>
+        <v>278</v>
       </c>
     </row>
     <row r="600" spans="1:5">
@@ -10599,16 +10599,16 @@
         <v>598</v>
       </c>
       <c r="B600" s="2">
-        <v>43929</v>
+        <v>43923</v>
       </c>
       <c r="C600" t="s">
         <v>10</v>
       </c>
       <c r="D600">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="E600">
-        <v>524</v>
+        <v>311</v>
       </c>
     </row>
     <row r="601" spans="1:5">
@@ -10616,16 +10616,16 @@
         <v>599</v>
       </c>
       <c r="B601" s="2">
-        <v>43930</v>
+        <v>43924</v>
       </c>
       <c r="C601" t="s">
         <v>10</v>
       </c>
       <c r="D601">
-        <v>92</v>
+        <v>35</v>
       </c>
       <c r="E601">
-        <v>616</v>
+        <v>346</v>
       </c>
     </row>
     <row r="602" spans="1:5">
@@ -10633,16 +10633,16 @@
         <v>600</v>
       </c>
       <c r="B602" s="2">
-        <v>43931</v>
+        <v>43925</v>
       </c>
       <c r="C602" t="s">
         <v>10</v>
       </c>
       <c r="D602">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="E602">
-        <v>696</v>
+        <v>387</v>
       </c>
     </row>
     <row r="603" spans="1:5">
@@ -10650,16 +10650,16 @@
         <v>601</v>
       </c>
       <c r="B603" s="2">
-        <v>43932</v>
+        <v>43926</v>
       </c>
       <c r="C603" t="s">
         <v>10</v>
       </c>
       <c r="D603">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="E603">
-        <v>766</v>
+        <v>408</v>
       </c>
     </row>
     <row r="604" spans="1:5">
@@ -10667,16 +10667,16 @@
         <v>602</v>
       </c>
       <c r="B604" s="2">
-        <v>43933</v>
+        <v>43927</v>
       </c>
       <c r="C604" t="s">
         <v>10</v>
       </c>
       <c r="D604">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="E604">
-        <v>811</v>
+        <v>428</v>
       </c>
     </row>
     <row r="605" spans="1:5">
@@ -10684,16 +10684,16 @@
         <v>603</v>
       </c>
       <c r="B605" s="2">
-        <v>43934</v>
+        <v>43928</v>
       </c>
       <c r="C605" t="s">
         <v>10</v>
       </c>
       <c r="D605">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="E605">
-        <v>835</v>
+        <v>481</v>
       </c>
     </row>
     <row r="606" spans="1:5">
@@ -10701,16 +10701,16 @@
         <v>604</v>
       </c>
       <c r="B606" s="2">
-        <v>43935</v>
+        <v>43929</v>
       </c>
       <c r="C606" t="s">
         <v>10</v>
       </c>
       <c r="D606">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="E606">
-        <v>894</v>
+        <v>524</v>
       </c>
     </row>
     <row r="607" spans="1:5">
@@ -10718,16 +10718,16 @@
         <v>605</v>
       </c>
       <c r="B607" s="2">
-        <v>43936</v>
+        <v>43930</v>
       </c>
       <c r="C607" t="s">
         <v>10</v>
       </c>
       <c r="D607">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="E607">
-        <v>968</v>
+        <v>616</v>
       </c>
     </row>
     <row r="608" spans="1:5">
@@ -10735,16 +10735,16 @@
         <v>606</v>
       </c>
       <c r="B608" s="2">
-        <v>43937</v>
+        <v>43931</v>
       </c>
       <c r="C608" t="s">
         <v>10</v>
       </c>
       <c r="D608">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="E608">
-        <v>1020</v>
+        <v>696</v>
       </c>
     </row>
     <row r="609" spans="1:5">
@@ -10752,16 +10752,16 @@
         <v>607</v>
       </c>
       <c r="B609" s="2">
-        <v>43938</v>
+        <v>43932</v>
       </c>
       <c r="C609" t="s">
         <v>10</v>
       </c>
       <c r="D609">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="E609">
-        <v>1075</v>
+        <v>766</v>
       </c>
     </row>
     <row r="610" spans="1:5">
@@ -10769,16 +10769,16 @@
         <v>608</v>
       </c>
       <c r="B610" s="2">
-        <v>43939</v>
+        <v>43933</v>
       </c>
       <c r="C610" t="s">
         <v>10</v>
       </c>
       <c r="D610">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="E610">
-        <v>1163</v>
+        <v>811</v>
       </c>
     </row>
     <row r="611" spans="1:5">
@@ -10786,16 +10786,16 @@
         <v>609</v>
       </c>
       <c r="B611" s="2">
-        <v>43940</v>
+        <v>43934</v>
       </c>
       <c r="C611" t="s">
         <v>10</v>
       </c>
       <c r="D611">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="E611">
-        <v>1211</v>
+        <v>835</v>
       </c>
     </row>
     <row r="612" spans="1:5">
@@ -10803,16 +10803,16 @@
         <v>610</v>
       </c>
       <c r="B612" s="2">
-        <v>43941</v>
+        <v>43935</v>
       </c>
       <c r="C612" t="s">
         <v>10</v>
       </c>
       <c r="D612">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="E612">
-        <v>1295</v>
+        <v>894</v>
       </c>
     </row>
     <row r="613" spans="1:5">
@@ -10820,16 +10820,16 @@
         <v>611</v>
       </c>
       <c r="B613" s="2">
-        <v>43942</v>
+        <v>43936</v>
       </c>
       <c r="C613" t="s">
         <v>10</v>
       </c>
       <c r="D613">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="E613">
-        <v>1349</v>
+        <v>968</v>
       </c>
     </row>
     <row r="614" spans="1:5">
@@ -10837,16 +10837,16 @@
         <v>612</v>
       </c>
       <c r="B614" s="2">
-        <v>43943</v>
+        <v>43937</v>
       </c>
       <c r="C614" t="s">
         <v>10</v>
       </c>
       <c r="D614">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="E614">
-        <v>1380</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="615" spans="1:5">
@@ -10854,16 +10854,16 @@
         <v>613</v>
       </c>
       <c r="B615" s="2">
-        <v>43944</v>
+        <v>43938</v>
       </c>
       <c r="C615" t="s">
         <v>10</v>
       </c>
       <c r="D615">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="E615">
-        <v>1415</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="616" spans="1:5">
@@ -10871,16 +10871,16 @@
         <v>614</v>
       </c>
       <c r="B616" s="2">
-        <v>43945</v>
+        <v>43939</v>
       </c>
       <c r="C616" t="s">
         <v>10</v>
       </c>
       <c r="D616">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="E616">
-        <v>1446</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="617" spans="1:5">
@@ -10888,16 +10888,135 @@
         <v>615</v>
       </c>
       <c r="B617" s="2">
-        <v>43946</v>
+        <v>43940</v>
       </c>
       <c r="C617" t="s">
         <v>10</v>
       </c>
       <c r="D617">
+        <v>48</v>
+      </c>
+      <c r="E617">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="618" spans="1:5">
+      <c r="A618" s="1">
+        <v>616</v>
+      </c>
+      <c r="B618" s="2">
+        <v>43941</v>
+      </c>
+      <c r="C618" t="s">
+        <v>10</v>
+      </c>
+      <c r="D618">
+        <v>84</v>
+      </c>
+      <c r="E618">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="619" spans="1:5">
+      <c r="A619" s="1">
+        <v>617</v>
+      </c>
+      <c r="B619" s="2">
+        <v>43942</v>
+      </c>
+      <c r="C619" t="s">
+        <v>10</v>
+      </c>
+      <c r="D619">
+        <v>54</v>
+      </c>
+      <c r="E619">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="620" spans="1:5">
+      <c r="A620" s="1">
+        <v>618</v>
+      </c>
+      <c r="B620" s="2">
+        <v>43943</v>
+      </c>
+      <c r="C620" t="s">
+        <v>10</v>
+      </c>
+      <c r="D620">
+        <v>31</v>
+      </c>
+      <c r="E620">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="621" spans="1:5">
+      <c r="A621" s="1">
+        <v>619</v>
+      </c>
+      <c r="B621" s="2">
+        <v>43944</v>
+      </c>
+      <c r="C621" t="s">
+        <v>10</v>
+      </c>
+      <c r="D621">
+        <v>35</v>
+      </c>
+      <c r="E621">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="622" spans="1:5">
+      <c r="A622" s="1">
+        <v>620</v>
+      </c>
+      <c r="B622" s="2">
+        <v>43945</v>
+      </c>
+      <c r="C622" t="s">
+        <v>10</v>
+      </c>
+      <c r="D622">
+        <v>31</v>
+      </c>
+      <c r="E622">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="623" spans="1:5">
+      <c r="A623" s="1">
+        <v>621</v>
+      </c>
+      <c r="B623" s="2">
+        <v>43946</v>
+      </c>
+      <c r="C623" t="s">
+        <v>10</v>
+      </c>
+      <c r="D623">
         <v>29</v>
       </c>
-      <c r="E617">
+      <c r="E623">
         <v>1475</v>
+      </c>
+    </row>
+    <row r="624" spans="1:5">
+      <c r="A624" s="1">
+        <v>622</v>
+      </c>
+      <c r="B624" s="2">
+        <v>43947</v>
+      </c>
+      <c r="C624" t="s">
+        <v>10</v>
+      </c>
+      <c r="D624">
+        <v>16</v>
+      </c>
+      <c r="E624">
+        <v>1491</v>
       </c>
     </row>
   </sheetData>

--- a/Covid19_Osaka_AreaNumData.xlsx
+++ b/Covid19_Osaka_AreaNumData.xlsx
@@ -6501,7 +6501,7 @@
         <v>304</v>
       </c>
       <c r="B306" s="2">
-        <v>44162</v>
+        <v>44163</v>
       </c>
       <c r="C306" t="s">
         <v>5</v>
@@ -12583,7 +12583,7 @@
         <v>609</v>
       </c>
       <c r="B611" s="2">
-        <v>44162</v>
+        <v>44163</v>
       </c>
       <c r="C611" t="s">
         <v>6</v>
@@ -18665,7 +18665,7 @@
         <v>914</v>
       </c>
       <c r="B916" s="2">
-        <v>44162</v>
+        <v>44163</v>
       </c>
       <c r="C916" t="s">
         <v>7</v>
@@ -24747,7 +24747,7 @@
         <v>1219</v>
       </c>
       <c r="B1221" s="2">
-        <v>44162</v>
+        <v>44163</v>
       </c>
       <c r="C1221" t="s">
         <v>8</v>
@@ -30829,7 +30829,7 @@
         <v>1524</v>
       </c>
       <c r="B1526" s="2">
-        <v>44162</v>
+        <v>44163</v>
       </c>
       <c r="C1526" t="s">
         <v>9</v>
@@ -36911,7 +36911,7 @@
         <v>1829</v>
       </c>
       <c r="B1831" s="2">
-        <v>44162</v>
+        <v>44163</v>
       </c>
       <c r="C1831" t="s">
         <v>10</v>
@@ -42993,7 +42993,7 @@
         <v>2134</v>
       </c>
       <c r="B2136" s="2">
-        <v>44162</v>
+        <v>44163</v>
       </c>
       <c r="C2136" t="s">
         <v>11</v>
